--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -1000,7 +1000,7 @@
   <dimension ref="B2:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -14,9 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>数组</t>
+  </si>
+  <si>
+    <t>题类</t>
+  </si>
+  <si>
+    <t>题号</t>
+  </si>
+  <si>
+    <t>完成日期</t>
   </si>
   <si>
     <t>二分查找</t>
@@ -30,6 +39,12 @@
   <si>
     <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
   </si>
+  <si>
+    <t>69. x 的平方根</t>
+  </si>
+  <si>
+    <t>367. 有效的完全平方数</t>
+  </si>
 </sst>
 </file>
 
@@ -388,7 +403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -406,6 +421,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -523,7 +575,7 @@
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,7 +608,7 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,19 +626,19 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -622,7 +674,7 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,13 +692,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -655,17 +707,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,7 +728,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -997,116 +1064,159 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="6.13333333333333" customWidth="1"/>
     <col min="3" max="3" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.06666666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:4">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="2:3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
+    <row r="4" spans="2:4">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="8"/>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="6" ht="33" spans="2:4">
+      <c r="B6" s="8"/>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="10"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="10"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -51,10 +51,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,9 +65,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,22 +86,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,11 +140,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,85 +178,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,61 +218,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,121 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,6 +467,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -488,26 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,26 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,148 +566,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,7 +1067,7 @@
   <dimension ref="B2:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="3"/>
@@ -1129,14 +1129,18 @@
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="5">
+        <v>6.25</v>
+      </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="9"/>
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>6.26</v>
+      </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="10"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>数组</t>
   </si>
@@ -28,12 +28,18 @@
     <t>完成日期</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>二分查找</t>
   </si>
   <si>
     <t>704.二分查找</t>
   </si>
   <si>
+    <t>总结这一类做题方法,还不是非常懂,需要再复习</t>
+  </si>
+  <si>
     <t>35.搜索插入位置</t>
   </si>
   <si>
@@ -44,17 +50,35 @@
   </si>
   <si>
     <t>367. 有效的完全平方数</t>
+  </si>
+  <si>
+    <t>移除元素</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27. 移除元素
+</t>
+  </si>
+  <si>
+    <t>方法二的题解挺有意思,常看,积累经验
+看了题解后写的,刚开始以为自己已经有了思路表达不出来,后面发现是思路根本没整理好,因此总结为:先认真想思路,思路是能概括性的表达,如果超过20min想不出思路就直接看题解,找问题.</t>
+  </si>
+  <si>
+    <t>有序数组的平方</t>
+  </si>
+  <si>
+    <t>977. 有序数组的平方</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,31 +90,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -103,12 +121,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -117,6 +157,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -125,8 +180,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,36 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -178,22 +219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -201,15 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,43 +242,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,25 +410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,25 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,86 +432,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -415,6 +445,30 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -465,10 +519,23 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -482,11 +549,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,17 +605,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,152 +633,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,31 +786,64 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1064,163 +1164,203 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D23"/>
+  <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="6.13333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.06666666666667" style="2"/>
+    <col min="2" max="2" width="9.8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.06666666666667" style="4"/>
+    <col min="5" max="5" width="36.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="6" t="s">
+      <c r="E3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5">
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="8"/>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="E4" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="12"/>
+      <c r="C5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="9">
         <v>6.24</v>
       </c>
-    </row>
-    <row r="6" ht="33" spans="2:4">
-      <c r="B6" s="8"/>
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" ht="33" spans="2:5">
+      <c r="B6" s="12"/>
+      <c r="C6" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
         <v>6.24</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="8"/>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5">
-        <v>6.26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="10"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="10"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="10"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="10"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="10"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="10"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="10"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="10"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="10"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="10"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="10"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="12"/>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6.29</v>
+      </c>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="14">
+        <v>6.3</v>
+      </c>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="66" spans="2:5">
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16">
+        <v>7.24</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="17"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="17"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="17"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="17"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="17"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="17"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="17"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="17"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="17"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="17"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="17"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="17"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E4:E8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12675"/>
+    <workbookView windowWidth="18465" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>数组</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>977. 有序数组的平方</t>
+  </si>
+  <si>
+    <t>这个题目使用双指针
+这个题目实际涉及各种排序,可以趁此机会把各种排序学习了
+1.直接插入排序
+2.折半插入排序
+3.选择排序
+4.冒泡排序
+5.带判断条件的冒泡排序
+6.快排
+7.归并排序
+8.双指针</t>
+  </si>
+  <si>
+    <t>长度最小的子数组</t>
+  </si>
+  <si>
+    <t>209. 长度最小的子数组</t>
   </si>
 </sst>
 </file>
@@ -76,9 +94,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,6 +108,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -101,14 +126,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -121,83 +138,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,6 +159,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -219,6 +183,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -227,7 +230,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,37 +272,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,25 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,109 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,6 +545,24 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,11 +576,58 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,222 +646,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,9 +807,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -825,22 +840,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1167,194 +1173,202 @@
   <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="9.8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.06666666666667" style="4"/>
+    <col min="3" max="3" width="15.6666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.06666666666667" style="3"/>
     <col min="5" max="5" width="36.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="18"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>6.21</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="12"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>6.24</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="33" spans="2:5">
-      <c r="B6" s="12"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>6.24</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="12"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>6.29</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="12"/>
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>6.3</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="66" spans="2:5">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>7.24</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="17" t="s">
+    <row r="10" ht="165" spans="2:5">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="19"/>
+      <c r="D10" s="8">
+        <v>7.25</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="17"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="19"/>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="17"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="17"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="19"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="17"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="19"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="17"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="17"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="16"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="17"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="17"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="19"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="16"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="17"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="17"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="17"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="17"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="17"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="12495"/>
+    <workbookView windowWidth="27750" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>数组</t>
   </si>
@@ -86,17 +86,23 @@
   <si>
     <t>209. 长度最小的子数组</t>
   </si>
+  <si>
+    <t>7.26,7.27</t>
+  </si>
+  <si>
+    <t>滑动窗口法</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -121,11 +127,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,33 +180,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,8 +212,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -193,29 +237,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,21 +245,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,37 +278,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,139 +440,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,20 +564,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,32 +638,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -631,162 +652,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,7 +802,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -847,9 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1173,7 +1176,7 @@
   <dimension ref="B2:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1284,7 +1287,7 @@
       <c r="D10" s="8">
         <v>7.25</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1295,8 +1298,12 @@
       <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="16"/>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="6"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12675"/>
+    <workbookView windowWidth="13815" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>数组</t>
   </si>
@@ -91,6 +91,60 @@
   </si>
   <si>
     <t>滑动窗口法</t>
+  </si>
+  <si>
+    <t>螺旋矩阵 II</t>
+  </si>
+  <si>
+    <t>59. 螺旋矩阵 II</t>
+  </si>
+  <si>
+    <t>1.题意对谁malloc没理解清楚
+2.for循环中的条件没写对
+刚开始while中的for循环边界如下,保持左闭右开的顺序,按理来说是可以的,但是在第二轮进入循环就有问题了,当 start 和 end 相等时，i = start; i &lt; end,循环for循环进不去,num就不会增加,while就不会停止,因此刚开始看似正确的思路,会调试很久,这里也算是个bug,需要记忆!
+第二次刷题的时候可以看看有没有其他方法~
+while(num &lt;= n * n) {
+        // 横右
+        printf("num:%d\n", num);
+        for(int i = start; i &lt; end; i++) {
+            // 为二位数组赋值
+            matrix[start][i] = num++;
+            printf("hy,matrix[%d][%d], num:%d\n", start, i, num);
+        }
+        // 竖下
+        for(int i = start; i &lt; end ; i++) {
+            matrix[i][end] = num++;
+            printf("sx,matrix[%d][%d], num:%d\n", i, end, num);
+        }
+        // 横左
+        for(int i = end; i &gt; start; i--) {
+            matrix[end][i] = num++;
+            printf("hz,matrix[%d][%d], num:%d\n", end, i, num);
+        }
+        // 竖上
+        for(int i = end; i &gt; start; i--) {
+            matrix[i][start] = num++;
+            printf("ss,matrix[%d][%d], num:%d\n", i, start, num);
+        }
+        start++;
+        end--;
+        if(start &gt; 10) {
+            return NULL;
+        }
+        printf("start:%d, end:%d\n", start, end);
+    }</t>
+  </si>
+  <si>
+    <t>数组知识总结</t>
+  </si>
+  <si>
+    <t>链表</t>
+  </si>
+  <si>
+    <t>移除链表元素</t>
+  </si>
+  <si>
+    <t>203. 移除链表元素</t>
   </si>
 </sst>
 </file>
@@ -104,13 +158,19 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="AR PL UMing HK"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -657,201 +717,228 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,213 +1260,245 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E23"/>
+  <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="9.8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.06666666666667" style="3"/>
-    <col min="5" max="5" width="36.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.06666666666667" style="4"/>
+    <col min="5" max="5" width="45.4" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="22"/>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="13">
         <v>6.21</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="13">
         <v>6.24</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" ht="33" spans="2:5">
-      <c r="B6" s="11"/>
-      <c r="C6" s="10" t="s">
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" ht="24" spans="2:5">
+      <c r="B6" s="14"/>
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="13">
         <v>6.24</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="11"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="13">
         <v>6.29</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="20"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="12"/>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="16">
         <v>6.3</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="66" spans="2:5">
-      <c r="B9" s="7" t="s">
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" spans="2:5">
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="17">
         <v>7.24</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="165" spans="2:5">
-      <c r="B10" s="6" t="s">
+    <row r="10" ht="120" spans="2:5">
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="13">
         <v>7.25</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
-      <c r="B12" s="6"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
+    <row r="12" ht="409.5" spans="2:5">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="13">
+        <v>7.27</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="6"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
+      <c r="B13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="6"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="22"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="16"/>
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="16"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="16"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="25"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="6"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="16"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="6"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="16"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="E4:E8"/>
   </mergeCells>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -37,7 +37,8 @@
     <t>704.二分查找</t>
   </si>
   <si>
-    <t>总结这一类做题方法,还不是非常懂,需要再复习</t>
+    <t>循环不变量原则
+总结这一类做题方法,还不是非常懂,需要再复习</t>
   </si>
   <si>
     <t>35.搜索插入位置</t>
@@ -99,7 +100,8 @@
     <t>59. 螺旋矩阵 II</t>
   </si>
   <si>
-    <t>1.题意对谁malloc没理解清楚
+    <t>循环不变量原则
+1.题意对谁malloc没理解清楚
 2.for循环中的条件没写对
 刚开始while中的for循环边界如下,保持左闭右开的顺序,按理来说是可以的,但是在第二轮进入循环就有问题了,当 start 和 end 相等时，i = start; i &lt; end,循环for循环进不去,num就不会增加,while就不会停止,因此刚开始看似正确的思路,会调试很久,这里也算是个bug,需要记忆!
 第二次刷题的时候可以看看有没有其他方法~
@@ -1262,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1306,7 +1308,7 @@
       <c r="D4" s="13">
         <v>6.21</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
     </row>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>数组</t>
   </si>
@@ -147,6 +147,13 @@
   </si>
   <si>
     <t>203. 移除链表元素</t>
+  </si>
+  <si>
+    <t>7.28,7.29</t>
+  </si>
+  <si>
+    <t>单链表操作:创建链表, 打印链表, 删除链表..
+有思路但混乱,没理清楚,多复盘</t>
   </si>
 </sst>
 </file>
@@ -864,7 +871,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -938,6 +945,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
@@ -1264,8 +1274,8 @@
   <sheetPr/>
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D9" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1438,63 +1448,67 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" ht="24" spans="2:5">
       <c r="B16" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="25"/>
+      <c r="D16" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="20"/>
       <c r="C17" s="21"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="20"/>
       <c r="C18" s="21"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="20"/>
       <c r="C20" s="21"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="20"/>
       <c r="C21" s="21"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="25"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="20"/>
       <c r="C24" s="21"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -1275,7 +1275,7 @@
   <dimension ref="B2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>数组</t>
   </si>
@@ -154,6 +154,18 @@
   <si>
     <t>单链表操作:创建链表, 打印链表, 删除链表..
 有思路但混乱,没理清楚,多复盘</t>
+  </si>
+  <si>
+    <t>设计链表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">707. 设计链表
+</t>
+  </si>
+  <si>
+    <t>双向链表:创建,添加,删除,修改,free..基本涉及了
+遇到的问题:双向链表设计问题,很多边界的考虑需要加强
+做题状态:链表设计正确后,函数写的还算顺利,需要多练习.  后续使用单链表再写一次,更简单,这次主要是想练习一下</t>
   </si>
 </sst>
 </file>
@@ -871,7 +883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,10 +945,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,8 +1289,8 @@
   <sheetPr/>
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1292,7 +1307,7 @@
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="22"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="8" t="s">
@@ -1304,7 +1319,7 @@
       <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1330,7 +1345,7 @@
       <c r="D5" s="13">
         <v>6.24</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" ht="24" spans="2:5">
       <c r="B6" s="14"/>
@@ -1340,7 +1355,7 @@
       <c r="D6" s="13">
         <v>6.24</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="14"/>
@@ -1350,7 +1365,7 @@
       <c r="D7" s="13">
         <v>6.29</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="15"/>
@@ -1360,7 +1375,7 @@
       <c r="D8" s="16">
         <v>6.3</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="36" spans="2:5">
       <c r="B9" s="9" t="s">
@@ -1400,7 +1415,7 @@
       <c r="D11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1424,7 +1439,7 @@
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="6" t="s">
@@ -1432,7 +1447,7 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="8" t="s">
@@ -1444,7 +1459,7 @@
       <c r="D15" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1458,57 +1473,65 @@
       <c r="D16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="26"/>
+    <row r="17" ht="48" spans="2:5">
+      <c r="B17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="13">
+        <v>7.31</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="20"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="21"/>
       <c r="D18" s="13"/>
-      <c r="E18" s="26"/>
+      <c r="E18" s="27"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="20"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="21"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="26"/>
+      <c r="E19" s="27"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="20"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="21"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="26"/>
+      <c r="E20" s="27"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="20"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="21"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="26"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="20"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="21"/>
       <c r="D22" s="13"/>
-      <c r="E22" s="26"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="20"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="21"/>
       <c r="D23" s="13"/>
-      <c r="E23" s="26"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="20"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="21"/>
       <c r="D24" s="13"/>
-      <c r="E24" s="26"/>
+      <c r="E24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>数组</t>
   </si>
@@ -166,6 +166,24 @@
     <t>双向链表:创建,添加,删除,修改,free..基本涉及了
 遇到的问题:双向链表设计问题,很多边界的考虑需要加强
 做题状态:链表设计正确后,函数写的还算顺利,需要多练习.  后续使用单链表再写一次,更简单,这次主要是想练习一下</t>
+  </si>
+  <si>
+    <t>反转链表</t>
+  </si>
+  <si>
+    <t>206. 反转链表</t>
+  </si>
+  <si>
+    <t>7.31,8.1</t>
+  </si>
+  <si>
+    <t>巧妙利用指针,有思路后写不对+链表初始化第一个节点打印出来始终为0,未解决</t>
+  </si>
+  <si>
+    <t>两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>24. 两两交换链表中的节点</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1307,8 @@
   <sheetPr/>
   <dimension ref="B2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1492,14 +1510,26 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="22"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="27"/>
+      <c r="B18" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="22"/>
-      <c r="C19" s="21"/>
+      <c r="B19" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" s="13"/>
       <c r="E19" s="27"/>
     </row>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
-  <si>
-    <t>数组</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+  <si>
+    <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
+  </si>
+  <si>
+    <t>数组11</t>
+  </si>
+  <si>
+    <t>序号</t>
   </si>
   <si>
     <t>题类</t>
@@ -137,10 +143,16 @@
     }</t>
   </si>
   <si>
+    <t xml:space="preserve"> 58. 区间和</t>
+  </si>
+  <si>
+    <t>44. 开发商购买土地</t>
+  </si>
+  <si>
     <t>数组知识总结</t>
   </si>
   <si>
-    <t>链表</t>
+    <t>链表8</t>
   </si>
   <si>
     <t>移除链表元素</t>
@@ -184,6 +196,80 @@
   </si>
   <si>
     <t>24. 两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>虚拟节点+双指针+巧妙思路</t>
+  </si>
+  <si>
+    <t>删除链表的倒数第 N 个结点</t>
+  </si>
+  <si>
+    <t>19. 删除链表的倒数第 N 个结点</t>
+  </si>
+  <si>
+    <t>还有另外两个方法可写:双指针+栈
+方法一:计算链表长度</t>
+  </si>
+  <si>
+    <t>链表相交</t>
+  </si>
+  <si>
+    <t>面试题 02.07. 链表相交</t>
+  </si>
+  <si>
+    <t>优美的数学思路,很巧妙
+但有一些疑问:1.题目中的输入并没有完全用到;2.我知道为啥我的本地测试过不了,因为我的前提假设错误!题目中前提假设就是有公共点,但是我的创建链表是没有公共点的!!!</t>
+  </si>
+  <si>
+    <t>环形链表</t>
+  </si>
+  <si>
+    <t>142. 环形链表 II</t>
+  </si>
+  <si>
+    <t>代码不是自己写的,看的题解,手写写不出来.
+hash table方法,学习使用uthash.h头文件中的内容来写hash table,新内容,再练习</t>
+  </si>
+  <si>
+    <t>链表总结</t>
+  </si>
+  <si>
+    <t>1.虚拟头节电方法;
+2.链表的基本操作;
+3.反转链表;
+4.删除倒数第n个节点;
+5.链表相交;
+6.环形链表</t>
+  </si>
+  <si>
+    <t>哈希表8</t>
+  </si>
+  <si>
+    <t>字符串7</t>
+  </si>
+  <si>
+    <t>双指针10</t>
+  </si>
+  <si>
+    <t>栈与队列7</t>
+  </si>
+  <si>
+    <t>二叉树32</t>
+  </si>
+  <si>
+    <t>回溯算法20</t>
+  </si>
+  <si>
+    <t>贪心算法22</t>
+  </si>
+  <si>
+    <t>动态规划52</t>
+  </si>
+  <si>
+    <t>单调栈5</t>
+  </si>
+  <si>
+    <t>图论30</t>
   </si>
 </sst>
 </file>
@@ -197,7 +283,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +293,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="AR PL UMing HK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="AR PL UMing HK"/>
       <charset val="134"/>
@@ -356,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,12 +458,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,12 +661,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,58 +703,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -756,152 +824,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,71 +988,80 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1305,271 +1382,567 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E24"/>
+  <dimension ref="B1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="9.8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.06666666666667" style="4"/>
-    <col min="5" max="5" width="45.4" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.8" customWidth="1"/>
+    <col min="3" max="3" width="12.2" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.06666666666667" style="4"/>
+    <col min="6" max="6" width="45.4" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:6">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="B3" s="8" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="11" t="s">
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="F3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="13">
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="24">
         <v>6.21</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="24">
+        <v>6.24</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" ht="24" spans="2:6">
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="24">
+        <v>6.24</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="9">
+        <v>4</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="24">
+        <v>6.29</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="9">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="25">
+        <v>6.3</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="36" spans="2:6">
+      <c r="B9" s="9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="26">
+        <v>7.24</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="120" spans="2:6">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="14"/>
-      <c r="C5" s="12" t="s">
+      <c r="C10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="24">
+        <v>7.25</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="D5" s="13">
-        <v>6.24</v>
-      </c>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" ht="24" spans="2:5">
-      <c r="B6" s="14"/>
-      <c r="C6" s="12" t="s">
+      <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="409.5" spans="2:6">
+      <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="D6" s="13">
-        <v>6.24</v>
-      </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="14"/>
-      <c r="C7" s="12" t="s">
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="24">
+        <v>7.27</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="D7" s="13">
-        <v>6.29</v>
-      </c>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="15"/>
-      <c r="C8" s="12" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="D8" s="16">
-        <v>6.3</v>
-      </c>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" spans="2:5">
-      <c r="B9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="17">
-        <v>7.24</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="120" spans="2:5">
-      <c r="B10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="13">
-        <v>7.25</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" ht="409.5" spans="2:5">
-      <c r="B12" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="13">
-        <v>7.27</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5">
-      <c r="B13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="25"/>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="23"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="8" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="9"/>
+      <c r="C15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="24" spans="2:6">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" ht="48" spans="2:6">
+      <c r="B19" s="9">
         <v>2</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="C19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="24">
+        <v>7.31</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="9">
         <v>3</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="C20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="9">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" ht="24" spans="2:5">
-      <c r="B16" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="48" spans="2:5">
-      <c r="B17" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="13">
-        <v>7.31</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="22"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="27"/>
-    </row>
-    <row r="21" spans="2:5">
-      <c r="B21" s="22"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="27"/>
-    </row>
-    <row r="22" spans="2:5">
-      <c r="B22" s="22"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="27"/>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="22"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="27"/>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="22"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="27"/>
+      <c r="C21" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="24">
+        <v>8.2</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" ht="24" spans="2:6">
+      <c r="B22" s="9">
+        <v>5</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="24">
+        <v>8.2</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" ht="36" spans="2:6">
+      <c r="B23" s="9">
+        <v>6</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="24">
+        <v>8.3</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" ht="24" spans="2:6">
+      <c r="B24" s="9">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="24">
+        <v>8.3</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" ht="72" spans="2:6">
+      <c r="B25" s="9"/>
+      <c r="C25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="24">
+        <v>8.3</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="27"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="9"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="9"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="9"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="9"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="9"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="9"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="27"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="9"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="2:6">
+      <c r="B35" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="27"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="9"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="2:6">
+      <c r="B37" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="27"/>
+    </row>
+    <row r="38" spans="2:6">
+      <c r="B38" s="9"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="2:6">
+      <c r="B40" s="9"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="2:6">
+      <c r="B41" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="27"/>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="27"/>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="27"/>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="27"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51">
+        <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
+        <v>204</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="E4:E8"/>
+  <mergeCells count="17">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B39:F39"/>
+    <mergeCell ref="B41:F41"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="F4:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13815" windowHeight="12495"/>
+    <workbookView windowWidth="27750" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -243,6 +243,44 @@
   </si>
   <si>
     <t>哈希表8</t>
+  </si>
+  <si>
+    <t>有效的字母异位词</t>
+  </si>
+  <si>
+    <t>242. 有效的字母异位词</t>
+  </si>
+  <si>
+    <t>遇到的问题:
+1.C 语言不允许在全局作用域中调用函数来初始化变量,需要在函数内部进行这种初始化
+2.int asciiValue = (int)ch; // 将字符转换为整数类型以获取其ASCII码值</t>
+  </si>
+  <si>
+    <t>两个数组的交集</t>
+  </si>
+  <si>
+    <t>349. 两个数组的交集</t>
+  </si>
+  <si>
+    <t>js基础练习题</t>
+  </si>
+  <si>
+    <t>listtotree</t>
+  </si>
+  <si>
+    <t>确实,这一年我的编程退步了,写不出来,很烦躁
+总结
+1.不知道怎么在tree中找到某个节点
+2.查找的list使用newList而不是list
+3.注意错误Uncaught SyntaxError: redeclaration of const list
+ 因为:某个变量名称已经作为函数参数出现了，但是又使用了 let 在函数体里重声明了。在 JavaScript 中不允许使用 let 在相同的函数或块范围内重新声明相同的变量。
+4.最后使用函数调用,而非直接打印,感受整体</t>
+  </si>
+  <si>
+    <t>flatten</t>
+  </si>
+  <si>
+    <t>递归+主要知道Array.isArray()</t>
   </si>
   <si>
     <t>字符串7</t>
@@ -969,7 +1007,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,14 +1075,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1062,6 +1106,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1382,12 +1432,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F51"/>
+  <dimension ref="B1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1427,10 +1477,10 @@
       <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1444,7 +1494,7 @@
       <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="26">
         <v>6.21</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -1459,7 +1509,7 @@
       <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="26">
         <v>6.24</v>
       </c>
       <c r="F5" s="13"/>
@@ -1472,7 +1522,7 @@
       <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="26">
         <v>6.24</v>
       </c>
       <c r="F6" s="13"/>
@@ -1485,7 +1535,7 @@
       <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="26">
         <v>6.29</v>
       </c>
       <c r="F7" s="13"/>
@@ -1498,7 +1548,7 @@
       <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="27">
         <v>6.3</v>
       </c>
       <c r="F8" s="13"/>
@@ -1513,7 +1563,7 @@
       <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="28">
         <v>7.24</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1530,7 +1580,7 @@
       <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="26">
         <v>7.25</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1547,10 +1597,10 @@
       <c r="D11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1564,7 +1614,7 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="26">
         <v>7.27</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1579,7 +1629,7 @@
       <c r="D13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6">
@@ -1590,7 +1640,7 @@
       <c r="D14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6">
@@ -1599,7 +1649,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6">
@@ -1609,7 +1659,7 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="27"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="9"/>
@@ -1619,10 +1669,10 @@
       <c r="D17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="23" t="s">
+      <c r="F17" s="25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1636,10 +1686,10 @@
       <c r="D18" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="30" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1653,10 +1703,10 @@
       <c r="D19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="26">
         <v>7.31</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="30" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1670,10 +1720,10 @@
       <c r="D20" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="31" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1687,10 +1737,10 @@
       <c r="D21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="26">
         <v>8.2</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="30" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1704,10 +1754,10 @@
       <c r="D22" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="26">
         <v>8.2</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="32" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1721,10 +1771,10 @@
       <c r="D23" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="26">
         <v>8.3</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="30" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1738,10 +1788,10 @@
       <c r="D24" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="26">
         <v>8.3</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="32" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1751,10 +1801,10 @@
         <v>54</v>
       </c>
       <c r="D25" s="21"/>
-      <c r="E25" s="24">
+      <c r="E25" s="26">
         <v>8.3</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="30" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1765,182 +1815,253 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="27"/>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" ht="36" spans="2:6">
       <c r="B27" s="9"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="29"/>
+      <c r="C27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="26">
+        <v>8.4</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" s="9"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="29"/>
+      <c r="C28" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="26">
+        <v>8.4</v>
+      </c>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="9"/>
       <c r="C29" s="13"/>
       <c r="D29" s="19"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="29"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" s="9"/>
       <c r="C30" s="13"/>
       <c r="D30" s="19"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="29"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" s="9"/>
       <c r="C31" s="13"/>
       <c r="D31" s="19"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="29"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="2:6">
       <c r="B32" s="9"/>
       <c r="C32" s="13"/>
       <c r="D32" s="19"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="29"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="27"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="9"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="24"/>
+      <c r="B34" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="2:6">
-      <c r="B35" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="27"/>
+    <row r="35" ht="96" spans="2:6">
+      <c r="B35" s="9"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="26">
+        <v>8.5</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="9"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="29"/>
+      <c r="D36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="26">
+        <v>8.5</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="27"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
     </row>
     <row r="38" spans="2:6">
       <c r="B38" s="9"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="29"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="16" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="27"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="2:6">
       <c r="B40" s="9"/>
       <c r="C40" s="13"/>
       <c r="D40" s="19"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="29"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" s="9"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="16" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="27"/>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="2:6">
+      <c r="B44" s="9"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
-      <c r="F45" s="27"/>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" s="9"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="16" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="27"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="16" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="27"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51">
+      <c r="F49" s="29"/>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="29"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="29"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57">
         <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
         <v>204</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B34:F34"/>
     <mergeCell ref="B39:F39"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="B47:F47"/>
     <mergeCell ref="B49:F49"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B55:F55"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="F4:F8"/>
   </mergeCells>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -269,7 +269,8 @@
   </si>
   <si>
     <t>确实,这一年我的编程退步了,写不出来,很烦躁
-总结
+总结:
+递归
 1.不知道怎么在tree中找到某个节点
 2.查找的list使用newList而不是list
 3.注意错误Uncaught SyntaxError: redeclaration of const list
@@ -281,6 +282,36 @@
   </si>
   <si>
     <t>递归+主要知道Array.isArray()</t>
+  </si>
+  <si>
+    <t>getoverview</t>
+  </si>
+  <si>
+    <t>优化1:使用高阶函数让代码更简洁
+list.forEach(item1 =&gt; {})
+list.find(item2 =&gt; ..)
+优化2:
+字符串模板+hashtable</t>
+  </si>
+  <si>
+    <t>拷贝和复用对象结构</t>
+  </si>
+  <si>
+    <t>1.深拷贝与浅拷贝的含义:
+深拷贝:深拷贝递归地复制对象的所有属性，包括嵌套对象。深拷贝后的新对象与原对象完全独立，修改新对象不会影响原对象，反之亦然。
+浅拷贝:浅拷贝只复制对象的第一层属性。如果属性是引用类型（如对象、数组），浅拷贝仅复制引用，而不是复制引用对象本身。因此，浅拷贝后的新对象和原对象共享对同一引用类型的引用。
+2.深拷贝三种方法:
+方法一:递归  自己没写出来,多写
+方法二:栈  自己没写出来,思路难表达,多写
+方法三:hacker-序列化与反序列化
+序列化:将数据结构或对象转换为一种可以存储或传输的格式的过程-&gt;JSON.stringify    
+反序列化:将序列化的数据格式转换回原始的数据结构或对象的过程-&gt;JSON.parse
+缺点:1.数据类型限制.只能处理部分数据类型
+     2.如果对象中存在循环引用，JSON.stringify 会抛出错误。循环引用指的是对象属性直接或间接引用了自身。
+     3.对于大型或复杂的对象，性能可能较差。字符串化和解析整个对象需要时间和内存，特别是当对象结构深且复杂时。例如，对于包含大量嵌套对象的大型对象，序列化和反序列化的时间成本可能会非常高。
+3.浅拷贝方法:
+Object.assign(target, obj)
+注意:浅拷贝后的新对象和原对象共享对同一引用类型的引用</t>
   </si>
   <si>
     <t>字符串7</t>
@@ -1007,39 +1038,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1048,19 +1079,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1068,50 +1108,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1435,66 +1457,66 @@
   <dimension ref="B1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34:F34"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="3.8" customWidth="1"/>
-    <col min="3" max="3" width="12.2" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.06666666666667" style="4"/>
-    <col min="6" max="6" width="45.4" style="5" customWidth="1"/>
+    <col min="2" max="2" width="3.8" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.2" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6" style="5" customWidth="1"/>
+    <col min="6" max="6" width="54.3333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="9">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="25">
         <v>6.21</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -1502,59 +1524,59 @@
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="9">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>6.24</v>
       </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" ht="24" spans="2:6">
-      <c r="B6" s="9">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="25">
         <v>6.24</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="9">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>6.29</v>
       </c>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="9">
+      <c r="B8" s="10">
         <v>5</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>6.3</v>
       </c>
       <c r="F8" s="13"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="36" spans="2:6">
-      <c r="B9" s="9">
+      <c r="B9" s="10">
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -1563,7 +1585,7 @@
       <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="25">
         <v>7.24</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1571,16 +1593,16 @@
       </c>
     </row>
     <row r="10" ht="120" spans="2:6">
-      <c r="B10" s="9">
+      <c r="B10" s="10">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="25">
         <v>7.25</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1588,33 +1610,33 @@
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="9">
+      <c r="B11" s="10">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="2:6">
-      <c r="B12" s="9">
+      <c r="B12" s="10">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="25">
         <v>7.27</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1622,34 +1644,34 @@
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="9">
+      <c r="B13" s="10">
         <v>10</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="9">
+      <c r="B14" s="10">
         <v>11</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="9"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="14"/>
-      <c r="E15" s="26"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6">
@@ -1659,152 +1681,152 @@
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" ht="24" spans="2:6">
-      <c r="B18" s="9">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" ht="48" spans="2:6">
-      <c r="B19" s="9">
+    <row r="19" ht="36" spans="2:6">
+      <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="25">
         <v>7.31</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="28" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="9">
+      <c r="B20" s="10">
         <v>3</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="28" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>4</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="25">
         <v>8.2</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" ht="24" spans="2:6">
-      <c r="B22" s="9">
+      <c r="B22" s="10">
         <v>5</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <v>8.2</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="29" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" ht="36" spans="2:6">
-      <c r="B23" s="9">
+      <c r="B23" s="10">
         <v>6</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <v>8.3</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="28" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" ht="24" spans="2:6">
-      <c r="B24" s="9">
+      <c r="B24" s="10">
         <v>7</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="25">
         <v>8.3</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" ht="72" spans="2:6">
-      <c r="B25" s="9"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="26">
+      <c r="D25" s="20"/>
+      <c r="E25" s="25">
         <v>8.3</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="28" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1815,70 +1837,70 @@
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="F26" s="29"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" ht="36" spans="2:6">
-      <c r="B27" s="9"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="25">
         <v>8.4</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="28" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="25">
         <v>8.4</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="9"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="13"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="31"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="9"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="31"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="9"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="31"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="9"/>
+      <c r="B32" s="10"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="31"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="9"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="13"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="31"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="16" t="s">
@@ -1887,159 +1909,171 @@
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" ht="96" spans="2:6">
-      <c r="B35" s="9"/>
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" ht="108" spans="2:6">
+      <c r="B35" s="10"/>
       <c r="C35" s="13"/>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="26">
+      <c r="E35" s="25">
         <v>8.5</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="28" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="9"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="13"/>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="25">
         <v>8.5</v>
       </c>
-      <c r="F36" s="31" t="s">
+      <c r="F36" s="28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:6">
-      <c r="B37" s="9"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" s="9"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
+    <row r="37" ht="60" spans="2:6">
+      <c r="B37" s="10"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="30">
+        <v>8.5</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" ht="228" spans="2:6">
+      <c r="B38" s="10"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="30">
+        <v>8.6</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="39" spans="2:6">
       <c r="B39" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
-      <c r="F39" s="29"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="9"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="31"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C41" s="17"/>
       <c r="D41" s="17"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="29"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="9"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="31"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="28"/>
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="29"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="9"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="31"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
-      <c r="F45" s="29"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="9"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="31"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="28"/>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="16" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="29"/>
+      <c r="F47" s="27"/>
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="17"/>
       <c r="E49" s="17"/>
-      <c r="F49" s="29"/>
+      <c r="F49" s="27"/>
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="16" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
-      <c r="F51" s="29"/>
+      <c r="F51" s="27"/>
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
-      <c r="F53" s="29"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="16" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17"/>
-      <c r="F55" s="29"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57">
+      <c r="B57" s="2">
         <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
         <v>204</v>
       </c>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12675"/>
+    <workbookView windowWidth="13815" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -281,7 +281,12 @@
     <t>flatten</t>
   </si>
   <si>
-    <t>递归+主要知道Array.isArray()</t>
+    <t>8.5,8.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.方法1:递归+主要知道Array.isArray()
+2.方法2:自己写不出来,多练习
+递归转非递归-&gt;模拟栈:这里栈起到的什么作用呢： 记录和回退（eg：递归式学习）,依次能延伸出很多算法  </t>
   </si>
   <si>
     <t>getoverview</t>
@@ -314,6 +319,18 @@
 注意:浅拷贝后的新对象和原对象共享对同一引用类型的引用</t>
   </si>
   <si>
+    <t>aggregation聚合</t>
+  </si>
+  <si>
+    <t>遇到的问题很多,调试了挺久,很有收获:
+问题1: 对象字面量必须是1.合法标识符;2.数字字面量;3.字符串字面量   如果不是合法标识符,就应该用方括号表示法(包括不合法字符(eg:[" "]), 表达式(eg:[para], 方括号中的表达式会被计算,其结果作为key,这样就允许动态地设置对象的key))
+问题2: 对象有两种访问值的方式:1.obj.key;2.obj[key]  区别在于:1.obj.key用于访问对象静态属性,属性名必须是有效标识符,并且是固定的；2.obj[key]用于动态访问对象属性,属性名通过变量来动态指定.这里的para1是函数参数,是动态变量,所以要使用方括号表示法
+问题3: forEach 是一个数组方法，它的回调函数没有办法影响外层函数的返回值。
+问题4: for(let item in newlist)和for(let item of newlist)的区别
+    for..in:遍历对象的属性名（键）,不遍历数组的元素值
+    for..of:遍历可迭代对象的值，而不是属性名或键</t>
+  </si>
+  <si>
     <t>字符串7</t>
   </si>
   <si>
@@ -346,11 +363,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -395,46 +412,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -449,11 +444,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,8 +476,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,17 +500,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -510,13 +534,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -551,73 +568,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,103 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,17 +817,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,15 +882,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -850,41 +891,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -896,141 +913,141 @@
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,16 +1055,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1057,15 +1071,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1078,24 +1086,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1103,18 +1099,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1123,16 +1107,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1454,626 +1429,646 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F57"/>
+  <dimension ref="B1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="3.8" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.2" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.6666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.3333333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.2" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6" style="4" customWidth="1"/>
+    <col min="6" max="6" width="54.3333333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="10">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="14">
         <v>6.21</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="14">
         <v>6.24</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" ht="24" spans="2:6">
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="14">
         <v>6.24</v>
       </c>
-      <c r="F6" s="13"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="14">
         <v>6.29</v>
       </c>
-      <c r="F7" s="13"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="15">
         <v>6.3</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="36" spans="2:6">
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="14">
         <v>7.24</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="120" spans="2:6">
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="14">
         <v>7.25</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="2:6">
-      <c r="B12" s="10">
+      <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="14">
         <v>7.27</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="10">
+      <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="10">
+      <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="9"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="10"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="12"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" ht="24" spans="2:6">
-      <c r="B18" s="10">
+      <c r="B18" s="7">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="36" spans="2:6">
-      <c r="B19" s="10">
+      <c r="B19" s="7">
         <v>2</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="14">
         <v>7.31</v>
       </c>
-      <c r="F19" s="28" t="s">
+      <c r="F19" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="10">
+      <c r="B20" s="7">
         <v>3</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="10">
+      <c r="B21" s="7">
         <v>4</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="14">
         <v>8.2</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" ht="24" spans="2:6">
-      <c r="B22" s="10">
+      <c r="B22" s="7">
         <v>5</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="14">
         <v>8.2</v>
       </c>
-      <c r="F22" s="29" t="s">
+      <c r="F22" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" ht="36" spans="2:6">
-      <c r="B23" s="10">
+      <c r="B23" s="7">
         <v>6</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="14">
         <v>8.3</v>
       </c>
-      <c r="F23" s="28" t="s">
+      <c r="F23" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" ht="24" spans="2:6">
-      <c r="B24" s="10">
+      <c r="B24" s="7">
         <v>7</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="14">
         <v>8.3</v>
       </c>
-      <c r="F24" s="29" t="s">
+      <c r="F24" s="17" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" ht="72" spans="2:6">
-      <c r="B25" s="10"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="25">
+      <c r="D25" s="13"/>
+      <c r="E25" s="14">
         <v>8.3</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="27"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" ht="36" spans="2:6">
-      <c r="B27" s="10"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="14">
         <v>8.4</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="9" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="10"/>
-      <c r="C28" s="13" t="s">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="14">
         <v>8.4</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="10"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="28"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="10"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="28"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="10"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="28"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="10"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="9"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="10"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="28"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="9"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="27"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" ht="108" spans="2:6">
-      <c r="B35" s="10"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="18" t="s">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="14">
         <v>8.5</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:6">
-      <c r="B36" s="10"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="18" t="s">
+    <row r="36" ht="36" spans="2:6">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" ht="60" spans="2:6">
+      <c r="B37" s="7"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="14">
         <v>8.5</v>
       </c>
-      <c r="F36" s="28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" ht="60" spans="2:6">
-      <c r="B37" s="10"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="30">
-        <v>8.5</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>68</v>
+      <c r="F37" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" ht="228" spans="2:6">
-      <c r="B38" s="10"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="30">
+      <c r="B38" s="7"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="14">
         <v>8.6</v>
       </c>
-      <c r="F38" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" s="16" t="s">
+      <c r="F38" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="27"/>
+    </row>
+    <row r="39" ht="144" spans="2:6">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="14">
+        <v>8.6</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="40" spans="2:6">
-      <c r="B40" s="10"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="28"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="2:6">
-      <c r="B41" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="27"/>
+      <c r="B41" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="10"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="28"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="27"/>
+      <c r="B43" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="10"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="28"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="27"/>
+      <c r="B45" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="10"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="28"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="27"/>
+      <c r="B47" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:6">
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="27"/>
+      <c r="B49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="27"/>
+      <c r="B51" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="27"/>
+      <c r="B53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="27"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="2">
+      <c r="B55" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1">
         <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
         <v>204</v>
       </c>
@@ -2087,7 +2082,6 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B39:F39"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B43:F43"/>
     <mergeCell ref="B45:F45"/>
@@ -2096,6 +2090,7 @@
     <mergeCell ref="B51:F51"/>
     <mergeCell ref="B53:F53"/>
     <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B57:F57"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="F4:F8"/>
   </mergeCells>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -270,12 +270,13 @@
   <si>
     <t>确实,这一年我的编程退步了,写不出来,很烦躁
 总结:
-递归
+方法一:递归
 1.不知道怎么在tree中找到某个节点
 2.查找的list使用newList而不是list
 3.注意错误Uncaught SyntaxError: redeclaration of const list
  因为:某个变量名称已经作为函数参数出现了，但是又使用了 let 在函数体里重声明了。在 JavaScript 中不允许使用 let 在相同的函数或块范围内重新声明相同的变量。
-4.最后使用函数调用,而非直接打印,感受整体</t>
+4.最后使用函数调用,而非直接打印,感受整体
+方法二:hashtable</t>
   </si>
   <si>
     <t>flatten</t>
@@ -322,13 +323,22 @@
     <t>aggregation聚合</t>
   </si>
   <si>
-    <t>遇到的问题很多,调试了挺久,很有收获:
+    <t>8.6,8.7</t>
+  </si>
+  <si>
+    <t>方法一:笨方法---遇到的问题很多,调试了挺久,很有收获:
 问题1: 对象字面量必须是1.合法标识符;2.数字字面量;3.字符串字面量   如果不是合法标识符,就应该用方括号表示法(包括不合法字符(eg:[" "]), 表达式(eg:[para], 方括号中的表达式会被计算,其结果作为key,这样就允许动态地设置对象的key))
 问题2: 对象有两种访问值的方式:1.obj.key;2.obj[key]  区别在于:1.obj.key用于访问对象静态属性,属性名必须是有效标识符,并且是固定的；2.obj[key]用于动态访问对象属性,属性名通过变量来动态指定.这里的para1是函数参数,是动态变量,所以要使用方括号表示法
 问题3: forEach 是一个数组方法，它的回调函数没有办法影响外层函数的返回值。
 问题4: for(let item in newlist)和for(let item of newlist)的区别
     for..in:遍历对象的属性名（键）,不遍历数组的元素值
-    for..of:遍历可迭代对象的值，而不是属性名或键</t>
+    for..of:遍历可迭代对象的值，而不是属性名或键
+方法二:
+使用高阶方法
+list.forEach(item =&gt; {})
+list.find(item =&gt; ...)
+方法三:
+hash</t>
   </si>
   <si>
     <t>字符串7</t>
@@ -364,10 +374,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -420,30 +430,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -453,10 +439,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,9 +462,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,9 +500,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,29 +537,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,13 +584,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,55 +728,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,73 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,6 +836,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -850,17 +875,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,28 +901,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,136 +920,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1431,10 +1441,10 @@
   <sheetPr/>
   <dimension ref="B1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1886,7 +1896,7 @@
       <c r="E34" s="11"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" ht="108" spans="2:6">
+    <row r="35" ht="132" spans="2:6">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="9" t="s">
@@ -1938,17 +1948,17 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" ht="144" spans="2:6">
+    <row r="39" ht="240" spans="2:6">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="14">
-        <v>8.6</v>
+      <c r="E39" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="2:6">
@@ -1960,7 +1970,7 @@
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -1976,7 +1986,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -1992,7 +2002,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -2008,7 +2018,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -2024,7 +2034,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -2033,7 +2043,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -2042,7 +2052,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2051,7 +2061,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2060,7 +2070,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -339,6 +339,14 @@
 list.find(item =&gt; ...)
 方法三:
 hash</t>
+  </si>
+  <si>
+    <t>insituMove原地移动数组</t>
+  </si>
+  <si>
+    <t>方法一:顺利,O(n^2)
+方法二:使用Array构造器方法slice和concat,  注意时间复杂度:O(n^2)
+方法三:巧妙的思路,需要多写几次,O(n)</t>
   </si>
   <si>
     <t>字符串7</t>
@@ -1442,9 +1450,9 @@
   <dimension ref="B1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1961,16 +1969,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" ht="36" spans="2:6">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="14">
+        <v>8.8</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="41" spans="2:6">
       <c r="B41" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -1986,7 +2000,7 @@
     </row>
     <row r="43" spans="2:6">
       <c r="B43" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -2002,7 +2016,7 @@
     </row>
     <row r="45" spans="2:6">
       <c r="B45" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -2018,7 +2032,7 @@
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -2034,7 +2048,7 @@
     </row>
     <row r="49" spans="2:6">
       <c r="B49" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -2043,7 +2057,7 @@
     </row>
     <row r="51" spans="2:6">
       <c r="B51" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -2052,7 +2066,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2061,7 +2075,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
@@ -2070,7 +2084,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -251,15 +251,31 @@
     <t>242. 有效的字母异位词</t>
   </si>
   <si>
+    <t>8.4,8.8</t>
+  </si>
+  <si>
     <t>遇到的问题:
 1.C 语言不允许在全局作用域中调用函数来初始化变量,需要在函数内部进行这种初始化
-2.int asciiValue = (int)ch; // 将字符转换为整数类型以获取其ASCII码值</t>
+2.int asciiValue = (int)ch; // 将字符转换为整数类型以获取其ASCII码值
+js:
+方法一:超时    set中大小是size, forEach只能在list使用
+方法二:数组模拟hash   查找unicode码: String.prototype.codePointAt(start, end):返回给定索引字符的 Unicode 码位值, [)左闭右开区间
+方法三:排序后比较
+1.展开语法
+2.Array.prototype.sort: 就地按照UTF-16 码元值升序排序
+3.Array.prototype.join(): join() 将一个数组（或一个类数组对象）的所有元素连接成一个字符串并返回这个字符串，用逗号或指定的分隔符字符串分隔。</t>
   </si>
   <si>
     <t>两个数组的交集</t>
   </si>
   <si>
     <t>349. 两个数组的交集</t>
+  </si>
+  <si>
+    <t>总结:
+1.当遇到要快速判断一个元素是否出现集合里/ 要判断一个元素是否出现过的场景, 应该第一时间想到哈希法！
+2.哈希法是牺牲了空间换取了时间，因为我们要使用额外的数组，set或者是map来存放数据，才能实现快速的查找。
+3.Set对象</t>
   </si>
   <si>
     <t>js基础练习题</t>
@@ -275,8 +291,7 @@
 2.查找的list使用newList而不是list
 3.注意错误Uncaught SyntaxError: redeclaration of const list
  因为:某个变量名称已经作为函数参数出现了，但是又使用了 let 在函数体里重声明了。在 JavaScript 中不允许使用 let 在相同的函数或块范围内重新声明相同的变量。
-4.最后使用函数调用,而非直接打印,感受整体
-方法二:hashtable</t>
+4.最后使用函数调用,而非直接打印,感受整体</t>
   </si>
   <si>
     <t>flatten</t>
@@ -286,7 +301,7 @@
   </si>
   <si>
     <t xml:space="preserve">1.方法1:递归+主要知道Array.isArray()
-2.方法2:自己写不出来,多练习
+2.方法2:栈  自己写不出来,多练习
 递归转非递归-&gt;模拟栈:这里栈起到的什么作用呢： 记录和回退（eg：递归式学习）,依次能延伸出很多算法  </t>
   </si>
   <si>
@@ -304,7 +319,7 @@
   </si>
   <si>
     <t>1.深拷贝与浅拷贝的含义:
-深拷贝:深拷贝递归地复制对象的所有属性，包括嵌套对象。深拷贝后的新对象与原对象完全独立，修改新对象不会影响原对象，反之亦然。
+深拷贝:深拷贝递归地复制对象的所有属性，包括嵌套对象。深拷贝后的新对象与原对象完全独立，修改新对象不会影响原对象。
 浅拷贝:浅拷贝只复制对象的第一层属性。如果属性是引用类型（如对象、数组），浅拷贝仅复制引用，而不是复制引用对象本身。因此，浅拷贝后的新对象和原对象共享对同一引用类型的引用。
 2.深拷贝三种方法:
 方法一:递归  自己没写出来,多写
@@ -329,7 +344,7 @@
     <t>方法一:笨方法---遇到的问题很多,调试了挺久,很有收获:
 问题1: 对象字面量必须是1.合法标识符;2.数字字面量;3.字符串字面量   如果不是合法标识符,就应该用方括号表示法(包括不合法字符(eg:[" "]), 表达式(eg:[para], 方括号中的表达式会被计算,其结果作为key,这样就允许动态地设置对象的key))
 问题2: 对象有两种访问值的方式:1.obj.key;2.obj[key]  区别在于:1.obj.key用于访问对象静态属性,属性名必须是有效标识符,并且是固定的；2.obj[key]用于动态访问对象属性,属性名通过变量来动态指定.这里的para1是函数参数,是动态变量,所以要使用方括号表示法
-问题3: forEach 是一个数组方法，它的回调函数没有办法影响外层函数的返回值。
+问题3: forEach 是一个数组方法，它的回调函数没有办法影响外层函数的返回值。所以有需要return的地方考虑用for
 问题4: for(let item in newlist)和for(let item of newlist)的区别
     for..in:遍历对象的属性名（键）,不遍历数组的元素值
     for..of:遍历可迭代对象的值，而不是属性名或键
@@ -347,6 +362,12 @@
     <t>方法一:顺利,O(n^2)
 方法二:使用Array构造器方法slice和concat,  注意时间复杂度:O(n^2)
 方法三:巧妙的思路,需要多写几次,O(n)</t>
+  </si>
+  <si>
+    <t>总结:
+1.3和5题差不多
+2.方法积累:递归,高阶函数,hash,栈,序列化与反序列化
+3.语法积累:对象字面量动态访问与静态访问, for..in, for..of,  forEach</t>
   </si>
   <si>
     <t>字符串7</t>
@@ -1073,13 +1094,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1116,6 +1140,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1127,6 +1160,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1447,674 +1483,699 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F59"/>
+  <dimension ref="B1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="3.8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.2" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.6666666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6" style="4" customWidth="1"/>
-    <col min="6" max="6" width="54.3333333333333" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.2" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6" style="5" customWidth="1"/>
+    <col min="6" max="6" width="54.3333333333333" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="7">
+      <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="18">
         <v>6.21</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="18">
         <v>6.24</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" ht="24" spans="2:6">
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="18">
         <v>6.24</v>
       </c>
-      <c r="F6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="18">
         <v>6.29</v>
       </c>
-      <c r="F7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="19">
         <v>6.3</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="36" spans="2:6">
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="18">
         <v>7.24</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="120" spans="2:6">
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>7</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="18">
         <v>7.25</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="2:6">
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="18">
         <v>7.27</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>10</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>11</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" ht="24" spans="2:6">
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="36" spans="2:6">
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>2</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="18">
         <v>7.31</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>3</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>4</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="18">
         <v>8.2</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" ht="24" spans="2:6">
-      <c r="B22" s="7">
+      <c r="B22" s="8">
         <v>5</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="18">
         <v>8.2</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" ht="36" spans="2:6">
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>6</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="18">
         <v>8.3</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" ht="24" spans="2:6">
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>7</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="18">
         <v>8.3</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="21" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" ht="72" spans="2:6">
-      <c r="B25" s="7"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="14">
+      <c r="D25" s="14"/>
+      <c r="E25" s="18">
         <v>8.3</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" ht="36" spans="2:6">
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" ht="156" spans="2:6">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="18">
         <v>8.4</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="14">
-        <v>8.4</v>
-      </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="9"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="2:6">
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" ht="54" customHeight="1" spans="2:6">
+      <c r="B33" s="8"/>
+      <c r="C33" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" ht="132" spans="2:6">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E35" s="14">
+      <c r="B34" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" ht="108" spans="2:6">
+      <c r="B35" s="8">
+        <v>1</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="18">
         <v>8.5</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>64</v>
+      <c r="F35" s="10" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="36" ht="36" spans="2:6">
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="9" t="s">
+      <c r="B36" s="8">
+        <v>2</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10" t="s">
         <v>67</v>
       </c>
+      <c r="E36" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="37" ht="60" spans="2:6">
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="14">
+      <c r="B37" s="8">
+        <v>3</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" s="18">
         <v>8.5</v>
       </c>
-      <c r="F37" s="9" t="s">
-        <v>69</v>
+      <c r="F37" s="10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" ht="228" spans="2:6">
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="14">
+      <c r="B38" s="8">
+        <v>4</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="18">
         <v>8.6</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>71</v>
+      <c r="F38" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="39" ht="240" spans="2:6">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="9" t="s">
+      <c r="B39" s="8">
+        <v>5</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10" t="s">
         <v>74</v>
       </c>
+      <c r="E39" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="40" ht="36" spans="2:6">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="E40" s="14">
+      <c r="B40" s="8">
+        <v>6</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="18">
         <v>8.8</v>
       </c>
-      <c r="F40" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="16"/>
+      <c r="F40" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="53" customHeight="1" spans="2:6">
+      <c r="B41" s="8"/>
+      <c r="C41" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
     </row>
     <row r="42" spans="2:6">
-      <c r="B42" s="7"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="9"/>
+      <c r="B42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="20"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="16"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="10"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="20"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="16"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="9"/>
+      <c r="B46" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="20"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="16"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="7"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="9"/>
+      <c r="B48" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="20"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="10" t="s">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="10" t="s">
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="52" spans="2:6">
+      <c r="B52" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="16"/>
-    </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="1">
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="20"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1">
         <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
         <v>204</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B26:F26"/>
+    <mergeCell ref="C33:F33"/>
     <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B41:F41"/>
-    <mergeCell ref="B43:F43"/>
-    <mergeCell ref="B45:F45"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="B51:F51"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B54:F54"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B58:F58"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="F4:F8"/>
   </mergeCells>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -7,14 +7,15 @@
     <workbookView windowWidth="13815" windowHeight="12495"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
+    <sheet name="读书" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -272,6 +273,67 @@
     <t>349. 两个数组的交集</t>
   </si>
   <si>
+    <t>8.4,8.9</t>
+  </si>
+  <si>
+    <t>js:
+方法一:hash Set
+1.Set转array: 展开语法[...set]</t>
+  </si>
+  <si>
+    <t>快乐数</t>
+  </si>
+  <si>
+    <t>202. 快乐数</t>
+  </si>
+  <si>
+    <t>js:
+方法一:暴力法,while找寻7次(最少)
+1.字符转数字: parseInt(str);
+2.数字转字符: 方法一:number.tostring();   方法二:number + ''   
+方法二:hash判断循环&lt;-题中说了会循环出现
+1.a||b:只判断a的真假,真就返回a,假就返回b   a&amp;&amp;b:只判断a的真假,真就返回b,假就返回a
+2.回调函数:是作为参数传递到另一个函数中，然后在外部函数内调用以完成某种例行程序或操作的函数。
+3.Array.prototype.reduce(回调函数, 初始值):对数组中的每个元素按序执行一个提供的 reducer 函数，每一次运行 reducer 会将先前元素的计算结果作为参数传入，最后将其结果汇总为单个返回值。
+4.修改合适的变量名
+5.简化的新表达,用于初始值和后续值不一样的情况:let arr = ("" + (count || n)).split("");</t>
+  </si>
+  <si>
+    <t>两数之和</t>
+  </si>
+  <si>
+    <t>1. 两数之和</t>
+  </si>
+  <si>
+    <t>8.9,8.10</t>
+  </si>
+  <si>
+    <t>js:
+方法一:hash
+卡在hash的设计上,以map的key:value形式,key记录数字,value记录下标,未出现过的就放在hash中
+1.Set集合是无序的,不能通过索引访问;  
+2.访问Set集合方式:转数组Array.from(set); / 使用迭代器遍历for(let i of set)</t>
+  </si>
+  <si>
+    <t>四数相加 II</t>
+  </si>
+  <si>
+    <t>454. 四数相加 II</t>
+  </si>
+  <si>
+    <t>js:
+1.方法一:暴力法超时
+2.方法二:
+思路:四个数组拆分为两两数组,用hash map查找匹配项
+四层for循环超时-&gt;改为两层for循环,用hash map存前两个数组出现的值和次数,再用hash map检测0-(num3[i] + num4[j])是否出现,并统计数量</t>
+  </si>
+  <si>
+    <t>赎金信</t>
+  </si>
+  <si>
+    <t>383. 赎金信</t>
+  </si>
+  <si>
     <t>总结:
 1.当遇到要快速判断一个元素是否出现集合里/ 要判断一个元素是否出现过的场景, 应该第一时间想到哈希法！
 2.哈希法是牺牲了空间换取了时间，因为我们要使用额外的数组，set或者是map来存放数据，才能实现快速的查找。
@@ -396,25 +458,68 @@
   <si>
     <t>图论30</t>
   </si>
+  <si>
+    <t>已有书籍</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>书名</t>
+  </si>
+  <si>
+    <t>阅读进度</t>
+  </si>
+  <si>
+    <t>读书心得</t>
+  </si>
+  <si>
+    <t>计算机专业书</t>
+  </si>
+  <si>
+    <t>C和指针</t>
+  </si>
+  <si>
+    <t>其他书</t>
+  </si>
+  <si>
+    <t>编码-隐匿在计算机软硬件背后的语言</t>
+  </si>
+  <si>
+    <t>黑客与画家</t>
+  </si>
+  <si>
+    <t>像艺术家一样思考</t>
+  </si>
+  <si>
+    <t>君主论</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="AR PL UMing HK"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -437,10 +542,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,8 +557,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -468,7 +596,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -484,15 +612,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,7 +642,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -516,36 +651,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,7 +673,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,37 +706,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,145 +886,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,7 +965,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,33 +1004,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,6 +1020,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -949,148 +1054,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,71 +1203,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1483,326 +1588,326 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F60"/>
+  <dimension ref="B1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="3.8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.2" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.6666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="6" style="5" customWidth="1"/>
-    <col min="6" max="6" width="54.3333333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.8" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.2" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.6666666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="6" style="7" customWidth="1"/>
+    <col min="6" max="6" width="54.3333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="2:6">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="18">
         <v>6.21</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="18">
         <v>6.24</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" ht="24" spans="2:6">
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="18">
         <v>6.24</v>
       </c>
-      <c r="F6" s="9"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="18">
         <v>6.29</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="2:6">
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>5</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="19">
         <v>6.3</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="36" spans="2:6">
-      <c r="B9" s="8">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="36" spans="2:6">
+      <c r="B9" s="10">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="18">
         <v>7.24</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" ht="120" spans="2:6">
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>7</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="18">
         <v>7.25</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>8</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="2:6">
-      <c r="B12" s="8">
+      <c r="B12" s="10">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="18">
         <v>7.27</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>10</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="18"/>
-      <c r="F13" s="10"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6">
-      <c r="B14" s="8">
+      <c r="B14" s="10">
         <v>11</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="18"/>
-      <c r="F14" s="10"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="10"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" ht="24" spans="2:6">
-      <c r="B18" s="8">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" ht="36" spans="2:6">
-      <c r="B19" s="8">
+      <c r="B19" s="10">
         <v>2</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="12" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="18">
         <v>7.31</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="8">
+      <c r="B20" s="10">
         <v>3</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="8">
+      <c r="B21" s="10">
         <v>4</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="12" t="s">
         <v>43</v>
       </c>
       <c r="E21" s="18">
         <v>8.2</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="12" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" ht="24" spans="2:6">
-      <c r="B22" s="8">
+      <c r="B22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="18">
@@ -1813,30 +1918,30 @@
       </c>
     </row>
     <row r="23" ht="36" spans="2:6">
-      <c r="B23" s="8">
+      <c r="B23" s="10">
         <v>6</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="12" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="18">
         <v>8.3</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F23" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" ht="24" spans="2:6">
-      <c r="B24" s="8">
+      <c r="B24" s="10">
         <v>7</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="12" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="18">
@@ -1847,311 +1952,373 @@
       </c>
     </row>
     <row r="25" ht="72" spans="2:6">
-      <c r="B25" s="8"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="18">
         <v>8.3</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
       <c r="F26" s="20"/>
     </row>
     <row r="27" ht="156" spans="2:6">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="10">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="12" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="F27" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+    <row r="28" ht="36" spans="2:6">
+      <c r="B28" s="10">
+        <v>2</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="18">
-        <v>8.4</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="10"/>
+      <c r="E28" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" ht="132" spans="2:6">
+      <c r="B29" s="10">
+        <v>3</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="18">
+        <v>8.9</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" ht="60" spans="2:6">
+      <c r="B30" s="10">
+        <v>4</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" ht="72" spans="2:6">
+      <c r="B31" s="10">
+        <v>5</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="32" spans="2:6">
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" ht="54" customHeight="1" spans="2:6">
-      <c r="B33" s="8"/>
-      <c r="C33" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="22"/>
+      <c r="B32" s="10">
+        <v>6</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="22">
+        <v>8.1</v>
+      </c>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="10">
+        <v>7</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="12"/>
+      <c r="B34" s="10">
+        <v>8</v>
+      </c>
+      <c r="C34" s="11"/>
       <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" ht="108" spans="2:6">
-      <c r="B35" s="8">
+      <c r="E34" s="22"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" ht="54" customHeight="1" spans="2:6">
+      <c r="B35" s="10"/>
+      <c r="C35" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="20"/>
+    </row>
+    <row r="37" ht="108" spans="2:6">
+      <c r="B37" s="10">
         <v>1</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="18">
-        <v>8.5</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" ht="36" spans="2:6">
-      <c r="B36" s="8">
-        <v>2</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" ht="60" spans="2:6">
-      <c r="B37" s="8">
-        <v>3</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10" t="s">
-        <v>70</v>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="E37" s="18">
         <v>8.5</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" ht="228" spans="2:6">
-      <c r="B38" s="8">
+      <c r="F37" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" ht="36" spans="2:6">
+      <c r="B38" s="10">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" ht="60" spans="2:6">
+      <c r="B39" s="10">
+        <v>3</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E39" s="18">
+        <v>8.5</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" ht="228" spans="2:6">
+      <c r="B40" s="10">
         <v>4</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="18">
+      <c r="C40" s="11"/>
+      <c r="D40" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="18">
         <v>8.6</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" ht="240" spans="2:6">
-      <c r="B39" s="8">
+      <c r="F40" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" ht="240" spans="2:6">
+      <c r="B41" s="10">
         <v>5</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" ht="36" spans="2:6">
-      <c r="B40" s="8">
+      <c r="C41" s="11"/>
+      <c r="D41" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" ht="36" spans="2:6">
+      <c r="B42" s="10">
         <v>6</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="18">
+      <c r="C42" s="11"/>
+      <c r="D42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="18">
         <v>8.8</v>
       </c>
-      <c r="F40" s="10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="53" customHeight="1" spans="2:6">
-      <c r="B41" s="8"/>
-      <c r="C41" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="20"/>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="10"/>
+      <c r="F42" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" ht="53" customHeight="1" spans="2:6">
+      <c r="B43" s="10"/>
+      <c r="C43" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="B44" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="20"/>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="18"/>
-      <c r="F45" s="10"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="B46" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
       <c r="F46" s="20"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="10"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="B48" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
       <c r="F48" s="20"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="10"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
+      <c r="B50" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="20"/>
     </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="12"/>
+    </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
+      <c r="B52" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="20"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
+      <c r="B54" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
       <c r="F54" s="20"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
+      <c r="B56" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
       <c r="F56" s="20"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="B58" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
       <c r="F58" s="20"/>
     </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="1">
+    <row r="60" spans="2:6">
+      <c r="B60" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="20"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="4">
         <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
         <v>204</v>
       </c>
@@ -2164,10 +2331,9 @@
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="C43:F43"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B46:F46"/>
     <mergeCell ref="B48:F48"/>
@@ -2176,10 +2342,139 @@
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="B56:F56"/>
     <mergeCell ref="B58:F58"/>
+    <mergeCell ref="B60:F60"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="F4:F8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="8.2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.2666666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.06666666666667" style="1"/>
+    <col min="4" max="4" width="19.0666666666667" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -332,6 +332,17 @@
   </si>
   <si>
     <t>383. 赎金信</t>
+  </si>
+  <si>
+    <t>js:
+方法一:hash map 
+1.遍历list使用list.forEach    遍历string使用for(let item of string)</t>
+  </si>
+  <si>
+    <t>三数之和</t>
+  </si>
+  <si>
+    <t>15. 三数之和</t>
   </si>
   <si>
     <t>总结:
@@ -1590,10 +1601,10 @@
   <sheetPr/>
   <dimension ref="B1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27:B34"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2058,7 +2069,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" ht="36" spans="2:6">
       <c r="B32" s="10">
         <v>6</v>
       </c>
@@ -2071,15 +2082,23 @@
       <c r="E32" s="22">
         <v>8.1</v>
       </c>
-      <c r="F32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="10">
         <v>7</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="22"/>
+      <c r="C33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="22">
+        <v>8.1</v>
+      </c>
       <c r="F33" s="12"/>
     </row>
     <row r="34" spans="2:6">
@@ -2094,7 +2113,7 @@
     <row r="35" ht="54" customHeight="1" spans="2:6">
       <c r="B35" s="10"/>
       <c r="C35" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -2102,7 +2121,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2115,13 +2134,13 @@
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E37" s="18">
         <v>8.5</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" ht="36" spans="2:6">
@@ -2130,13 +2149,13 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" ht="60" spans="2:6">
@@ -2145,13 +2164,13 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E39" s="18">
         <v>8.5</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" ht="228" spans="2:6">
@@ -2160,13 +2179,13 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E40" s="18">
         <v>8.6</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="240" spans="2:6">
@@ -2175,13 +2194,13 @@
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="12" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" ht="36" spans="2:6">
@@ -2190,19 +2209,19 @@
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="12" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E42" s="18">
         <v>8.8</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="53" customHeight="1" spans="2:6">
       <c r="B43" s="10"/>
       <c r="C43" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -2210,7 +2229,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -2226,7 +2245,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="13" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -2242,7 +2261,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -2258,7 +2277,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2274,7 +2293,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -2283,7 +2302,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -2292,7 +2311,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -2301,7 +2320,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -2310,7 +2329,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -2370,7 +2389,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2378,24 +2397,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2420,10 +2439,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2431,7 +2450,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2439,7 +2458,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2447,7 +2466,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -513,10 +513,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -547,28 +547,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -584,7 +562,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,7 +594,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,9 +608,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,7 +618,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,6 +640,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,45 +684,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,19 +717,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,31 +849,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,13 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,109 +897,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,24 +963,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1011,6 +993,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1034,53 +1060,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,121 +1092,121 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1602,9 +1602,9 @@
   <dimension ref="B1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2097,7 +2097,7 @@
         <v>79</v>
       </c>
       <c r="E33" s="22">
-        <v>8.1</v>
+        <v>8.11</v>
       </c>
       <c r="F33" s="12"/>
     </row>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -343,6 +343,20 @@
   </si>
   <si>
     <t>15. 三数之和</t>
+  </si>
+  <si>
+    <t>8.11,8.12</t>
+  </si>
+  <si>
+    <t>js:
+这个题思路很重要,hash时间和空间复杂度都太高,不适用
+使用双指针+去重思路</t>
+  </si>
+  <si>
+    <t>四数之和</t>
+  </si>
+  <si>
+    <t>18. 四数之和</t>
   </si>
   <si>
     <t>总结:
@@ -1601,10 +1615,10 @@
   <sheetPr/>
   <dimension ref="B1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2086,7 +2100,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" ht="36" spans="2:6">
       <c r="B33" s="10">
         <v>7</v>
       </c>
@@ -2096,24 +2110,32 @@
       <c r="D33" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="22">
-        <v>8.11</v>
-      </c>
-      <c r="F33" s="12"/>
+      <c r="E33" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="10">
         <v>8</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="22"/>
+      <c r="C34" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="22">
+        <v>8.12</v>
+      </c>
       <c r="F34" s="12"/>
     </row>
     <row r="35" ht="54" customHeight="1" spans="2:6">
       <c r="B35" s="10"/>
       <c r="C35" s="15" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -2121,7 +2143,7 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="13" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2134,13 +2156,13 @@
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E37" s="18">
         <v>8.5</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="36" spans="2:6">
@@ -2149,13 +2171,13 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="12" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="60" spans="2:6">
@@ -2164,13 +2186,13 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E39" s="18">
         <v>8.5</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" ht="228" spans="2:6">
@@ -2179,13 +2201,13 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="12" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E40" s="18">
         <v>8.6</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" ht="240" spans="2:6">
@@ -2194,13 +2216,13 @@
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" ht="36" spans="2:6">
@@ -2209,19 +2231,19 @@
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="12" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E42" s="18">
         <v>8.8</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="53" customHeight="1" spans="2:6">
       <c r="B43" s="10"/>
       <c r="C43" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -2229,7 +2251,7 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="13" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
@@ -2245,7 +2267,7 @@
     </row>
     <row r="46" spans="2:6">
       <c r="B46" s="13" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
@@ -2261,7 +2283,7 @@
     </row>
     <row r="48" spans="2:6">
       <c r="B48" s="13" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -2277,7 +2299,7 @@
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
@@ -2293,7 +2315,7 @@
     </row>
     <row r="52" spans="2:6">
       <c r="B52" s="13" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
@@ -2302,7 +2324,7 @@
     </row>
     <row r="54" spans="2:6">
       <c r="B54" s="13" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -2311,7 +2333,7 @@
     </row>
     <row r="56" spans="2:6">
       <c r="B56" s="13" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -2320,7 +2342,7 @@
     </row>
     <row r="58" spans="2:6">
       <c r="B58" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -2329,7 +2351,7 @@
     </row>
     <row r="60" spans="2:6">
       <c r="B60" s="13" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -2389,7 +2411,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2397,24 +2419,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2439,10 +2461,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2450,7 +2472,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2458,7 +2480,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2466,7 +2488,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -359,10 +359,17 @@
     <t>18. 四数之和</t>
   </si>
   <si>
+    <t>js:
+上一个题搞懂这个比较简单,一样思路
+坑:注意返回类型</t>
+  </si>
+  <si>
     <t>总结:
 1.当遇到要快速判断一个元素是否出现集合里/ 要判断一个元素是否出现过的场景, 应该第一时间想到哈希法！
 2.哈希法是牺牲了空间换取了时间，因为我们要使用额外的数组，set或者是map来存放数据，才能实现快速的查找。
-3.Set对象</t>
+3.数组作为hash表的题目:1,6都有小写字母
+4.set作为hash表的题目:2,3 没有限制数值大小,不适用数组
+5.map作为hash表的题目:4,5,7,8  set放的元素只能是一个key,无法同时记录内容和下标；需要有序的情况set不适合; 5和78差别大,5不考虑重复,78考虑重复,hash不适用,双指针法</t>
   </si>
   <si>
     <t>js基础练习题</t>
@@ -458,6 +465,26 @@
   </si>
   <si>
     <t>字符串7</t>
+  </si>
+  <si>
+    <t>反转字符串</t>
+  </si>
+  <si>
+    <t>344. 反转字符串</t>
+  </si>
+  <si>
+    <t>js:
+方法一:库函数string.reverse();
+方法二:双指针</t>
+  </si>
+  <si>
+    <t>反转字符串 II</t>
+  </si>
+  <si>
+    <t>541. 反转字符串 II</t>
+  </si>
+  <si>
+    <t>总结:</t>
   </si>
   <si>
     <t>双指针10</t>
@@ -1224,7 +1251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1279,6 +1306,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1293,6 +1326,9 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1613,12 +1649,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F62"/>
+  <dimension ref="B1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1658,7 +1694,7 @@
       <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="20" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="12" t="s">
@@ -1675,7 +1711,7 @@
       <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="20">
         <v>6.21</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -1690,7 +1726,7 @@
       <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="20">
         <v>6.24</v>
       </c>
       <c r="F5" s="11"/>
@@ -1703,7 +1739,7 @@
       <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="20">
         <v>6.24</v>
       </c>
       <c r="F6" s="11"/>
@@ -1716,7 +1752,7 @@
       <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="20">
         <v>6.29</v>
       </c>
       <c r="F7" s="11"/>
@@ -1729,7 +1765,7 @@
       <c r="D8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="21">
         <v>6.3</v>
       </c>
       <c r="F8" s="11"/>
@@ -1744,7 +1780,7 @@
       <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="20">
         <v>7.24</v>
       </c>
       <c r="F9" s="12" t="s">
@@ -1761,7 +1797,7 @@
       <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="20">
         <v>7.25</v>
       </c>
       <c r="F10" s="12" t="s">
@@ -1778,7 +1814,7 @@
       <c r="D11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="20" t="s">
         <v>22</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -1795,7 +1831,7 @@
       <c r="D12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="20">
         <v>7.27</v>
       </c>
       <c r="F12" s="12" t="s">
@@ -1810,7 +1846,7 @@
       <c r="D13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="18"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6">
@@ -1821,7 +1857,7 @@
       <c r="D14" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6">
@@ -1830,7 +1866,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="18"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6">
@@ -1840,7 +1876,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="10"/>
@@ -1850,7 +1886,7 @@
       <c r="D17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="20" t="s">
         <v>5</v>
       </c>
       <c r="F17" s="12" t="s">
@@ -1867,7 +1903,7 @@
       <c r="D18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="20" t="s">
         <v>33</v>
       </c>
       <c r="F18" s="12" t="s">
@@ -1884,7 +1920,7 @@
       <c r="D19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="20">
         <v>7.31</v>
       </c>
       <c r="F19" s="12" t="s">
@@ -1901,7 +1937,7 @@
       <c r="D20" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="20" t="s">
         <v>40</v>
       </c>
       <c r="F20" s="12" t="s">
@@ -1918,7 +1954,7 @@
       <c r="D21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="20">
         <v>8.2</v>
       </c>
       <c r="F21" s="12" t="s">
@@ -1935,10 +1971,10 @@
       <c r="D22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="20">
         <v>8.2</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="23" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1952,7 +1988,7 @@
       <c r="D23" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="20">
         <v>8.3</v>
       </c>
       <c r="F23" s="12" t="s">
@@ -1969,10 +2005,10 @@
       <c r="D24" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="20">
         <v>8.3</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="23" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1982,7 +2018,7 @@
         <v>54</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="18">
+      <c r="E25" s="20">
         <v>8.3</v>
       </c>
       <c r="F25" s="12" t="s">
@@ -1996,7 +2032,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="20"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" ht="156" spans="2:6">
       <c r="B27" s="10">
@@ -2008,7 +2044,7 @@
       <c r="D27" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="20" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="12" t="s">
@@ -2025,7 +2061,7 @@
       <c r="D28" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="20" t="s">
         <v>63</v>
       </c>
       <c r="F28" s="12" t="s">
@@ -2042,7 +2078,7 @@
       <c r="D29" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="20">
         <v>8.9</v>
       </c>
       <c r="F29" s="12" t="s">
@@ -2059,7 +2095,7 @@
       <c r="D30" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="20" t="s">
         <v>70</v>
       </c>
       <c r="F30" s="12" t="s">
@@ -2076,7 +2112,7 @@
       <c r="D31" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="24">
         <v>8.1</v>
       </c>
       <c r="F31" s="12" t="s">
@@ -2093,7 +2129,7 @@
       <c r="D32" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="24">
         <v>8.1</v>
       </c>
       <c r="F32" s="12" t="s">
@@ -2110,14 +2146,14 @@
       <c r="D33" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="24" t="s">
         <v>80</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" ht="36" spans="2:6">
       <c r="B34" s="10">
         <v>8</v>
       </c>
@@ -2127,15 +2163,17 @@
       <c r="D34" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="24">
         <v>8.12</v>
       </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" ht="54" customHeight="1" spans="2:6">
+      <c r="F34" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" ht="89" customHeight="1" spans="2:6">
       <c r="B35" s="10"/>
       <c r="C35" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17"/>
@@ -2143,12 +2181,12 @@
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="20"/>
+      <c r="F36" s="22"/>
     </row>
     <row r="37" ht="108" spans="2:6">
       <c r="B37" s="10">
@@ -2156,13 +2194,13 @@
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="18">
+        <v>87</v>
+      </c>
+      <c r="E37" s="20">
         <v>8.5</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="36" spans="2:6">
@@ -2171,13 +2209,13 @@
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="18" t="s">
         <v>89</v>
       </c>
+      <c r="E38" s="20" t="s">
+        <v>90</v>
+      </c>
       <c r="F38" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" ht="60" spans="2:6">
@@ -2186,13 +2224,13 @@
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="18">
+        <v>92</v>
+      </c>
+      <c r="E39" s="20">
         <v>8.5</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" ht="228" spans="2:6">
@@ -2201,13 +2239,13 @@
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="18">
+        <v>94</v>
+      </c>
+      <c r="E40" s="20">
         <v>8.6</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" ht="240" spans="2:6">
@@ -2216,13 +2254,13 @@
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="18" t="s">
         <v>96</v>
       </c>
+      <c r="E41" s="20" t="s">
+        <v>97</v>
+      </c>
       <c r="F41" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" ht="36" spans="2:6">
@@ -2231,19 +2269,19 @@
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="18">
+        <v>99</v>
+      </c>
+      <c r="E42" s="20">
         <v>8.8</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="53" customHeight="1" spans="2:6">
       <c r="B43" s="10"/>
       <c r="C43" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
@@ -2251,121 +2289,200 @@
     </row>
     <row r="44" spans="2:6">
       <c r="B44" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="20"/>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" s="10"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="12"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" ht="36" spans="2:6">
+      <c r="B45" s="10">
+        <v>1</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="20">
+        <v>8.12</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="46" spans="2:6">
-      <c r="B46" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="20"/>
+      <c r="B46" s="10">
+        <v>2</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="20">
+        <v>8.12</v>
+      </c>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="10"/>
+      <c r="B47" s="10">
+        <v>3</v>
+      </c>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
-      <c r="E47" s="18"/>
+      <c r="E47" s="20"/>
       <c r="F47" s="12"/>
     </row>
     <row r="48" spans="2:6">
-      <c r="B48" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="20"/>
+      <c r="B48" s="10">
+        <v>4</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="10"/>
+      <c r="B49" s="10">
+        <v>5</v>
+      </c>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
-      <c r="E49" s="18"/>
+      <c r="E49" s="20"/>
       <c r="F49" s="12"/>
     </row>
     <row r="50" spans="2:6">
-      <c r="B50" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="20"/>
+      <c r="B50" s="10">
+        <v>6</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="10"/>
+      <c r="B51" s="10">
+        <v>7</v>
+      </c>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="18"/>
+      <c r="E51" s="20"/>
       <c r="F51" s="12"/>
     </row>
     <row r="52" spans="2:6">
-      <c r="B52" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="20"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="25"/>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="2:6">
-      <c r="B54" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="20"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="2:6">
-      <c r="B56" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="20"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="20"/>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="20"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="4">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="22"/>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="22"/>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="22"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="22"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="4">
         <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
         <v>204</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="C15:D15"/>
@@ -2376,14 +2493,15 @@
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="C43:F43"/>
     <mergeCell ref="B44:F44"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B48:F48"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B54:F54"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="B58:F58"/>
-    <mergeCell ref="B60:F60"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B55:F55"/>
+    <mergeCell ref="B57:F57"/>
+    <mergeCell ref="B59:F59"/>
+    <mergeCell ref="B61:F61"/>
+    <mergeCell ref="B63:F63"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="B67:F67"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="F4:F8"/>
   </mergeCells>
@@ -2411,7 +2529,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2419,24 +2537,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2461,10 +2579,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2472,7 +2590,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2480,7 +2598,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2488,7 +2606,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -482,6 +482,10 @@
   </si>
   <si>
     <t>541. 反转字符串 II</t>
+  </si>
+  <si>
+    <t>js:
+方法一:直接模拟,调试耗费时间</t>
   </si>
   <si>
     <t>总结:</t>
@@ -1651,10 +1655,10 @@
   <sheetPr/>
   <dimension ref="B1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2313,7 +2317,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" ht="24" spans="2:6">
       <c r="B46" s="10">
         <v>2</v>
       </c>
@@ -2326,7 +2330,9 @@
       <c r="E46" s="20">
         <v>8.12</v>
       </c>
-      <c r="F46" s="12"/>
+      <c r="F46" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="47" spans="2:6">
       <c r="B47" s="10">
@@ -2376,7 +2382,7 @@
     <row r="52" spans="2:6">
       <c r="B52" s="10"/>
       <c r="C52" s="18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -2384,7 +2390,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -2400,7 +2406,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -2416,7 +2422,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -2432,7 +2438,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -2441,7 +2447,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -2450,7 +2456,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -2459,7 +2465,7 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -2468,7 +2474,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -2529,7 +2535,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2537,24 +2543,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2579,10 +2585,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2590,7 +2596,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2598,7 +2604,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2606,7 +2612,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13815" windowHeight="12495"/>
+    <workbookView windowWidth="12795" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -68,7 +68,8 @@
   </si>
   <si>
     <t>方法二的题解挺有意思,常看,积累经验
-看了题解后写的,刚开始以为自己已经有了思路表达不出来,后面发现是思路根本没整理好,因此总结为:先认真想思路,思路是能概括性的表达,如果超过20min想不出思路就直接看题解,找问题.</t>
+看了题解后写的,刚开始以为自己已经有了思路表达不出来,后面发现是思路根本没整理好,因此总结为:先认真想思路,思路是能概括性的表达,如果超过20min想不出思路就直接看题解,找问题.
+双指针法（快慢指针法）:在数组和链表的操作中是非常常见的，很多考察数组、链表、字符串等操作的面试题，都使用双指针法</t>
   </si>
   <si>
     <t>有序数组的平方</t>
@@ -484,8 +485,61 @@
     <t>541. 反转字符串 II</t>
   </si>
   <si>
+    <t>8.12,8.13</t>
+  </si>
+  <si>
     <t>js:
-方法一:直接模拟,调试耗费时间</t>
+方法一:直接模拟,调试耗费时间
+1.字符串是基础数据类型,是不可变类型,不能向数组一样修改
+方法二:更简便的模拟,先找到数学模式,抽象出来再做题
+1.字符串转数组: arr = Array.from(s);
+2.Math计算: Math.min()
+3.Array.prototype.join():将数组（或一个类数组对象）的所有元素连接成一个字符串并返回这个字符串，用逗号或指定的分隔符字符串分隔</t>
+  </si>
+  <si>
+    <t>替换数字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54. 替换数字（第八期模拟笔试） </t>
+  </si>
+  <si>
+    <t>js:
+方法一:string转array,判断ascall码,替换+join完成
+String.prototype.charCodeAt(): string.charCodeAt(index):根据索引返回string对应的UTF-16 码元
+方法二:我没用这个方法   扩充数组+从后往前填充
+很多数组填充类的问题，其做法都是先预先给数组扩容带填充后的大小，然后在从后向前进行操作。
+为什么要从后向前填充:从前向后填充就是O(n^2)的算法了，因为每次添加元素都要将添加元素之后的所有元素整体向后移动。</t>
+  </si>
+  <si>
+    <t>反转字符串中的单词</t>
+  </si>
+  <si>
+    <t>151. 反转字符串中的单词</t>
+  </si>
+  <si>
+    <t>js:
+方法一:利用部分语法特性,代码冗杂
+方法二:完全使用语法特性
+1.String.prototype.trim(): 从字符串的两端移除空白字符，并返回一个新的字符串，而不会修改原始字符串。
+2.String.prototype.split(): string-&gt;array  split()通过搜索模式将字符串分割成一个有序的子串列表，将这些子串放入一个数组，并返回该数组。
+3.Array.prototype.reverse(): 就地反转数组中的元素，并返回同一数组的引用
+4.Array.prototype.join(): array-&gt;string  将一个数组（或一个类数组对象）的所有元素连接成一个字符串并返回这个字符串，用逗号或指定的分隔符字符串分隔。
+方法三:重要!!不使用语法特性,三步
+1.js中的字符串是不可变类型,要先转换成其他可变数据类型-&gt;array
+2.思路: 1.移除多余空格(和27题,移除数组元素一样,快慢指针方法); 2.反转整个字符串; 3.反转每个单词
+3.Array.prototype.reverse(): 就地反转数组中的元素，并返回同一数组的引用</t>
+  </si>
+  <si>
+    <t>右旋字符串</t>
+  </si>
+  <si>
+    <t>55. 右旋字符串（第八期模拟笔试）</t>
+  </si>
+  <si>
+    <t>js:
+方法一:利用语法特性,unshift往头添加,再砍掉length
+方法二:负负得正
+js中交换数组内容可以这样写,不用中间商:[arr[start], arr[end]] = [arr[end], arr[start]];</t>
   </si>
   <si>
     <t>总结:</t>
@@ -1656,9 +1710,9 @@
   <dimension ref="B1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1774,7 +1828,7 @@
       </c>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" s="4" customFormat="1" ht="36" spans="2:6">
+    <row r="9" s="4" customFormat="1" ht="60" spans="2:6">
       <c r="B9" s="10">
         <v>6</v>
       </c>
@@ -2317,7 +2371,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="46" ht="24" spans="2:6">
+    <row r="46" ht="84" spans="2:6">
       <c r="B46" s="10">
         <v>2</v>
       </c>
@@ -2327,46 +2381,69 @@
       <c r="D46" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="20">
-        <v>8.12</v>
+      <c r="E46" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" ht="72" spans="2:6">
       <c r="B47" s="10">
         <v>3</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="2:6">
+      <c r="C47" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="20">
+        <v>8.13</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" ht="168" spans="2:6">
       <c r="B48" s="10">
         <v>4</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="2:6">
+      <c r="C48" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="20">
+        <v>8.14</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" ht="48" spans="2:6">
       <c r="B49" s="10">
         <v>5</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="12"/>
+      <c r="C49" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="20">
+        <v>8.14</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="50" spans="2:6">
       <c r="B50" s="10">
         <v>6</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="12"/>
       <c r="E50" s="20"/>
       <c r="F50" s="12"/>
     </row>
@@ -2382,7 +2459,7 @@
     <row r="52" spans="2:6">
       <c r="B52" s="10"/>
       <c r="C52" s="18" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -2390,7 +2467,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="13" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -2406,7 +2483,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="13" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -2422,7 +2499,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="13" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -2438,7 +2515,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="13" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -2447,7 +2524,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="13" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -2456,7 +2533,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="13" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -2465,7 +2542,7 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -2474,7 +2551,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -2535,7 +2612,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2543,24 +2620,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2585,10 +2662,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2596,7 +2673,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2604,7 +2681,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2612,7 +2689,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -540,6 +540,12 @@
 方法一:利用语法特性,unshift往头添加,再砍掉length
 方法二:负负得正
 js中交换数组内容可以这样写,不用中间商:[arr[start], arr[end]] = [arr[end], arr[start]];</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 找出字符串中第一个匹配项的下标</t>
+  </si>
+  <si>
+    <t>28. 找出字符串中第一个匹配项的下标</t>
   </si>
   <si>
     <t>总结:</t>
@@ -1709,10 +1715,10 @@
   <sheetPr/>
   <dimension ref="B1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F49" sqref="F49"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -2439,12 +2445,19 @@
         <v>118</v>
       </c>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" ht="24" spans="2:6">
       <c r="B50" s="10">
         <v>6</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="E50" s="20"/>
+      <c r="C50" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" s="20">
+        <v>8.14</v>
+      </c>
       <c r="F50" s="12"/>
     </row>
     <row r="51" spans="2:6">
@@ -2459,7 +2472,7 @@
     <row r="52" spans="2:6">
       <c r="B52" s="10"/>
       <c r="C52" s="18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="19"/>
@@ -2467,7 +2480,7 @@
     </row>
     <row r="53" spans="2:6">
       <c r="B53" s="13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -2483,7 +2496,7 @@
     </row>
     <row r="55" spans="2:6">
       <c r="B55" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -2499,7 +2512,7 @@
     </row>
     <row r="57" spans="2:6">
       <c r="B57" s="13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -2515,7 +2528,7 @@
     </row>
     <row r="59" spans="2:6">
       <c r="B59" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
@@ -2524,7 +2537,7 @@
     </row>
     <row r="61" spans="2:6">
       <c r="B61" s="13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -2533,7 +2546,7 @@
     </row>
     <row r="63" spans="2:6">
       <c r="B63" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -2542,7 +2555,7 @@
     </row>
     <row r="65" spans="2:6">
       <c r="B65" s="13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -2551,7 +2564,7 @@
     </row>
     <row r="67" spans="2:6">
       <c r="B67" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
@@ -2612,7 +2625,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2620,24 +2633,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2662,10 +2675,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2673,7 +2686,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2681,7 +2694,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2689,7 +2702,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12795" windowHeight="12495"/>
+    <workbookView windowWidth="27750" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="157">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>完成日期</t>
+  </si>
+  <si>
+    <t>掌握程度</t>
   </si>
   <si>
     <t>备注</t>
@@ -256,11 +259,17 @@
     <t>8.4,8.8</t>
   </si>
   <si>
+    <t>8.15复习:
+hash array
+1.方法一可以理解
+2.第一反应是方法三,思路有,具体实现采用什么方法不熟悉,展开语法,sort,join</t>
+  </si>
+  <si>
     <t>遇到的问题:
 1.C 语言不允许在全局作用域中调用函数来初始化变量,需要在函数内部进行这种初始化
 2.int asciiValue = (int)ch; // 将字符转换为整数类型以获取其ASCII码值
 js:
-方法一:超时    set中大小是size, forEach只能在list使用
+方法一:超时    set中获取集合大小是set.size,() forEach只能在迭代器对象(array, map, set..)中使用
 方法二:数组模拟hash   查找unicode码: String.prototype.codePointAt(start, end):返回给定索引字符的 Unicode 码位值, [)左闭右开区间
 方法三:排序后比较
 1.展开语法
@@ -277,15 +286,29 @@
     <t>8.4,8.9</t>
   </si>
   <si>
+    <t>8.15复习:
+hash Set
+1.hash Set, 实现不熟悉</t>
+  </si>
+  <si>
     <t>js:
 方法一:hash Set
-1.Set转array: 展开语法[...set]</t>
+1.Set转array: 展开语法[...set]
+2.array转Set: const set = new Set(nums1);
+3.Set查找是否有某个元素:Set.has();</t>
   </si>
   <si>
     <t>快乐数</t>
   </si>
   <si>
     <t>202. 快乐数</t>
+  </si>
+  <si>
+    <t>8.15复习:
+hash Set
+1.暴力法容易
+2.hash Set的循环检测细节注意
+3.优化技巧多复习</t>
   </si>
   <si>
     <t>js:
@@ -293,11 +316,12 @@
 1.字符转数字: parseInt(str);
 2.数字转字符: 方法一:number.tostring();   方法二:number + ''   
 方法二:hash判断循环&lt;-题中说了会循环出现
-1.a||b:只判断a的真假,真就返回a,假就返回b   a&amp;&amp;b:只判断a的真假,真就返回b,假就返回a
-2.回调函数:是作为参数传递到另一个函数中，然后在外部函数内调用以完成某种例行程序或操作的函数。
-3.Array.prototype.reduce(回调函数, 初始值):对数组中的每个元素按序执行一个提供的 reducer 函数，每一次运行 reducer 会将先前元素的计算结果作为参数传入，最后将其结果汇总为单个返回值。
-4.修改合适的变量名
-5.简化的新表达,用于初始值和后续值不一样的情况:let arr = ("" + (count || n)).split("");</t>
+1. a||b:只判断a的真假,真就返回a,假就返回b   a&amp;&amp;b:只判断a的真假,真就返回b,假就返回a
+2. 回调函数:是作为参数传递到另一个函数中，然后在外部函数内调用以完成某种例行程序或操作的函数。
+3. Array.prototype.reduce(回调函数, 初始值): 对数组中的每个元素按序执行一个提供的 reducer 函数，每一次运行 reducer 会将先前元素的计算结果作为参数传入，最后将其结果汇总为单个返回值。
+4. 修改合适的变量名
+5. 简化的新表达,用于初始值和后续值不一样的情况:let arr = ("" + (count || n)).split("");
+6. String.prototype.split(): string-&gt;array  通过搜索模式将字符串分割成一个有序的子串列表，将这些子串放入一个数组，并返回该数组。</t>
   </si>
   <si>
     <t>两数之和</t>
@@ -307,19 +331,30 @@
   </si>
   <si>
     <t>8.9,8.10</t>
+  </si>
+  <si>
+    <t>8.15复习:
+hash map
+1.细节</t>
   </si>
   <si>
     <t>js:
 方法一:hash
 卡在hash的设计上,以map的key:value形式,key记录数字,value记录下标,未出现过的就放在hash中
 1.Set集合是无序的,不能通过索引访问;  
-2.访问Set集合方式:转数组Array.from(set); / 使用迭代器遍历for(let i of set)</t>
+2.访问Set集合方式:转数组Array.from(set); / 使用迭代器遍历for(let i of set)
+3.Array.from() : 静态方法从可迭代或类数组对象创建一个新的浅拷贝的数组实例</t>
   </si>
   <si>
     <t>四数相加 II</t>
   </si>
   <si>
     <t>454. 四数相加 II</t>
+  </si>
+  <si>
+    <t>8.15复习:
+hash map
+1.思路没想到,很巧妙,多复习</t>
   </si>
   <si>
     <t>js:
@@ -335,9 +370,14 @@
     <t>383. 赎金信</t>
   </si>
   <si>
+    <t>8.15复习:
+hash map
+1.没有思路,多复习</t>
+  </si>
+  <si>
     <t>js:
 方法一:hash map 
-1.遍历list使用list.forEach    遍历string使用for(let item of string)</t>
+1.遍历迭代器对象(array, map, set..)使用list.forEach    string不是迭代器对象,遍历时使用for(let item of string)</t>
   </si>
   <si>
     <t>三数之和</t>
@@ -349,15 +389,26 @@
     <t>8.11,8.12</t>
   </si>
   <si>
+    <t>8.15复习:
+双指针+去重思路
+1.能想到思路,多复习</t>
+  </si>
+  <si>
     <t>js:
-这个题思路很重要,hash时间和空间复杂度都太高,不适用
-使用双指针+去重思路</t>
+1. 这个题思路很重要,hash时间和空间复杂度都太高,不适用
+2. 使用双指针+去重思路
+3.升序排序: nums.sort((a, b) =&gt; a - b);</t>
   </si>
   <si>
     <t>四数之和</t>
   </si>
   <si>
     <t>18. 四数之和</t>
+  </si>
+  <si>
+    <t>8.15复习:
+双指针+去重思路
+1.和上题一样,多复习</t>
   </si>
   <si>
     <t>js:
@@ -365,18 +416,38 @@
 坑:注意返回类型</t>
   </si>
   <si>
-    <t>总结:
+    <t>8.15更新总结:
 1.当遇到要快速判断一个元素是否出现集合里/ 要判断一个元素是否出现过的场景, 应该第一时间想到哈希法！
 2.哈希法是牺牲了空间换取了时间，因为我们要使用额外的数组，set或者是map来存放数据，才能实现快速的查找。
 3.数组作为hash表的题目:1,6都有小写字母
 4.set作为hash表的题目:2,3 没有限制数值大小,不适用数组
-5.map作为hash表的题目:4,5,7,8  set放的元素只能是一个key,无法同时记录内容和下标；需要有序的情况set不适合; 5和78差别大,5不考虑重复,78考虑重复,hash不适用,双指针法</t>
+5.map作为hash表的题目:4,5,7,8  set放的元素只能是一个key,无法同时记录内容和下标；需要有序的情况set不适合; 5和78差别大,5不考虑重复,78考虑重复,hash不适用,双指针法
+6.Array构造器方法:
+Array.prototype.sort: 就地按照UTF-16 码元值升序排序
+Array.prototype.join(): join() 将一个数组（或一个类数组对象）的所有元素连接成一个字符串并返回这个字符串，用逗号或指定的分隔符字符串分隔。
+Array.prototype.reduce(回调函数, 初始值): 对数组中的每个元素按序执行一个提供的 reducer 函数，每一次运行 reducer 会将先前元素的计算结果作为参数传入，最后将其结果汇总为单个返回值。
+7.String构造器方法:
+String.prototype.split(): string-&gt;array  通过搜索模式将字符串分割成一个有序的子串列表，将这些子串放入一个数组，并返回该数组。
+8.Set方法:
+Set转array: 展开语法；Array.from(set);(Array.from() : 静态方法从可迭代或类数组对象创建一个新的浅拷贝的数组实例)
+Set中获取集合大小: size；
+Set查找是否有某个元素: Set.has()；
+9.数字与字符:
+字符转数字:parseInt(str)；
+数字转字符: number.toString() / number + ""；
+10.展开语法；遍历迭代器对象(array, map, set..)使用list.forEach    string不是迭代器对象,遍历时使用for(let item of string)</t>
   </si>
   <si>
     <t>js基础练习题</t>
   </si>
   <si>
     <t>listtotree</t>
+  </si>
+  <si>
+    <t>8.15复习: 
+没有第一时间反应过来如何findnode
+1.通过list[i].childrens递归;
+2.使用||判断初始值/其他值</t>
   </si>
   <si>
     <t>确实,这一年我的编程退步了,写不出来,很烦躁
@@ -395,6 +466,11 @@
     <t>8.5,8.6</t>
   </si>
   <si>
+    <t>8.15复习:
+1.没有第一时间想出递归代码,体会递归的输入和输出是一致的,适合重复,循环事件
+2.栈的大概思路没问题,具体实现细节多复习及遍</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.方法1:递归+主要知道Array.isArray()
 2.方法2:栈  自己写不出来,多练习
 递归转非递归-&gt;模拟栈:这里栈起到的什么作用呢： 记录和回退（eg：递归式学习）,依次能延伸出很多算法  </t>
@@ -403,14 +479,24 @@
     <t>getoverview</t>
   </si>
   <si>
+    <t>8.15复习:顺利,巩固知识点</t>
+  </si>
+  <si>
     <t>优化1:使用高阶函数让代码更简洁
-list.forEach(item1 =&gt; {})
-list.find(item2 =&gt; ..)
+1. Iterator.prototype.forEach(item1 =&gt; {})
+2. Iterator.prototype.find(item2 =&gt; ..)
+3. Array.prototype.find(): 返回数组中满足提供的测试函数的第一个元素的值。否则返回 undefined。 const found = array1.find((element) =&gt; element &gt; 10);
 优化2:
 字符串模板+hashtable</t>
   </si>
   <si>
     <t>拷贝和复用对象结构</t>
+  </si>
+  <si>
+    <t>8.15复习:
+1.递归详细实现没有想完全
+2.栈方法没想到
+3.序列化与反序列化方法</t>
   </si>
   <si>
     <t>1.深拷贝与浅拷贝的含义:
@@ -436,6 +522,10 @@
     <t>8.6,8.7</t>
   </si>
   <si>
+    <t>8.15复习:顺利
+3和5题一样的方法</t>
+  </si>
+  <si>
     <t>方法一:笨方法---遇到的问题很多,调试了挺久,很有收获:
 问题1: 对象字面量必须是1.合法标识符;2.数字字面量;3.字符串字面量   如果不是合法标识符,就应该用方括号表示法(包括不合法字符(eg:[" "]), 表达式(eg:[para], 方括号中的表达式会被计算,其结果作为key,这样就允许动态地设置对象的key))
 问题2: 对象有两种访问值的方式:1.obj.key;2.obj[key]  区别在于:1.obj.key用于访问对象静态属性,属性名必须是有效标识符,并且是固定的；2.obj[key]用于动态访问对象属性,属性名通过变量来动态指定.这里的para1是函数参数,是动态变量,所以要使用方括号表示法
@@ -454,15 +544,27 @@
     <t>insituMove原地移动数组</t>
   </si>
   <si>
+    <t>8.15复习:顺利
+记住原地移动数组使用双指针方法O(n)</t>
+  </si>
+  <si>
     <t>方法一:顺利,O(n^2)
 方法二:使用Array构造器方法slice和concat,  注意时间复杂度:O(n^2)
-方法三:巧妙的思路,需要多写几次,O(n)</t>
-  </si>
-  <si>
-    <t>总结:
-1.3和5题差不多
-2.方法积累:递归,高阶函数,hash,栈,序列化与反序列化
-3.语法积累:对象字面量动态访问与静态访问, for..in, for..of,  forEach</t>
+方法三:双指针O(n), 需要多写几次</t>
+  </si>
+  <si>
+    <t>8.15更新总结:
+1.3和5题一样的思路
+2.方法积累:递归,高阶函数,hash,栈,序列化(JSON.stringfy)与反序列化(JSON.parse)
+3.语法积累:对象字面量动态访问与静态访问, for..in, for..of
+4.Array构造器方法:
+Array.prototype.find() 
+5.迭代器方法:
+Iterator.prototype.forEach(item1 =&gt; {})
+Iterator.prototype.find(item2 =&gt; ..)
+6.Obj方法:
+Object.assign(target, obj) 浅拷贝
+7.原地移动数组使用双指针 O(n)</t>
   </si>
   <si>
     <t>字符串7</t>
@@ -1315,7 +1417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1367,21 +1469,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1389,6 +1497,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1713,24 +1824,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F69"/>
+  <dimension ref="B1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="3.8" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.2" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.6666666666667" style="6" customWidth="1"/>
-    <col min="5" max="5" width="6" style="7" customWidth="1"/>
-    <col min="6" max="6" width="54.3333333333333" style="6" customWidth="1"/>
+    <col min="2" max="2" width="3.06666666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.5333333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.1333333333333" style="6" customWidth="1"/>
+    <col min="5" max="5" width="5.4" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13" style="7" customWidth="1"/>
+    <col min="7" max="7" width="54.3333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:7">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1738,8 +1850,9 @@
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="2:6">
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1747,8 +1860,9 @@
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
-    </row>
-    <row r="3" spans="2:6">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
@@ -1758,191 +1872,207 @@
       <c r="D3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="21" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:6">
+      <c r="G3" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="20">
+        <v>9</v>
+      </c>
+      <c r="E4" s="21">
         <v>6.21</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="F4" s="21"/>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="10">
         <v>2</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="20">
+        <v>11</v>
+      </c>
+      <c r="E5" s="21">
         <v>6.24</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="24" spans="2:6">
+      <c r="F5" s="21"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" ht="24" spans="2:7">
       <c r="B6" s="10">
         <v>3</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="20">
+        <v>12</v>
+      </c>
+      <c r="E6" s="21">
         <v>6.24</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="F6" s="21"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="10">
         <v>4</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="20">
+        <v>13</v>
+      </c>
+      <c r="E7" s="21">
         <v>6.29</v>
       </c>
-      <c r="F7" s="11"/>
-    </row>
-    <row r="8" spans="2:6">
+      <c r="F7" s="21"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="10">
         <v>5</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="21">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22">
         <v>6.3</v>
       </c>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" s="4" customFormat="1" ht="60" spans="2:6">
+      <c r="F8" s="22"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="60" spans="2:7">
       <c r="B9" s="10">
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="20">
+        <v>16</v>
+      </c>
+      <c r="E9" s="21">
         <v>7.24</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" ht="120" spans="2:6">
+      <c r="F9" s="21"/>
+      <c r="G9" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="120" spans="2:7">
       <c r="B10" s="10">
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="20">
+        <v>19</v>
+      </c>
+      <c r="E10" s="21">
         <v>7.25</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6">
+      <c r="F10" s="21"/>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="10">
         <v>8</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" ht="409.5" spans="2:6">
+      <c r="F11" s="21"/>
+      <c r="G11" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" ht="409.5" spans="2:7">
       <c r="B12" s="10">
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="20">
+        <v>26</v>
+      </c>
+      <c r="E12" s="21">
         <v>7.27</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6">
+      <c r="F12" s="21"/>
+      <c r="G12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="10">
         <v>10</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="2:6">
+        <v>28</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="10">
         <v>11</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="2:6">
+        <v>29</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="10"/>
       <c r="C15" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="2:6">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="2:7">
       <c r="B16" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="2:6">
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="10"/>
       <c r="C17" s="11" t="s">
         <v>3</v>
@@ -1950,626 +2080,701 @@
       <c r="D17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" ht="24" spans="2:6">
+      <c r="F17" s="21"/>
+      <c r="G17" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" ht="24" spans="2:7">
       <c r="B18" s="10">
         <v>1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="E18" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" ht="36" spans="2:6">
+      <c r="F18" s="21"/>
+      <c r="G18" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" ht="36" spans="2:7">
       <c r="B19" s="10">
         <v>2</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="20">
+        <v>37</v>
+      </c>
+      <c r="E19" s="21">
         <v>7.31</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="F19" s="21"/>
+      <c r="G19" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="10">
         <v>3</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="E20" s="21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="F20" s="21"/>
+      <c r="G20" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="10">
         <v>4</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="20">
+        <v>44</v>
+      </c>
+      <c r="E21" s="21">
         <v>8.2</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" ht="24" spans="2:6">
+      <c r="F21" s="21"/>
+      <c r="G21" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="24" spans="2:7">
       <c r="B22" s="10">
         <v>5</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="20">
+        <v>47</v>
+      </c>
+      <c r="E22" s="21">
         <v>8.2</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" ht="36" spans="2:6">
+      <c r="F22" s="21"/>
+      <c r="G22" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" ht="36" spans="2:7">
       <c r="B23" s="10">
         <v>6</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="20">
+        <v>50</v>
+      </c>
+      <c r="E23" s="21">
         <v>8.3</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" ht="24" spans="2:6">
+      <c r="F23" s="21"/>
+      <c r="G23" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" ht="24" spans="2:7">
       <c r="B24" s="10">
         <v>7</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="20">
+        <v>53</v>
+      </c>
+      <c r="E24" s="21">
         <v>8.3</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" ht="72" spans="2:6">
+      <c r="F24" s="21"/>
+      <c r="G24" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" ht="72" spans="2:7">
       <c r="B25" s="10"/>
       <c r="C25" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D25" s="16"/>
-      <c r="E25" s="20">
+      <c r="E25" s="21">
         <v>8.3</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="F25" s="21"/>
+      <c r="G25" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
       <c r="B26" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" ht="156" spans="2:6">
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" ht="156" spans="2:7">
       <c r="B27" s="10">
         <v>1</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" ht="36" spans="2:6">
+      <c r="F27" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" ht="60" spans="2:7">
       <c r="B28" s="10">
         <v>2</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" ht="132" spans="2:6">
+      <c r="E28" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" ht="156" spans="2:7">
       <c r="B29" s="10">
         <v>3</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="20">
+        <v>69</v>
+      </c>
+      <c r="E29" s="21">
         <v>8.9</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" ht="60" spans="2:6">
+      <c r="F29" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" ht="72" spans="2:7">
       <c r="B30" s="10">
         <v>4</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" ht="72" spans="2:6">
+        <v>73</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" ht="72" spans="2:7">
       <c r="B31" s="10">
         <v>5</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="24">
+        <v>78</v>
+      </c>
+      <c r="E31" s="26">
         <v>8.1</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" ht="36" spans="2:6">
+      <c r="F31" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" ht="36" spans="2:7">
       <c r="B32" s="10">
         <v>6</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="24">
+        <v>82</v>
+      </c>
+      <c r="E32" s="26">
         <v>8.1</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" ht="36" spans="2:6">
+      <c r="F32" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" ht="48" spans="2:7">
       <c r="B33" s="10">
         <v>7</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" ht="36" spans="2:6">
+        <v>86</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" ht="36" spans="2:7">
       <c r="B34" s="10">
         <v>8</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="24">
+        <v>91</v>
+      </c>
+      <c r="E34" s="26">
         <v>8.12</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" ht="89" customHeight="1" spans="2:6">
-      <c r="B35" s="10"/>
-      <c r="C35" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="2:6">
+      <c r="F34" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" ht="263" customHeight="1" spans="2:7">
+      <c r="B35" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="2:7">
       <c r="B36" s="13" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" ht="108" spans="2:6">
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" ht="108" spans="2:7">
       <c r="B37" s="10">
         <v>1</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="20">
+        <v>96</v>
+      </c>
+      <c r="E37" s="21">
         <v>8.5</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" ht="36" spans="2:6">
+      <c r="F37" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" ht="72" spans="2:7">
       <c r="B38" s="10">
         <v>2</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" ht="60" spans="2:6">
+        <v>99</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" ht="84" spans="2:7">
       <c r="B39" s="10">
         <v>3</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="20">
+        <v>103</v>
+      </c>
+      <c r="E39" s="21">
         <v>8.5</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" ht="228" spans="2:6">
+      <c r="F39" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" ht="228" spans="2:7">
       <c r="B40" s="10">
         <v>4</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="20">
+        <v>106</v>
+      </c>
+      <c r="E40" s="21">
         <v>8.6</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" ht="240" spans="2:6">
+      <c r="F40" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="41" ht="240" spans="2:7">
       <c r="B41" s="10">
         <v>5</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" ht="36" spans="2:6">
+        <v>109</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" ht="36" spans="2:7">
       <c r="B42" s="10">
         <v>6</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="20">
+        <v>113</v>
+      </c>
+      <c r="E42" s="21">
         <v>8.8</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" ht="53" customHeight="1" spans="2:6">
-      <c r="B43" s="10"/>
-      <c r="C43" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-    </row>
-    <row r="44" spans="2:6">
+      <c r="F42" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" ht="155" customHeight="1" spans="2:7">
+      <c r="B43" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="2:7">
       <c r="B44" s="13" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" ht="36" spans="2:6">
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" ht="36" spans="2:7">
       <c r="B45" s="10">
         <v>1</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E45" s="20">
+        <v>119</v>
+      </c>
+      <c r="E45" s="21">
         <v>8.12</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" ht="84" spans="2:6">
+      <c r="F45" s="21"/>
+      <c r="G45" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" ht="84" spans="2:7">
       <c r="B46" s="10">
         <v>2</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" ht="72" spans="2:6">
+        <v>122</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="21"/>
+      <c r="G46" s="12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" ht="72" spans="2:7">
       <c r="B47" s="10">
         <v>3</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="E47" s="20">
+        <v>126</v>
+      </c>
+      <c r="E47" s="21">
         <v>8.13</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" ht="168" spans="2:6">
+      <c r="F47" s="21"/>
+      <c r="G47" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" ht="168" spans="2:7">
       <c r="B48" s="10">
         <v>4</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="E48" s="20">
+        <v>129</v>
+      </c>
+      <c r="E48" s="21">
         <v>8.14</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" ht="48" spans="2:6">
+      <c r="F48" s="21"/>
+      <c r="G48" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" ht="48" spans="2:7">
       <c r="B49" s="10">
         <v>5</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E49" s="20">
+        <v>132</v>
+      </c>
+      <c r="E49" s="21">
         <v>8.14</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" ht="24" spans="2:6">
+      <c r="F49" s="21"/>
+      <c r="G49" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" ht="24" spans="2:7">
       <c r="B50" s="10">
         <v>6</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="20">
+        <v>135</v>
+      </c>
+      <c r="E50" s="21">
         <v>8.14</v>
       </c>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="2:6">
+      <c r="F50" s="21"/>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="2:7">
       <c r="B51" s="10">
         <v>7</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="2:6">
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="2:7">
       <c r="B52" s="10"/>
-      <c r="C52" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="25"/>
-    </row>
-    <row r="53" spans="2:6">
+      <c r="C52" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="28"/>
+    </row>
+    <row r="53" spans="2:7">
       <c r="B53" s="13" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="2:6">
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="2:7">
       <c r="B54" s="10"/>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="2:6">
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="2:7">
       <c r="B55" s="13" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="22"/>
-    </row>
-    <row r="56" spans="2:6">
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="2:7">
       <c r="B56" s="10"/>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="2:6">
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="2:7">
       <c r="B57" s="13" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="2:6">
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="2:7">
       <c r="B58" s="10"/>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="2:6">
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="2:7">
       <c r="B59" s="13" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="61" spans="2:6">
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="61" spans="2:7">
       <c r="B61" s="13" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="63" spans="2:6">
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="63" spans="2:7">
       <c r="B63" s="13" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="65" spans="2:6">
+      <c r="F63" s="23"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="65" spans="2:7">
       <c r="B65" s="13" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="22"/>
-    </row>
-    <row r="67" spans="2:6">
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+    </row>
+    <row r="67" spans="2:7">
       <c r="B67" s="13" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
-      <c r="F67" s="22"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="24"/>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="4">
@@ -2579,27 +2784,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B16:G16"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="B44:F44"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="B55:F55"/>
-    <mergeCell ref="B57:F57"/>
-    <mergeCell ref="B59:F59"/>
-    <mergeCell ref="B61:F61"/>
-    <mergeCell ref="B63:F63"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="B67:F67"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B67:G67"/>
     <mergeCell ref="C4:C8"/>
-    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2625,7 +2830,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2633,24 +2838,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2675,10 +2880,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2686,7 +2891,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2694,7 +2899,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2702,7 +2907,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12675"/>
+    <workbookView windowWidth="17745" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,36 +15,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="177">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
   <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>题类</t>
+  </si>
+  <si>
+    <t>题号</t>
+  </si>
+  <si>
+    <t>完成日期</t>
+  </si>
+  <si>
+    <t>掌握程度</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>数组11</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>题类</t>
-  </si>
-  <si>
-    <t>题号</t>
-  </si>
-  <si>
-    <t>完成日期</t>
-  </si>
-  <si>
-    <t>掌握程度</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
     <t>二分查找</t>
   </si>
   <si>
     <t>704.二分查找</t>
+  </si>
+  <si>
+    <t>8.16复习:
+二分法两种写法区别没反应出来,多复习</t>
   </si>
   <si>
     <t>循环不变量原则
@@ -54,13 +58,28 @@
     <t>35.搜索插入位置</t>
   </si>
   <si>
+    <t>8.16复习:
+二分法,区别在于没找到时,往哪里添加,right + 1和left + 1应该都可以</t>
+  </si>
+  <si>
     <t>34. 在排序数组中查找元素的第一个和最后一个位置</t>
   </si>
   <si>
+    <t>8.16复习:
+没想到,再复习,寻找左右边界的方法</t>
+  </si>
+  <si>
     <t>69. x 的平方根</t>
   </si>
   <si>
+    <t>8.16复习:
+二分法,区别在于没找到具体时的返回值</t>
+  </si>
+  <si>
     <t>367. 有效的完全平方数</t>
+  </si>
+  <si>
+    <t>8.16复习:没找到文件</t>
   </si>
   <si>
     <t>移除元素</t>
@@ -68,6 +87,10 @@
   <si>
     <t xml:space="preserve">27. 移除元素
 </t>
+  </si>
+  <si>
+    <t>8.16复习:
+双指针的大思路有,但是具体实现不清楚,多复习</t>
   </si>
   <si>
     <t>方法二的题解挺有意思,常看,积累经验
@@ -79,6 +102,10 @@
   </si>
   <si>
     <t>977. 有序数组的平方</t>
+  </si>
+  <si>
+    <t>8.16复习:
+题意+具体排序方法没想到</t>
   </si>
   <si>
     <t>这个题目使用双指针
@@ -102,6 +129,10 @@
     <t>7.26,7.27</t>
   </si>
   <si>
+    <t>8.16复习:
+双指针-&gt;滑动窗口, 思路没有,不会实现,多复习</t>
+  </si>
+  <si>
     <t>滑动窗口法</t>
   </si>
   <si>
@@ -109,6 +140,10 @@
   </si>
   <si>
     <t>59. 螺旋矩阵 II</t>
+  </si>
+  <si>
+    <t>8.16复习:
+纯模拟,刚开始没有大概思路,多动手复习</t>
   </si>
   <si>
     <t>循环不变量原则
@@ -154,7 +189,10 @@
     <t>44. 开发商购买土地</t>
   </si>
   <si>
-    <t>数组知识总结</t>
+    <t>8.15更新总结:
+1.二分查找,遵循不变规则
+2.双指针法,滑动窗口法
+3.多复习不同解体思路</t>
   </si>
   <si>
     <t>链表8</t>
@@ -167,6 +205,10 @@
   </si>
   <si>
     <t>7.28,7.29</t>
+  </si>
+  <si>
+    <t>8.16复习:
+1.能明白,但方法需要改进</t>
   </si>
   <si>
     <t>单链表操作:创建链表, 打印链表, 删除链表..
@@ -178,6 +220,10 @@
   <si>
     <t xml:space="preserve">707. 设计链表
 </t>
+  </si>
+  <si>
+    <t>8.16复习:
+1.顺利,细节需要多复习,能否继续优化</t>
   </si>
   <si>
     <t>双向链表:创建,添加,删除,修改,free..基本涉及了
@@ -194,6 +240,10 @@
     <t>7.31,8.1</t>
   </si>
   <si>
+    <t>8.16复习:
+1.大思路有,具体实现抽象不出来,多复习</t>
+  </si>
+  <si>
     <t>巧妙利用指针,有思路后写不对+链表初始化第一个节点打印出来始终为0,未解决</t>
   </si>
   <si>
@@ -203,6 +253,10 @@
     <t>24. 两两交换链表中的节点</t>
   </si>
   <si>
+    <t>8.16复习:
+1.没有思路,多复习</t>
+  </si>
+  <si>
     <t>虚拟节点+双指针+巧妙思路</t>
   </si>
   <si>
@@ -210,6 +264,11 @@
   </si>
   <si>
     <t>19. 删除链表的倒数第 N 个结点</t>
+  </si>
+  <si>
+    <t>8.16复习:
+1.方法一顺利
+2.还有双指针和栈方法待写</t>
   </si>
   <si>
     <t>还有另外两个方法可写:双指针+栈
@@ -222,6 +281,10 @@
     <t>面试题 02.07. 链表相交</t>
   </si>
   <si>
+    <t>8.16复习:
+1.没想到,多复习</t>
+  </si>
+  <si>
     <t>优美的数学思路,很巧妙
 但有一些疑问:1.题目中的输入并没有完全用到;2.我知道为啥我的本地测试过不了,因为我的前提假设错误!题目中前提假设就是有公共点,但是我的创建链表是没有公共点的!!!</t>
   </si>
@@ -232,14 +295,16 @@
     <t>142. 环形链表 II</t>
   </si>
   <si>
+    <t>8.16复习:
+1.大思路有,c的hash不熟悉</t>
+  </si>
+  <si>
     <t>代码不是自己写的,看的题解,手写写不出来.
 hash table方法,学习使用uthash.h头文件中的内容来写hash table,新内容,再练习</t>
   </si>
   <si>
-    <t>链表总结</t>
-  </si>
-  <si>
-    <t>1.虚拟头节电方法;
+    <t>8.15更新-8.3链表总结:
+1.虚拟头节电方法;
 2.链表的基本操作;
 3.反转链表;
 4.删除倒数第n个节点;
@@ -576,6 +641,9 @@
     <t>344. 反转字符串</t>
   </si>
   <si>
+    <t>8.15复习:顺利</t>
+  </si>
+  <si>
     <t>js:
 方法一:库函数string.reverse();
 方法二:双指针</t>
@@ -605,6 +673,11 @@
     <t xml:space="preserve">54. 替换数字（第八期模拟笔试） </t>
   </si>
   <si>
+    <t>8.15复习:
+1.方法一顺利
+2.数组填充方法二没有做,待完成</t>
+  </si>
+  <si>
     <t>js:
 方法一:string转array,判断ascall码,替换+join完成
 String.prototype.charCodeAt(): string.charCodeAt(index):根据索引返回string对应的UTF-16 码元
@@ -617,6 +690,11 @@
   </si>
   <si>
     <t>151. 反转字符串中的单词</t>
+  </si>
+  <si>
+    <t>8.15复习:
+1.大思路清晰,第一步去除多余空格思路错误,快慢指针方法
+2.方法一语法特性不熟悉,多复习</t>
   </si>
   <si>
     <t>js:
@@ -626,6 +704,7 @@
 2.String.prototype.split(): string-&gt;array  split()通过搜索模式将字符串分割成一个有序的子串列表，将这些子串放入一个数组，并返回该数组。
 3.Array.prototype.reverse(): 就地反转数组中的元素，并返回同一数组的引用
 4.Array.prototype.join(): array-&gt;string  将一个数组（或一个类数组对象）的所有元素连接成一个字符串并返回这个字符串，用逗号或指定的分隔符字符串分隔。
+5.\s：表示匹配任何空白字符，包括空格 ( )、制表符 (\t)、换行符 (\n)、回车符 (\r) 和换页符 (\f)。 /\s+/:匹配一个或多个空白字符
 方法三:重要!!不使用语法特性,三步
 1.js中的字符串是不可变类型,要先转换成其他可变数据类型-&gt;array
 2.思路: 1.移除多余空格(和27题,移除数组元素一样,快慢指针方法); 2.反转整个字符串; 3.反转每个单词
@@ -638,6 +717,11 @@
     <t>55. 右旋字符串（第八期模拟笔试）</t>
   </si>
   <si>
+    <t>8.15复习:
+1.方法一顺利
+2.方法二第一时间没想到</t>
+  </si>
+  <si>
     <t>js:
 方法一:利用语法特性,unshift往头添加,再砍掉length
 方法二:负负得正
@@ -650,10 +734,22 @@
     <t>28. 找出字符串中第一个匹配项的下标</t>
   </si>
   <si>
-    <t>总结:</t>
+    <t>8.15更新总结:
+1.Array构造器方法:
+Array.prototype.reverse():就地反转数组中的元素，并返回同一数组的引用。
+Array.prototype.join(): array-&gt;string  将一个数组（或一个类数组对象）的所有元素连接成一个字符串并返回这个字符串，用逗号或指定的分隔符字符串分隔。
+2.String构造器方法:
+String.prototype.charCodeAt(index): :根据索引返回string对应的UTF-16 码元
+String.prototype.trim(): 从字符串的两端移除空白字符，并返回一个新的字符串，而不会修改原始字符串。
+String.prototype.split(): string-&gt;array  split()通过搜索模式将字符串分割成一个有序的子串列表，将这些子串放入一个数组，并返回该数组。
+3.字符串转数组:arr = Array.from(s);
+4.Math计算: Math.min()</t>
   </si>
   <si>
     <t>双指针10</t>
+  </si>
+  <si>
+    <t>27. 移除元素</t>
   </si>
   <si>
     <t>栈与队列7</t>
@@ -720,10 +816,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -754,15 +850,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,35 +870,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -823,23 +894,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,7 +910,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,15 +933,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,9 +954,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -930,6 +1026,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -942,7 +1050,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,19 +1068,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1188,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,114 +1201,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1170,6 +1266,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1200,16 +1338,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1225,171 +1363,129 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1398,22 +1494,22 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1445,18 +1541,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1464,10 +1566,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1475,20 +1577,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1496,14 +1592,14 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1824,12 +1920,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G69"/>
+  <dimension ref="B1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35:G35"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1856,37 +1952,37 @@
       <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="10">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" ht="36" spans="2:7">
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -1895,756 +1991,794 @@
       <c r="E4" s="21">
         <v>6.21</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="10">
+      <c r="G4" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="48" spans="2:7">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="21">
         <v>6.24</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="24" spans="2:7">
-      <c r="B6" s="10">
+      <c r="F5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" ht="36" spans="2:7">
+      <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="21">
         <v>6.24</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="10">
+      <c r="F6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" ht="36" spans="2:7">
+      <c r="B7" s="9">
         <v>4</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="12" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" s="21">
         <v>6.29</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="11"/>
+      <c r="F7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>5</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="12" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E8" s="22">
         <v>6.3</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="60" spans="2:7">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>15</v>
+      <c r="C9" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" s="21">
         <v>7.24</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="120" spans="2:7">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E10" s="21">
         <v>7.25</v>
       </c>
-      <c r="F10" s="21"/>
+      <c r="F10" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="36" spans="2:7">
+      <c r="B11" s="9">
         <v>8</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>21</v>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="21"/>
+        <v>30</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="G11" s="12" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="2:7">
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>9</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>25</v>
+      <c r="C12" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E12" s="21">
         <v>7.27</v>
       </c>
-      <c r="F12" s="21"/>
+      <c r="F12" s="21" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="11"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>11</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="12" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="12"/>
+    <row r="15" ht="55" customHeight="1" spans="2:7">
+      <c r="B15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="23"/>
+      <c r="B16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="21" t="s">
         <v>4</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>5</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" ht="24" spans="2:7">
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>32</v>
+      <c r="C18" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>44</v>
+      </c>
       <c r="G18" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" ht="36" spans="2:7">
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>2</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>36</v>
+      <c r="C19" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="E19" s="21">
         <v>7.31</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="21" t="s">
+        <v>48</v>
+      </c>
       <c r="G19" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="36" spans="2:7">
+      <c r="B20" s="9">
         <v>3</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>39</v>
+      <c r="C20" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="21"/>
+        <v>52</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>53</v>
+      </c>
       <c r="G20" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="10">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" ht="24" spans="2:7">
+      <c r="B21" s="9">
         <v>4</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>43</v>
+      <c r="C21" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="E21" s="21">
         <v>8.2</v>
       </c>
-      <c r="F21" s="21"/>
+      <c r="F21" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="G21" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" ht="24" spans="2:7">
-      <c r="B22" s="10">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" ht="36" spans="2:7">
+      <c r="B22" s="9">
         <v>5</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>46</v>
+      <c r="C22" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E22" s="21">
         <v>8.2</v>
       </c>
-      <c r="F22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>61</v>
+      </c>
       <c r="G22" s="25" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" ht="36" spans="2:7">
-      <c r="B23" s="10">
+      <c r="B23" s="9">
         <v>6</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>49</v>
+      <c r="C23" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E23" s="21">
         <v>8.3</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>65</v>
+      </c>
       <c r="G23" s="12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="24" spans="2:7">
-      <c r="B24" s="10">
+      <c r="B24" s="9">
         <v>7</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>52</v>
+      <c r="C24" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E24" s="21">
         <v>8.3</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="G24" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" ht="72" spans="2:7">
-      <c r="B25" s="10"/>
-      <c r="C25" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="21">
-        <v>8.3</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="12" t="s">
-        <v>56</v>
-      </c>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" ht="92" customHeight="1" spans="2:7">
+      <c r="B25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="26"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="23"/>
+      <c r="B26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="24"/>
     </row>
     <row r="27" ht="156" spans="2:7">
-      <c r="B27" s="10">
+      <c r="B27" s="9">
         <v>1</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>58</v>
+      <c r="C27" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" ht="60" spans="2:7">
-      <c r="B28" s="10">
+      <c r="B28" s="9">
         <v>2</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>63</v>
+      <c r="C28" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" ht="156" spans="2:7">
-      <c r="B29" s="10">
+      <c r="B29" s="9">
         <v>3</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>68</v>
+      <c r="C29" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E29" s="21">
         <v>8.9</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" ht="72" spans="2:7">
-      <c r="B30" s="10">
+      <c r="B30" s="9">
         <v>4</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>72</v>
+      <c r="C30" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" ht="72" spans="2:7">
-      <c r="B31" s="10">
+      <c r="B31" s="9">
         <v>5</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>77</v>
+      <c r="C31" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="26">
+        <v>93</v>
+      </c>
+      <c r="E31" s="27">
         <v>8.1</v>
       </c>
-      <c r="F31" s="26" t="s">
-        <v>79</v>
+      <c r="F31" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="36" spans="2:7">
-      <c r="B32" s="10">
+      <c r="B32" s="9">
         <v>6</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>81</v>
+      <c r="C32" s="10" t="s">
+        <v>96</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="26">
+        <v>97</v>
+      </c>
+      <c r="E32" s="27">
         <v>8.1</v>
       </c>
-      <c r="F32" s="26" t="s">
-        <v>83</v>
+      <c r="F32" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" ht="48" spans="2:7">
-      <c r="B33" s="10">
+      <c r="B33" s="9">
         <v>7</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>85</v>
+      <c r="C33" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>88</v>
+        <v>101</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="36" spans="2:7">
-      <c r="B34" s="10">
+      <c r="B34" s="9">
         <v>8</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>90</v>
+      <c r="C34" s="10" t="s">
+        <v>105</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="26">
+        <v>106</v>
+      </c>
+      <c r="E34" s="27">
         <v>8.12</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>92</v>
+      <c r="F34" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" ht="263" customHeight="1" spans="2:7">
-      <c r="B35" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="27"/>
+      <c r="B35" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="23"/>
+      <c r="B36" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="24"/>
     </row>
     <row r="37" ht="108" spans="2:7">
-      <c r="B37" s="10">
+      <c r="B37" s="9">
         <v>1</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="12" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E37" s="21">
         <v>8.5</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" ht="72" spans="2:7">
-      <c r="B38" s="10">
+      <c r="B38" s="9">
         <v>2</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="12" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" ht="84" spans="2:7">
-      <c r="B39" s="10">
+      <c r="B39" s="9">
         <v>3</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="12" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E39" s="21">
         <v>8.5</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" ht="228" spans="2:7">
-      <c r="B40" s="10">
+      <c r="B40" s="9">
         <v>4</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="12" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="E40" s="21">
         <v>8.6</v>
       </c>
       <c r="F40" s="21" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="240" spans="2:7">
-      <c r="B41" s="10">
+      <c r="B41" s="9">
         <v>5</v>
       </c>
-      <c r="C41" s="11"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="12" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" ht="36" spans="2:7">
-      <c r="B42" s="10">
+      <c r="B42" s="9">
         <v>6</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="12" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="E42" s="21">
         <v>8.8</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="155" customHeight="1" spans="2:7">
-      <c r="B43" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="27"/>
+      <c r="B43" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="28"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="23"/>
+      <c r="B44" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="24"/>
     </row>
     <row r="45" ht="36" spans="2:7">
-      <c r="B45" s="10">
+      <c r="B45" s="9">
         <v>1</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>118</v>
+      <c r="C45" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="E45" s="21">
         <v>8.12</v>
       </c>
-      <c r="F45" s="21"/>
+      <c r="F45" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="G45" s="12" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" ht="84" spans="2:7">
-      <c r="B46" s="10">
+      <c r="B46" s="9">
         <v>2</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>121</v>
+      <c r="C46" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="21"/>
+        <v>139</v>
+      </c>
+      <c r="F46" s="21" t="s">
+        <v>135</v>
+      </c>
       <c r="G46" s="12" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="47" ht="72" spans="2:7">
-      <c r="B47" s="10">
+      <c r="B47" s="9">
         <v>3</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>125</v>
+      <c r="C47" s="10" t="s">
+        <v>141</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E47" s="21">
         <v>8.13</v>
       </c>
-      <c r="F47" s="21"/>
+      <c r="F47" s="21" t="s">
+        <v>143</v>
+      </c>
       <c r="G47" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" ht="168" spans="2:7">
-      <c r="B48" s="10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" ht="192" spans="2:7">
+      <c r="B48" s="9">
         <v>4</v>
       </c>
-      <c r="C48" s="11" t="s">
-        <v>128</v>
+      <c r="C48" s="10" t="s">
+        <v>145</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="E48" s="21">
         <v>8.14</v>
       </c>
-      <c r="F48" s="21"/>
+      <c r="F48" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="G48" s="12" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" ht="48" spans="2:7">
-      <c r="B49" s="10">
+      <c r="B49" s="9">
         <v>5</v>
       </c>
-      <c r="C49" s="11" t="s">
-        <v>131</v>
+      <c r="C49" s="10" t="s">
+        <v>149</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="E49" s="21">
         <v>8.14</v>
       </c>
-      <c r="F49" s="21"/>
+      <c r="F49" s="21" t="s">
+        <v>151</v>
+      </c>
       <c r="G49" s="12" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" ht="24" spans="2:7">
-      <c r="B50" s="10">
+      <c r="B50" s="9">
         <v>6</v>
       </c>
-      <c r="C50" s="11" t="s">
-        <v>134</v>
+      <c r="C50" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E50" s="21">
         <v>8.14</v>
@@ -2653,131 +2787,187 @@
       <c r="G50" s="12"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="10">
+      <c r="B51" s="9">
         <v>7</v>
       </c>
-      <c r="C51" s="11"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="12"/>
     </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="10"/>
-      <c r="C52" s="19" t="s">
-        <v>136</v>
-      </c>
+    <row r="52" ht="159" customHeight="1" spans="2:7">
+      <c r="B52" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="20"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
       <c r="G52" s="28"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="23"/>
+      <c r="B53" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="21"/>
+      <c r="B54" s="9">
+        <v>1</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="21">
+        <v>8.18</v>
+      </c>
       <c r="F54" s="21"/>
       <c r="G54" s="12"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
       <c r="G56" s="12"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="12"/>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="9"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="23"/>
+      <c r="B61" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="24"/>
     </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="9"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="12"/>
+    </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="23"/>
+      <c r="B63" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="24"/>
     </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="9"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="12"/>
+    </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="23"/>
+      <c r="B65" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="24"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="23"/>
+      <c r="B67" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="24"/>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="4">
+    <row r="69" spans="2:7">
+      <c r="B69" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="24"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="4">
         <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
         <v>204</v>
       </c>
@@ -2785,24 +2975,24 @@
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B26:G26"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:G36"/>
     <mergeCell ref="B43:G43"/>
     <mergeCell ref="B44:G44"/>
-    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="B52:G52"/>
     <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B59:G59"/>
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="B63:G63"/>
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B73:G73"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
@@ -2830,7 +3020,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2838,24 +3028,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2880,10 +3070,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2891,7 +3081,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2899,7 +3089,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2907,7 +3097,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17745" windowHeight="12495"/>
+    <workbookView windowWidth="20745" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -750,6 +750,31 @@
   </si>
   <si>
     <t>27. 移除元素</t>
+  </si>
+  <si>
+    <t>js:
+大思路是双指针,但是具体思路错误,多复习</t>
+  </si>
+  <si>
+    <t>js:
+很顺利</t>
+  </si>
+  <si>
+    <t>js:
+方法一:使用sting.charCodeAt()方法很顺利简单
+方法二:使用双指针方法,阅读懂了代码含义,抄了一遍,没有自己写,有新的表达,标准输入输出等,先学习,多复习</t>
+  </si>
+  <si>
+    <t>151.翻转字符串里的单词</t>
+  </si>
+  <si>
+    <t>28. 实现 strStr()</t>
+  </si>
+  <si>
+    <t>459.重复的子字符串</t>
+  </si>
+  <si>
+    <t>总结</t>
   </si>
   <si>
     <t>栈与队列7</t>
@@ -1920,12 +1945,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G75"/>
+  <dimension ref="B1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="B61" sqref="B61:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -2816,7 +2841,7 @@
       <c r="F53" s="16"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" ht="24" spans="2:7">
       <c r="B54" s="9">
         <v>1</v>
       </c>
@@ -2830,150 +2855,198 @@
         <v>8.18</v>
       </c>
       <c r="F54" s="21"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="9"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="21"/>
+      <c r="G54" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" ht="24" spans="2:7">
+      <c r="B55" s="9">
+        <v>2</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="21">
+        <v>8.18</v>
+      </c>
       <c r="F55" s="21"/>
-      <c r="G55" s="12"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="9"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="21"/>
+      <c r="G55" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" ht="36" spans="2:7">
+      <c r="B56" s="9">
+        <v>3</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E56" s="21">
+        <v>8.18</v>
+      </c>
       <c r="F56" s="21"/>
-      <c r="G56" s="12"/>
+      <c r="G56" s="12" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="9"/>
+      <c r="B57" s="9">
+        <v>4</v>
+      </c>
       <c r="C57" s="10"/>
-      <c r="D57" s="12"/>
+      <c r="D57" s="12" t="s">
+        <v>161</v>
+      </c>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
       <c r="G57" s="12"/>
     </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="9"/>
+    <row r="58" ht="24" spans="2:7">
+      <c r="B58" s="9">
+        <v>5</v>
+      </c>
       <c r="C58" s="10"/>
-      <c r="D58" s="12"/>
+      <c r="D58" s="12" t="s">
+        <v>150</v>
+      </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
       <c r="G58" s="12"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="9"/>
+      <c r="B59" s="9">
+        <v>6</v>
+      </c>
       <c r="C59" s="10"/>
-      <c r="D59" s="12"/>
+      <c r="D59" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
       <c r="G59" s="12"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="9"/>
+      <c r="B60" s="9">
+        <v>7</v>
+      </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="12"/>
+      <c r="D60" s="12" t="s">
+        <v>163</v>
+      </c>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="12"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="24"/>
+      <c r="B61" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="23"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="9"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="12"/>
+      <c r="B62" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="24"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="24"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="9"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="12"/>
+      <c r="B64" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="24"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="24"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="24"/>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="24"/>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="24"/>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="24"/>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="4">
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="24"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="24"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="24"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="4">
         <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
         <v>204</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -2987,12 +3060,13 @@
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="B53:G53"/>
     <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B74:G74"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
@@ -3020,7 +3094,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3028,24 +3102,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3070,10 +3144,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3081,7 +3155,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3089,7 +3163,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3097,7 +3171,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="8535"/>
+    <workbookView windowWidth="27750" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="188">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -752,6 +752,10 @@
     <t>27. 移除元素</t>
   </si>
   <si>
+    <t>8.18复习:
+顺利,分清两个指针的职责,slow用于记录修改后的最后一个内容,fast用于比对不需要移除的元素</t>
+  </si>
+  <si>
     <t>js:
 大思路是双指针,但是具体思路错误,多复习</t>
   </si>
@@ -765,7 +769,48 @@
 方法二:使用双指针方法,阅读懂了代码含义,抄了一遍,没有自己写,有新的表达,标准输入输出等,先学习,多复习</t>
   </si>
   <si>
+    <t>翻转字符串里的单词</t>
+  </si>
+  <si>
     <t>151.翻转字符串里的单词</t>
+  </si>
+  <si>
+    <t>js:
+1.问题全都出在移除多余空格处,思路和移除元素相同,快慢指针,核心只需要考虑fastpoint,多练习</t>
+  </si>
+  <si>
+    <t>js:
+1.思路顺利
+2.学习了新的标准输入输出,获得的输入是string类型,需要数字就用parseInt转换一下:
+const readline = require("readline");
+const r1 = readline.createInterface({
+    input: process.stdin,
+    output: process.stdout
+})
+const inputs = [];
+r1.on("line", (data) =&gt; {
+    inputs.push(data);
+    //close 事件通常在标准输入被关闭时触发，而不是在每行输入后触发。所以进行手动调用
+    if(inputs.length === 2) {
+        r1.close();
+    }
+}).on("close", () =&gt; {
+    const res = rightHandedString(inputs);
+    console.log(res);
+})
+function reverse(arr, start, end) {
+    while(start &lt; end) {
+        [arr[start], arr[end]] = [arr[end], arr[start]];
+        start++;
+        end--;
+    }
+    return arr;
+}
+function rightHandedString(inputs) {
+    let [k, str] = inputs;
+    k = parseInt(k);
+.......
+}</t>
   </si>
   <si>
     <t>28. 实现 strStr()</t>
@@ -1948,9 +1993,9 @@
   <dimension ref="B1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61:G61"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62:G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -2841,7 +2886,7 @@
       <c r="F53" s="16"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" ht="24" spans="2:7">
+    <row r="54" ht="60" spans="2:7">
       <c r="B54" s="9">
         <v>1</v>
       </c>
@@ -2854,9 +2899,11 @@
       <c r="E54" s="21">
         <v>8.18</v>
       </c>
-      <c r="F54" s="21"/>
+      <c r="F54" s="21" t="s">
+        <v>158</v>
+      </c>
       <c r="G54" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" ht="24" spans="2:7">
@@ -2874,7 +2921,7 @@
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" ht="36" spans="2:7">
@@ -2892,32 +2939,42 @@
       </c>
       <c r="F56" s="21"/>
       <c r="G56" s="12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" ht="24" spans="2:7">
       <c r="B57" s="9">
         <v>4</v>
       </c>
-      <c r="C57" s="10"/>
+      <c r="C57" s="10" t="s">
+        <v>162</v>
+      </c>
       <c r="D57" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E57" s="21"/>
+        <v>163</v>
+      </c>
+      <c r="E57" s="21">
+        <v>8.18</v>
+      </c>
       <c r="F57" s="21"/>
-      <c r="G57" s="12"/>
-    </row>
-    <row r="58" ht="24" spans="2:7">
+      <c r="G57" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" ht="409.5" spans="2:7">
       <c r="B58" s="9">
         <v>5</v>
       </c>
-      <c r="C58" s="10"/>
+      <c r="C58" s="10" t="s">
+        <v>149</v>
+      </c>
       <c r="D58" s="12" t="s">
         <v>150</v>
       </c>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="12"/>
+      <c r="G58" s="12" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="59" spans="2:7">
       <c r="B59" s="9">
@@ -2925,7 +2982,7 @@
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="12" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
@@ -2937,7 +2994,7 @@
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="12" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
@@ -2945,7 +3002,7 @@
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
@@ -2955,7 +3012,7 @@
     </row>
     <row r="62" spans="2:7">
       <c r="B62" s="15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -2973,7 +3030,7 @@
     </row>
     <row r="64" spans="2:7">
       <c r="B64" s="15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16"/>
@@ -2991,7 +3048,7 @@
     </row>
     <row r="66" spans="2:7">
       <c r="B66" s="15" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C66" s="16"/>
       <c r="D66" s="16"/>
@@ -3001,7 +3058,7 @@
     </row>
     <row r="68" spans="2:7">
       <c r="B68" s="15" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C68" s="16"/>
       <c r="D68" s="16"/>
@@ -3011,7 +3068,7 @@
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16"/>
@@ -3021,7 +3078,7 @@
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
@@ -3031,7 +3088,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -3094,7 +3151,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3102,24 +3159,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3144,10 +3201,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3155,7 +3212,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3163,7 +3220,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3171,7 +3228,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12675"/>
+    <workbookView windowWidth="20745" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="191">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -241,7 +241,9 @@
   </si>
   <si>
     <t>8.16复习:
-1.大思路有,具体实现抽象不出来,多复习</t>
+1.大思路有,具体实现抽象不出来,多复习
+8.18复习:
+1.顺利,但是使用的c,还没用js写过链表,之后练习</t>
   </si>
   <si>
     <t>巧妙利用指针,有思路后写不对+链表初始化第一个节点打印出来始终为0,未解决</t>
@@ -719,69 +721,15 @@
   <si>
     <t>8.15复习:
 1.方法一顺利
-2.方法二第一时间没想到</t>
+2.方法二第一时间没想到
+8.18复习:思路顺利,学习了新的标准输入输出,获得的输入是string类型,需要数字就用parseInt转换一下,代码在右边</t>
   </si>
   <si>
     <t>js:
 方法一:利用语法特性,unshift往头添加,再砍掉length
 方法二:负负得正
-js中交换数组内容可以这样写,不用中间商:[arr[start], arr[end]] = [arr[end], arr[start]];</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 找出字符串中第一个匹配项的下标</t>
-  </si>
-  <si>
-    <t>28. 找出字符串中第一个匹配项的下标</t>
-  </si>
-  <si>
-    <t>8.15更新总结:
-1.Array构造器方法:
-Array.prototype.reverse():就地反转数组中的元素，并返回同一数组的引用。
-Array.prototype.join(): array-&gt;string  将一个数组（或一个类数组对象）的所有元素连接成一个字符串并返回这个字符串，用逗号或指定的分隔符字符串分隔。
-2.String构造器方法:
-String.prototype.charCodeAt(index): :根据索引返回string对应的UTF-16 码元
-String.prototype.trim(): 从字符串的两端移除空白字符，并返回一个新的字符串，而不会修改原始字符串。
-String.prototype.split(): string-&gt;array  split()通过搜索模式将字符串分割成一个有序的子串列表，将这些子串放入一个数组，并返回该数组。
-3.字符串转数组:arr = Array.from(s);
-4.Math计算: Math.min()</t>
-  </si>
-  <si>
-    <t>双指针10</t>
-  </si>
-  <si>
-    <t>27. 移除元素</t>
-  </si>
-  <si>
-    <t>8.18复习:
-顺利,分清两个指针的职责,slow用于记录修改后的最后一个内容,fast用于比对不需要移除的元素</t>
-  </si>
-  <si>
-    <t>js:
-大思路是双指针,但是具体思路错误,多复习</t>
-  </si>
-  <si>
-    <t>js:
-很顺利</t>
-  </si>
-  <si>
-    <t>js:
-方法一:使用sting.charCodeAt()方法很顺利简单
-方法二:使用双指针方法,阅读懂了代码含义,抄了一遍,没有自己写,有新的表达,标准输入输出等,先学习,多复习</t>
-  </si>
-  <si>
-    <t>翻转字符串里的单词</t>
-  </si>
-  <si>
-    <t>151.翻转字符串里的单词</t>
-  </si>
-  <si>
-    <t>js:
-1.问题全都出在移除多余空格处,思路和移除元素相同,快慢指针,核心只需要考虑fastpoint,多练习</t>
-  </si>
-  <si>
-    <t>js:
-1.思路顺利
-2.学习了新的标准输入输出,获得的输入是string类型,需要数字就用parseInt转换一下:
+js中交换数组内容可以这样写,不用中间商:[arr[start], arr[end]] = [arr[end], arr[start]];
+学习了新的标准输入输出,获得的输入是string类型,需要数字就用parseInt转换一下:
 const readline = require("readline");
 const r1 = readline.createInterface({
     input: process.stdin,
@@ -813,16 +761,82 @@
 }</t>
   </si>
   <si>
-    <t>28. 实现 strStr()</t>
-  </si>
-  <si>
-    <t>459.重复的子字符串</t>
+    <t xml:space="preserve"> 找出字符串中第一个匹配项的下标</t>
+  </si>
+  <si>
+    <t>28. 找出字符串中第一个匹配项的下标</t>
+  </si>
+  <si>
+    <t>8.15更新总结:
+1.Array构造器方法:
+Array.prototype.reverse():就地反转数组中的元素，并返回同一数组的引用。
+Array.prototype.join(): array-&gt;string  将一个数组（或一个类数组对象）的所有元素连接成一个字符串并返回这个字符串，用逗号或指定的分隔符字符串分隔。
+2.String构造器方法:
+String.prototype.charCodeAt(index): :根据索引返回string对应的UTF-16 码元
+String.prototype.trim(): 从字符串的两端移除空白字符，并返回一个新的字符串，而不会修改原始字符串。
+String.prototype.split(): string-&gt;array  split()通过搜索模式将字符串分割成一个有序的子串列表，将这些子串放入一个数组，并返回该数组。
+3.字符串转数组:arr = Array.from(s);
+4.Math计算: Math.min()</t>
+  </si>
+  <si>
+    <t>双指针10</t>
+  </si>
+  <si>
+    <t>27. 移除元素</t>
+  </si>
+  <si>
+    <t>8.18复习:
+顺利,分清两个指针的职责,slow用于记录修改后的最后一个内容,fast用于比对不需要移除的元素</t>
+  </si>
+  <si>
+    <t>js:
+大思路是双指针,但是具体思路错误,多复习</t>
+  </si>
+  <si>
+    <t>js:
+很顺利</t>
+  </si>
+  <si>
+    <t>js:
+方法一:使用sting.charCodeAt()方法很顺利简单
+方法二:使用双指针方法,阅读懂了代码含义,抄了一遍,没有自己写,有新的表达,标准输入输出等,先学习,多复习</t>
+  </si>
+  <si>
+    <t>翻转字符串里的单词</t>
+  </si>
+  <si>
+    <t>151.翻转字符串里的单词</t>
+  </si>
+  <si>
+    <t>js:
+1.问题全都出在移除多余空格处,思路和移除元素相同,快慢指针,核心只需要考虑fastpoint,多练习</t>
+  </si>
+  <si>
+    <t>c:
+1.顺利,但是使用的c,还没用js写过链表,之后练习</t>
+  </si>
+  <si>
+    <t>02.07. 链表相交</t>
+  </si>
+  <si>
+    <t>环形链表 II</t>
+  </si>
+  <si>
+    <t>js:
+思路混乱, 一堆冗在一起,先思考清楚,再写</t>
+  </si>
+  <si>
+    <t>js:
+思路不够清楚导致提交了几次才过,这种题先把思路里清楚,很容易一团粥,多练习简化思路</t>
   </si>
   <si>
     <t>总结</t>
   </si>
   <si>
     <t>栈与队列7</t>
+  </si>
+  <si>
+    <t>总结:</t>
   </si>
   <si>
     <t>二叉树32</t>
@@ -1583,7 +1597,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1648,6 +1662,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1670,6 +1690,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1990,12 +2022,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G76"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62:G62"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -2028,10 +2060,10 @@
       <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -2058,10 +2090,10 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="23">
         <v>6.21</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -2076,10 +2108,10 @@
       <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="23">
         <v>6.24</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="10"/>
@@ -2092,10 +2124,10 @@
       <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="23">
         <v>6.24</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="23" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="10"/>
@@ -2108,10 +2140,10 @@
       <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="23">
         <v>6.29</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="10"/>
@@ -2124,10 +2156,10 @@
       <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="24">
         <v>6.3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="10"/>
@@ -2142,10 +2174,10 @@
       <c r="D9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="23">
         <v>7.24</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="23" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -2162,10 +2194,10 @@
       <c r="D10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="23">
         <v>7.25</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="23" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -2182,10 +2214,10 @@
       <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="12" t="s">
@@ -2202,10 +2234,10 @@
       <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="23">
         <v>7.27</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="23" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -2220,8 +2252,8 @@
       <c r="D13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7">
@@ -2232,8 +2264,8 @@
       <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="12"/>
     </row>
     <row r="15" ht="55" customHeight="1" spans="2:7">
@@ -2244,7 +2276,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="23"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="15" t="s">
@@ -2254,7 +2286,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="24"/>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="9"/>
@@ -2264,10 +2296,10 @@
       <c r="D17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="12" t="s">
         <v>6</v>
       </c>
@@ -2282,10 +2314,10 @@
       <c r="D18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="23" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -2302,17 +2334,17 @@
       <c r="D19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="23">
         <v>7.31</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="23" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" ht="36" spans="2:7">
+    <row r="20" ht="72" spans="2:7">
       <c r="B20" s="9">
         <v>3</v>
       </c>
@@ -2322,10 +2354,10 @@
       <c r="D20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="23" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -2342,10 +2374,10 @@
       <c r="D21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="23">
         <v>8.2</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="23" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -2362,13 +2394,13 @@
       <c r="D22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="23">
         <v>8.2</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="27" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2382,10 +2414,10 @@
       <c r="D23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="23">
         <v>8.3</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="23" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -2402,13 +2434,13 @@
       <c r="D24" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="23">
         <v>8.3</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2420,7 +2452,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="26"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="15" t="s">
@@ -2430,7 +2462,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="26"/>
     </row>
     <row r="27" ht="156" spans="2:7">
       <c r="B27" s="9">
@@ -2442,10 +2474,10 @@
       <c r="D27" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="23" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -2462,10 +2494,10 @@
       <c r="D28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="23" t="s">
         <v>81</v>
       </c>
       <c r="G28" s="12" t="s">
@@ -2482,10 +2514,10 @@
       <c r="D29" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="23">
         <v>8.9</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="23" t="s">
         <v>85</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -2502,10 +2534,10 @@
       <c r="D30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="23" t="s">
         <v>90</v>
       </c>
       <c r="G30" s="12" t="s">
@@ -2522,10 +2554,10 @@
       <c r="D31" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="29">
         <v>8.1</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="29" t="s">
         <v>94</v>
       </c>
       <c r="G31" s="12" t="s">
@@ -2542,10 +2574,10 @@
       <c r="D32" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="29">
         <v>8.1</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="29" t="s">
         <v>98</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -2562,10 +2594,10 @@
       <c r="D33" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="29" t="s">
         <v>103</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -2582,10 +2614,10 @@
       <c r="D34" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="29">
         <v>8.12</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="29" t="s">
         <v>107</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -2600,7 +2632,7 @@
       <c r="D35" s="20"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="28"/>
+      <c r="G35" s="30"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="15" t="s">
@@ -2610,7 +2642,7 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="24"/>
+      <c r="G36" s="26"/>
     </row>
     <row r="37" ht="108" spans="2:7">
       <c r="B37" s="9">
@@ -2620,10 +2652,10 @@
       <c r="D37" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="23">
         <v>8.5</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="23" t="s">
         <v>112</v>
       </c>
       <c r="G37" s="12" t="s">
@@ -2638,10 +2670,10 @@
       <c r="D38" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="21" t="s">
+      <c r="F38" s="23" t="s">
         <v>116</v>
       </c>
       <c r="G38" s="12" t="s">
@@ -2656,10 +2688,10 @@
       <c r="D39" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="23">
         <v>8.5</v>
       </c>
-      <c r="F39" s="21" t="s">
+      <c r="F39" s="23" t="s">
         <v>119</v>
       </c>
       <c r="G39" s="12" t="s">
@@ -2674,10 +2706,10 @@
       <c r="D40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="23">
         <v>8.6</v>
       </c>
-      <c r="F40" s="21" t="s">
+      <c r="F40" s="23" t="s">
         <v>122</v>
       </c>
       <c r="G40" s="12" t="s">
@@ -2692,10 +2724,10 @@
       <c r="D41" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="21" t="s">
+      <c r="F41" s="23" t="s">
         <v>126</v>
       </c>
       <c r="G41" s="12" t="s">
@@ -2710,10 +2742,10 @@
       <c r="D42" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="23">
         <v>8.8</v>
       </c>
-      <c r="F42" s="21" t="s">
+      <c r="F42" s="23" t="s">
         <v>129</v>
       </c>
       <c r="G42" s="12" t="s">
@@ -2728,7 +2760,7 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="30"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="15" t="s">
@@ -2738,7 +2770,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="24"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" ht="36" spans="2:7">
       <c r="B45" s="9">
@@ -2750,10 +2782,10 @@
       <c r="D45" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="23">
         <v>8.12</v>
       </c>
-      <c r="F45" s="21" t="s">
+      <c r="F45" s="23" t="s">
         <v>135</v>
       </c>
       <c r="G45" s="12" t="s">
@@ -2770,10 +2802,10 @@
       <c r="D46" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="21" t="s">
+      <c r="E46" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="21" t="s">
+      <c r="F46" s="23" t="s">
         <v>135</v>
       </c>
       <c r="G46" s="12" t="s">
@@ -2790,10 +2822,10 @@
       <c r="D47" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="23">
         <v>8.13</v>
       </c>
-      <c r="F47" s="21" t="s">
+      <c r="F47" s="23" t="s">
         <v>143</v>
       </c>
       <c r="G47" s="12" t="s">
@@ -2810,17 +2842,17 @@
       <c r="D48" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="23">
         <v>8.14</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F48" s="23" t="s">
         <v>147</v>
       </c>
       <c r="G48" s="12" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" ht="48" spans="2:7">
+    <row r="49" ht="409.5" spans="2:7">
       <c r="B49" s="9">
         <v>5</v>
       </c>
@@ -2830,10 +2862,10 @@
       <c r="D49" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49" s="23">
         <v>8.14</v>
       </c>
-      <c r="F49" s="21" t="s">
+      <c r="F49" s="23" t="s">
         <v>151</v>
       </c>
       <c r="G49" s="12" t="s">
@@ -2850,10 +2882,10 @@
       <c r="D50" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50" s="23">
         <v>8.14</v>
       </c>
-      <c r="F50" s="21"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" spans="2:7">
@@ -2862,8 +2894,8 @@
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" ht="159" customHeight="1" spans="2:7">
@@ -2874,7 +2906,7 @@
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="28"/>
+      <c r="G52" s="30"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="15" t="s">
@@ -2884,7 +2916,7 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="24"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" ht="60" spans="2:7">
       <c r="B54" s="9">
@@ -2896,10 +2928,10 @@
       <c r="D54" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="21">
+      <c r="E54" s="23">
         <v>8.18</v>
       </c>
-      <c r="F54" s="21" t="s">
+      <c r="F54" s="23" t="s">
         <v>158</v>
       </c>
       <c r="G54" s="12" t="s">
@@ -2916,10 +2948,10 @@
       <c r="D55" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="21">
+      <c r="E55" s="23">
         <v>8.18</v>
       </c>
-      <c r="F55" s="21"/>
+      <c r="F55" s="23"/>
       <c r="G55" s="12" t="s">
         <v>160</v>
       </c>
@@ -2934,10 +2966,10 @@
       <c r="D56" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="21">
+      <c r="E56" s="23">
         <v>8.18</v>
       </c>
-      <c r="F56" s="21"/>
+      <c r="F56" s="23"/>
       <c r="G56" s="12" t="s">
         <v>161</v>
       </c>
@@ -2952,158 +2984,289 @@
       <c r="D57" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="21">
+      <c r="E57" s="23">
         <v>8.18</v>
       </c>
-      <c r="F57" s="21"/>
+      <c r="F57" s="23"/>
       <c r="G57" s="12" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="58" ht="409.5" spans="2:7">
+    <row r="58" ht="24" spans="2:7">
       <c r="B58" s="9">
         <v>5</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>149</v>
+        <v>50</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="E58" s="23">
+        <v>8.18</v>
+      </c>
+      <c r="F58" s="23"/>
       <c r="G58" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" ht="24" spans="2:7">
       <c r="B59" s="9">
         <v>6</v>
       </c>
-      <c r="C59" s="10"/>
+      <c r="C59" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="D59" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
+        <v>60</v>
+      </c>
+      <c r="E59" s="23">
+        <v>8.18</v>
+      </c>
+      <c r="F59" s="23"/>
       <c r="G59" s="12"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="9">
         <v>7</v>
       </c>
-      <c r="C60" s="10"/>
+      <c r="C60" s="10" t="s">
+        <v>63</v>
+      </c>
       <c r="D60" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="9">
+        <v>8</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="12"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="13" t="s">
+      <c r="D61" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="22"/>
+    </row>
+    <row r="62" ht="24" spans="2:7">
+      <c r="B62" s="9">
+        <v>9</v>
+      </c>
+      <c r="C62" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="31">
+        <v>8.18</v>
+      </c>
+      <c r="F62" s="31"/>
+      <c r="G62" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="23"/>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="15" t="s">
+    </row>
+    <row r="63" ht="24" spans="2:7">
+      <c r="B63" s="9">
+        <v>10</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="31">
+        <v>8.18</v>
+      </c>
+      <c r="F63" s="31"/>
+      <c r="G63" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="24"/>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="9"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="24"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="9"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="12"/>
+      <c r="B65" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="26"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="24"/>
+      <c r="B66" s="9">
+        <v>1</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="9">
+        <v>2</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="9">
+        <v>3</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="9">
+        <v>4</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="9">
+        <v>5</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="9">
+        <v>6</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="9">
+        <v>7</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="22"/>
+      <c r="B73" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="24"/>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="24"/>
-    </row>
-    <row r="72" spans="2:7">
-      <c r="B72" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="24"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="34"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
-      <c r="G74" s="24"/>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="4">
+      <c r="G74" s="26"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="9"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="26"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="26"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="26"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="26"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="26"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="4">
         <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
         <v>204</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -3116,14 +3279,15 @@
     <mergeCell ref="B44:G44"/>
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
     <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="B73:G73"/>
     <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B84:G84"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
@@ -3151,7 +3315,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3159,24 +3323,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3201,10 +3365,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3212,7 +3376,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3220,7 +3384,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3228,7 +3392,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="8535"/>
+    <workbookView windowWidth="27750" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="194">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -834,6 +834,56 @@
   </si>
   <si>
     <t>栈与队列7</t>
+  </si>
+  <si>
+    <t>用栈实现队列</t>
+  </si>
+  <si>
+    <t>232. 用栈实现队列</t>
+  </si>
+  <si>
+    <t xml:space="preserve">js:
+双栈模拟队列. 不知道类怎么实现. 除此之外,双栈方法有思路,但不敢实现
+1. j中栈的底层实现通常是通过数组 (Array) 来完成的,js中的数组是动态的,适合充当这里的容器
+2.js中的容器:Array, Object, Map, Set, WeakMap(键只能是对象), WeakSet(值必须是对象), TypedArray(是一种特殊的数组类型，用于处理二进制数据), Buffer(是 Node.js 中提供的类，主要用于操作二进制数据), ArrayBuffer(是一种通用的、固定长度的二进制数据缓冲区), DataView(是一个视图，使得可以以多种数据类型来读取和写入 ArrayBuffer 的内容)
+3.栈: 所有元素必须符合先进后出规则，所以栈不提供走访功能，也不提供迭代器(iterator)
+4.暂时性死区:用 let、const 或 class 声明的变量可以称其从代码块的开始一直到代码执行到变量声明的位置并被初始化前，都处于一个“暂时性死区”（Temporal dead zone，TDZ）中。当变量处于暂时性死区之中时，其尚未被初始化，并且任何访问其的尝试都将导致抛出 ReferenceError。当代码执行到变量被声明的位置时，变量会被初始化为一个值。如果变量声明中未指定初始值，则变量将被初始化为 undefined。
+同样情况var声明的变量在暂时性死区中访问会返回"undefined"
+5.怎么灵活使用类--深入理解类
+    构造函数: 是一种传统的定义对象类型的方法。使用 function 关键字定义，使用 new 关键字创建实例。
+    类（class）: 是 ES6 引入的语法糖，用于更直观地定义对象类型。类使得代码更具结构性，更接近其他面向对象编程语言的语法。
+    如果你熟悉了 class 语法，你会发现它在组织代码、定义方法和继承时更方便、更清晰。
+创建对象的方法:
+方法一:传统方法-构造函数
+var MyQueue = function() {
+    this.instack = [];
+    this.outstack = [];
+};
+var obj = new MyQueue();
+方法二:类
+类实际上是“特殊的函数”，就像你能够定义的函数表达式和函数声明一样，类也有两种定义方式：类表达式和类声明。
+// 类声明
+class Rectangle {
+  constructor(height, width) {
+    this.height = height;
+    this.width = width;
+  }
+}
+// 类表达式；类是匿名的，但是它被赋值给了变量
+const Rectangle = class {
+  constructor(height, width) {
+    this.height = height;
+    this.width = width;
+  }
+};
+// 类表达式；类有它自己的名字
+const Rectangle = class Rectangle2 {
+  constructor(height, width) {
+    this.height = height;
+    this.width = width;
+  }
+};
+</t>
   </si>
   <si>
     <t>总结:</t>
@@ -2025,9 +2075,9 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73:G73"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3110,15 +3160,23 @@
       <c r="F65" s="16"/>
       <c r="G65" s="26"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" ht="409.5" spans="2:7">
       <c r="B66" s="9">
         <v>1</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="23"/>
+      <c r="C66" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" s="23">
+        <v>8.23</v>
+      </c>
       <c r="F66" s="23"/>
-      <c r="G66" s="12"/>
+      <c r="G66" s="12" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="67" spans="2:7">
       <c r="B67" s="9">
@@ -3183,7 +3241,7 @@
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
       <c r="B73" s="32" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -3193,7 +3251,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -3211,7 +3269,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -3221,7 +3279,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -3231,7 +3289,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -3241,7 +3299,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -3251,7 +3309,7 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -3315,7 +3373,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3323,24 +3381,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3365,10 +3423,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3376,7 +3434,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3384,7 +3442,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3392,7 +3450,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12675"/>
+    <workbookView windowWidth="20745" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="200">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -884,6 +884,31 @@
   }
 };
 </t>
+  </si>
+  <si>
+    <t>用队列实现栈</t>
+  </si>
+  <si>
+    <t>225. 用队列实现栈</t>
+  </si>
+  <si>
+    <t>js:
+有了上个题,这个题顺利了许多
+1.思路: 操作栈顶元素(出栈/返回栈顶元素)-&gt;除了最后一个,将inqueue放入outqueue
+2.Array.prototype.shift(): 从数组中删除第一个元素，并返回该元素的值。此方法更改数组的长度。
+3.Array.prototype.unshift(): 方法将指定元素添加到数组的开头，并返回数组的新长度。</t>
+  </si>
+  <si>
+    <t>有效的括号</t>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+  </si>
+  <si>
+    <t>js:
+方法一:双栈, 分四种情况,依次判断多个临界点
+方法二:简化思路,照着抄了一遍
+方法三:简化写法,照着抄了一遍</t>
   </si>
   <si>
     <t>总结:</t>
@@ -2074,10 +2099,10 @@
   <sheetPr/>
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3178,25 +3203,41 @@
         <v>174</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" ht="60" spans="2:7">
       <c r="B67" s="9">
         <v>2</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="23"/>
+      <c r="C67" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="23">
+        <v>8.23</v>
+      </c>
       <c r="F67" s="23"/>
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="2:7">
+      <c r="G67" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" ht="48" spans="2:7">
       <c r="B68" s="9">
         <v>3</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="23"/>
+      <c r="C68" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" s="23">
+        <v>8.23</v>
+      </c>
       <c r="F68" s="23"/>
-      <c r="G68" s="12"/>
+      <c r="G68" s="12" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="69" spans="2:7">
       <c r="B69" s="9">
@@ -3241,7 +3282,7 @@
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
       <c r="B73" s="32" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -3251,7 +3292,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -3269,7 +3310,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="15" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -3279,7 +3320,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="15" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -3289,7 +3330,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="15" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -3299,7 +3340,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="15" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -3309,7 +3350,7 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="15" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -3373,7 +3414,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3381,24 +3422,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3423,10 +3464,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3434,7 +3475,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3442,7 +3483,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3450,7 +3491,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="8535"/>
+    <workbookView windowWidth="13815" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="202">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -909,6 +909,12 @@
 方法一:双栈, 分四种情况,依次判断多个临界点
 方法二:简化思路,照着抄了一遍
 方法三:简化写法,照着抄了一遍</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 删除字符串中的所有相邻重复项</t>
+  </si>
+  <si>
+    <t>1047. 删除字符串中的所有相邻重复项</t>
   </si>
   <si>
     <t>总结:</t>
@@ -2099,10 +2105,10 @@
   <sheetPr/>
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G68" sqref="G68"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3239,12 +3245,16 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" ht="24" spans="2:7">
       <c r="B69" s="9">
         <v>4</v>
       </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="12"/>
+      <c r="C69" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>182</v>
+      </c>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
       <c r="G69" s="12"/>
@@ -3282,7 +3292,7 @@
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
       <c r="B73" s="32" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -3292,7 +3302,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -3310,7 +3320,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -3320,7 +3330,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -3330,7 +3340,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -3340,7 +3350,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -3350,7 +3360,7 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -3414,7 +3424,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3422,24 +3432,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3464,10 +3474,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3475,7 +3485,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3483,7 +3493,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3491,7 +3501,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="204">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -915,6 +915,12 @@
   </si>
   <si>
     <t>1047. 删除字符串中的所有相邻重复项</t>
+  </si>
+  <si>
+    <t>逆波兰表达式求值</t>
+  </si>
+  <si>
+    <t>150. 逆波兰表达式求值</t>
   </si>
   <si>
     <t>总结:</t>
@@ -2108,7 +2114,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3263,8 +3269,12 @@
       <c r="B70" s="9">
         <v>5</v>
       </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="12"/>
+      <c r="C70" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>184</v>
+      </c>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
       <c r="G70" s="12"/>
@@ -3292,7 +3302,7 @@
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
       <c r="B73" s="32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -3302,7 +3312,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -3320,7 +3330,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -3330,7 +3340,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -3340,7 +3350,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -3350,7 +3360,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -3360,7 +3370,7 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -3424,7 +3434,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3432,24 +3442,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3474,10 +3484,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3485,7 +3495,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3493,7 +3503,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3501,7 +3511,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="205">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -915,6 +915,15 @@
   </si>
   <si>
     <t>1047. 删除字符串中的所有相邻重复项</t>
+  </si>
+  <si>
+    <t>js:
+方法一:29min,无心插柳柳成阴了属于是
+1.Array.prototype.at(): 接收一个整数值并返回该索引对应的元素，允许正数和负数。负整数从数组中的最后一个元素开始倒数。
+方法二: 官方题解
+不需要定义两个栈,string就可以自己当栈
+如果有多个判断,其中包括length !=== 0,可以写成
+有问题:像这种就不对:azxxxzy</t>
   </si>
   <si>
     <t>逆波兰表达式求值</t>
@@ -2114,7 +2123,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3251,7 +3260,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="69" ht="24" spans="2:7">
+    <row r="69" ht="84" spans="2:7">
       <c r="B69" s="9">
         <v>4</v>
       </c>
@@ -3261,19 +3270,23 @@
       <c r="D69" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="23"/>
+      <c r="E69" s="23">
+        <v>8.28</v>
+      </c>
       <c r="F69" s="23"/>
-      <c r="G69" s="12"/>
+      <c r="G69" s="12" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="70" spans="2:7">
       <c r="B70" s="9">
         <v>5</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
@@ -3302,7 +3315,7 @@
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
       <c r="B73" s="32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -3312,7 +3325,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -3330,7 +3343,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -3340,7 +3353,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -3350,7 +3363,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -3360,7 +3373,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -3370,7 +3383,7 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -3434,7 +3447,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3442,24 +3455,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3484,10 +3497,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3495,7 +3508,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3503,7 +3516,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3511,7 +3524,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="211">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -930,6 +930,30 @@
   </si>
   <si>
     <t>150. 逆波兰表达式求值</t>
+  </si>
+  <si>
+    <t>js:
+1.大体思路是正确的,但细节思路不清晰,不统一 + 难在细节处理
+2.内置对象eval(): 会将传入的字符串当做 JavaScript 代码进行执行。
+3.Math.floor() : 向下取整, 返回小于等于一个给定数字的最大整数。
+4.Math.ceil() : 向上取整, 返回大于等于给定数字的最小整数。</t>
+  </si>
+  <si>
+    <t>滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>js:
+方法一:超时
+方法二:单调队列,思想难,多复习</t>
+  </si>
+  <si>
+    <t>前 K 个高频元素</t>
+  </si>
+  <si>
+    <t>347. 前 K 个高频元素</t>
   </si>
   <si>
     <t>总结:</t>
@@ -2123,7 +2147,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3278,7 +3302,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" ht="60" spans="2:7">
       <c r="B70" s="9">
         <v>5</v>
       </c>
@@ -3288,34 +3312,52 @@
       <c r="D70" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="23">
+        <v>8.28</v>
+      </c>
       <c r="F70" s="23"/>
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="2:7">
+      <c r="G70" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" ht="36" spans="2:7">
       <c r="B71" s="9">
         <v>6</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="23"/>
+      <c r="C71" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="23">
+        <v>8.28</v>
+      </c>
       <c r="F71" s="23"/>
-      <c r="G71" s="12"/>
+      <c r="G71" s="12" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="72" spans="2:7">
       <c r="B72" s="9">
         <v>7</v>
       </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="23"/>
+      <c r="C72" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E72" s="23">
+        <v>8.28</v>
+      </c>
       <c r="F72" s="23"/>
       <c r="G72" s="12"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
       <c r="B73" s="32" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -3325,7 +3367,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -3343,7 +3385,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="15" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -3353,7 +3395,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="15" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -3363,7 +3405,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="15" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -3373,7 +3415,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="15" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -3383,7 +3425,7 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="15" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -3447,7 +3489,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3455,24 +3497,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3497,10 +3539,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3508,7 +3550,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3516,7 +3558,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3524,7 +3566,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13815" windowHeight="12495"/>
+    <workbookView windowWidth="16320" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="213">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -956,7 +956,71 @@
     <t>347. 前 K 个高频元素</t>
   </si>
   <si>
-    <t>总结:</t>
+    <t>8.29复习:
+1.搞懂了完全二叉树性质+手动实现堆+比较函数应用
+2.自己搞懂后写的,主要疑问还是在比较函数,多复习,手写
+知识点:
+1.二叉树性质:
+2.手动实现堆:
+3.比较函数应用:</t>
+  </si>
+  <si>
+    <t>js:
+抄的,难在第一次手写堆+相关数据结构知识不清楚+思想没完全掌握
+需要补的内容:堆数据结构的知识点,大小顶堆,队列,单调队列,优先队列,最大优先队列,最小优先队列
+思路:
+1.统计元素出现频率: map
+2.对频率排序: 本题就要使用优先级队列+大顶堆 来对部分频率进行排序。为什么不用快排呢， 使用快排要将map转换为vector的结构，然后对整个数组进行排序， 而这种场景下，我们其实只需要维护k个有序的序列就可以了，所以使用优先级队列是最优的。
+  定义一个大小为k的大顶堆，在每次移动更新大顶堆的时候，每次弹出都把最大的元素弹出去了，那么怎么保留下来前K个高频元素呢。而且使用大顶堆就要把所有元素都进行排序，那能不能只排序k个元素呢？所以我们要用小顶堆，因为要统计最大前k个元素，只有小顶堆每次将最小的元素弹出，最后小顶堆里积累的才是前k个最大元素
+3.找出前K个高频元素
+js没有堆,手写构造堆和优先队列
+1.堆: 是一棵完全二叉树，树中每个结点的值都不小于（或不大于）其左右孩子的值.  如果父亲结点是大于等于左右孩子就是大顶堆，小于等于左右孩子就是小顶堆。
+2.大顶堆:每个父节点的值都大于或等于其子节点的值。根节点是堆中最大的元素。大顶堆通常用于实现最大优先队列
+3.小顶堆:每个父节点的值都小于或等于其子节点的值。根节点是堆中最小的元素。小顶堆通常用于实现最小优先队列
+4.堆的操作:插入O(logn)-&gt;将新元素添加到堆的末尾,然后通过"上浮"操作调整堆;  删除O(logn)-&gt;将堆顶元素移除,用堆底元素替换堆顶,再通过“下沉”操作重新调整堆
+5.优先队列:是一种特殊类型的队列，其中每个元素都有一个与之关联的优先级。元素按优先级顺序进行处理，而不是按插入顺序。优先队列通常用于需要根据优先级处理任务的场景。
+其他知识点:
+1.Map.prototype.set(): 向 Map 对象添加或更新一个指定的键值对。
+2.比较函数:用于自定义排序规则的函数, 广泛应用于排序函数、优先队列、堆等数据结构中
+    比较函数在不同上下文中的应用: 
+     1.排序数组: Array.prototype.sort((a, b) =&gt; a - b), 返回负值, a排在b之前; 返回0, a和b顺序不变; 返回正值, b排在a之前
+     2.优先队列: 比较函数用来决定队列中元素的优先级,例如，最大优先队列需要一个比较函数，确保优先级高的元素排在前面：
+            class MaxPriorityQueue {
+                constructor() {
+                    this.heap = [];
+                }
+                enqueue(element, priority) {
+                    this.heap.push({ element, priority });
+                    this.heap.sort((a, b) =&gt; b.priority - a.priority); // 最大优先队列
+                }
+                dequeue() {
+                    return this.heap.shift(); // 取出优先级最高的元素
+                }
+            }
+            const maxPQ = new MaxPriorityQueue();
+            maxPQ.enqueue('Task A', 2); // 优先级 2
+            maxPQ.enqueue('Task B', 3); // 优先级 3
+            console.log(maxPQ.dequeue().element); // 输出: Task B
+     3.堆: 比较函数用于决定堆的结构，比如在大顶堆和小顶堆中分别按照最大值或最小值调整堆的顺序：
+3.Map.prototype.entries():返回一个新的 map 迭代器对象，该对象包含了此 map 中的每个元素的 [key, value] 对，按插入顺序排列。
+   下面这个 entry 是一个长度为2的数组，0位置存储key，1位置存储value
+    for(const entry of map.entries()) {
+    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.28总结:
+1.灵魂四问:    
+    C++中stack，queue 是容器么？
+    我们使用的stack，queue是属于那个版本的STL？
+    我们使用的STL中stack，queue是如何实现的？
+    stack，queue 提供迭代器来遍历空间么？
+2.栈里面的元素在内存中是连续分布的么？
+    陷阱1：栈是容器适配器，底层容器使用不同的容器，导致栈内数据在内存中不一定是连续分布的。
+    陷阱2：缺省情况下，默认底层容器是deque，那么deque在内存中的数据分布是什么样的呢？ 答案是：不连续的，下文也会提到deque。
+3.没明白: 一个队列在模拟栈弹出元素的时候只要将队列头部的元素（除了最后一个元素外） 重新添加到队列尾部，此时在去弹出元素就是栈的顺序了。
+4.栈:
+    栈在系统中的应用:栈在计算机领域中应用是非常广泛-&gt;递归的实现是栈：每一次递归调用都会把函数的局部变量、参数值和返回地址等压入调用栈中，然后递归返回的时候，从栈顶弹出上一次递归的各项参数，所以这就是递归为什么可以返回上一层位置的原因。
+    题目:括号匹配问题-20题; 字符串去重-1047题; 逆波兰表达式问题-150题; </t>
   </si>
   <si>
     <t>二叉树32</t>
@@ -2145,9 +2209,9 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E72" sqref="E72"/>
+      <selection pane="bottomLeft" activeCell="B73" sqref="B73:G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3338,7 +3402,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" ht="409.5" spans="2:7">
       <c r="B72" s="9">
         <v>7</v>
       </c>
@@ -3351,13 +3415,17 @@
       <c r="E72" s="23">
         <v>8.28</v>
       </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="12"/>
+      <c r="F72" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="22"/>
       <c r="B73" s="32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -3367,7 +3435,7 @@
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
@@ -3385,7 +3453,7 @@
     </row>
     <row r="76" spans="2:7">
       <c r="B76" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
@@ -3395,7 +3463,7 @@
     </row>
     <row r="78" spans="2:7">
       <c r="B78" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
@@ -3405,7 +3473,7 @@
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
@@ -3415,7 +3483,7 @@
     </row>
     <row r="82" spans="2:7">
       <c r="B82" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
@@ -3425,7 +3493,7 @@
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -3489,7 +3557,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3497,24 +3565,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3539,10 +3607,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3550,7 +3618,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3558,7 +3626,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3566,7 +3634,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16320" windowHeight="12495"/>
+    <workbookView windowWidth="19410" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -1008,7 +1008,7 @@
     }</t>
   </si>
   <si>
-    <t xml:space="preserve">8.28总结:
+    <t>8.28总结:
 1.灵魂四问:    
     C++中stack，queue 是容器么？
     我们使用的stack，queue是属于那个版本的STL？
@@ -1020,7 +1020,13 @@
 3.没明白: 一个队列在模拟栈弹出元素的时候只要将队列头部的元素（除了最后一个元素外） 重新添加到队列尾部，此时在去弹出元素就是栈的顺序了。
 4.栈:
     栈在系统中的应用:栈在计算机领域中应用是非常广泛-&gt;递归的实现是栈：每一次递归调用都会把函数的局部变量、参数值和返回地址等压入调用栈中，然后递归返回的时候，从栈顶弹出上一次递归的各项参数，所以这就是递归为什么可以返回上一层位置的原因。
-    题目:括号匹配问题-20题; 字符串去重-1047题; 逆波兰表达式问题-150题; </t>
+    题目:括号匹配问题-20题; 字符串去重-1047题; 逆波兰表达式问题-150题; 
+5.队列:
+    1.滑动窗口最大值问题-239题-&gt;单调队列
+    主要思想是队列没有必要维护窗口里的所有元素，只需要维护有可能成为窗口里最大值的元素就可以了，同时保证队列里的元素数值是由大到小的。
+    那么这个维护元素单调递减的队列就叫做单调队列，即单调递减或单调递增的队列。C++中没有直接支持单调队列，需要我们自己来一个单调队列
+    而且不要以为实现的单调队列就是 对窗口里面的数进行排序，如果排序的话，那和优先级队列又有什么区别了呢。...
+    2.前 K 个高频元素-347题:优先级队列(就是一个披着队列外衣的堆)</t>
   </si>
   <si>
     <t>二叉树32</t>
@@ -1781,7 +1787,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1878,14 +1884,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2206,12 +2206,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B73" sqref="B73:G73"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3422,16 +3422,16 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" ht="257" customHeight="1" spans="1:7">
       <c r="A73" s="22"/>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="34"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="25"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
@@ -3444,7 +3444,9 @@
       <c r="G74" s="26"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="9"/>
+      <c r="B75" s="9">
+        <v>1</v>
+      </c>
       <c r="C75" s="10"/>
       <c r="D75" s="12"/>
       <c r="E75" s="23"/>
@@ -3452,57 +3454,337 @@
       <c r="G75" s="12"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="15" t="s">
+      <c r="B76" s="32">
+        <v>2</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="9">
+        <v>3</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="32">
+        <v>4</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="9">
+        <v>5</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="32"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="32"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="32"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="12"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="32"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="32"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="32"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="32"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="32"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="12"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="32"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="32"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="32"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="32"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="32"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="32"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="32"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="32"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="32"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="32"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="32"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="32"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="32"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="32"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="32"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="32"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="32"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="12"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="32"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="12"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="32"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="23"/>
+      <c r="G106" s="12"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="32"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="23"/>
+      <c r="G107" s="12"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="32"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="12"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="32"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="26"/>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="15" t="s">
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="26"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="26"/>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="15" t="s">
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="26"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="26"/>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="15" t="s">
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="26"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="26"/>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="15" t="s">
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="26"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="26"/>
-    </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="4">
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="26"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="4">
         <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
         <v>204</v>
       </c>
@@ -3525,11 +3807,11 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B118:G118"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19410" windowHeight="12495"/>
+    <workbookView windowWidth="15015" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="217">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -1030,6 +1030,49 @@
   </si>
   <si>
     <t>二叉树32</t>
+  </si>
+  <si>
+    <t>二叉树的递归遍历</t>
+  </si>
+  <si>
+    <t>144. 二叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>js:
+抄的,自己调试需要先构建二叉树,再写递归函数
+1.创建对象的两种方式: 1.构造函数; 2.类(类声明, 类表达式)
+每次写递归，都按照这三要素来写:
+1.确定递归函数的参数和返回值： 确定哪些参数是递归的过程中需要处理的，那么就在递归函数里加上这个参数， 并且还要明确每次递归的返回值是什么进而确定递归函数的返回类型。
+2.确定终止条件： 写完了递归算法, 运行的时候，经常会遇到栈溢出的错误，就是没写终止条件或者终止条件写的不对，操作系统也是用一个栈的结构来保存每一层递归的信息，如果递归没有终止，操作系统的内存栈必然就会溢出。
+3.确定单层递归的逻辑： 确定每一层递归需要处理的信息。在这里也就会重复调用自己来实现递归的过程。</t>
+  </si>
+  <si>
+    <t>总结:
+1.二叉树的种类: 
+满二叉树(深度为k,有2^k-1个节点); 
+完全二叉树(优先级队列其实是一个堆，堆就是一棵完全二叉树，同时保证父子节点的顺序关系);
+二叉搜索树;
+平衡二叉搜索树:又被称为AVL（Adelson-Velsky and Landis）树，且具有以下性质：它是一棵空树或它的左右两个子树的高度差的绝对值不超过1，并且左右两个子树都是一棵平衡二叉树。
+C++中map、set、multimap，multiset的底层实现都是平衡二叉搜索树，所以map、set的增删操作时间时间复杂度是logn，注意我这里没有说unordered_map、unordered_set，unordered_map、unordered_set底层实现是哈希表。所以大家使用自己熟悉的编程语言写算法，一定要知道常用的容器底层都是如何实现的，最基本的就是map、set等等，否则自己写的代码，自己对其性能分析都分析不清楚！
+js中的Map, Set, WeakMap, WeakSet底层实现都是hash表,插入,删除,查找的时间复杂度都是O(1)
+2.二叉树的存储方式: a.链式(指针, 一般使用链式,更有利于理解), 顺序存储(数组)
+数组存储的遍历方式:如果父节点的数组下标是 i，那么它的左孩子就是 i * 2 + 1，右孩子就是 i * 2 + 2
+3.二叉树的遍历方式
+    深度优先遍历：先往深走，遇到叶子节点再往回走。
+        前序遍历（递归法，迭代法）
+        中序遍历（递归法，迭代法）
+        后序遍历（递归法，迭代法）
+    广度优先遍历：一层一层的去遍历。
+        层次遍历（迭代法）
+深度优先遍历: 栈其实就是递归的一种实现结构,也就说前中后序遍历的逻辑其实都是可以借助栈使用递归的方式来实现的。
+广度优先遍历:一般使用队列来实现，需要先进先出的结构，才能一层一层的来遍历二叉树
+4.二叉树的定义:js:
+function TreeNode(val, left, right) {
+    this.val = (val===undefined ? 0 : val)
+    this.left = (left===undefined ? null : left)
+    this.right = (right===undefined ? null : right)
+}
+5.</t>
   </si>
   <si>
     <t>回溯算法20</t>
@@ -1479,7 +1522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1534,6 +1577,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1651,7 +1731,7 @@
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1684,7 +1764,7 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1702,19 +1782,19 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1750,7 +1830,7 @@
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1768,13 +1848,13 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1783,11 +1863,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1884,8 +1964,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2208,10 +2303,10 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3443,21 +3538,29 @@
       <c r="F74" s="16"/>
       <c r="G74" s="26"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" ht="132" spans="2:7">
       <c r="B75" s="9">
         <v>1</v>
       </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="23"/>
+      <c r="C75" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" s="23">
+        <v>8.29</v>
+      </c>
       <c r="F75" s="23"/>
-      <c r="G75" s="12"/>
+      <c r="G75" s="12" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="32">
+      <c r="B76" s="33">
         <v>2</v>
       </c>
-      <c r="C76" s="10"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="12"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
@@ -3467,14 +3570,14 @@
       <c r="B77" s="9">
         <v>3</v>
       </c>
-      <c r="C77" s="10"/>
+      <c r="C77" s="35"/>
       <c r="D77" s="12"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
       <c r="G77" s="12"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="32">
+      <c r="B78" s="33">
         <v>4</v>
       </c>
       <c r="C78" s="10"/>
@@ -3494,7 +3597,7 @@
       <c r="G79" s="12"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="32"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="10"/>
       <c r="D80" s="12"/>
       <c r="E80" s="23"/>
@@ -3502,7 +3605,7 @@
       <c r="G80" s="12"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="32"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="23"/>
@@ -3510,7 +3613,7 @@
       <c r="G81" s="12"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="32"/>
+      <c r="B82" s="33"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="23"/>
@@ -3518,7 +3621,7 @@
       <c r="G82" s="12"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="32"/>
+      <c r="B83" s="33"/>
       <c r="C83" s="10"/>
       <c r="D83" s="12"/>
       <c r="E83" s="23"/>
@@ -3526,7 +3629,7 @@
       <c r="G83" s="12"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="32"/>
+      <c r="B84" s="33"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12"/>
       <c r="E84" s="23"/>
@@ -3534,7 +3637,7 @@
       <c r="G84" s="12"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="32"/>
+      <c r="B85" s="33"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="23"/>
@@ -3542,7 +3645,7 @@
       <c r="G85" s="12"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="32"/>
+      <c r="B86" s="33"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="23"/>
@@ -3550,7 +3653,7 @@
       <c r="G86" s="12"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="32"/>
+      <c r="B87" s="33"/>
       <c r="C87" s="10"/>
       <c r="D87" s="12"/>
       <c r="E87" s="23"/>
@@ -3558,7 +3661,7 @@
       <c r="G87" s="12"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="32"/>
+      <c r="B88" s="33"/>
       <c r="C88" s="10"/>
       <c r="D88" s="12"/>
       <c r="E88" s="23"/>
@@ -3566,7 +3669,7 @@
       <c r="G88" s="12"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="32"/>
+      <c r="B89" s="33"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="23"/>
@@ -3574,7 +3677,7 @@
       <c r="G89" s="12"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="32"/>
+      <c r="B90" s="33"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="23"/>
@@ -3582,7 +3685,7 @@
       <c r="G90" s="12"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="32"/>
+      <c r="B91" s="33"/>
       <c r="C91" s="10"/>
       <c r="D91" s="12"/>
       <c r="E91" s="23"/>
@@ -3590,7 +3693,7 @@
       <c r="G91" s="12"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="32"/>
+      <c r="B92" s="33"/>
       <c r="C92" s="10"/>
       <c r="D92" s="12"/>
       <c r="E92" s="23"/>
@@ -3598,7 +3701,7 @@
       <c r="G92" s="12"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="32"/>
+      <c r="B93" s="33"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
       <c r="E93" s="23"/>
@@ -3606,7 +3709,7 @@
       <c r="G93" s="12"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="32"/>
+      <c r="B94" s="33"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="23"/>
@@ -3614,7 +3717,7 @@
       <c r="G94" s="12"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="32"/>
+      <c r="B95" s="33"/>
       <c r="C95" s="10"/>
       <c r="D95" s="12"/>
       <c r="E95" s="23"/>
@@ -3622,7 +3725,7 @@
       <c r="G95" s="12"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="32"/>
+      <c r="B96" s="33"/>
       <c r="C96" s="10"/>
       <c r="D96" s="12"/>
       <c r="E96" s="23"/>
@@ -3630,7 +3733,7 @@
       <c r="G96" s="12"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="32"/>
+      <c r="B97" s="33"/>
       <c r="C97" s="10"/>
       <c r="D97" s="12"/>
       <c r="E97" s="23"/>
@@ -3638,7 +3741,7 @@
       <c r="G97" s="12"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="32"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="10"/>
       <c r="D98" s="12"/>
       <c r="E98" s="23"/>
@@ -3646,7 +3749,7 @@
       <c r="G98" s="12"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="32"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="10"/>
       <c r="D99" s="12"/>
       <c r="E99" s="23"/>
@@ -3654,7 +3757,7 @@
       <c r="G99" s="12"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="32"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="10"/>
       <c r="D100" s="12"/>
       <c r="E100" s="23"/>
@@ -3662,7 +3765,7 @@
       <c r="G100" s="12"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="32"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="10"/>
       <c r="D101" s="12"/>
       <c r="E101" s="23"/>
@@ -3670,7 +3773,7 @@
       <c r="G101" s="12"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="32"/>
+      <c r="B102" s="33"/>
       <c r="C102" s="10"/>
       <c r="D102" s="12"/>
       <c r="E102" s="23"/>
@@ -3678,7 +3781,7 @@
       <c r="G102" s="12"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="32"/>
+      <c r="B103" s="33"/>
       <c r="C103" s="10"/>
       <c r="D103" s="12"/>
       <c r="E103" s="23"/>
@@ -3686,7 +3789,7 @@
       <c r="G103" s="12"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="32"/>
+      <c r="B104" s="33"/>
       <c r="C104" s="10"/>
       <c r="D104" s="12"/>
       <c r="E104" s="23"/>
@@ -3694,7 +3797,7 @@
       <c r="G104" s="12"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="32"/>
+      <c r="B105" s="33"/>
       <c r="C105" s="10"/>
       <c r="D105" s="12"/>
       <c r="E105" s="23"/>
@@ -3702,7 +3805,7 @@
       <c r="G105" s="12"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="32"/>
+      <c r="B106" s="33"/>
       <c r="C106" s="10"/>
       <c r="D106" s="12"/>
       <c r="E106" s="23"/>
@@ -3710,7 +3813,7 @@
       <c r="G106" s="12"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="32"/>
+      <c r="B107" s="33"/>
       <c r="C107" s="10"/>
       <c r="D107" s="12"/>
       <c r="E107" s="23"/>
@@ -3718,24 +3821,26 @@
       <c r="G107" s="12"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="32"/>
+      <c r="B108" s="33"/>
       <c r="C108" s="10"/>
       <c r="D108" s="12"/>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" spans="2:7">
-      <c r="B109" s="32"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="23"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="12"/>
+    <row r="109" ht="408" customHeight="1" spans="2:7">
+      <c r="B109" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C109" s="36"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="36"/>
+      <c r="G109" s="37"/>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="15" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -3745,7 +3850,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="15" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -3755,7 +3860,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="15" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -3765,7 +3870,7 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="15" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -3775,7 +3880,7 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -3790,7 +3895,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="25">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -3807,12 +3912,14 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B109:G109"/>
     <mergeCell ref="B110:G110"/>
     <mergeCell ref="B112:G112"/>
     <mergeCell ref="B114:G114"/>
     <mergeCell ref="B116:G116"/>
     <mergeCell ref="B118:G118"/>
     <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C75:C77"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3839,7 +3946,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3847,24 +3954,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3889,10 +3996,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -3900,7 +4007,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -3908,7 +4015,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -3916,7 +4023,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15015" windowHeight="12495"/>
+    <workbookView windowWidth="27750" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="222">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -1045,6 +1045,23 @@
 1.确定递归函数的参数和返回值： 确定哪些参数是递归的过程中需要处理的，那么就在递归函数里加上这个参数， 并且还要明确每次递归的返回值是什么进而确定递归函数的返回类型。
 2.确定终止条件： 写完了递归算法, 运行的时候，经常会遇到栈溢出的错误，就是没写终止条件或者终止条件写的不对，操作系统也是用一个栈的结构来保存每一层递归的信息，如果递归没有终止，操作系统的内存栈必然就会溢出。
 3.确定单层递归的逻辑： 确定每一层递归需要处理的信息。在这里也就会重复调用自己来实现递归的过程。</t>
+  </si>
+  <si>
+    <t>145. 二叉树的后序遍历</t>
+  </si>
+  <si>
+    <t>js:
+上面这个前序遍历会了后,这个很顺利</t>
+  </si>
+  <si>
+    <t>94. 二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>二叉树的迭代遍历</t>
+  </si>
+  <si>
+    <t>js:
+为什么可以使用栈:递归的实现就是：每一次递归调用都会把函数的局部变量、参数值和返回地址等压入调用栈中，然后递归返回的时候，从栈顶弹出上一次递归的各项参数，所以这就是递归为什么可以返回上一层位置的原因。</t>
   </si>
   <si>
     <t>总结:
@@ -2303,10 +2320,10 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G80" sqref="G80"/>
+      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3556,56 +3573,82 @@
         <v>198</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" ht="24" spans="2:7">
       <c r="B76" s="33">
         <v>2</v>
       </c>
       <c r="C76" s="34"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="23"/>
+      <c r="D76" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="23">
+        <v>8.29</v>
+      </c>
       <c r="F76" s="23"/>
-      <c r="G76" s="12"/>
-    </row>
-    <row r="77" spans="2:7">
+      <c r="G76" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" ht="24" spans="2:7">
       <c r="B77" s="9">
         <v>3</v>
       </c>
       <c r="C77" s="35"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="23"/>
+      <c r="D77" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" s="23">
+        <v>8.29</v>
+      </c>
       <c r="F77" s="23"/>
-      <c r="G77" s="12"/>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="33">
-        <v>4</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="23"/>
+      <c r="G77" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" ht="48" spans="2:7">
+      <c r="B78" s="33"/>
+      <c r="C78" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E78" s="23">
+        <v>8.29</v>
+      </c>
       <c r="F78" s="23"/>
-      <c r="G78" s="12"/>
+      <c r="G78" s="12" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="9">
-        <v>5</v>
-      </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="23"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E79" s="23">
+        <v>8.29</v>
+      </c>
       <c r="F79" s="23"/>
       <c r="G79" s="12"/>
     </row>
     <row r="80" spans="2:7">
       <c r="B80" s="33"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="23"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E80" s="23">
+        <v>8.29</v>
+      </c>
       <c r="F80" s="23"/>
       <c r="G80" s="12"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="33"/>
+      <c r="B81" s="33">
+        <v>4</v>
+      </c>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="23"/>
@@ -3613,7 +3656,9 @@
       <c r="G81" s="12"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="33"/>
+      <c r="B82" s="33">
+        <v>5</v>
+      </c>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="23"/>
@@ -3621,7 +3666,9 @@
       <c r="G82" s="12"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="33"/>
+      <c r="B83" s="33">
+        <v>6</v>
+      </c>
       <c r="C83" s="10"/>
       <c r="D83" s="12"/>
       <c r="E83" s="23"/>
@@ -3830,7 +3877,7 @@
     </row>
     <row r="109" ht="408" customHeight="1" spans="2:7">
       <c r="B109" s="13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
@@ -3840,7 +3887,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -3850,7 +3897,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="15" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -3860,7 +3907,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="15" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -3870,7 +3917,7 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -3880,7 +3927,7 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="15" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -3895,7 +3942,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -3920,6 +3967,7 @@
     <mergeCell ref="B118:G118"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C78:C80"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3946,7 +3994,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3954,24 +4002,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -3996,10 +4044,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4007,7 +4055,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4015,7 +4063,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4023,7 +4071,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="228">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -1061,7 +1061,35 @@
   </si>
   <si>
     <t>js:
+什么是迭代法: 是指使用循环结构来实现算法逻辑，而不是依赖递归
 为什么可以使用栈:递归的实现就是：每一次递归调用都会把函数的局部变量、参数值和返回地址等压入调用栈中，然后递归返回的时候，从栈顶弹出上一次递归的各项参数，所以这就是递归为什么可以返回上一层位置的原因。</t>
+  </si>
+  <si>
+    <t>js:
+先看代码,抄的
+无法同时解决访问节点（遍历节点）和处理节点（将元素放进结果集）不一致的情况,使用另一个指针辅助</t>
+  </si>
+  <si>
+    <t>js:
+抄的,难在推导思路,区别于先序遍历
+1.Array.prototype.reverse(): 就地反转数组中的元素，并返回同一数组的引用</t>
+  </si>
+  <si>
+    <t>二叉树的统一迭代法</t>
+  </si>
+  <si>
+    <t>js:
+理解后复现
+前面的迭代法风格也不是那么统一，除了先序和后序，有关联，中序完全就是另一个风格了，一会用栈遍历，一会又用指针来遍历.但是实际上三种遍历方式，使用迭代法是可以写出统一风格的代码</t>
+  </si>
+  <si>
+    <t>js:
+上面理解后,这个很顺利,主要理清思路</t>
+  </si>
+  <si>
+    <t>js:
+上面理解后,这个比较顺利,主要困难在情况试错,理清思路
+重大发现,这个方法下的null都是放在中结点后面的!!!!</t>
   </si>
   <si>
     <t>总结:
@@ -2320,10 +2348,10 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G66" sqref="G66"/>
+      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3621,59 +3649,83 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" ht="36" spans="2:7">
       <c r="B79" s="9"/>
       <c r="C79" s="34"/>
       <c r="D79" s="12" t="s">
         <v>199</v>
       </c>
       <c r="E79" s="23">
-        <v>8.29</v>
+        <v>8.31</v>
       </c>
       <c r="F79" s="23"/>
-      <c r="G79" s="12"/>
-    </row>
-    <row r="80" spans="2:7">
+      <c r="G79" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="80" ht="36" spans="2:7">
       <c r="B80" s="33"/>
       <c r="C80" s="35"/>
       <c r="D80" s="12" t="s">
         <v>201</v>
       </c>
       <c r="E80" s="23">
-        <v>8.29</v>
+        <v>8.31</v>
       </c>
       <c r="F80" s="23"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="2:7">
+      <c r="G80" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" ht="48" spans="2:7">
       <c r="B81" s="33">
         <v>4</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="23"/>
+      <c r="C81" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E81" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F81" s="23"/>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" spans="2:7">
+      <c r="G81" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="82" ht="24" spans="2:7">
       <c r="B82" s="33">
         <v>5</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="23"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F82" s="23"/>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" spans="2:7">
+      <c r="G82" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="83" ht="36" spans="2:7">
       <c r="B83" s="33">
         <v>6</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="23"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F83" s="23"/>
-      <c r="G83" s="12"/>
+      <c r="G83" s="12" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" s="33"/>
@@ -3877,7 +3929,7 @@
     </row>
     <row r="109" ht="408" customHeight="1" spans="2:7">
       <c r="B109" s="13" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
@@ -3887,7 +3939,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="15" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -3897,7 +3949,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="15" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -3907,7 +3959,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="15" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -3917,7 +3969,7 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="15" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -3927,7 +3979,7 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="15" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -3942,7 +3994,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -3968,6 +4020,7 @@
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
+    <mergeCell ref="C81:C83"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3994,7 +4047,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4002,24 +4055,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4044,10 +4097,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4055,7 +4108,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4063,7 +4116,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4071,7 +4124,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12675"/>
+    <workbookView windowWidth="15015" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="242">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -1090,6 +1090,57 @@
     <t>js:
 上面理解后,这个比较顺利,主要困难在情况试错,理清思路
 重大发现,这个方法下的null都是放在中结点后面的!!!!</t>
+  </si>
+  <si>
+    <t>二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>102.二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>层序遍历思想:
+队列先进先出，符合一层一层遍历的逻辑，而用栈先进后出适合模拟深度优先遍历也就是递归的逻辑。
+而这种层序遍历方式就是图论中的广度优先遍历，只不过我们应用在二叉树上
+js:
+思想理解了一半没写出来,照着抄了一次,理解了</t>
+  </si>
+  <si>
+    <t>107. 二叉树的层序遍历 II</t>
+  </si>
+  <si>
+    <t>js:
+敏捷的思维,在上个题基础上稍作修改~</t>
+  </si>
+  <si>
+    <t>199. 二叉树的右视图</t>
+  </si>
+  <si>
+    <t>js:
+多思考了一下,总体顺利</t>
+  </si>
+  <si>
+    <t>637. 二叉树的层平均值</t>
+  </si>
+  <si>
+    <t>js:
+顺利</t>
+  </si>
+  <si>
+    <t>429. N 叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>js:
+模拟题,顺利</t>
+  </si>
+  <si>
+    <t>515. 在每个树行中找最大值</t>
+  </si>
+  <si>
+    <t>js:
+顺利,使用一个小小的语法糖</t>
+  </si>
+  <si>
+    <t>116. 填充每个节点的下一个右侧节点指针</t>
   </si>
   <si>
     <t>总结:
@@ -2348,10 +2399,10 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G83" sqref="G83"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3678,9 +3729,7 @@
       </c>
     </row>
     <row r="81" ht="48" spans="2:7">
-      <c r="B81" s="33">
-        <v>4</v>
-      </c>
+      <c r="B81" s="33"/>
       <c r="C81" s="32" t="s">
         <v>206</v>
       </c>
@@ -3696,9 +3745,7 @@
       </c>
     </row>
     <row r="82" ht="24" spans="2:7">
-      <c r="B82" s="33">
-        <v>5</v>
-      </c>
+      <c r="B82" s="33"/>
       <c r="C82" s="34"/>
       <c r="D82" s="12" t="s">
         <v>199</v>
@@ -3712,9 +3759,7 @@
       </c>
     </row>
     <row r="83" ht="36" spans="2:7">
-      <c r="B83" s="33">
-        <v>6</v>
-      </c>
+      <c r="B83" s="33"/>
       <c r="C83" s="35"/>
       <c r="D83" s="12" t="s">
         <v>197</v>
@@ -3727,65 +3772,105 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" ht="72" spans="2:7">
       <c r="B84" s="33"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="23"/>
+      <c r="C84" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E84" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F84" s="23"/>
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" spans="2:7">
+      <c r="G84" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" ht="24" spans="2:7">
       <c r="B85" s="33"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="23"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E85" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F85" s="23"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="2:7">
+      <c r="G85" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" ht="24" spans="2:7">
       <c r="B86" s="33"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="23"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="E86" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F86" s="23"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="87" spans="2:7">
+      <c r="G86" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" ht="24" spans="2:7">
       <c r="B87" s="33"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="23"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E87" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F87" s="23"/>
-      <c r="G87" s="12"/>
-    </row>
-    <row r="88" spans="2:7">
+      <c r="G87" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="88" ht="24" spans="2:7">
       <c r="B88" s="33"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="23"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F88" s="23"/>
-      <c r="G88" s="12"/>
-    </row>
-    <row r="89" spans="2:7">
+      <c r="G88" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" ht="24" spans="2:7">
       <c r="B89" s="33"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="23"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="E89" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F89" s="23"/>
-      <c r="G89" s="12"/>
-    </row>
-    <row r="90" spans="2:7">
+      <c r="G89" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" ht="24" spans="2:7">
       <c r="B90" s="33"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="12"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="12" t="s">
+        <v>223</v>
+      </c>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
       <c r="G90" s="12"/>
     </row>
     <row r="91" spans="2:7">
       <c r="B91" s="33"/>
-      <c r="C91" s="10"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="12"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
@@ -3793,7 +3878,7 @@
     </row>
     <row r="92" spans="2:7">
       <c r="B92" s="33"/>
-      <c r="C92" s="10"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="12"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
@@ -3801,7 +3886,7 @@
     </row>
     <row r="93" spans="2:7">
       <c r="B93" s="33"/>
-      <c r="C93" s="10"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="12"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
@@ -3929,7 +4014,7 @@
     </row>
     <row r="109" ht="408" customHeight="1" spans="2:7">
       <c r="B109" s="13" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
@@ -3939,7 +4024,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="15" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -3949,7 +4034,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="15" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -3959,7 +4044,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="15" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -3969,7 +4054,7 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="15" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -3979,7 +4064,7 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="15" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -3994,7 +4079,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="28">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -4021,6 +4106,7 @@
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
     <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C84:C93"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4047,7 +4133,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4055,24 +4141,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4097,10 +4183,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4108,7 +4194,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4116,7 +4202,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4124,7 +4210,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15015" windowHeight="12495"/>
+    <workbookView windowWidth="27750" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="246">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -1141,6 +1141,19 @@
   </si>
   <si>
     <t>116. 填充每个节点的下一个右侧节点指针</t>
+  </si>
+  <si>
+    <t>js:
+思路很巧妙,想复杂了,没写出来,抄的.  题目中的输出跟js写出来是不一样的,仔细理解题意</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 117.填充每个节点的下一个右侧节点指针II</t>
+  </si>
+  <si>
+    <t>104. 二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>111. 二叉树的最小深度</t>
   </si>
   <si>
     <t>总结:
@@ -2399,10 +2412,10 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3773,7 +3786,9 @@
       </c>
     </row>
     <row r="84" ht="72" spans="2:7">
-      <c r="B84" s="33"/>
+      <c r="B84" s="33">
+        <v>4</v>
+      </c>
       <c r="C84" s="32" t="s">
         <v>210</v>
       </c>
@@ -3789,7 +3804,9 @@
       </c>
     </row>
     <row r="85" ht="24" spans="2:7">
-      <c r="B85" s="33"/>
+      <c r="B85" s="33">
+        <v>5</v>
+      </c>
       <c r="C85" s="34"/>
       <c r="D85" s="12" t="s">
         <v>213</v>
@@ -3803,7 +3820,9 @@
       </c>
     </row>
     <row r="86" ht="24" spans="2:7">
-      <c r="B86" s="33"/>
+      <c r="B86" s="33">
+        <v>6</v>
+      </c>
       <c r="C86" s="34"/>
       <c r="D86" s="12" t="s">
         <v>215</v>
@@ -3817,7 +3836,9 @@
       </c>
     </row>
     <row r="87" ht="24" spans="2:7">
-      <c r="B87" s="33"/>
+      <c r="B87" s="33">
+        <v>7</v>
+      </c>
       <c r="C87" s="34"/>
       <c r="D87" s="12" t="s">
         <v>217</v>
@@ -3831,7 +3852,9 @@
       </c>
     </row>
     <row r="88" ht="24" spans="2:7">
-      <c r="B88" s="33"/>
+      <c r="B88" s="33">
+        <v>8</v>
+      </c>
       <c r="C88" s="34"/>
       <c r="D88" s="12" t="s">
         <v>219</v>
@@ -3845,7 +3868,9 @@
       </c>
     </row>
     <row r="89" ht="24" spans="2:7">
-      <c r="B89" s="33"/>
+      <c r="B89" s="33">
+        <v>9</v>
+      </c>
       <c r="C89" s="34"/>
       <c r="D89" s="12" t="s">
         <v>221</v>
@@ -3859,36 +3884,64 @@
       </c>
     </row>
     <row r="90" ht="24" spans="2:7">
-      <c r="B90" s="33"/>
+      <c r="B90" s="33">
+        <v>10</v>
+      </c>
       <c r="C90" s="34"/>
       <c r="D90" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F90" s="23"/>
-      <c r="G90" s="12"/>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="33"/>
+      <c r="G90" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" ht="24" spans="2:7">
+      <c r="B91" s="33">
+        <v>11</v>
+      </c>
       <c r="C91" s="34"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="23"/>
+      <c r="D91" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F91" s="23"/>
-      <c r="G91" s="12"/>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="33"/>
+      <c r="G91" s="12" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="92" ht="24" spans="2:7">
+      <c r="B92" s="33">
+        <v>12</v>
+      </c>
       <c r="C92" s="34"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="23"/>
+      <c r="D92" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E92" s="23">
+        <v>9.1</v>
+      </c>
       <c r="F92" s="23"/>
-      <c r="G92" s="12"/>
+      <c r="G92" s="12" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="33"/>
+      <c r="B93" s="33">
+        <v>13</v>
+      </c>
       <c r="C93" s="35"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="23"/>
+      <c r="D93" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="E93" s="23">
+        <v>8.31</v>
+      </c>
       <c r="F93" s="23"/>
       <c r="G93" s="12"/>
     </row>
@@ -4014,7 +4067,7 @@
     </row>
     <row r="109" ht="408" customHeight="1" spans="2:7">
       <c r="B109" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
@@ -4024,7 +4077,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -4034,7 +4087,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -4044,7 +4097,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -4054,7 +4107,7 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -4064,7 +4117,7 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="15" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -4133,7 +4186,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4141,24 +4194,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4183,10 +4236,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4194,7 +4247,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4202,7 +4255,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4210,7 +4263,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="247">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -1154,6 +1154,10 @@
   </si>
   <si>
     <t>111. 二叉树的最小深度</t>
+  </si>
+  <si>
+    <t>js:
+思路卡没反应过来,总体顺利</t>
   </si>
   <si>
     <t>总结:
@@ -2415,7 +2419,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3931,7 +3935,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" ht="24" spans="2:7">
       <c r="B93" s="33">
         <v>13</v>
       </c>
@@ -3940,10 +3944,12 @@
         <v>227</v>
       </c>
       <c r="E93" s="23">
-        <v>8.31</v>
+        <v>9.1</v>
       </c>
       <c r="F93" s="23"/>
-      <c r="G93" s="12"/>
+      <c r="G93" s="12" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="94" spans="2:7">
       <c r="B94" s="33"/>
@@ -4067,7 +4073,7 @@
     </row>
     <row r="109" ht="408" customHeight="1" spans="2:7">
       <c r="B109" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
@@ -4077,7 +4083,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -4087,7 +4093,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -4097,7 +4103,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -4107,7 +4113,7 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -4117,7 +4123,7 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -4186,7 +4192,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4194,24 +4200,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4236,10 +4242,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4247,7 +4253,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4255,7 +4261,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4263,7 +4269,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12675"/>
+    <workbookView windowWidth="15015" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="250">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -1160,13 +1160,26 @@
 思路卡没反应过来,总体顺利</t>
   </si>
   <si>
+    <t>226.翻转二叉树</t>
+  </si>
+  <si>
+    <t>js:
+方法一:顺利, 前序遍历迭代法
+方法二:递归吃力, 前序遍历递归法
+1.&amp;&amp;左右是表达式必须用()括起来
+注意:针对二叉树的问题，解题之前一定要想清楚究竟是前中后序遍历，还是层序遍历。</t>
+  </si>
+  <si>
+    <t>101. 对称二叉树</t>
+  </si>
+  <si>
     <t>总结:
 1.二叉树的种类: 
 满二叉树(深度为k,有2^k-1个节点); 
 完全二叉树(优先级队列其实是一个堆，堆就是一棵完全二叉树，同时保证父子节点的顺序关系);
 二叉搜索树;
 平衡二叉搜索树:又被称为AVL（Adelson-Velsky and Landis）树，且具有以下性质：它是一棵空树或它的左右两个子树的高度差的绝对值不超过1，并且左右两个子树都是一棵平衡二叉树。
-C++中map、set、multimap，multiset的底层实现都是平衡二叉搜索树，所以map、set的增删操作时间时间复杂度是logn，注意我这里没有说unordered_map、unordered_set，unordered_map、unordered_set底层实现是哈希表。所以大家使用自己熟悉的编程语言写算法，一定要知道常用的容器底层都是如何实现的，最基本的就是map、set等等，否则自己写的代码，自己对其性能分析都分析不清楚！
+C++中map、set、multimap，multiset的底层实现都是平衡二叉搜索树,再具体一点,就是红黑树，所以map、set的增删操作时间时间复杂度是logn，注意我这里没有说unordered_map、unordered_set，unordered_map、unordered_set底层实现是哈希表。所以大家使用自己熟悉的编程语言写算法，一定要知道常用的容器底层都是如何实现的，最基本的就是map、set等等，否则自己写的代码，自己对其性能分析都分析不清楚！
 js中的Map, Set, WeakMap, WeakSet底层实现都是hash表,插入,删除,查找的时间复杂度都是O(1)
 2.二叉树的存储方式: a.链式(指针, 一般使用链式,更有利于理解), 顺序存储(数组)
 数组存储的遍历方式:如果父节点的数组下标是 i，那么它的左孩子就是 i * 2 + 1，右孩子就是 i * 2 + 2
@@ -1185,7 +1198,14 @@
     this.left = (left===undefined ? null : left)
     this.right = (right===undefined ? null : right)
 }
-5.</t>
+5.什么是红黑树
+6.递归三要素
+7.前中后序递归写法+前中后序迭代法(栈)+前中后序统一写法
+递归 VS 迭代: 从时间复杂度上其实迭代法和递归法差不多（在不考虑函数调用开销和函数调用产生的堆栈开销），但是空间复杂度上，递归开销会大一些，因为递归需要系统堆栈存参数返回值等等。
+递归更容易让程序员理解，但收敛不好，容易栈溢出。递归是方便了程序员，难为了机器（各种保存参数，各种进栈出栈）。
+在实际项目开发的过程中我们是要尽量避免递归！因为项目代码参数、调用关系都比较复杂，不容易控制递归深度，甚至会栈溢出。
+一定要掌握前中后序一种迭代的写法，并不因为某种场景的题目一定要用迭代，而是现场面试的时候，面试官看你顺畅的写出了递归，一般会进一步考察能不能写出相应的迭代。
+8.层序遍历</t>
   </si>
   <si>
     <t>回溯算法20</t>
@@ -2417,9 +2437,9 @@
   <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G88" sqref="G88"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3951,24 +3971,44 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="33"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="23"/>
+    <row r="94" ht="84" spans="2:7">
+      <c r="B94" s="33">
+        <v>14</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E94" s="23">
+        <v>9.1</v>
+      </c>
       <c r="F94" s="23"/>
-      <c r="G94" s="12"/>
+      <c r="G94" s="12" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="33"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="23"/>
+      <c r="B95" s="33">
+        <v>15</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="E95" s="23">
+        <v>9.1</v>
+      </c>
       <c r="F95" s="23"/>
       <c r="G95" s="12"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="33"/>
+      <c r="B96" s="33">
+        <v>16</v>
+      </c>
       <c r="C96" s="10"/>
       <c r="D96" s="12"/>
       <c r="E96" s="23"/>
@@ -3976,7 +4016,9 @@
       <c r="G96" s="12"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="33"/>
+      <c r="B97" s="33">
+        <v>17</v>
+      </c>
       <c r="C97" s="10"/>
       <c r="D97" s="12"/>
       <c r="E97" s="23"/>
@@ -3984,7 +4026,9 @@
       <c r="G97" s="12"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="33"/>
+      <c r="B98" s="33">
+        <v>18</v>
+      </c>
       <c r="C98" s="10"/>
       <c r="D98" s="12"/>
       <c r="E98" s="23"/>
@@ -4073,7 +4117,7 @@
     </row>
     <row r="109" ht="408" customHeight="1" spans="2:7">
       <c r="B109" s="13" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
@@ -4083,7 +4127,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -4093,7 +4137,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="15" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -4103,7 +4147,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -4113,7 +4157,7 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="15" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -4123,7 +4167,7 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -4192,7 +4236,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4200,24 +4244,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4242,10 +4286,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4253,7 +4297,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4261,7 +4305,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4269,7 +4313,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15015" windowHeight="12495"/>
+    <workbookView windowWidth="13815" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="251">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -1171,6 +1171,11 @@
   </si>
   <si>
     <t>101. 对称二叉树</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 自己写的超时,且思路乱,都没有思考使用什么遍历方法--实际上我使用的是迭代法..
+方法二:抄的,写不出来,多练习,递归方法</t>
   </si>
   <si>
     <t>总结:
@@ -2436,10 +2441,10 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3989,7 +3994,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" ht="36" spans="2:7">
       <c r="B95" s="33">
         <v>15</v>
       </c>
@@ -4003,7 +4008,9 @@
         <v>9.1</v>
       </c>
       <c r="F95" s="23"/>
-      <c r="G95" s="12"/>
+      <c r="G95" s="12" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="96" spans="2:7">
       <c r="B96" s="33">
@@ -4117,7 +4124,7 @@
     </row>
     <row r="109" ht="408" customHeight="1" spans="2:7">
       <c r="B109" s="13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
@@ -4127,7 +4134,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -4137,7 +4144,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -4147,7 +4154,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -4157,7 +4164,7 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -4167,7 +4174,7 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -4236,7 +4243,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4244,24 +4251,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4286,10 +4293,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4297,7 +4304,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4305,7 +4312,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4313,7 +4320,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -1174,8 +1174,9 @@
   </si>
   <si>
     <t>js:
-方法一: 自己写的超时,且思路乱,都没有思考使用什么遍历方法--实际上我使用的是迭代法..
-方法二:抄的,写不出来,多练习,递归方法</t>
+方法一: 自己写的超时,对于队列的处理上思路差了一点点, 使用的是迭代法..
+方法二:抄的,写不出来,多练习,递归方法
+方法三:迭代法,抄的, 多过思路</t>
   </si>
   <si>
     <t>总结:
@@ -2441,10 +2442,10 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G95" sqref="G95"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3994,7 +3995,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" ht="36" spans="2:7">
+    <row r="95" ht="48" spans="2:7">
       <c r="B95" s="33">
         <v>15</v>
       </c>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="258">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
   </si>
@@ -1153,6 +1153,11 @@
     <t>104. 二叉树的最大深度</t>
   </si>
   <si>
+    <t>js:
+方法一: 迭代法, 顺利
+方法二: 递归:后序遍历,没写出来,抄的,多练习</t>
+  </si>
+  <si>
     <t>111. 二叉树的最小深度</t>
   </si>
   <si>
@@ -1177,6 +1182,29 @@
 方法一: 自己写的超时,对于队列的处理上思路差了一点点, 使用的是迭代法..
 方法二:抄的,写不出来,多练习,递归方法
 方法三:迭代法,抄的, 多过思路</t>
+  </si>
+  <si>
+    <t>二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>js:
+方法二: 递归:后序遍历,没写出来,抄的,多练习</t>
+  </si>
+  <si>
+    <t>559. N 叉树的最大深度</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归法-后序遍历,基本都是正确的,问题出在细节上
+方法二:迭代法-层序遍历, 顺利
+1.Math.max(...count) 处理空数组会返回-Infinity</t>
+  </si>
+  <si>
+    <t>二叉树的最小深度</t>
+  </si>
+  <si>
+    <t>js:
+方法二: 迭代法-后序遍历, 没想出来,思路想错了,和迭代的思路有所不同,抄的</t>
   </si>
   <si>
     <t>总结:
@@ -2442,10 +2470,10 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -3945,7 +3973,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="92" ht="24" spans="2:7">
+    <row r="92" ht="36" spans="2:7">
       <c r="B92" s="33">
         <v>12</v>
       </c>
@@ -3958,7 +3986,7 @@
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="12" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" ht="24" spans="2:7">
@@ -3967,14 +3995,14 @@
       </c>
       <c r="C93" s="35"/>
       <c r="D93" s="12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E93" s="23">
         <v>9.1</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="12" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" ht="84" spans="2:7">
@@ -3982,17 +4010,17 @@
         <v>14</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E94" s="23">
         <v>9.1</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="95" ht="48" spans="2:7">
@@ -4000,48 +4028,66 @@
         <v>15</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E95" s="23">
         <v>9.1</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="12" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="33">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" ht="24" spans="2:7">
+      <c r="B96" s="33"/>
+      <c r="C96" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E96" s="23">
+        <v>9.2</v>
+      </c>
+      <c r="F96" s="23"/>
+      <c r="G96" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="97" ht="48" spans="2:7">
+      <c r="B97" s="33">
         <v>16</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="12"/>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="33">
-        <v>17</v>
-      </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="23"/>
+      <c r="C97" s="35"/>
+      <c r="D97" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E97" s="23">
+        <v>9.2</v>
+      </c>
       <c r="F97" s="23"/>
-      <c r="G97" s="12"/>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="33">
-        <v>18</v>
-      </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="23"/>
+      <c r="G97" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="98" ht="24" spans="2:7">
+      <c r="B98" s="33"/>
+      <c r="C98" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E98" s="23">
+        <v>9.2</v>
+      </c>
       <c r="F98" s="23"/>
-      <c r="G98" s="12"/>
+      <c r="G98" s="12" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="33"/>
@@ -4125,7 +4171,7 @@
     </row>
     <row r="109" ht="408" customHeight="1" spans="2:7">
       <c r="B109" s="13" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C109" s="36"/>
       <c r="D109" s="36"/>
@@ -4135,7 +4181,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="15" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
@@ -4145,7 +4191,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="15" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
@@ -4155,7 +4201,7 @@
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="15" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
@@ -4165,7 +4211,7 @@
     </row>
     <row r="116" spans="2:7">
       <c r="B116" s="15" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
@@ -4175,7 +4221,7 @@
     </row>
     <row r="118" spans="2:7">
       <c r="B118" s="15" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
@@ -4190,7 +4236,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -4218,6 +4264,7 @@
     <mergeCell ref="C78:C80"/>
     <mergeCell ref="C81:C83"/>
     <mergeCell ref="C84:C93"/>
+    <mergeCell ref="C96:C97"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4244,7 +4291,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4252,24 +4299,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4294,10 +4341,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4305,7 +4352,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4313,7 +4360,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4321,7 +4368,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,9 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="258">
-  <si>
-    <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="269">
+  <si>
+    <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
+从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
+从9.3日起,如果每天写4个题,写37天,2024 年 10 月 9 日就能写完第一遍</t>
   </si>
   <si>
     <t>序号</t>
@@ -1178,12 +1180,24 @@
     <t>101. 对称二叉树</t>
   </si>
   <si>
+    <t>9.3复习:
+方法一:递归,又抄了一遍,多复习三部曲
+方法二:迭代,思路卡了没想出来</t>
+  </si>
+  <si>
     <t>js:
 方法一: 自己写的超时,对于队列的处理上思路差了一点点, 使用的是迭代法..
 方法二:抄的,写不出来,多练习,递归方法
 方法三:迭代法,抄的, 多过思路</t>
   </si>
   <si>
+    <t>100. 相同的树</t>
+  </si>
+  <si>
+    <t>js:
+方法一:递归法-后序遍历, 自己想复杂了,抄的</t>
+  </si>
+  <si>
     <t>二叉树的最大深度</t>
   </si>
   <si>
@@ -1195,7 +1209,7 @@
   </si>
   <si>
     <t>js:
-方法一: 递归法-后序遍历,基本都是正确的,问题出在细节上
+方法一: 递归法-后序遍历,基本都是正确的,问题出在细节上. 前序遍历没看懂
 方法二:迭代法-层序遍历, 顺利
 1.Math.max(...count) 处理空数组会返回-Infinity</t>
   </si>
@@ -1205,6 +1219,38 @@
   <si>
     <t>js:
 方法二: 迭代法-后序遍历, 没想出来,思路想错了,和迭代的思路有所不同,抄的</t>
+  </si>
+  <si>
+    <t>222. 完全二叉树的节点个数</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归法:后序遍历,自己写出来的,调试久
+方法二: 迭代法: 层序遍历, 顺利
+1.a||b:只判断a的真假,真就返回a,假就返回b   a&amp;&amp;b:只判断a的真假,真就返回b,假就返回a</t>
+  </si>
+  <si>
+    <t>110. 平衡二叉树</t>
+  </si>
+  <si>
+    <t>1.什么是平衡二叉树: 是指该树所有节点的左右子树的深度相差不超过 1
+2.什么是红黑树:是一种自平衡的二叉搜索树，其中每个节点都有一个颜色属性（红色或黑色），并遵循以下规则：根节点是黑色，所有叶子节点（NIL节点）是黑色，红色节点的两个子节点都是黑色，以及从任何节点到其每个叶子节点的路径上，黑色节点的数量相同。
+js:
+方法一: 递归法, 返回设计错误,没写出来,抄的
+迭代法还没做!!
+通过本题可以了解求二叉树深度 和 二叉树高度的差异，求深度适合用前序遍历，而求高度适合用后序遍历。
+本题迭代法其实有点复杂，大家可以有一个思路，也不一定说非要写出来。
+但是递归方式是一定要掌握的！</t>
+  </si>
+  <si>
+    <t>257. 二叉树的所有路径</t>
+  </si>
+  <si>
+    <t>二叉树的所有路径</t>
+  </si>
+  <si>
+    <t>js:
+想不出来,看的答案,没看懂,没过完,不想写了</t>
   </si>
   <si>
     <t>总结:
@@ -1257,6 +1303,9 @@
     <t>图论30</t>
   </si>
   <si>
+    <t>2024/9/2 4:48:00+74</t>
+  </si>
+  <si>
     <t>已有书籍</t>
   </si>
   <si>
@@ -1297,12 +1346,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1334,21 +1384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1364,6 +1400,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1372,7 +1476,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1393,85 +1519,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1510,19 +1560,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,13 +1578,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1558,13 +1596,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1576,13 +1644,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1594,31 +1698,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,43 +1722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,13 +1734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,41 +1840,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1884,157 +1901,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2092,18 +2142,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2122,13 +2160,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2143,11 +2175,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2468,12 +2503,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -2486,7 +2521,7 @@
     <col min="7" max="7" width="54.3333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" ht="47" customHeight="1" spans="2:7">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2506,10 +2541,10 @@
       <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="12" t="s">
@@ -2536,10 +2571,10 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="19">
         <v>6.21</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="19" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="10" t="s">
@@ -2554,10 +2589,10 @@
       <c r="D5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="19">
         <v>6.24</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="10"/>
@@ -2570,10 +2605,10 @@
       <c r="D6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="19">
         <v>6.24</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="10"/>
@@ -2586,10 +2621,10 @@
       <c r="D7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="19">
         <v>6.29</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="19" t="s">
         <v>17</v>
       </c>
       <c r="G7" s="10"/>
@@ -2602,10 +2637,10 @@
       <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <v>6.3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="20" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="10"/>
@@ -2620,10 +2655,10 @@
       <c r="D9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="19">
         <v>7.24</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="19" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="12" t="s">
@@ -2640,10 +2675,10 @@
       <c r="D10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="19">
         <v>7.25</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="19" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="12" t="s">
@@ -2660,10 +2695,10 @@
       <c r="D11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="19" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="12" t="s">
@@ -2680,10 +2715,10 @@
       <c r="D12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="19">
         <v>7.27</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="19" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -2698,8 +2733,8 @@
       <c r="D13" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
       <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:7">
@@ -2710,8 +2745,8 @@
       <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="12"/>
     </row>
     <row r="15" ht="55" customHeight="1" spans="2:7">
@@ -2722,7 +2757,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="15" t="s">
@@ -2732,7 +2767,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="9"/>
@@ -2742,10 +2777,10 @@
       <c r="D17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="12" t="s">
         <v>6</v>
       </c>
@@ -2760,10 +2795,10 @@
       <c r="D18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="19" t="s">
         <v>44</v>
       </c>
       <c r="G18" s="12" t="s">
@@ -2780,10 +2815,10 @@
       <c r="D19" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="19">
         <v>7.31</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="12" t="s">
@@ -2800,10 +2835,10 @@
       <c r="D20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="19" t="s">
         <v>53</v>
       </c>
       <c r="G20" s="12" t="s">
@@ -2820,10 +2855,10 @@
       <c r="D21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="19">
         <v>8.2</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="19" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -2840,13 +2875,13 @@
       <c r="D22" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="19">
         <v>8.2</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2860,10 +2895,10 @@
       <c r="D23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="19">
         <v>8.3</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="19" t="s">
         <v>65</v>
       </c>
       <c r="G23" s="12" t="s">
@@ -2880,13 +2915,13 @@
       <c r="D24" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="19">
         <v>8.3</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="23" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2898,7 +2933,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
-      <c r="G25" s="28"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="15" t="s">
@@ -2908,7 +2943,7 @@
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
-      <c r="G26" s="26"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" ht="156" spans="2:7">
       <c r="B27" s="9">
@@ -2920,10 +2955,10 @@
       <c r="D27" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="19" t="s">
         <v>76</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -2940,10 +2975,10 @@
       <c r="D28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="19" t="s">
         <v>81</v>
       </c>
       <c r="G28" s="12" t="s">
@@ -2960,10 +2995,10 @@
       <c r="D29" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="19">
         <v>8.9</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="19" t="s">
         <v>85</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -2980,10 +3015,10 @@
       <c r="D30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="19" t="s">
         <v>90</v>
       </c>
       <c r="G30" s="12" t="s">
@@ -3000,10 +3035,10 @@
       <c r="D31" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="25">
         <v>8.1</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="25" t="s">
         <v>94</v>
       </c>
       <c r="G31" s="12" t="s">
@@ -3020,10 +3055,10 @@
       <c r="D32" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="25">
         <v>8.1</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="25" t="s">
         <v>98</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -3040,10 +3075,10 @@
       <c r="D33" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="E33" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="29" t="s">
+      <c r="F33" s="25" t="s">
         <v>103</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -3060,10 +3095,10 @@
       <c r="D34" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="25">
         <v>8.12</v>
       </c>
-      <c r="F34" s="29" t="s">
+      <c r="F34" s="25" t="s">
         <v>107</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -3071,14 +3106,14 @@
       </c>
     </row>
     <row r="35" ht="263" customHeight="1" spans="2:7">
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="30"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="15" t="s">
@@ -3088,7 +3123,7 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
-      <c r="G36" s="26"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" ht="108" spans="2:7">
       <c r="B37" s="9">
@@ -3098,10 +3133,10 @@
       <c r="D37" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="19">
         <v>8.5</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="19" t="s">
         <v>112</v>
       </c>
       <c r="G37" s="12" t="s">
@@ -3116,10 +3151,10 @@
       <c r="D38" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="19" t="s">
         <v>116</v>
       </c>
       <c r="G38" s="12" t="s">
@@ -3134,10 +3169,10 @@
       <c r="D39" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="19">
         <v>8.5</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="19" t="s">
         <v>119</v>
       </c>
       <c r="G39" s="12" t="s">
@@ -3152,10 +3187,10 @@
       <c r="D40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="19">
         <v>8.6</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="19" t="s">
         <v>122</v>
       </c>
       <c r="G40" s="12" t="s">
@@ -3170,10 +3205,10 @@
       <c r="D41" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="19" t="s">
         <v>126</v>
       </c>
       <c r="G41" s="12" t="s">
@@ -3188,10 +3223,10 @@
       <c r="D42" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="19">
         <v>8.8</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="19" t="s">
         <v>129</v>
       </c>
       <c r="G42" s="12" t="s">
@@ -3199,14 +3234,14 @@
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="155" customHeight="1" spans="2:7">
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="30"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="2:7">
       <c r="B44" s="15" t="s">
@@ -3216,7 +3251,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
-      <c r="G44" s="26"/>
+      <c r="G44" s="22"/>
     </row>
     <row r="45" ht="36" spans="2:7">
       <c r="B45" s="9">
@@ -3228,10 +3263,10 @@
       <c r="D45" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="19">
         <v>8.12</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="19" t="s">
         <v>135</v>
       </c>
       <c r="G45" s="12" t="s">
@@ -3248,10 +3283,10 @@
       <c r="D46" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="19" t="s">
         <v>135</v>
       </c>
       <c r="G46" s="12" t="s">
@@ -3268,10 +3303,10 @@
       <c r="D47" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="19">
         <v>8.13</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="19" t="s">
         <v>143</v>
       </c>
       <c r="G47" s="12" t="s">
@@ -3288,10 +3323,10 @@
       <c r="D48" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="19">
         <v>8.14</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="19" t="s">
         <v>147</v>
       </c>
       <c r="G48" s="12" t="s">
@@ -3308,10 +3343,10 @@
       <c r="D49" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="19">
         <v>8.14</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="19" t="s">
         <v>151</v>
       </c>
       <c r="G49" s="12" t="s">
@@ -3328,10 +3363,10 @@
       <c r="D50" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="19">
         <v>8.14</v>
       </c>
-      <c r="F50" s="23"/>
+      <c r="F50" s="19"/>
       <c r="G50" s="12"/>
     </row>
     <row r="51" spans="2:7">
@@ -3340,19 +3375,19 @@
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
       <c r="G51" s="12"/>
     </row>
     <row r="52" ht="159" customHeight="1" spans="2:7">
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="30"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="2:7">
       <c r="B53" s="15" t="s">
@@ -3362,7 +3397,7 @@
       <c r="D53" s="16"/>
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
-      <c r="G53" s="26"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" ht="60" spans="2:7">
       <c r="B54" s="9">
@@ -3374,10 +3409,10 @@
       <c r="D54" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="19">
         <v>8.18</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="19" t="s">
         <v>158</v>
       </c>
       <c r="G54" s="12" t="s">
@@ -3394,10 +3429,10 @@
       <c r="D55" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="19">
         <v>8.18</v>
       </c>
-      <c r="F55" s="23"/>
+      <c r="F55" s="19"/>
       <c r="G55" s="12" t="s">
         <v>160</v>
       </c>
@@ -3412,10 +3447,10 @@
       <c r="D56" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="19">
         <v>8.18</v>
       </c>
-      <c r="F56" s="23"/>
+      <c r="F56" s="19"/>
       <c r="G56" s="12" t="s">
         <v>161</v>
       </c>
@@ -3430,10 +3465,10 @@
       <c r="D57" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="19">
         <v>8.18</v>
       </c>
-      <c r="F57" s="23"/>
+      <c r="F57" s="19"/>
       <c r="G57" s="12" t="s">
         <v>164</v>
       </c>
@@ -3448,10 +3483,10 @@
       <c r="D58" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="19">
         <v>8.18</v>
       </c>
-      <c r="F58" s="23"/>
+      <c r="F58" s="19"/>
       <c r="G58" s="12" t="s">
         <v>165</v>
       </c>
@@ -3466,10 +3501,10 @@
       <c r="D59" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="19">
         <v>8.18</v>
       </c>
-      <c r="F59" s="23"/>
+      <c r="F59" s="19"/>
       <c r="G59" s="12"/>
     </row>
     <row r="60" spans="2:7">
@@ -3482,39 +3517,39 @@
       <c r="D60" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
       <c r="G60" s="12"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="9">
         <v>8</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="22"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" ht="24" spans="2:7">
       <c r="B62" s="9">
         <v>9</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="19">
         <v>8.18</v>
       </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="22" t="s">
+      <c r="F62" s="19"/>
+      <c r="G62" s="12" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3522,17 +3557,17 @@
       <c r="B63" s="9">
         <v>10</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="19">
         <v>8.18</v>
       </c>
-      <c r="F63" s="31"/>
-      <c r="G63" s="22" t="s">
+      <c r="F63" s="19"/>
+      <c r="G63" s="12" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3544,7 +3579,7 @@
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14"/>
-      <c r="G64" s="25"/>
+      <c r="G64" s="21"/>
     </row>
     <row r="65" spans="2:7">
       <c r="B65" s="15" t="s">
@@ -3554,7 +3589,7 @@
       <c r="D65" s="16"/>
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
-      <c r="G65" s="26"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" ht="409.5" spans="2:7">
       <c r="B66" s="9">
@@ -3566,10 +3601,10 @@
       <c r="D66" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="19">
         <v>8.23</v>
       </c>
-      <c r="F66" s="23"/>
+      <c r="F66" s="19"/>
       <c r="G66" s="12" t="s">
         <v>174</v>
       </c>
@@ -3584,10 +3619,10 @@
       <c r="D67" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="19">
         <v>8.23</v>
       </c>
-      <c r="F67" s="23"/>
+      <c r="F67" s="19"/>
       <c r="G67" s="12" t="s">
         <v>177</v>
       </c>
@@ -3602,10 +3637,10 @@
       <c r="D68" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="19">
         <v>8.23</v>
       </c>
-      <c r="F68" s="23"/>
+      <c r="F68" s="19"/>
       <c r="G68" s="12" t="s">
         <v>180</v>
       </c>
@@ -3620,10 +3655,10 @@
       <c r="D69" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="19">
         <v>8.28</v>
       </c>
-      <c r="F69" s="23"/>
+      <c r="F69" s="19"/>
       <c r="G69" s="12" t="s">
         <v>183</v>
       </c>
@@ -3638,10 +3673,10 @@
       <c r="D70" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="19">
         <v>8.28</v>
       </c>
-      <c r="F70" s="23"/>
+      <c r="F70" s="19"/>
       <c r="G70" s="12" t="s">
         <v>186</v>
       </c>
@@ -3656,10 +3691,10 @@
       <c r="D71" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="19">
         <v>8.28</v>
       </c>
-      <c r="F71" s="23"/>
+      <c r="F71" s="19"/>
       <c r="G71" s="12" t="s">
         <v>189</v>
       </c>
@@ -3674,10 +3709,10 @@
       <c r="D72" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="19">
         <v>8.28</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="19" t="s">
         <v>192</v>
       </c>
       <c r="G72" s="12" t="s">
@@ -3685,7 +3720,7 @@
       </c>
     </row>
     <row r="73" ht="257" customHeight="1" spans="1:7">
-      <c r="A73" s="22"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="13" t="s">
         <v>194</v>
       </c>
@@ -3693,7 +3728,7 @@
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14"/>
-      <c r="G73" s="25"/>
+      <c r="G73" s="21"/>
     </row>
     <row r="74" spans="2:7">
       <c r="B74" s="15" t="s">
@@ -3703,38 +3738,38 @@
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
       <c r="F74" s="16"/>
-      <c r="G74" s="26"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" ht="132" spans="2:7">
       <c r="B75" s="9">
         <v>1</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="26" t="s">
         <v>196</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="19">
         <v>8.29</v>
       </c>
-      <c r="F75" s="23"/>
+      <c r="F75" s="19"/>
       <c r="G75" s="12" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="76" ht="24" spans="2:7">
-      <c r="B76" s="33">
+      <c r="B76" s="27">
         <v>2</v>
       </c>
-      <c r="C76" s="34"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="19">
         <v>8.29</v>
       </c>
-      <c r="F76" s="23"/>
+      <c r="F76" s="19"/>
       <c r="G76" s="12" t="s">
         <v>200</v>
       </c>
@@ -3743,270 +3778,270 @@
       <c r="B77" s="9">
         <v>3</v>
       </c>
-      <c r="C77" s="35"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="19">
         <v>8.29</v>
       </c>
-      <c r="F77" s="23"/>
+      <c r="F77" s="19"/>
       <c r="G77" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="78" ht="48" spans="2:7">
-      <c r="B78" s="33"/>
-      <c r="C78" s="32" t="s">
+      <c r="B78" s="27"/>
+      <c r="C78" s="26" t="s">
         <v>202</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="19">
         <v>8.29</v>
       </c>
-      <c r="F78" s="23"/>
+      <c r="F78" s="19"/>
       <c r="G78" s="12" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="79" ht="36" spans="2:7">
       <c r="B79" s="9"/>
-      <c r="C79" s="34"/>
+      <c r="C79" s="28"/>
       <c r="D79" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="19">
         <v>8.31</v>
       </c>
-      <c r="F79" s="23"/>
+      <c r="F79" s="19"/>
       <c r="G79" s="12" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="80" ht="36" spans="2:7">
-      <c r="B80" s="33"/>
-      <c r="C80" s="35"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="29"/>
       <c r="D80" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E80" s="19">
         <v>8.31</v>
       </c>
-      <c r="F80" s="23"/>
+      <c r="F80" s="19"/>
       <c r="G80" s="12" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="81" ht="48" spans="2:7">
-      <c r="B81" s="33"/>
-      <c r="C81" s="32" t="s">
+      <c r="B81" s="27"/>
+      <c r="C81" s="26" t="s">
         <v>206</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="19">
         <v>8.31</v>
       </c>
-      <c r="F81" s="23"/>
+      <c r="F81" s="19"/>
       <c r="G81" s="12" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="82" ht="24" spans="2:7">
-      <c r="B82" s="33"/>
-      <c r="C82" s="34"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="19">
         <v>8.31</v>
       </c>
-      <c r="F82" s="23"/>
+      <c r="F82" s="19"/>
       <c r="G82" s="12" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="83" ht="36" spans="2:7">
-      <c r="B83" s="33"/>
-      <c r="C83" s="35"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="19">
         <v>8.31</v>
       </c>
-      <c r="F83" s="23"/>
+      <c r="F83" s="19"/>
       <c r="G83" s="12" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="84" ht="72" spans="2:7">
-      <c r="B84" s="33">
+      <c r="B84" s="27">
         <v>4</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C84" s="26" t="s">
         <v>210</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="19">
         <v>8.31</v>
       </c>
-      <c r="F84" s="23"/>
+      <c r="F84" s="19"/>
       <c r="G84" s="12" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="85" ht="24" spans="2:7">
-      <c r="B85" s="33">
+      <c r="B85" s="27">
         <v>5</v>
       </c>
-      <c r="C85" s="34"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="19">
         <v>8.31</v>
       </c>
-      <c r="F85" s="23"/>
+      <c r="F85" s="19"/>
       <c r="G85" s="12" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="86" ht="24" spans="2:7">
-      <c r="B86" s="33">
+      <c r="B86" s="27">
         <v>6</v>
       </c>
-      <c r="C86" s="34"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="E86" s="23">
+      <c r="E86" s="19">
         <v>8.31</v>
       </c>
-      <c r="F86" s="23"/>
+      <c r="F86" s="19"/>
       <c r="G86" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" ht="24" spans="2:7">
-      <c r="B87" s="33">
+      <c r="B87" s="27">
         <v>7</v>
       </c>
-      <c r="C87" s="34"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="19">
         <v>8.31</v>
       </c>
-      <c r="F87" s="23"/>
+      <c r="F87" s="19"/>
       <c r="G87" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="88" ht="24" spans="2:7">
-      <c r="B88" s="33">
+      <c r="B88" s="27">
         <v>8</v>
       </c>
-      <c r="C88" s="34"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E88" s="19">
         <v>8.31</v>
       </c>
-      <c r="F88" s="23"/>
+      <c r="F88" s="19"/>
       <c r="G88" s="12" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="89" ht="24" spans="2:7">
-      <c r="B89" s="33">
+      <c r="B89" s="27">
         <v>9</v>
       </c>
-      <c r="C89" s="34"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="19">
         <v>8.31</v>
       </c>
-      <c r="F89" s="23"/>
+      <c r="F89" s="19"/>
       <c r="G89" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="90" ht="24" spans="2:7">
-      <c r="B90" s="33">
+      <c r="B90" s="27">
         <v>10</v>
       </c>
-      <c r="C90" s="34"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="19">
         <v>8.31</v>
       </c>
-      <c r="F90" s="23"/>
+      <c r="F90" s="19"/>
       <c r="G90" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="91" ht="24" spans="2:7">
-      <c r="B91" s="33">
+      <c r="B91" s="27">
         <v>11</v>
       </c>
-      <c r="C91" s="34"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="19">
         <v>8.31</v>
       </c>
-      <c r="F91" s="23"/>
+      <c r="F91" s="19"/>
       <c r="G91" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="92" ht="36" spans="2:7">
-      <c r="B92" s="33">
+      <c r="B92" s="27">
         <v>12</v>
       </c>
-      <c r="C92" s="34"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E92" s="23">
+      <c r="E92" s="19">
         <v>9.1</v>
       </c>
-      <c r="F92" s="23"/>
+      <c r="F92" s="19"/>
       <c r="G92" s="12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="93" ht="24" spans="2:7">
-      <c r="B93" s="33">
+      <c r="B93" s="27">
         <v>13</v>
       </c>
-      <c r="C93" s="35"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="19">
         <v>9.1</v>
       </c>
-      <c r="F93" s="23"/>
+      <c r="F93" s="19"/>
       <c r="G93" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="94" ht="84" spans="2:7">
-      <c r="B94" s="33">
+      <c r="B94" s="27">
         <v>14</v>
       </c>
       <c r="C94" s="10" t="s">
@@ -4015,228 +4050,279 @@
       <c r="D94" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="E94" s="23">
+      <c r="E94" s="19">
         <v>9.1</v>
       </c>
-      <c r="F94" s="23"/>
+      <c r="F94" s="19"/>
       <c r="G94" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="95" ht="48" spans="2:7">
-      <c r="B95" s="33">
+      <c r="B95" s="27">
         <v>15</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C95" s="30" t="s">
         <v>232</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="19">
         <v>9.1</v>
       </c>
-      <c r="F95" s="23"/>
+      <c r="F95" s="19" t="s">
+        <v>233</v>
+      </c>
       <c r="G95" s="12" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="96" ht="24" spans="2:7">
-      <c r="B96" s="33"/>
-      <c r="C96" s="32" t="s">
-        <v>234</v>
-      </c>
+      <c r="B96" s="27"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="E96" s="19">
+        <v>9.3</v>
+      </c>
+      <c r="F96" s="19"/>
+      <c r="G96" s="12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="97" ht="24" spans="2:7">
+      <c r="B97" s="27"/>
+      <c r="C97" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="D97" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="E96" s="23">
+      <c r="E97" s="19">
         <v>9.2</v>
       </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="97" ht="48" spans="2:7">
-      <c r="B97" s="33">
+      <c r="F97" s="19"/>
+      <c r="G97" s="12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="98" ht="48" spans="2:7">
+      <c r="B98" s="27">
         <v>16</v>
       </c>
-      <c r="C97" s="35"/>
-      <c r="D97" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E97" s="23">
+      <c r="C98" s="29"/>
+      <c r="D98" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E98" s="19">
         <v>9.2</v>
       </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="98" ht="24" spans="2:7">
-      <c r="B98" s="33"/>
-      <c r="C98" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="D98" s="12" t="s">
+      <c r="F98" s="19"/>
+      <c r="G98" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="99" ht="24" spans="2:7">
+      <c r="B99" s="27"/>
+      <c r="C99" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D99" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="E98" s="23">
+      <c r="E99" s="19">
         <v>9.2</v>
       </c>
-      <c r="F98" s="23"/>
-      <c r="G98" s="12" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="B99" s="33"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="12"/>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="B100" s="33"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="12"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="12"/>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101" s="33"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="12"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="12"/>
-    </row>
-    <row r="102" spans="2:7">
-      <c r="B102" s="33"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="12"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="12"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" ht="48" spans="2:7">
+      <c r="B100" s="27">
+        <v>17</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="E100" s="19">
+        <v>9.2</v>
+      </c>
+      <c r="F100" s="19"/>
+      <c r="G100" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="101" ht="132" spans="2:7">
+      <c r="B101" s="27">
+        <v>18</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E101" s="19">
+        <v>9.2</v>
+      </c>
+      <c r="F101" s="19"/>
+      <c r="G101" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" ht="24" spans="2:7">
+      <c r="B102" s="27">
+        <v>19</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E102" s="19">
+        <v>9.2</v>
+      </c>
+      <c r="F102" s="19"/>
+      <c r="G102" s="12" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="33"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="10"/>
       <c r="D103" s="12"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="23"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="19"/>
       <c r="G103" s="12"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="33"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="10"/>
       <c r="D104" s="12"/>
-      <c r="E104" s="23"/>
-      <c r="F104" s="23"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
       <c r="G104" s="12"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="33"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="10"/>
       <c r="D105" s="12"/>
-      <c r="E105" s="23"/>
-      <c r="F105" s="23"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
       <c r="G105" s="12"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="33"/>
+      <c r="B106" s="27"/>
       <c r="C106" s="10"/>
       <c r="D106" s="12"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
       <c r="G106" s="12"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="33"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="10"/>
       <c r="D107" s="12"/>
-      <c r="E107" s="23"/>
-      <c r="F107" s="23"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
       <c r="G107" s="12"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="33"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="10"/>
       <c r="D108" s="12"/>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
       <c r="G108" s="12"/>
     </row>
-    <row r="109" ht="408" customHeight="1" spans="2:7">
-      <c r="B109" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C109" s="36"/>
-      <c r="D109" s="36"/>
-      <c r="E109" s="36"/>
-      <c r="F109" s="36"/>
-      <c r="G109" s="37"/>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="B110" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="26"/>
-    </row>
-    <row r="112" spans="2:7">
-      <c r="B112" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="26"/>
-    </row>
-    <row r="114" spans="2:7">
-      <c r="B114" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="26"/>
-    </row>
-    <row r="116" spans="2:7">
-      <c r="B116" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="C116" s="16"/>
-      <c r="D116" s="16"/>
-      <c r="E116" s="16"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="26"/>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="C118" s="16"/>
-      <c r="D118" s="16"/>
-      <c r="E118" s="16"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="26"/>
-    </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="4">
-        <f>SUM(11,8,7,10,7,32,20,22,52,5,30)</f>
-        <v>204</v>
+    <row r="109" spans="2:7">
+      <c r="B109" s="27"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="12"/>
+    </row>
+    <row r="110" ht="408" customHeight="1" spans="2:7">
+      <c r="B110" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="21"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="22"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="22"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="22"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="22"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="22"/>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122" s="5">
+        <f>(19+20+22+52+5+30)/3</f>
+        <v>49.3333333333333</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123" s="32" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="30">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -4253,18 +4339,19 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B109:G109"/>
     <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B119:G119"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
     <mergeCell ref="C81:C83"/>
     <mergeCell ref="C84:C93"/>
-    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4291,7 +4378,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4299,24 +4386,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4341,10 +4428,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4352,7 +4439,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4360,7 +4447,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4368,7 +4455,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13815" windowHeight="12495"/>
+    <workbookView windowWidth="27750" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="272">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1195,10 +1195,15 @@
   </si>
   <si>
     <t>js:
-方法一:递归法-后序遍历, 自己想复杂了,抄的</t>
+方法一:递归法-后序遍历, 自己想复杂了,抄的
+方法二:迭代法, 细节出错</t>
   </si>
   <si>
     <t>二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>9.3复习:
+复习了一下理论,看了下代码</t>
   </si>
   <si>
     <t>js:
@@ -1218,7 +1223,8 @@
   </si>
   <si>
     <t>js:
-方法二: 迭代法-后序遍历, 没想出来,思路想错了,和迭代的思路有所不同,抄的</t>
+方法二: 迭代法-后序遍历, 没想出来,思路想错了,和迭代的思路有所不同,抄的
+注意这里最小深度是从根节点到最近叶子节点的最短路径上的节点数量。注意是叶子节点。什么是叶子节点，左右孩子都为空的节点才是叶子节点！求二叉树的最小深度和求二叉树的最大深度的差别主要在于处理左右孩子不为空的逻辑。</t>
   </si>
   <si>
     <t>222. 完全二叉树的节点个数</t>
@@ -1239,8 +1245,8 @@
 方法一: 递归法, 返回设计错误,没写出来,抄的
 迭代法还没做!!
 通过本题可以了解求二叉树深度 和 二叉树高度的差异，求深度适合用前序遍历，而求高度适合用后序遍历。
-本题迭代法其实有点复杂，大家可以有一个思路，也不一定说非要写出来。
-但是递归方式是一定要掌握的！</t>
+本题迭代法其实有点复杂，大家可以有一个思路，也不一定说非要写出来。但是递归方式是一定要掌握的！
+当然此题用迭代法，其实效率很低，因为没有很好的模拟回溯的过程，所以迭代法有很多重复的计算。虽然理论上所有的递归都可以用迭代来实现，但是有的场景难度可能比较大。例如：都知道回溯法其实就是递归，但是很少人用迭代的方式去实现回溯算法！</t>
   </si>
   <si>
     <t>257. 二叉树的所有路径</t>
@@ -1250,7 +1256,15 @@
   </si>
   <si>
     <t>js:
-想不出来,看的答案,没看懂,没过完,不想写了</t>
+想不出来,看的答案,没看懂,没过完,不想写了
+回溯就隐藏在traversal(cur-&gt;left, path + "-&gt;", result);中的 path + "-&gt;"。 每次函数调用完，path依然是没有加上"-&gt;" 的，这就是回溯了。</t>
+  </si>
+  <si>
+    <t>404. 左叶子之和</t>
+  </si>
+  <si>
+    <t>注意读题!概念不清楚!--左叶子是一个既位于父节点的左边又没有子节点的节点
+方法一:迭代法-层序遍历,明白概念后,顺利</t>
   </si>
   <si>
     <t>总结:
@@ -1285,7 +1299,11 @@
 递归更容易让程序员理解，但收敛不好，容易栈溢出。递归是方便了程序员，难为了机器（各种保存参数，各种进栈出栈）。
 在实际项目开发的过程中我们是要尽量避免递归！因为项目代码参数、调用关系都比较复杂，不容易控制递归深度，甚至会栈溢出。
 一定要掌握前中后序一种迭代的写法，并不因为某种场景的题目一定要用迭代，而是现场面试的时候，面试官看你顺畅的写出了递归，一般会进一步考察能不能写出相应的迭代。
-8.层序遍历</t>
+8.层序遍历
+9.求深度适合用前序遍历，而求高度适合用后序遍历。
+但leetcode中强调的深度和高度很明显是按照节点来计算的。关于根节点的深度究竟是1 还是 0，不同的地方有不一样的标准，leetcode的题目中都是以节点为一度，即根节点深度是1。但维基百科上定义用边为一度，即根节点的深度是0，我们暂时以leetcode为准（毕竟要在这上面刷题）。
+10.迭代法中究竟什么时候用队列，什么时候用栈？
+如果是模拟前中后序遍历就用栈，如果是适合层序遍历就用队列，当然还是其他情况，那么就是 先用队列试试行不行，不行就用栈。</t>
   </si>
   <si>
     <t>回溯算法20</t>
@@ -2505,10 +2523,10 @@
   <sheetPr/>
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G96" sqref="G96"/>
+      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4078,8 +4096,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="96" ht="24" spans="2:7">
-      <c r="B96" s="27"/>
+    <row r="96" ht="36" spans="2:7">
+      <c r="B96" s="27">
+        <v>16</v>
+      </c>
       <c r="C96" s="31"/>
       <c r="D96" s="12" t="s">
         <v>235</v>
@@ -4103,31 +4123,33 @@
       <c r="E97" s="19">
         <v>9.2</v>
       </c>
-      <c r="F97" s="19"/>
+      <c r="F97" s="19" t="s">
+        <v>238</v>
+      </c>
       <c r="G97" s="12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" ht="48" spans="2:7">
       <c r="B98" s="27">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C98" s="29"/>
       <c r="D98" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E98" s="19">
         <v>9.2</v>
       </c>
       <c r="F98" s="19"/>
       <c r="G98" s="12" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="99" ht="24" spans="2:7">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" ht="60" spans="2:7">
       <c r="B99" s="27"/>
       <c r="C99" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>228</v>
@@ -4135,72 +4157,88 @@
       <c r="E99" s="19">
         <v>9.2</v>
       </c>
-      <c r="F99" s="19"/>
+      <c r="F99" s="19" t="s">
+        <v>238</v>
+      </c>
       <c r="G99" s="12" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" ht="48" spans="2:7">
       <c r="B100" s="27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E100" s="19">
         <v>9.2</v>
       </c>
-      <c r="F100" s="19"/>
+      <c r="F100" s="19" t="s">
+        <v>238</v>
+      </c>
       <c r="G100" s="12" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="101" ht="132" spans="2:7">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="101" ht="144" spans="2:7">
       <c r="B101" s="27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E101" s="19">
         <v>9.2</v>
       </c>
-      <c r="F101" s="19"/>
+      <c r="F101" s="19" t="s">
+        <v>238</v>
+      </c>
       <c r="G101" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="102" ht="24" spans="2:7">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="102" ht="60" spans="2:7">
       <c r="B102" s="27">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E102" s="19">
         <v>9.2</v>
       </c>
       <c r="F102" s="19"/>
       <c r="G102" s="12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7">
-      <c r="B103" s="27"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="12"/>
-      <c r="E103" s="19"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="103" ht="24" spans="2:7">
+      <c r="B103" s="27">
+        <v>21</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="E103" s="19">
+        <v>9.4</v>
+      </c>
       <c r="F103" s="19"/>
-      <c r="G103" s="12"/>
+      <c r="G103" s="12" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="27"/>
@@ -4252,7 +4290,7 @@
     </row>
     <row r="110" ht="408" customHeight="1" spans="2:7">
       <c r="B110" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
@@ -4262,7 +4300,7 @@
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -4272,7 +4310,7 @@
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="15" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
@@ -4282,7 +4320,7 @@
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
@@ -4292,7 +4330,7 @@
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -4302,7 +4340,7 @@
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="15" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
@@ -4318,7 +4356,7 @@
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="32" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4378,7 +4416,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4386,24 +4424,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4428,10 +4466,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4439,7 +4477,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4447,7 +4485,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4455,7 +4493,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12675"/>
+    <workbookView windowWidth="18300" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -1263,8 +1263,9 @@
     <t>404. 左叶子之和</t>
   </si>
   <si>
-    <t>注意读题!概念不清楚!--左叶子是一个既位于父节点的左边又没有子节点的节点
-方法一:迭代法-层序遍历,明白概念后,顺利</t>
+    <t>注意读题!概念不清楚!--节点A的左孩子不为空，且左孩子的左右孩子都为空（说明是叶子节点），那么A节点的左孩子为左叶子节点
+方法一:迭代法-层序遍历,明白概念后,顺利
+1.if (node !== null) 和 if (!node) 不是完全相同,  if (!node) 这个条件会检查 node 是否为 "假值"（即 false 的情况）,包含null, undefined, false, 0, NaN, ""</t>
   </si>
   <si>
     <t>总结:
@@ -2523,7 +2524,7 @@
   <sheetPr/>
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
@@ -4222,7 +4223,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="103" ht="24" spans="2:7">
+    <row r="103" ht="60" spans="2:7">
       <c r="B103" s="27">
         <v>21</v>
       </c>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="277">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1255,17 +1255,42 @@
     <t>二叉树的所有路径</t>
   </si>
   <si>
-    <t>js:
-想不出来,看的答案,没看懂,没过完,不想写了
-回溯就隐藏在traversal(cur-&gt;left, path + "-&gt;", result);中的 path + "-&gt;"。 每次函数调用完，path依然是没有加上"-&gt;" 的，这就是回溯了。</t>
+    <t>方法二</t>
   </si>
   <si>
     <t>404. 左叶子之和</t>
+  </si>
+  <si>
+    <t>9.4,9.5</t>
   </si>
   <si>
     <t>注意读题!概念不清楚!--节点A的左孩子不为空，且左孩子的左右孩子都为空（说明是叶子节点），那么A节点的左孩子为左叶子节点
 方法一:迭代法-层序遍历,明白概念后,顺利
+方法二:递归法, 总体来说逻辑很混乱,抄的,感觉很吃力
 1.if (node !== null) 和 if (!node) 不是完全相同,  if (!node) 这个条件会检查 node 是否为 "假值"（即 false 的情况）,包含null, undefined, false, 0, NaN, ""</t>
+  </si>
+  <si>
+    <t>513. 找树左下角的值</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 迭代法-层序遍历, 顺利
+方法二: 递归法,抄的,不懂
+以下几个地方都不咋懂:
+递归求深度的写法，我们在110.平衡二叉树中详细的分析了深度应该怎么求，高度应该怎么求。
+递归中其实隐藏了回溯，在257. 二叉树的所有路径中讲解了究竟哪里使用了回溯，哪里隐藏了回溯。</t>
+  </si>
+  <si>
+    <t>112. 路径总和</t>
+  </si>
+  <si>
+    <t>js:
+方法一:递归-前序遍历-思路混乱,抄的.  倒减的思路没想到; 结束条件中又加入了逻辑,思想没掌握,混乱; 回溯逻辑没掌握; 能写个七七八八,但是就是很多细节没掌握,多练习吧
+没做完,还有几个题:
+递归函数什么时候需要返回值？什么时候不需要返回值？这里总结如下三点：
+    如果需要搜索整棵二叉树且不用处理递归返回值，递归函数就不要返回值。（这种情况就是本文下半部分介绍的113.路径总和ii）
+    如果需要搜索整棵二叉树且需要处理递归返回值，递归函数就需要返回值。 （这种情况我们在236. 二叉树的最近公共祖先中介绍）
+如果要搜索其中一条符合条件的路径，那么递归一定需要返回值，因为遇到符合条件的路径了就要及时返回。（本题的情况）</t>
   </si>
   <si>
     <t>总结:
@@ -2527,7 +2552,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4205,7 +4230,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="102" ht="60" spans="2:7">
+    <row r="102" spans="2:7">
       <c r="B102" s="27">
         <v>20</v>
       </c>
@@ -4223,7 +4248,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="103" ht="60" spans="2:7">
+    <row r="103" ht="72" spans="2:7">
       <c r="B103" s="27">
         <v>21</v>
       </c>
@@ -4233,29 +4258,49 @@
       <c r="D103" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="E103" s="19">
-        <v>9.4</v>
+      <c r="E103" s="19" t="s">
+        <v>252</v>
       </c>
       <c r="F103" s="19"/>
       <c r="G103" s="12" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7">
-      <c r="B104" s="27"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="19"/>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="104" ht="84" spans="2:7">
+      <c r="B104" s="27">
+        <v>22</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E104" s="19">
+        <v>9.6</v>
+      </c>
       <c r="F104" s="19"/>
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="2:7">
-      <c r="B105" s="27"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="19"/>
+      <c r="G104" s="12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="105" ht="108" spans="2:7">
+      <c r="B105" s="27">
+        <v>23</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E105" s="19">
+        <v>9.6</v>
+      </c>
       <c r="F105" s="19"/>
-      <c r="G105" s="12"/>
+      <c r="G105" s="12" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="27"/>
@@ -4291,7 +4336,7 @@
     </row>
     <row r="110" ht="408" customHeight="1" spans="2:7">
       <c r="B110" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C110" s="14"/>
       <c r="D110" s="14"/>
@@ -4301,7 +4346,7 @@
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="15" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
@@ -4311,7 +4356,7 @@
     </row>
     <row r="113" spans="2:7">
       <c r="B113" s="15" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
@@ -4321,7 +4366,7 @@
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="15" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
@@ -4331,7 +4376,7 @@
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="15" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
@@ -4341,7 +4386,7 @@
     </row>
     <row r="119" spans="2:7">
       <c r="B119" s="15" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
@@ -4357,7 +4402,7 @@
     </row>
     <row r="123" spans="3:3">
       <c r="C123" s="32" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4417,7 +4462,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4425,24 +4470,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4467,10 +4512,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4478,7 +4523,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4486,7 +4531,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4494,7 +4539,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,11 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="299">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
-从9.3日起,如果每天写4个题,写37天,2024 年 10 月 9 日就能写完第一遍</t>
+从9.3日起,如果每天写4个题,写37天,2024 年 10 月 9 日就能写完第一遍
+慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
   </si>
   <si>
     <t>序号</t>
@@ -1284,13 +1285,58 @@
     <t>112. 路径总和</t>
   </si>
   <si>
+    <t>9.6, 9.7</t>
+  </si>
+  <si>
     <t>js:
 方法一:递归-前序遍历-思路混乱,抄的.  倒减的思路没想到; 结束条件中又加入了逻辑,思想没掌握,混乱; 回溯逻辑没掌握; 能写个七七八八,但是就是很多细节没掌握,多练习吧
+方法二:迭代法-栈模拟前序遍历
 没做完,还有几个题:
 递归函数什么时候需要返回值？什么时候不需要返回值？这里总结如下三点：
     如果需要搜索整棵二叉树且不用处理递归返回值，递归函数就不要返回值。（这种情况就是本文下半部分介绍的113.路径总和ii）
     如果需要搜索整棵二叉树且需要处理递归返回值，递归函数就需要返回值。 （这种情况我们在236. 二叉树的最近公共祖先中介绍）
 如果要搜索其中一条符合条件的路径，那么递归一定需要返回值，因为遇到符合条件的路径了就要及时返回。（本题的情况）</t>
+  </si>
+  <si>
+    <t>113. 路径总和 II</t>
+  </si>
+  <si>
+    <t>计划9.7日</t>
+  </si>
+  <si>
+    <t>js:
+这个题迭代方法不好写,要记录每条路径很麻烦
+递归方法-要遍历整个树,找到所有路径,所以递归函数不要返回值!
+抄了一部分,没有自己调试完全
+1.result.push([...path]);// 不能直接写result.push(path); 要深拷贝!
+2.result.push(path); 和 result.push([...path]);的区别
+3.result.push(path);只是把path的引用添加进来,随着path的改变,result中push的内容也会改变; result.push([...path]);使用扩展运算符,会对数组进行浅拷贝
+4.result.push([...path]);仍然是浅拷贝,假如path = [1, 23, 4, 5, {1: 2}];答应出来结果是[ [ 1, 23, 4, 5, { '1': 2 } ] ],但是对象仍然是引用</t>
+  </si>
+  <si>
+    <t>106. 从中序与后序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归.  思路: 切割法(思路想错了), 难, 抄的, 但是思路很有意思, 我觉得自己是可以写出来</t>
+  </si>
+  <si>
+    <t>105. 从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归, 上面这个题搞懂后, 顺利
+思考:前序+后序可以唯一确定一棵树吗?
+no!// 前序+中序-&gt;通过中序进行分割   中序+后序-&gt;通过中序进行分割,  前序+后序不能分割</t>
+  </si>
+  <si>
+    <t>654. 最大二叉树</t>
+  </si>
+  <si>
+    <t>计划9.8</t>
+  </si>
+  <si>
+    <t>计划9.9日</t>
   </si>
   <si>
     <t>总结:
@@ -1335,13 +1381,46 @@
     <t>回溯算法20</t>
   </si>
   <si>
+    <t>计划9.10日</t>
+  </si>
+  <si>
+    <t>计划9.11日</t>
+  </si>
+  <si>
+    <t>计划9.12日</t>
+  </si>
+  <si>
+    <t>计划9.13日</t>
+  </si>
+  <si>
+    <t>总结:</t>
+  </si>
+  <si>
     <t>贪心算法22</t>
   </si>
   <si>
+    <t>计划9.14日</t>
+  </si>
+  <si>
+    <t>计划9.15日</t>
+  </si>
+  <si>
+    <t>计划9.16日</t>
+  </si>
+  <si>
+    <t>计划9.17日</t>
+  </si>
+  <si>
+    <t>计划9.18日</t>
+  </si>
+  <si>
     <t>动态规划52</t>
   </si>
   <si>
     <t>单调栈5</t>
+  </si>
+  <si>
+    <t>计划9.19日</t>
   </si>
   <si>
     <t>图论30</t>
@@ -2128,7 +2207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2225,7 +2304,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2547,12 +2650,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -2565,7 +2668,7 @@
     <col min="7" max="7" width="54.3333333333333" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="47" customHeight="1" spans="2:7">
+    <row r="1" ht="54" customHeight="1" spans="2:7">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4284,129 +4387,709 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" ht="108" spans="2:7">
+    <row r="105" ht="120" spans="2:7">
       <c r="B105" s="27">
         <v>23</v>
       </c>
-      <c r="C105" s="10" t="s">
+      <c r="C105" s="30" t="s">
         <v>256</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E105" s="19">
-        <v>9.6</v>
+      <c r="E105" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="F105" s="19"/>
       <c r="G105" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7">
-      <c r="B106" s="27"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="19"/>
-      <c r="G106" s="12"/>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="B107" s="27"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
-      <c r="G107" s="12"/>
-    </row>
-    <row r="108" spans="2:7">
-      <c r="B108" s="27"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="12"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="106" ht="132" spans="2:7">
+      <c r="B106" s="27">
+        <v>24</v>
+      </c>
+      <c r="C106" s="32"/>
+      <c r="D106" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E106" s="19">
+        <v>9.7</v>
+      </c>
+      <c r="F106" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="107" ht="24" spans="2:7">
+      <c r="B107" s="27">
+        <v>25</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="E107" s="19">
+        <v>9.7</v>
+      </c>
+      <c r="F107" s="31"/>
+      <c r="G107" s="12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="108" ht="60" spans="2:7">
+      <c r="B108" s="27">
+        <v>26</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E108" s="19">
+        <v>9.7</v>
+      </c>
+      <c r="F108" s="31"/>
+      <c r="G108" s="12" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="27"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
+      <c r="B109" s="27">
+        <v>27</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109" s="19">
+        <v>9.7</v>
+      </c>
+      <c r="F109" s="31"/>
       <c r="G109" s="12"/>
     </row>
-    <row r="110" ht="408" customHeight="1" spans="2:7">
-      <c r="B110" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="21"/>
+    <row r="110" spans="2:7">
+      <c r="B110" s="27">
+        <v>28</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="12"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="22"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="12"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="27"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G112" s="12"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="22"/>
+      <c r="B113" s="27"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="12"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="27"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="12"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="22"/>
+      <c r="B115" s="27"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="12"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="27"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="12"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="16"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="22"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G117" s="12"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="27"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="12"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="16"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="22"/>
-    </row>
-    <row r="122" spans="3:3">
-      <c r="C122" s="5">
+      <c r="B119" s="27"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="12"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="27"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="12"/>
+    </row>
+    <row r="121" ht="408" customHeight="1" spans="2:7">
+      <c r="B121" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="21"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="22"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="33">
+        <v>1</v>
+      </c>
+      <c r="C123" s="34"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G123" s="35"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="33">
+        <v>2</v>
+      </c>
+      <c r="C124" s="34"/>
+      <c r="D124" s="35"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="35"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="33">
+        <v>3</v>
+      </c>
+      <c r="C125" s="34"/>
+      <c r="D125" s="35"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="35"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="33">
+        <v>4</v>
+      </c>
+      <c r="C126" s="34"/>
+      <c r="D126" s="35"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="35"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="33">
+        <v>5</v>
+      </c>
+      <c r="C127" s="34"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="35"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="33">
+        <v>6</v>
+      </c>
+      <c r="C128" s="34"/>
+      <c r="D128" s="35"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="G128" s="35"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="33">
+        <v>7</v>
+      </c>
+      <c r="C129" s="34"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="35"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="33">
+        <v>8</v>
+      </c>
+      <c r="C130" s="34"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="35"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="33">
+        <v>9</v>
+      </c>
+      <c r="C131" s="34"/>
+      <c r="D131" s="35"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="35"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="33">
+        <v>10</v>
+      </c>
+      <c r="C132" s="34"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="35"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="33">
+        <v>11</v>
+      </c>
+      <c r="C133" s="34"/>
+      <c r="D133" s="35"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="G133" s="35"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="33">
+        <v>12</v>
+      </c>
+      <c r="C134" s="34"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="35"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="33">
+        <v>13</v>
+      </c>
+      <c r="C135" s="34"/>
+      <c r="D135" s="35"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="35"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="33">
+        <v>14</v>
+      </c>
+      <c r="C136" s="34"/>
+      <c r="D136" s="35"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="35"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="33">
+        <v>15</v>
+      </c>
+      <c r="C137" s="34"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="35"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="33">
+        <v>16</v>
+      </c>
+      <c r="C138" s="34"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G138" s="35"/>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="33">
+        <v>17</v>
+      </c>
+      <c r="C139" s="34"/>
+      <c r="D139" s="35"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="35"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="38"/>
+      <c r="F140" s="38"/>
+      <c r="G140" s="40"/>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="22"/>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="33">
+        <v>1</v>
+      </c>
+      <c r="C142" s="34"/>
+      <c r="D142" s="35"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="G142" s="35"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="33">
+        <v>2</v>
+      </c>
+      <c r="C143" s="34"/>
+      <c r="D143" s="35"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="35"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="33">
+        <v>3</v>
+      </c>
+      <c r="C144" s="34"/>
+      <c r="D144" s="35"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="35"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="33">
+        <v>4</v>
+      </c>
+      <c r="C145" s="34"/>
+      <c r="D145" s="35"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="35"/>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="33">
+        <v>5</v>
+      </c>
+      <c r="C146" s="34"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G146" s="35"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="33">
+        <v>6</v>
+      </c>
+      <c r="C147" s="34"/>
+      <c r="D147" s="35"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="35"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="33">
+        <v>7</v>
+      </c>
+      <c r="C148" s="34"/>
+      <c r="D148" s="35"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="35"/>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="33">
+        <v>8</v>
+      </c>
+      <c r="C149" s="34"/>
+      <c r="D149" s="35"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="35"/>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="33">
+        <v>9</v>
+      </c>
+      <c r="C150" s="34"/>
+      <c r="D150" s="35"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G150" s="35"/>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="33">
+        <v>10</v>
+      </c>
+      <c r="C151" s="34"/>
+      <c r="D151" s="35"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="35"/>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="33">
+        <v>11</v>
+      </c>
+      <c r="C152" s="34"/>
+      <c r="D152" s="35"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="35"/>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="33">
+        <v>12</v>
+      </c>
+      <c r="C153" s="34"/>
+      <c r="D153" s="35"/>
+      <c r="E153" s="36"/>
+      <c r="F153" s="32"/>
+      <c r="G153" s="35"/>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="33">
+        <v>13</v>
+      </c>
+      <c r="C154" s="34"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G154" s="35"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="33">
+        <v>14</v>
+      </c>
+      <c r="C155" s="34"/>
+      <c r="D155" s="35"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="35"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="33">
+        <v>15</v>
+      </c>
+      <c r="C156" s="34"/>
+      <c r="D156" s="35"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="35"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="33">
+        <v>16</v>
+      </c>
+      <c r="C157" s="34"/>
+      <c r="D157" s="35"/>
+      <c r="E157" s="36"/>
+      <c r="F157" s="32"/>
+      <c r="G157" s="35"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="33">
+        <v>17</v>
+      </c>
+      <c r="C158" s="34"/>
+      <c r="D158" s="35"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G158" s="35"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="33">
+        <v>18</v>
+      </c>
+      <c r="C159" s="34"/>
+      <c r="D159" s="35"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="32"/>
+      <c r="G159" s="35"/>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C160" s="38"/>
+      <c r="D160" s="38"/>
+      <c r="E160" s="38"/>
+      <c r="F160" s="38"/>
+      <c r="G160" s="40"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="22"/>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="22"/>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="33">
+        <v>1</v>
+      </c>
+      <c r="C164" s="34"/>
+      <c r="D164" s="35"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="G164" s="35"/>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="33">
+        <v>2</v>
+      </c>
+      <c r="C165" s="34"/>
+      <c r="D165" s="35"/>
+      <c r="E165" s="36"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="35"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="33">
+        <v>3</v>
+      </c>
+      <c r="C166" s="34"/>
+      <c r="D166" s="35"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="31"/>
+      <c r="G166" s="35"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="33">
+        <v>4</v>
+      </c>
+      <c r="C167" s="34"/>
+      <c r="D167" s="35"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="31"/>
+      <c r="G167" s="35"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="33">
+        <v>5</v>
+      </c>
+      <c r="C168" s="34"/>
+      <c r="D168" s="35"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="32"/>
+      <c r="G168" s="35"/>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="37"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
+      <c r="F169" s="38"/>
+      <c r="G169" s="40"/>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="22"/>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173" s="5">
         <f>(19+20+22+52+5+30)/3</f>
         <v>49.3333333333333</v>
       </c>
     </row>
-    <row r="123" spans="3:3">
-      <c r="C123" s="32" t="s">
-        <v>264</v>
+    <row r="174" spans="3:3">
+      <c r="C174" s="39" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="47">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -4423,12 +5106,15 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B141:G141"/>
+    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B170:G170"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
@@ -4436,6 +5122,20 @@
     <mergeCell ref="C84:C93"/>
     <mergeCell ref="C95:C96"/>
     <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="F106:F111"/>
+    <mergeCell ref="F112:F116"/>
+    <mergeCell ref="F117:F120"/>
+    <mergeCell ref="F123:F127"/>
+    <mergeCell ref="F128:F132"/>
+    <mergeCell ref="F133:F137"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="F142:F145"/>
+    <mergeCell ref="F146:F149"/>
+    <mergeCell ref="F150:F153"/>
+    <mergeCell ref="F154:F157"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="F164:F168"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4462,7 +5162,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4470,24 +5170,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -4512,10 +5212,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -4523,7 +5223,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -4531,7 +5231,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -4539,7 +5239,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="301">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1331,6 +1331,19 @@
   </si>
   <si>
     <t>654. 最大二叉树</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归法: 前序遍历. 注意读题,题中说了nums.length &gt;= 1!
+有第二版优化代码,允许空节点进入递归,暂未学习
+主要出错在于: 不会写终止条件!!!!终止条件错误,导致栈溢出
+1.Math.max() 函数不能直接处理一个数组，而是需要将数组展开为单个元素传入, 所以不能写Math.max(nums); 要写Math.max(...nums);
+2.Array.prototype.indexOf():返回数组中第一次出现给定元素的下标，如果不存在则返回 -1. 注意!返回的是下标!不是位置!!
+3.类似用数组构造二叉树的题目，每次分隔尽量不要定义新的数组，而是通过下标索引直接在原数组上操作，这样可以节约时间和空间上的开销。
+4.一般情况来说：如果让空节点（空指针）进入递归，就不加if，如果不让空节点进入递归，就加if限制一下， 终止条件也会相应的调整。</t>
+  </si>
+  <si>
+    <t>617. 合并二叉树</t>
   </si>
   <si>
     <t>计划9.8</t>
@@ -2653,9 +2666,9 @@
   <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4459,7 +4472,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" ht="120" spans="2:7">
       <c r="B109" s="27">
         <v>27</v>
       </c>
@@ -4473,15 +4486,23 @@
         <v>9.7</v>
       </c>
       <c r="F109" s="31"/>
-      <c r="G109" s="12"/>
+      <c r="G109" s="12" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="27">
         <v>28</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="12"/>
-      <c r="E110" s="19"/>
+      <c r="C110" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E110" s="19">
+        <v>9.8</v>
+      </c>
       <c r="F110" s="31"/>
       <c r="G110" s="12"/>
     </row>
@@ -4499,7 +4520,7 @@
       <c r="D112" s="12"/>
       <c r="E112" s="19"/>
       <c r="F112" s="30" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G112" s="12"/>
     </row>
@@ -4541,7 +4562,7 @@
       <c r="D117" s="12"/>
       <c r="E117" s="19"/>
       <c r="F117" s="30" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G117" s="12"/>
     </row>
@@ -4571,7 +4592,7 @@
     </row>
     <row r="121" ht="408" customHeight="1" spans="2:7">
       <c r="B121" s="13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -4581,7 +4602,7 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -4597,7 +4618,7 @@
       <c r="D123" s="35"/>
       <c r="E123" s="36"/>
       <c r="F123" s="30" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G123" s="35"/>
     </row>
@@ -4649,7 +4670,7 @@
       <c r="D128" s="35"/>
       <c r="E128" s="36"/>
       <c r="F128" s="30" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G128" s="35"/>
     </row>
@@ -4701,7 +4722,7 @@
       <c r="D133" s="35"/>
       <c r="E133" s="36"/>
       <c r="F133" s="30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G133" s="35"/>
     </row>
@@ -4753,7 +4774,7 @@
       <c r="D138" s="35"/>
       <c r="E138" s="36"/>
       <c r="F138" s="30" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G138" s="35"/>
     </row>
@@ -4769,7 +4790,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="37" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
@@ -4779,7 +4800,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -4795,7 +4816,7 @@
       <c r="D142" s="35"/>
       <c r="E142" s="36"/>
       <c r="F142" s="30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G142" s="35"/>
     </row>
@@ -4837,7 +4858,7 @@
       <c r="D146" s="35"/>
       <c r="E146" s="36"/>
       <c r="F146" s="30" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G146" s="35"/>
     </row>
@@ -4879,7 +4900,7 @@
       <c r="D150" s="35"/>
       <c r="E150" s="36"/>
       <c r="F150" s="30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G150" s="35"/>
     </row>
@@ -4921,7 +4942,7 @@
       <c r="D154" s="35"/>
       <c r="E154" s="36"/>
       <c r="F154" s="30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G154" s="35"/>
     </row>
@@ -4963,7 +4984,7 @@
       <c r="D158" s="35"/>
       <c r="E158" s="36"/>
       <c r="F158" s="30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G158" s="35"/>
     </row>
@@ -4989,7 +5010,7 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -4999,7 +5020,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5015,7 +5036,7 @@
       <c r="D164" s="35"/>
       <c r="E164" s="36"/>
       <c r="F164" s="30" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G164" s="35"/>
     </row>
@@ -5069,7 +5090,7 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -5085,7 +5106,7 @@
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="39" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5162,7 +5183,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5170,24 +5191,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5212,10 +5233,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5223,7 +5244,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5231,7 +5252,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5239,7 +5260,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="303">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1344,6 +1344,14 @@
   </si>
   <si>
     <t>617. 合并二叉树</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归法-前序遍历, 还算顺利,中间经历了二叉树写着写着变成数组投机取巧求和去了... 题中说了是二叉树,虽然输入实例是数组,但是自己调试放的是二叉树!!!无语!不要投机取巧!  还有,什么时候要new,什么时候不new没思考清楚,多调试多思考
+方法二:迭代法,没写</t>
+  </si>
+  <si>
+    <t>700. 二叉搜索树中的搜索</t>
   </si>
   <si>
     <t>计划9.8</t>
@@ -2668,7 +2676,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4490,7 +4498,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" ht="48" spans="2:7">
       <c r="B110" s="27">
         <v>28</v>
       </c>
@@ -4504,13 +4512,23 @@
         <v>9.8</v>
       </c>
       <c r="F110" s="31"/>
-      <c r="G110" s="12"/>
+      <c r="G110" s="12" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="27"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="12"/>
-      <c r="E111" s="19"/>
+      <c r="B111" s="27">
+        <v>29</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E111" s="19">
+        <v>9.8</v>
+      </c>
       <c r="F111" s="32"/>
       <c r="G111" s="12"/>
     </row>
@@ -4520,7 +4538,7 @@
       <c r="D112" s="12"/>
       <c r="E112" s="19"/>
       <c r="F112" s="30" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G112" s="12"/>
     </row>
@@ -4562,7 +4580,7 @@
       <c r="D117" s="12"/>
       <c r="E117" s="19"/>
       <c r="F117" s="30" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G117" s="12"/>
     </row>
@@ -4592,7 +4610,7 @@
     </row>
     <row r="121" ht="408" customHeight="1" spans="2:7">
       <c r="B121" s="13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -4602,7 +4620,7 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -4618,7 +4636,7 @@
       <c r="D123" s="35"/>
       <c r="E123" s="36"/>
       <c r="F123" s="30" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G123" s="35"/>
     </row>
@@ -4670,7 +4688,7 @@
       <c r="D128" s="35"/>
       <c r="E128" s="36"/>
       <c r="F128" s="30" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G128" s="35"/>
     </row>
@@ -4722,7 +4740,7 @@
       <c r="D133" s="35"/>
       <c r="E133" s="36"/>
       <c r="F133" s="30" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G133" s="35"/>
     </row>
@@ -4774,7 +4792,7 @@
       <c r="D138" s="35"/>
       <c r="E138" s="36"/>
       <c r="F138" s="30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G138" s="35"/>
     </row>
@@ -4790,7 +4808,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
@@ -4800,7 +4818,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -4816,7 +4834,7 @@
       <c r="D142" s="35"/>
       <c r="E142" s="36"/>
       <c r="F142" s="30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G142" s="35"/>
     </row>
@@ -4858,7 +4876,7 @@
       <c r="D146" s="35"/>
       <c r="E146" s="36"/>
       <c r="F146" s="30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G146" s="35"/>
     </row>
@@ -4900,7 +4918,7 @@
       <c r="D150" s="35"/>
       <c r="E150" s="36"/>
       <c r="F150" s="30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G150" s="35"/>
     </row>
@@ -4942,7 +4960,7 @@
       <c r="D154" s="35"/>
       <c r="E154" s="36"/>
       <c r="F154" s="30" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G154" s="35"/>
     </row>
@@ -4984,7 +5002,7 @@
       <c r="D158" s="35"/>
       <c r="E158" s="36"/>
       <c r="F158" s="30" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G158" s="35"/>
     </row>
@@ -5010,7 +5028,7 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="15" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -5020,7 +5038,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5036,7 +5054,7 @@
       <c r="D164" s="35"/>
       <c r="E164" s="36"/>
       <c r="F164" s="30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G164" s="35"/>
     </row>
@@ -5090,7 +5108,7 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -5106,7 +5124,7 @@
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="39" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5201,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5191,24 +5209,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5233,10 +5251,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5244,7 +5262,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5252,7 +5270,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5260,7 +5278,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="306">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1354,7 +1354,27 @@
     <t>700. 二叉搜索树中的搜索</t>
   </si>
   <si>
+    <t>js:
+方法一: 迭代法,前序遍历, 顺利
+方法二: 递归法- 前序遍历, 总体顺利, 但是在确定终止条件的时候不会写
+方法三:迭代法,前序遍历-使用二叉搜索树特征
+注意:当没有找到匹配项的时候,题目给的是返回[],实际上是返回null
+1.什么是二叉搜索树:二叉搜索树是一个有序树：
+    若它的左子树不空，则左子树上所有结点的值均小于它的根结点的值；
+    若它的右子树不空，则右子树上所有结点的值均大于它的根结点的值；
+    它的左、右子树也分别为二叉搜索树
+这就决定了，二叉搜索树，递归遍历和迭代遍历和普通二叉树都不一样。</t>
+  </si>
+  <si>
+    <t>98. 验证二叉搜索树</t>
+  </si>
+  <si>
     <t>计划9.8</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 数组协助法
+1.二叉搜索树特性:输出的二叉搜索树节点的数值是有序序列。有了这个特性，验证二叉搜索树，就相当于变成了判断一个序列是不是递增的了</t>
   </si>
   <si>
     <t>计划9.9日</t>
@@ -2673,10 +2693,10 @@
   <sheetPr/>
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
+      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4516,7 +4536,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" ht="132" spans="2:7">
       <c r="B111" s="27">
         <v>29</v>
       </c>
@@ -4530,20 +4550,34 @@
         <v>9.8</v>
       </c>
       <c r="F111" s="32"/>
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" spans="2:7">
-      <c r="B112" s="27"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="12"/>
-      <c r="E112" s="19"/>
+      <c r="G111" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112" ht="48" spans="2:7">
+      <c r="B112" s="27">
+        <v>30</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E112" s="19">
+        <v>9.8</v>
+      </c>
       <c r="F112" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="G112" s="12"/>
+        <v>273</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="27"/>
+      <c r="B113" s="27">
+        <v>31</v>
+      </c>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="19"/>
@@ -4551,7 +4585,9 @@
       <c r="G113" s="12"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="27"/>
+      <c r="B114" s="27">
+        <v>32</v>
+      </c>
       <c r="C114" s="10"/>
       <c r="D114" s="12"/>
       <c r="E114" s="19"/>
@@ -4559,7 +4595,9 @@
       <c r="G114" s="12"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="27"/>
+      <c r="B115" s="27">
+        <v>33</v>
+      </c>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="19"/>
@@ -4567,7 +4605,9 @@
       <c r="G115" s="12"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="27"/>
+      <c r="B116" s="27">
+        <v>34</v>
+      </c>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="19"/>
@@ -4580,7 +4620,7 @@
       <c r="D117" s="12"/>
       <c r="E117" s="19"/>
       <c r="F117" s="30" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G117" s="12"/>
     </row>
@@ -4610,7 +4650,7 @@
     </row>
     <row r="121" ht="408" customHeight="1" spans="2:7">
       <c r="B121" s="13" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -4620,7 +4660,7 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="15" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -4636,7 +4676,7 @@
       <c r="D123" s="35"/>
       <c r="E123" s="36"/>
       <c r="F123" s="30" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G123" s="35"/>
     </row>
@@ -4688,7 +4728,7 @@
       <c r="D128" s="35"/>
       <c r="E128" s="36"/>
       <c r="F128" s="30" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G128" s="35"/>
     </row>
@@ -4740,7 +4780,7 @@
       <c r="D133" s="35"/>
       <c r="E133" s="36"/>
       <c r="F133" s="30" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G133" s="35"/>
     </row>
@@ -4792,7 +4832,7 @@
       <c r="D138" s="35"/>
       <c r="E138" s="36"/>
       <c r="F138" s="30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G138" s="35"/>
     </row>
@@ -4808,7 +4848,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="37" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
@@ -4818,7 +4858,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="15" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -4834,7 +4874,7 @@
       <c r="D142" s="35"/>
       <c r="E142" s="36"/>
       <c r="F142" s="30" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G142" s="35"/>
     </row>
@@ -4876,7 +4916,7 @@
       <c r="D146" s="35"/>
       <c r="E146" s="36"/>
       <c r="F146" s="30" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G146" s="35"/>
     </row>
@@ -4918,7 +4958,7 @@
       <c r="D150" s="35"/>
       <c r="E150" s="36"/>
       <c r="F150" s="30" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G150" s="35"/>
     </row>
@@ -4960,7 +5000,7 @@
       <c r="D154" s="35"/>
       <c r="E154" s="36"/>
       <c r="F154" s="30" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G154" s="35"/>
     </row>
@@ -5002,7 +5042,7 @@
       <c r="D158" s="35"/>
       <c r="E158" s="36"/>
       <c r="F158" s="30" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G158" s="35"/>
     </row>
@@ -5028,7 +5068,7 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="15" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -5038,7 +5078,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5054,7 +5094,7 @@
       <c r="D164" s="35"/>
       <c r="E164" s="36"/>
       <c r="F164" s="30" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G164" s="35"/>
     </row>
@@ -5108,7 +5148,7 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="15" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -5124,7 +5164,7 @@
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="39" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -5201,7 +5241,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5209,24 +5249,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5251,10 +5291,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5262,7 +5302,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5270,7 +5310,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5278,7 +5318,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="308">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1374,7 +1374,21 @@
   <si>
     <t>js:
 方法一: 数组协助法
-1.二叉搜索树特性:输出的二叉搜索树节点的数值是有序序列。有了这个特性，验证二叉搜索树，就相当于变成了判断一个序列是不是递增的了</t>
+1.二叉搜索树特性:输出的二叉搜索树节点的数值是有序序列。有了这个特性，验证二叉搜索树，就相当于变成了判断一个序列是不是递增的了
+还有俩方法,还没完呢!!</t>
+  </si>
+  <si>
+    <t>530. 二叉搜索树的最小绝对差</t>
+  </si>
+  <si>
+    <t>js:
+方法一:感觉思路简单,但是写不出来,写错..递归法:中序遍历, 等于一个有序数组! 思想复杂了,把当前节点和前一个进行对比就行
+方法二:转换成有序数组,再比较数组中最小差值. 顺利
+方法三: 迭代法-中序遍历..抄的, 不太熟,好抽象..
+题目说了树中节点数最少2个
+1.let result = Infinity; // 定义为正无穷的写法
+2.迭代法: stk里面不放东西, 中序遍历,先不放是对的
+3.迭代法: while循环先cur再stk.length,确保即使 cur 到达空节点，但栈中可能仍有未处理的节点，所以不会提前结束循环。</t>
   </si>
   <si>
     <t>计划9.9日</t>
@@ -2693,10 +2707,10 @@
   <sheetPr/>
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G115" sqref="G115"/>
+      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4554,7 +4568,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="112" ht="48" spans="2:7">
+    <row r="112" ht="72" spans="2:7">
       <c r="B112" s="27">
         <v>30</v>
       </c>
@@ -4574,15 +4588,23 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" ht="108" spans="2:7">
       <c r="B113" s="27">
         <v>31</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="12"/>
-      <c r="E113" s="19"/>
+      <c r="C113" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E113" s="19">
+        <v>9.8</v>
+      </c>
       <c r="F113" s="31"/>
-      <c r="G113" s="12"/>
+      <c r="G113" s="12" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="114" spans="2:7">
       <c r="B114" s="27">
@@ -4620,7 +4642,7 @@
       <c r="D117" s="12"/>
       <c r="E117" s="19"/>
       <c r="F117" s="30" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G117" s="12"/>
     </row>
@@ -4650,7 +4672,7 @@
     </row>
     <row r="121" ht="408" customHeight="1" spans="2:7">
       <c r="B121" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -4660,7 +4682,7 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -4676,7 +4698,7 @@
       <c r="D123" s="35"/>
       <c r="E123" s="36"/>
       <c r="F123" s="30" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G123" s="35"/>
     </row>
@@ -4728,7 +4750,7 @@
       <c r="D128" s="35"/>
       <c r="E128" s="36"/>
       <c r="F128" s="30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G128" s="35"/>
     </row>
@@ -4780,7 +4802,7 @@
       <c r="D133" s="35"/>
       <c r="E133" s="36"/>
       <c r="F133" s="30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G133" s="35"/>
     </row>
@@ -4832,7 +4854,7 @@
       <c r="D138" s="35"/>
       <c r="E138" s="36"/>
       <c r="F138" s="30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G138" s="35"/>
     </row>
@@ -4848,7 +4870,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="37" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
@@ -4858,7 +4880,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -4874,7 +4896,7 @@
       <c r="D142" s="35"/>
       <c r="E142" s="36"/>
       <c r="F142" s="30" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G142" s="35"/>
     </row>
@@ -4916,7 +4938,7 @@
       <c r="D146" s="35"/>
       <c r="E146" s="36"/>
       <c r="F146" s="30" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G146" s="35"/>
     </row>
@@ -4958,7 +4980,7 @@
       <c r="D150" s="35"/>
       <c r="E150" s="36"/>
       <c r="F150" s="30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G150" s="35"/>
     </row>
@@ -5000,7 +5022,7 @@
       <c r="D154" s="35"/>
       <c r="E154" s="36"/>
       <c r="F154" s="30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G154" s="35"/>
     </row>
@@ -5042,7 +5064,7 @@
       <c r="D158" s="35"/>
       <c r="E158" s="36"/>
       <c r="F158" s="30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G158" s="35"/>
     </row>
@@ -5068,7 +5090,7 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="15" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -5078,7 +5100,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5094,7 +5116,7 @@
       <c r="D164" s="35"/>
       <c r="E164" s="36"/>
       <c r="F164" s="30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G164" s="35"/>
     </row>
@@ -5148,7 +5170,7 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="15" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -5164,7 +5186,7 @@
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="39" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5241,7 +5263,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5249,24 +5271,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5291,10 +5313,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5302,7 +5324,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5310,7 +5332,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5318,7 +5340,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="310">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1389,6 +1389,19 @@
 1.let result = Infinity; // 定义为正无穷的写法
 2.迭代法: stk里面不放东西, 中序遍历,先不放是对的
 3.迭代法: while循环先cur再stk.length,确保即使 cur 到达空节点，但栈中可能仍有未处理的节点，所以不会提前结束循环。</t>
+  </si>
+  <si>
+    <t>501. 二叉搜索树中的众数</t>
+  </si>
+  <si>
+    <t>js:
+1.非二叉搜索树的解法: 递归法-前序遍历 + map找众数
+a.使用map要new!! -&gt; const map = new Map();
+b.map中修改value的方式: map.set(root.val, map.get(root.val) + 1);
+c.获取map中item的方式是for(let [key, value] of map)
+2.递归-中序遍历 + 在树上求众数, 抄的,写不来
+a.在树上如何求众数:使用pre指针和cur指针的技巧
+b.最大众数是一个集合,怎么遍历一次数组就获取最大众数?</t>
   </si>
   <si>
     <t>计划9.9日</t>
@@ -2707,10 +2720,10 @@
   <sheetPr/>
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G113" sqref="G113"/>
+      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4606,15 +4619,23 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" ht="108" spans="2:7">
       <c r="B114" s="27">
         <v>32</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="12"/>
-      <c r="E114" s="19"/>
+      <c r="C114" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E114" s="19">
+        <v>9.8</v>
+      </c>
       <c r="F114" s="31"/>
-      <c r="G114" s="12"/>
+      <c r="G114" s="12" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="115" spans="2:7">
       <c r="B115" s="27">
@@ -4642,7 +4663,7 @@
       <c r="D117" s="12"/>
       <c r="E117" s="19"/>
       <c r="F117" s="30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G117" s="12"/>
     </row>
@@ -4672,7 +4693,7 @@
     </row>
     <row r="121" ht="408" customHeight="1" spans="2:7">
       <c r="B121" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -4682,7 +4703,7 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -4698,7 +4719,7 @@
       <c r="D123" s="35"/>
       <c r="E123" s="36"/>
       <c r="F123" s="30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G123" s="35"/>
     </row>
@@ -4750,7 +4771,7 @@
       <c r="D128" s="35"/>
       <c r="E128" s="36"/>
       <c r="F128" s="30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G128" s="35"/>
     </row>
@@ -4802,7 +4823,7 @@
       <c r="D133" s="35"/>
       <c r="E133" s="36"/>
       <c r="F133" s="30" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G133" s="35"/>
     </row>
@@ -4854,7 +4875,7 @@
       <c r="D138" s="35"/>
       <c r="E138" s="36"/>
       <c r="F138" s="30" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G138" s="35"/>
     </row>
@@ -4870,7 +4891,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="37" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
@@ -4880,7 +4901,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="15" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -4896,7 +4917,7 @@
       <c r="D142" s="35"/>
       <c r="E142" s="36"/>
       <c r="F142" s="30" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G142" s="35"/>
     </row>
@@ -4938,7 +4959,7 @@
       <c r="D146" s="35"/>
       <c r="E146" s="36"/>
       <c r="F146" s="30" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G146" s="35"/>
     </row>
@@ -4980,7 +5001,7 @@
       <c r="D150" s="35"/>
       <c r="E150" s="36"/>
       <c r="F150" s="30" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G150" s="35"/>
     </row>
@@ -5022,7 +5043,7 @@
       <c r="D154" s="35"/>
       <c r="E154" s="36"/>
       <c r="F154" s="30" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G154" s="35"/>
     </row>
@@ -5064,7 +5085,7 @@
       <c r="D158" s="35"/>
       <c r="E158" s="36"/>
       <c r="F158" s="30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G158" s="35"/>
     </row>
@@ -5090,7 +5111,7 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="15" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -5100,7 +5121,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5116,7 +5137,7 @@
       <c r="D164" s="35"/>
       <c r="E164" s="36"/>
       <c r="F164" s="30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G164" s="35"/>
     </row>
@@ -5170,7 +5191,7 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -5186,7 +5207,7 @@
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="39" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +5284,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5271,24 +5292,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5313,10 +5334,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5324,7 +5345,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5332,7 +5353,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5340,7 +5361,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="311">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1401,7 +1401,13 @@
 c.获取map中item的方式是for(let [key, value] of map)
 2.递归-中序遍历 + 在树上求众数, 抄的,写不来
 a.在树上如何求众数:使用pre指针和cur指针的技巧
-b.最大众数是一个集合,怎么遍历一次数组就获取最大众数?</t>
+b.最大众数是一个集合,怎么遍历一次数组就获取最大众数?
+3.迭代法-中序遍历 + 在栈上求最大众数
+迭代法的中序遍历不熟
+其他思路都和递归一样</t>
+  </si>
+  <si>
+    <t>236. 二叉树的最近公共祖先</t>
   </si>
   <si>
     <t>计划9.9日</t>
@@ -2720,10 +2726,10 @@
   <sheetPr/>
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4619,7 +4625,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" ht="108" spans="2:7">
+    <row r="114" ht="156" spans="2:7">
       <c r="B114" s="27">
         <v>32</v>
       </c>
@@ -4637,13 +4643,19 @@
         <v>278</v>
       </c>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" ht="24" spans="2:7">
       <c r="B115" s="27">
         <v>33</v>
       </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="19"/>
+      <c r="C115" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E115" s="19">
+        <v>9.9</v>
+      </c>
       <c r="F115" s="31"/>
       <c r="G115" s="12"/>
     </row>
@@ -4663,7 +4675,7 @@
       <c r="D117" s="12"/>
       <c r="E117" s="19"/>
       <c r="F117" s="30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G117" s="12"/>
     </row>
@@ -4693,7 +4705,7 @@
     </row>
     <row r="121" ht="408" customHeight="1" spans="2:7">
       <c r="B121" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -4703,7 +4715,7 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -4719,7 +4731,7 @@
       <c r="D123" s="35"/>
       <c r="E123" s="36"/>
       <c r="F123" s="30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G123" s="35"/>
     </row>
@@ -4771,7 +4783,7 @@
       <c r="D128" s="35"/>
       <c r="E128" s="36"/>
       <c r="F128" s="30" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G128" s="35"/>
     </row>
@@ -4823,7 +4835,7 @@
       <c r="D133" s="35"/>
       <c r="E133" s="36"/>
       <c r="F133" s="30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G133" s="35"/>
     </row>
@@ -4875,7 +4887,7 @@
       <c r="D138" s="35"/>
       <c r="E138" s="36"/>
       <c r="F138" s="30" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G138" s="35"/>
     </row>
@@ -4891,7 +4903,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
@@ -4901,7 +4913,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -4917,7 +4929,7 @@
       <c r="D142" s="35"/>
       <c r="E142" s="36"/>
       <c r="F142" s="30" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G142" s="35"/>
     </row>
@@ -4959,7 +4971,7 @@
       <c r="D146" s="35"/>
       <c r="E146" s="36"/>
       <c r="F146" s="30" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G146" s="35"/>
     </row>
@@ -5001,7 +5013,7 @@
       <c r="D150" s="35"/>
       <c r="E150" s="36"/>
       <c r="F150" s="30" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G150" s="35"/>
     </row>
@@ -5043,7 +5055,7 @@
       <c r="D154" s="35"/>
       <c r="E154" s="36"/>
       <c r="F154" s="30" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G154" s="35"/>
     </row>
@@ -5085,7 +5097,7 @@
       <c r="D158" s="35"/>
       <c r="E158" s="36"/>
       <c r="F158" s="30" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G158" s="35"/>
     </row>
@@ -5111,7 +5123,7 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -5121,7 +5133,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5137,7 +5149,7 @@
       <c r="D164" s="35"/>
       <c r="E164" s="36"/>
       <c r="F164" s="30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G164" s="35"/>
     </row>
@@ -5191,7 +5203,7 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -5207,7 +5219,7 @@
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="39" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5284,7 +5296,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5292,24 +5304,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5334,10 +5346,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5345,7 +5357,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5353,7 +5365,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5361,7 +5373,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="314">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1408,6 +1408,34 @@
   </si>
   <si>
     <t>236. 二叉树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归法, 很多细节不会,看得答案,多复习
+注意题目提示:所有 Node.val 互不相同 ; 树中节点数目最少为2
+有返回值,但是也要遍历所有的边, 要看如何处理返回值
+如果递归有返回值, 如何区分要搜索一条边, 还是搜索一棵树呢
+        搜索一条边:
+        if(recursion(root.left)) return;
+        if(recursion(root.right)) return;
+        搜索一棵树:
+        left = recursion(root.left);
+        right = recursion(root.right);
+        left与right的逻辑处理
+        总结:在递归函数有返回值的情况下：如果要搜索一条边，递归函数返回值不为空的时候，立刻返回，如果搜索整个树，直接用一个变量left、right接住返回值，这个left、right后序还有逻辑处理的需要，也就是后序遍历中处理中间节点的逻辑（也是回溯）。
+        找到结果后依然要遍历整棵树,why?因为在如下代码的后序遍历中，如果想利用left和right做逻辑处理， 不能立刻返回，而是要等left与right逻辑处理完之后才能返回。
+如果left 和 right都不为空，说明此时root就是最近公共节点。这个比较好理解
+如果left为空，right不为空，就返回right，说明目标节点是通过right返回的，反之依然。</t>
+  </si>
+  <si>
+    <t>235. 二叉搜索树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归法  利用特性可知: 第一次遇到 cur节点是数值在[q, p]区间中，那么cur就是 q和p的最近公共祖先。
+在这里调用递归函数的地方，把递归函数的返回值left，直接return。在二叉树：公共祖先问题中，如果递归函数有返回值，如何区分要搜索一条边，还是搜索整个树。
+本题就是标准的搜索一条边的写法，遇到递归函数的返回值，如果不为空，立刻返回。
+方法二: 迭代法, 和递归法一样的思路,更简单</t>
   </si>
   <si>
     <t>计划9.9日</t>
@@ -2727,9 +2755,9 @@
   <dimension ref="A1:G174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4643,7 +4671,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="115" ht="24" spans="2:7">
+    <row r="115" ht="276" spans="2:7">
       <c r="B115" s="27">
         <v>33</v>
       </c>
@@ -4657,17 +4685,27 @@
         <v>9.9</v>
       </c>
       <c r="F115" s="31"/>
-      <c r="G115" s="12"/>
-    </row>
-    <row r="116" spans="2:7">
+      <c r="G115" s="12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" ht="96" spans="2:7">
       <c r="B116" s="27">
         <v>34</v>
       </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="19"/>
+      <c r="C116" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E116" s="19">
+        <v>9.9</v>
+      </c>
       <c r="F116" s="32"/>
-      <c r="G116" s="12"/>
+      <c r="G116" s="12" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="117" spans="2:7">
       <c r="B117" s="27"/>
@@ -4675,7 +4713,7 @@
       <c r="D117" s="12"/>
       <c r="E117" s="19"/>
       <c r="F117" s="30" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G117" s="12"/>
     </row>
@@ -4705,7 +4743,7 @@
     </row>
     <row r="121" ht="408" customHeight="1" spans="2:7">
       <c r="B121" s="13" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -4715,7 +4753,7 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="15" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -4731,7 +4769,7 @@
       <c r="D123" s="35"/>
       <c r="E123" s="36"/>
       <c r="F123" s="30" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G123" s="35"/>
     </row>
@@ -4783,7 +4821,7 @@
       <c r="D128" s="35"/>
       <c r="E128" s="36"/>
       <c r="F128" s="30" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G128" s="35"/>
     </row>
@@ -4835,7 +4873,7 @@
       <c r="D133" s="35"/>
       <c r="E133" s="36"/>
       <c r="F133" s="30" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G133" s="35"/>
     </row>
@@ -4887,7 +4925,7 @@
       <c r="D138" s="35"/>
       <c r="E138" s="36"/>
       <c r="F138" s="30" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G138" s="35"/>
     </row>
@@ -4903,7 +4941,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="37" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
@@ -4913,7 +4951,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="15" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -4929,7 +4967,7 @@
       <c r="D142" s="35"/>
       <c r="E142" s="36"/>
       <c r="F142" s="30" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G142" s="35"/>
     </row>
@@ -4971,7 +5009,7 @@
       <c r="D146" s="35"/>
       <c r="E146" s="36"/>
       <c r="F146" s="30" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G146" s="35"/>
     </row>
@@ -5013,7 +5051,7 @@
       <c r="D150" s="35"/>
       <c r="E150" s="36"/>
       <c r="F150" s="30" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G150" s="35"/>
     </row>
@@ -5055,7 +5093,7 @@
       <c r="D154" s="35"/>
       <c r="E154" s="36"/>
       <c r="F154" s="30" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G154" s="35"/>
     </row>
@@ -5097,7 +5135,7 @@
       <c r="D158" s="35"/>
       <c r="E158" s="36"/>
       <c r="F158" s="30" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G158" s="35"/>
     </row>
@@ -5123,7 +5161,7 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="15" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -5133,7 +5171,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5149,7 +5187,7 @@
       <c r="D164" s="35"/>
       <c r="E164" s="36"/>
       <c r="F164" s="30" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G164" s="35"/>
     </row>
@@ -5203,7 +5241,7 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="15" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -5219,7 +5257,7 @@
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="39" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -5296,7 +5334,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5304,24 +5342,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5346,10 +5384,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5357,7 +5395,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5365,7 +5403,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5373,7 +5411,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="319">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1438,7 +1438,31 @@
 方法二: 迭代法, 和递归法一样的思路,更简单</t>
   </si>
   <si>
+    <t xml:space="preserve"> 701.二叉搜索树中的插入操作</t>
+  </si>
+  <si>
     <t>计划9.9日</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归, 顺利
+这个题并不需要调整二叉树
+方法二:迭代法 没写
+二叉搜索树中的插入操作，大家不用恐惧其重构搜索树，其实根本不用重构。</t>
+  </si>
+  <si>
+    <t>450. 删除二叉搜索树中的节点</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归法-抄的, 掌握有哪几种情况!
+方法二:迭代法,没写
+普通二叉树的删除-没写
+二叉搜索树添加节点只需要在叶子上添加就可以的，不涉及到结构的调整，而删除节点操作涉及到结构的调整。最关键的逻辑就是第五种情况（删除一个左右孩子都不为空的节点），这种情况一定要想清楚。
+而且就算想清楚了，对应的代码也未必可以写出来，所以这道题目既考察思维逻辑，也考察代码能力。</t>
+  </si>
+  <si>
+    <t>669. 修剪二叉搜索树</t>
   </si>
   <si>
     <t>总结:
@@ -2754,10 +2778,10 @@
   <sheetPr/>
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G116" sqref="G116"/>
+      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4707,34 +4731,64 @@
         <v>282</v>
       </c>
     </row>
-    <row r="117" spans="2:7">
-      <c r="B117" s="27"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="19"/>
+    <row r="117" ht="72" spans="2:7">
+      <c r="B117" s="27">
+        <v>35</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="E117" s="19">
+        <v>9.9</v>
+      </c>
       <c r="F117" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="27"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="19"/>
+        <v>284</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="118" ht="96" spans="2:7">
+      <c r="B118" s="27">
+        <v>36</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E118" s="19">
+        <v>9.9</v>
+      </c>
       <c r="F118" s="31"/>
-      <c r="G118" s="12"/>
+      <c r="G118" s="12" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="27"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="19"/>
+      <c r="B119" s="27">
+        <v>37</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="E119" s="19">
+        <v>9.9</v>
+      </c>
       <c r="F119" s="31"/>
       <c r="G119" s="12"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="27"/>
+      <c r="B120" s="27">
+        <v>38</v>
+      </c>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="19"/>
@@ -4743,7 +4797,7 @@
     </row>
     <row r="121" ht="408" customHeight="1" spans="2:7">
       <c r="B121" s="13" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C121" s="14"/>
       <c r="D121" s="14"/>
@@ -4753,7 +4807,7 @@
     </row>
     <row r="122" spans="2:7">
       <c r="B122" s="15" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
@@ -4769,7 +4823,7 @@
       <c r="D123" s="35"/>
       <c r="E123" s="36"/>
       <c r="F123" s="30" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="G123" s="35"/>
     </row>
@@ -4821,7 +4875,7 @@
       <c r="D128" s="35"/>
       <c r="E128" s="36"/>
       <c r="F128" s="30" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G128" s="35"/>
     </row>
@@ -4873,7 +4927,7 @@
       <c r="D133" s="35"/>
       <c r="E133" s="36"/>
       <c r="F133" s="30" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G133" s="35"/>
     </row>
@@ -4925,7 +4979,7 @@
       <c r="D138" s="35"/>
       <c r="E138" s="36"/>
       <c r="F138" s="30" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G138" s="35"/>
     </row>
@@ -4941,7 +4995,7 @@
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="37" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38"/>
@@ -4951,7 +5005,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="15" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
@@ -4967,7 +5021,7 @@
       <c r="D142" s="35"/>
       <c r="E142" s="36"/>
       <c r="F142" s="30" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G142" s="35"/>
     </row>
@@ -5009,7 +5063,7 @@
       <c r="D146" s="35"/>
       <c r="E146" s="36"/>
       <c r="F146" s="30" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="G146" s="35"/>
     </row>
@@ -5051,7 +5105,7 @@
       <c r="D150" s="35"/>
       <c r="E150" s="36"/>
       <c r="F150" s="30" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G150" s="35"/>
     </row>
@@ -5093,7 +5147,7 @@
       <c r="D154" s="35"/>
       <c r="E154" s="36"/>
       <c r="F154" s="30" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G154" s="35"/>
     </row>
@@ -5135,7 +5189,7 @@
       <c r="D158" s="35"/>
       <c r="E158" s="36"/>
       <c r="F158" s="30" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G158" s="35"/>
     </row>
@@ -5161,7 +5215,7 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="15" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
@@ -5171,7 +5225,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5187,7 +5241,7 @@
       <c r="D164" s="35"/>
       <c r="E164" s="36"/>
       <c r="F164" s="30" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G164" s="35"/>
     </row>
@@ -5241,7 +5295,7 @@
     </row>
     <row r="170" spans="2:7">
       <c r="B170" s="15" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
@@ -5257,7 +5311,7 @@
     </row>
     <row r="174" spans="3:3">
       <c r="C174" s="39" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5334,7 +5388,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5342,24 +5396,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5384,10 +5438,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5395,7 +5449,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5403,7 +5457,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5411,7 +5465,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -2778,7 +2778,7 @@
   <sheetPr/>
   <dimension ref="A1:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18300" windowHeight="12495"/>
+    <workbookView windowWidth="13815" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="323">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1465,6 +1465,22 @@
     <t>669. 修剪二叉搜索树</t>
   </si>
   <si>
+    <t>js:
+方法一: 递归法,抄的,思路绕, 对递归没有深刻的理解，困难</t>
+  </si>
+  <si>
+    <t>108. 将有序数组转换为二叉搜索树</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 递归法, 抄的, 不断中间分割，然后递归处理左区间，右区间，也可以说是分治
+1. 平衡二叉树: 是指该树所有节点的左右子树的深度相差不超过 1。
+2.如果这样写: int mid = (left + right) / 2; 会数值越界，例如left和right都是最大int，这么操作就越界了，在二分法中尤其需要注意！</t>
+  </si>
+  <si>
+    <t>538. 把二叉搜索树转换为累加树</t>
+  </si>
+  <si>
     <t>总结:
 1.二叉树的种类: 
 满二叉树(深度为k,有2^k-1个节点); 
@@ -1596,12 +1612,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1633,97 +1649,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1739,6 +1670,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1748,6 +1696,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1769,10 +1739,56 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1815,19 +1831,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,7 +1849,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1851,25 +1873,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1881,37 +1903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1929,7 +1921,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1941,49 +1999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2089,7 +2105,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2142,29 +2178,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2188,152 +2204,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2409,7 +2425,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2424,34 +2440,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2776,12 +2771,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G174"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4335,7 +4330,7 @@
       <c r="B95" s="27">
         <v>15</v>
       </c>
-      <c r="C95" s="30" t="s">
+      <c r="C95" s="26" t="s">
         <v>232</v>
       </c>
       <c r="D95" s="12" t="s">
@@ -4355,7 +4350,7 @@
       <c r="B96" s="27">
         <v>16</v>
       </c>
-      <c r="C96" s="31"/>
+      <c r="C96" s="28"/>
       <c r="D96" s="12" t="s">
         <v>235</v>
       </c>
@@ -4517,7 +4512,7 @@
       <c r="B105" s="27">
         <v>23</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="C105" s="26" t="s">
         <v>256</v>
       </c>
       <c r="D105" s="12" t="s">
@@ -4535,14 +4530,14 @@
       <c r="B106" s="27">
         <v>24</v>
       </c>
-      <c r="C106" s="32"/>
+      <c r="C106" s="29"/>
       <c r="D106" s="12" t="s">
         <v>259</v>
       </c>
       <c r="E106" s="19">
         <v>9.7</v>
       </c>
-      <c r="F106" s="30" t="s">
+      <c r="F106" s="26" t="s">
         <v>260</v>
       </c>
       <c r="G106" s="12" t="s">
@@ -4562,7 +4557,7 @@
       <c r="E107" s="19">
         <v>9.7</v>
       </c>
-      <c r="F107" s="31"/>
+      <c r="F107" s="28"/>
       <c r="G107" s="12" t="s">
         <v>263</v>
       </c>
@@ -4580,7 +4575,7 @@
       <c r="E108" s="19">
         <v>9.7</v>
       </c>
-      <c r="F108" s="31"/>
+      <c r="F108" s="28"/>
       <c r="G108" s="12" t="s">
         <v>265</v>
       </c>
@@ -4598,7 +4593,7 @@
       <c r="E109" s="19">
         <v>9.7</v>
       </c>
-      <c r="F109" s="31"/>
+      <c r="F109" s="28"/>
       <c r="G109" s="12" t="s">
         <v>267</v>
       </c>
@@ -4616,7 +4611,7 @@
       <c r="E110" s="19">
         <v>9.8</v>
       </c>
-      <c r="F110" s="31"/>
+      <c r="F110" s="28"/>
       <c r="G110" s="12" t="s">
         <v>269</v>
       </c>
@@ -4634,7 +4629,7 @@
       <c r="E111" s="19">
         <v>9.8</v>
       </c>
-      <c r="F111" s="32"/>
+      <c r="F111" s="29"/>
       <c r="G111" s="12" t="s">
         <v>271</v>
       </c>
@@ -4652,7 +4647,7 @@
       <c r="E112" s="19">
         <v>9.8</v>
       </c>
-      <c r="F112" s="30" t="s">
+      <c r="F112" s="26" t="s">
         <v>273</v>
       </c>
       <c r="G112" s="12" t="s">
@@ -4672,7 +4667,7 @@
       <c r="E113" s="19">
         <v>9.8</v>
       </c>
-      <c r="F113" s="31"/>
+      <c r="F113" s="28"/>
       <c r="G113" s="12" t="s">
         <v>276</v>
       </c>
@@ -4690,7 +4685,7 @@
       <c r="E114" s="19">
         <v>9.8</v>
       </c>
-      <c r="F114" s="31"/>
+      <c r="F114" s="28"/>
       <c r="G114" s="12" t="s">
         <v>278</v>
       </c>
@@ -4708,7 +4703,7 @@
       <c r="E115" s="19">
         <v>9.9</v>
       </c>
-      <c r="F115" s="31"/>
+      <c r="F115" s="28"/>
       <c r="G115" s="12" t="s">
         <v>280</v>
       </c>
@@ -4726,7 +4721,7 @@
       <c r="E116" s="19">
         <v>9.9</v>
       </c>
-      <c r="F116" s="32"/>
+      <c r="F116" s="29"/>
       <c r="G116" s="12" t="s">
         <v>282</v>
       </c>
@@ -4744,7 +4739,7 @@
       <c r="E117" s="19">
         <v>9.9</v>
       </c>
-      <c r="F117" s="30" t="s">
+      <c r="F117" s="26" t="s">
         <v>284</v>
       </c>
       <c r="G117" s="12" t="s">
@@ -4764,12 +4759,12 @@
       <c r="E118" s="19">
         <v>9.9</v>
       </c>
-      <c r="F118" s="31"/>
+      <c r="F118" s="28"/>
       <c r="G118" s="12" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" ht="24" spans="2:7">
       <c r="B119" s="27">
         <v>37</v>
       </c>
@@ -4780,538 +4775,564 @@
         <v>288</v>
       </c>
       <c r="E119" s="19">
-        <v>9.9</v>
-      </c>
-      <c r="F119" s="31"/>
-      <c r="G119" s="12"/>
-    </row>
-    <row r="120" spans="2:7">
+        <v>9.11</v>
+      </c>
+      <c r="F119" s="28"/>
+      <c r="G119" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="120" ht="72" spans="2:7">
       <c r="B120" s="27">
         <v>38</v>
       </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="19"/>
-      <c r="F120" s="32"/>
-      <c r="G120" s="12"/>
-    </row>
-    <row r="121" ht="408" customHeight="1" spans="2:7">
-      <c r="B121" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="21"/>
-    </row>
-    <row r="122" spans="2:7">
-      <c r="B122" s="15" t="s">
+      <c r="C120" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="C122" s="16"/>
-      <c r="D122" s="16"/>
-      <c r="E122" s="16"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="22"/>
+      <c r="D120" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="E120" s="19">
+        <v>9.11</v>
+      </c>
+      <c r="F120" s="29"/>
+      <c r="G120" s="12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121" ht="24" spans="2:7">
+      <c r="B121" s="27">
+        <v>39</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="E121" s="19">
+        <v>9.11</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="12"/>
+    </row>
+    <row r="122" ht="408" customHeight="1" spans="2:7">
+      <c r="B122" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="21"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="33">
+      <c r="B123" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="22"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="9">
         <v>1</v>
       </c>
-      <c r="C123" s="34"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="36"/>
-      <c r="F123" s="30" t="s">
-        <v>291</v>
-      </c>
-      <c r="G123" s="35"/>
-    </row>
-    <row r="124" spans="2:7">
-      <c r="B124" s="33">
+      <c r="C124" s="10"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="19"/>
+      <c r="F124" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="9">
         <v>2</v>
       </c>
-      <c r="C124" s="34"/>
-      <c r="D124" s="35"/>
-      <c r="E124" s="36"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="35"/>
-    </row>
-    <row r="125" spans="2:7">
-      <c r="B125" s="33">
+      <c r="C125" s="10"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="19"/>
+      <c r="F125" s="28"/>
+      <c r="G125" s="12"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="9">
         <v>3</v>
       </c>
-      <c r="C125" s="34"/>
-      <c r="D125" s="35"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="35"/>
-    </row>
-    <row r="126" spans="2:7">
-      <c r="B126" s="33">
+      <c r="C126" s="10"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="12"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="9">
         <v>4</v>
       </c>
-      <c r="C126" s="34"/>
-      <c r="D126" s="35"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="35"/>
-    </row>
-    <row r="127" spans="2:7">
-      <c r="B127" s="33">
+      <c r="C127" s="10"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="28"/>
+      <c r="G127" s="12"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="9">
         <v>5</v>
       </c>
-      <c r="C127" s="34"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="32"/>
-      <c r="G127" s="35"/>
-    </row>
-    <row r="128" spans="2:7">
-      <c r="B128" s="33">
+      <c r="C128" s="10"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="19"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="12"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="9">
         <v>6</v>
       </c>
-      <c r="C128" s="34"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="30" t="s">
-        <v>292</v>
-      </c>
-      <c r="G128" s="35"/>
-    </row>
-    <row r="129" spans="2:7">
-      <c r="B129" s="33">
+      <c r="C129" s="10"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="G129" s="12"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="9">
         <v>7</v>
       </c>
-      <c r="C129" s="34"/>
-      <c r="D129" s="35"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="35"/>
-    </row>
-    <row r="130" spans="2:7">
-      <c r="B130" s="33">
+      <c r="C130" s="10"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="28"/>
+      <c r="G130" s="12"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="9">
         <v>8</v>
       </c>
-      <c r="C130" s="34"/>
-      <c r="D130" s="35"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="35"/>
-    </row>
-    <row r="131" spans="2:7">
-      <c r="B131" s="33">
+      <c r="C131" s="10"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="19"/>
+      <c r="F131" s="28"/>
+      <c r="G131" s="12"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="9">
         <v>9</v>
       </c>
-      <c r="C131" s="34"/>
-      <c r="D131" s="35"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="31"/>
-      <c r="G131" s="35"/>
-    </row>
-    <row r="132" spans="2:7">
-      <c r="B132" s="33">
+      <c r="C132" s="10"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="28"/>
+      <c r="G132" s="12"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="9">
         <v>10</v>
       </c>
-      <c r="C132" s="34"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="32"/>
-      <c r="G132" s="35"/>
-    </row>
-    <row r="133" spans="2:7">
-      <c r="B133" s="33">
+      <c r="C133" s="10"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="19"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="12"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="9">
         <v>11</v>
       </c>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="36"/>
-      <c r="F133" s="30" t="s">
-        <v>293</v>
-      </c>
-      <c r="G133" s="35"/>
-    </row>
-    <row r="134" spans="2:7">
-      <c r="B134" s="33">
+      <c r="C134" s="10"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="G134" s="12"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="9">
         <v>12</v>
       </c>
-      <c r="C134" s="34"/>
-      <c r="D134" s="35"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="31"/>
-      <c r="G134" s="35"/>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="B135" s="33">
+      <c r="C135" s="10"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="28"/>
+      <c r="G135" s="12"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="9">
         <v>13</v>
       </c>
-      <c r="C135" s="34"/>
-      <c r="D135" s="35"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="35"/>
-    </row>
-    <row r="136" spans="2:7">
-      <c r="B136" s="33">
+      <c r="C136" s="10"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="28"/>
+      <c r="G136" s="12"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="9">
         <v>14</v>
       </c>
-      <c r="C136" s="34"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="35"/>
-    </row>
-    <row r="137" spans="2:7">
-      <c r="B137" s="33">
+      <c r="C137" s="10"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="28"/>
+      <c r="G137" s="12"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="9">
         <v>15</v>
       </c>
-      <c r="C137" s="34"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="32"/>
-      <c r="G137" s="35"/>
-    </row>
-    <row r="138" spans="2:7">
-      <c r="B138" s="33">
+      <c r="C138" s="10"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="12"/>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="9">
         <v>16</v>
       </c>
-      <c r="C138" s="34"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="36"/>
-      <c r="F138" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="G138" s="35"/>
-    </row>
-    <row r="139" spans="2:7">
-      <c r="B139" s="33">
+      <c r="C139" s="10"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="G139" s="12"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="9">
         <v>17</v>
       </c>
-      <c r="C139" s="34"/>
-      <c r="D139" s="35"/>
-      <c r="E139" s="36"/>
-      <c r="F139" s="32"/>
-      <c r="G139" s="35"/>
-    </row>
-    <row r="140" spans="2:7">
-      <c r="B140" s="37" t="s">
-        <v>295</v>
-      </c>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="40"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="12"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="16"/>
-      <c r="G141" s="22"/>
+      <c r="B141" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C141" s="31"/>
+      <c r="D141" s="31"/>
+      <c r="E141" s="31"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="33"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="33">
+      <c r="B142" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="22"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="9">
         <v>1</v>
       </c>
-      <c r="C142" s="34"/>
-      <c r="D142" s="35"/>
-      <c r="E142" s="36"/>
-      <c r="F142" s="30" t="s">
-        <v>297</v>
-      </c>
-      <c r="G142" s="35"/>
-    </row>
-    <row r="143" spans="2:7">
-      <c r="B143" s="33">
+      <c r="C143" s="10"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="G143" s="12"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="9">
         <v>2</v>
       </c>
-      <c r="C143" s="34"/>
-      <c r="D143" s="35"/>
-      <c r="E143" s="36"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="35"/>
-    </row>
-    <row r="144" spans="2:7">
-      <c r="B144" s="33">
+      <c r="C144" s="10"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="28"/>
+      <c r="G144" s="12"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="9">
         <v>3</v>
       </c>
-      <c r="C144" s="34"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="31"/>
-      <c r="G144" s="35"/>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="B145" s="33">
+      <c r="C145" s="10"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="19"/>
+      <c r="F145" s="28"/>
+      <c r="G145" s="12"/>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="9">
         <v>4</v>
       </c>
-      <c r="C145" s="34"/>
-      <c r="D145" s="35"/>
-      <c r="E145" s="36"/>
-      <c r="F145" s="32"/>
-      <c r="G145" s="35"/>
-    </row>
-    <row r="146" spans="2:7">
-      <c r="B146" s="33">
+      <c r="C146" s="10"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="12"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="9">
         <v>5</v>
       </c>
-      <c r="C146" s="34"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="36"/>
-      <c r="F146" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="G146" s="35"/>
-    </row>
-    <row r="147" spans="2:7">
-      <c r="B147" s="33">
+      <c r="C147" s="10"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G147" s="12"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="9">
         <v>6</v>
       </c>
-      <c r="C147" s="34"/>
-      <c r="D147" s="35"/>
-      <c r="E147" s="36"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="35"/>
-    </row>
-    <row r="148" spans="2:7">
-      <c r="B148" s="33">
+      <c r="C148" s="10"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="19"/>
+      <c r="F148" s="28"/>
+      <c r="G148" s="12"/>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="9">
         <v>7</v>
       </c>
-      <c r="C148" s="34"/>
-      <c r="D148" s="35"/>
-      <c r="E148" s="36"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="35"/>
-    </row>
-    <row r="149" spans="2:7">
-      <c r="B149" s="33">
+      <c r="C149" s="10"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="28"/>
+      <c r="G149" s="12"/>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="9">
         <v>8</v>
       </c>
-      <c r="C149" s="34"/>
-      <c r="D149" s="35"/>
-      <c r="E149" s="36"/>
-      <c r="F149" s="32"/>
-      <c r="G149" s="35"/>
-    </row>
-    <row r="150" spans="2:7">
-      <c r="B150" s="33">
+      <c r="C150" s="10"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="19"/>
+      <c r="F150" s="29"/>
+      <c r="G150" s="12"/>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="9">
         <v>9</v>
       </c>
-      <c r="C150" s="34"/>
-      <c r="D150" s="35"/>
-      <c r="E150" s="36"/>
-      <c r="F150" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="G150" s="35"/>
-    </row>
-    <row r="151" spans="2:7">
-      <c r="B151" s="33">
+      <c r="C151" s="10"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="G151" s="12"/>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="9">
         <v>10</v>
       </c>
-      <c r="C151" s="34"/>
-      <c r="D151" s="35"/>
-      <c r="E151" s="36"/>
-      <c r="F151" s="31"/>
-      <c r="G151" s="35"/>
-    </row>
-    <row r="152" spans="2:7">
-      <c r="B152" s="33">
+      <c r="C152" s="10"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="12"/>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="9">
         <v>11</v>
       </c>
-      <c r="C152" s="34"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="31"/>
-      <c r="G152" s="35"/>
-    </row>
-    <row r="153" spans="2:7">
-      <c r="B153" s="33">
+      <c r="C153" s="10"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="12"/>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="9">
         <v>12</v>
       </c>
-      <c r="C153" s="34"/>
-      <c r="D153" s="35"/>
-      <c r="E153" s="36"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="35"/>
-    </row>
-    <row r="154" spans="2:7">
-      <c r="B154" s="33">
+      <c r="C154" s="10"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="19"/>
+      <c r="F154" s="29"/>
+      <c r="G154" s="12"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="9">
         <v>13</v>
       </c>
-      <c r="C154" s="34"/>
-      <c r="D154" s="35"/>
-      <c r="E154" s="36"/>
-      <c r="F154" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="G154" s="35"/>
-    </row>
-    <row r="155" spans="2:7">
-      <c r="B155" s="33">
+      <c r="C155" s="10"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="19"/>
+      <c r="F155" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="G155" s="12"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="9">
         <v>14</v>
       </c>
-      <c r="C155" s="34"/>
-      <c r="D155" s="35"/>
-      <c r="E155" s="36"/>
-      <c r="F155" s="31"/>
-      <c r="G155" s="35"/>
-    </row>
-    <row r="156" spans="2:7">
-      <c r="B156" s="33">
+      <c r="C156" s="10"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="28"/>
+      <c r="G156" s="12"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="9">
         <v>15</v>
       </c>
-      <c r="C156" s="34"/>
-      <c r="D156" s="35"/>
-      <c r="E156" s="36"/>
-      <c r="F156" s="31"/>
-      <c r="G156" s="35"/>
-    </row>
-    <row r="157" spans="2:7">
-      <c r="B157" s="33">
+      <c r="C157" s="10"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="19"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="12"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="9">
         <v>16</v>
       </c>
-      <c r="C157" s="34"/>
-      <c r="D157" s="35"/>
-      <c r="E157" s="36"/>
-      <c r="F157" s="32"/>
-      <c r="G157" s="35"/>
-    </row>
-    <row r="158" spans="2:7">
-      <c r="B158" s="33">
+      <c r="C158" s="10"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="19"/>
+      <c r="F158" s="29"/>
+      <c r="G158" s="12"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="9">
         <v>17</v>
       </c>
-      <c r="C158" s="34"/>
-      <c r="D158" s="35"/>
-      <c r="E158" s="36"/>
-      <c r="F158" s="30" t="s">
-        <v>301</v>
-      </c>
-      <c r="G158" s="35"/>
-    </row>
-    <row r="159" spans="2:7">
-      <c r="B159" s="33">
+      <c r="C159" s="10"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="19"/>
+      <c r="F159" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G159" s="12"/>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="9">
         <v>18</v>
       </c>
-      <c r="C159" s="34"/>
-      <c r="D159" s="35"/>
-      <c r="E159" s="36"/>
-      <c r="F159" s="32"/>
-      <c r="G159" s="35"/>
-    </row>
-    <row r="160" spans="2:7">
-      <c r="B160" s="37" t="s">
+      <c r="C160" s="10"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="19"/>
+      <c r="F160" s="29"/>
+      <c r="G160" s="12"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C160" s="38"/>
-      <c r="D160" s="38"/>
-      <c r="E160" s="38"/>
-      <c r="F160" s="38"/>
-      <c r="G160" s="40"/>
-    </row>
-    <row r="161" spans="2:7">
-      <c r="B161" s="15" t="s">
-        <v>302</v>
-      </c>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="22"/>
-    </row>
-    <row r="163" spans="2:7">
-      <c r="B163" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="22"/>
+      <c r="C161" s="31"/>
+      <c r="D161" s="31"/>
+      <c r="E161" s="31"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="33"/>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="22"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="33">
+      <c r="B164" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="22"/>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="9">
         <v>1</v>
       </c>
-      <c r="C164" s="34"/>
-      <c r="D164" s="35"/>
-      <c r="E164" s="36"/>
-      <c r="F164" s="30" t="s">
-        <v>304</v>
-      </c>
-      <c r="G164" s="35"/>
-    </row>
-    <row r="165" spans="2:7">
-      <c r="B165" s="33">
+      <c r="C165" s="10"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G165" s="12"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="9">
         <v>2</v>
       </c>
-      <c r="C165" s="34"/>
-      <c r="D165" s="35"/>
-      <c r="E165" s="36"/>
-      <c r="F165" s="31"/>
-      <c r="G165" s="35"/>
-    </row>
-    <row r="166" spans="2:7">
-      <c r="B166" s="33">
+      <c r="C166" s="10"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="12"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="9">
         <v>3</v>
       </c>
-      <c r="C166" s="34"/>
-      <c r="D166" s="35"/>
-      <c r="E166" s="36"/>
-      <c r="F166" s="31"/>
-      <c r="G166" s="35"/>
-    </row>
-    <row r="167" spans="2:7">
-      <c r="B167" s="33">
+      <c r="C167" s="10"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="19"/>
+      <c r="F167" s="28"/>
+      <c r="G167" s="12"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="9">
         <v>4</v>
       </c>
-      <c r="C167" s="34"/>
-      <c r="D167" s="35"/>
-      <c r="E167" s="36"/>
-      <c r="F167" s="31"/>
-      <c r="G167" s="35"/>
-    </row>
-    <row r="168" spans="2:7">
-      <c r="B168" s="33">
+      <c r="C168" s="10"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="19"/>
+      <c r="F168" s="28"/>
+      <c r="G168" s="12"/>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="9">
         <v>5</v>
       </c>
-      <c r="C168" s="34"/>
-      <c r="D168" s="35"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="32"/>
-      <c r="G168" s="35"/>
-    </row>
-    <row r="169" spans="2:7">
-      <c r="B169" s="37"/>
-      <c r="C169" s="38"/>
-      <c r="D169" s="38"/>
-      <c r="E169" s="38"/>
-      <c r="F169" s="38"/>
-      <c r="G169" s="40"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="29"/>
+      <c r="G169" s="12"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="C170" s="16"/>
-      <c r="D170" s="16"/>
-      <c r="E170" s="16"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="22"/>
-    </row>
-    <row r="173" spans="3:3">
-      <c r="C173" s="5">
+      <c r="B170" s="30"/>
+      <c r="C170" s="31"/>
+      <c r="D170" s="31"/>
+      <c r="E170" s="31"/>
+      <c r="F170" s="31"/>
+      <c r="G170" s="33"/>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="22"/>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174" s="5">
         <f>(19+20+22+52+5+30)/3</f>
         <v>49.3333333333333</v>
       </c>
     </row>
-    <row r="174" spans="3:3">
-      <c r="C174" s="39" t="s">
-        <v>306</v>
+    <row r="175" spans="3:3">
+      <c r="C175" s="32" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -5332,15 +5353,15 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B73:G73"/>
     <mergeCell ref="B74:G74"/>
-    <mergeCell ref="B121:G121"/>
     <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="B123:G123"/>
     <mergeCell ref="B141:G141"/>
-    <mergeCell ref="B160:G160"/>
+    <mergeCell ref="B142:G142"/>
     <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B163:G163"/>
-    <mergeCell ref="B169:G169"/>
+    <mergeCell ref="B162:G162"/>
+    <mergeCell ref="B164:G164"/>
     <mergeCell ref="B170:G170"/>
+    <mergeCell ref="B171:G171"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
@@ -5352,16 +5373,16 @@
     <mergeCell ref="F106:F111"/>
     <mergeCell ref="F112:F116"/>
     <mergeCell ref="F117:F120"/>
-    <mergeCell ref="F123:F127"/>
-    <mergeCell ref="F128:F132"/>
-    <mergeCell ref="F133:F137"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="F142:F145"/>
-    <mergeCell ref="F146:F149"/>
-    <mergeCell ref="F150:F153"/>
-    <mergeCell ref="F154:F157"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="F164:F168"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="F134:F138"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="F143:F146"/>
+    <mergeCell ref="F147:F150"/>
+    <mergeCell ref="F151:F154"/>
+    <mergeCell ref="F155:F158"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="F165:F169"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5388,7 +5409,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5396,24 +5417,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5438,10 +5459,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5449,7 +5470,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5457,7 +5478,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5465,7 +5486,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="324">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1481,6 +1481,11 @@
     <t>538. 把二叉搜索树转换为累加树</t>
   </si>
   <si>
+    <t>js:
+方法一: 递归法, 抄的, 刚开始没读懂题目, 递归不熟悉~
+迭代法没写</t>
+  </si>
+  <si>
     <t>总结:
 1.二叉树的种类: 
 满二叉树(深度为k,有2^k-1个节点); 
@@ -1523,30 +1528,24 @@
     <t>回溯算法20</t>
   </si>
   <si>
-    <t>计划9.10日</t>
-  </si>
-  <si>
-    <t>计划9.11日</t>
-  </si>
-  <si>
     <t>计划9.12日</t>
   </si>
   <si>
     <t>计划9.13日</t>
   </si>
   <si>
+    <t>计划9.14日</t>
+  </si>
+  <si>
+    <t>计划9.15日</t>
+  </si>
+  <si>
     <t>总结:</t>
   </si>
   <si>
     <t>贪心算法22</t>
   </si>
   <si>
-    <t>计划9.14日</t>
-  </si>
-  <si>
-    <t>计划9.15日</t>
-  </si>
-  <si>
     <t>计划9.16日</t>
   </si>
   <si>
@@ -1556,13 +1555,19 @@
     <t>计划9.18日</t>
   </si>
   <si>
+    <t>计划9.19日</t>
+  </si>
+  <si>
+    <t>计划9.20日</t>
+  </si>
+  <si>
     <t>动态规划52</t>
   </si>
   <si>
     <t>单调栈5</t>
   </si>
   <si>
-    <t>计划9.19日</t>
+    <t>计划9.21日</t>
   </si>
   <si>
     <t>图论30</t>
@@ -2773,10 +2778,10 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+      <selection pane="bottomLeft" activeCell="F165" sqref="F165:F169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4800,7 +4805,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="121" ht="24" spans="2:7">
+    <row r="121" ht="36" spans="2:7">
       <c r="B121" s="27">
         <v>39</v>
       </c>
@@ -4814,11 +4819,13 @@
         <v>9.11</v>
       </c>
       <c r="F121" s="10"/>
-      <c r="G121" s="12"/>
+      <c r="G121" s="12" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="122" ht="408" customHeight="1" spans="2:7">
       <c r="B122" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -4828,7 +4835,7 @@
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
@@ -4844,7 +4851,7 @@
       <c r="D124" s="12"/>
       <c r="E124" s="19"/>
       <c r="F124" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G124" s="12"/>
     </row>
@@ -4896,7 +4903,7 @@
       <c r="D129" s="12"/>
       <c r="E129" s="19"/>
       <c r="F129" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G129" s="12"/>
     </row>
@@ -4948,7 +4955,7 @@
       <c r="D134" s="12"/>
       <c r="E134" s="19"/>
       <c r="F134" s="26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G134" s="12"/>
     </row>
@@ -5000,7 +5007,7 @@
       <c r="D139" s="12"/>
       <c r="E139" s="19"/>
       <c r="F139" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G139" s="12"/>
     </row>
@@ -5016,7 +5023,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="30" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C141" s="31"/>
       <c r="D141" s="31"/>
@@ -5026,7 +5033,7 @@
     </row>
     <row r="142" spans="2:7">
       <c r="B142" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -5042,7 +5049,7 @@
       <c r="D143" s="12"/>
       <c r="E143" s="19"/>
       <c r="F143" s="26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G143" s="12"/>
     </row>
@@ -5084,7 +5091,7 @@
       <c r="D147" s="12"/>
       <c r="E147" s="19"/>
       <c r="F147" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G147" s="12"/>
     </row>
@@ -5126,7 +5133,7 @@
       <c r="D151" s="12"/>
       <c r="E151" s="19"/>
       <c r="F151" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G151" s="12"/>
     </row>
@@ -5168,7 +5175,7 @@
       <c r="D155" s="12"/>
       <c r="E155" s="19"/>
       <c r="F155" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G155" s="12"/>
     </row>
@@ -5210,7 +5217,7 @@
       <c r="D159" s="12"/>
       <c r="E159" s="19"/>
       <c r="F159" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G159" s="12"/>
     </row>
@@ -5236,7 +5243,7 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
@@ -5246,7 +5253,7 @@
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
@@ -5262,7 +5269,7 @@
       <c r="D165" s="12"/>
       <c r="E165" s="19"/>
       <c r="F165" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G165" s="12"/>
     </row>
@@ -5316,7 +5323,7 @@
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
@@ -5332,7 +5339,7 @@
     </row>
     <row r="175" spans="3:3">
       <c r="C175" s="32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5409,7 +5416,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5417,24 +5424,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5459,10 +5466,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5470,7 +5477,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5478,7 +5485,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5486,7 +5493,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13815" windowHeight="12495"/>
+    <workbookView windowWidth="18855" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="336">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1240,6 +1240,12 @@
     <t>110. 平衡二叉树</t>
   </si>
   <si>
+    <t>9.3复习:
+复习了一下理论,看了下代码
+9.11
+递归,迭代没看</t>
+  </si>
+  <si>
     <t>1.什么是平衡二叉树: 是指该树所有节点的左右子树的深度相差不超过 1
 2.什么是红黑树:是一种自平衡的二叉搜索树，其中每个节点都有一个颜色属性（红色或黑色），并遵循以下规则：根节点是黑色，所有叶子节点（NIL节点）是黑色，红色节点的两个子节点都是黑色，以及从任何节点到其每个叶子节点的路径上，黑色节点的数量相同。
 js:
@@ -1528,19 +1534,75 @@
     <t>回溯算法20</t>
   </si>
   <si>
+    <t>组合</t>
+  </si>
+  <si>
+    <t>77. 组合</t>
+  </si>
+  <si>
     <t>计划9.12日</t>
   </si>
   <si>
+    <t>js:
+方案一: 回溯法, 抄的, 学习回溯算法,熟悉模板
+方案二: +剪枝操作
+1. result.push(path.slice());和这样写的区别:result.push(path); 
+result.push(path.slice()): path.slice() 创建了一个 path 数组的浅拷贝。这样在将 path 当前的状态添加到 result 时，不会受到后续对 path 的修改影响。每次推入的是一个新数组，独立于后续的修改。
+result.push(path): 直接将 path 数组的引用推入到 result 中。当 path 发生变化时，result 中保存的也是同一个引用，所以 result 中已经保存的内容会随着 path 的修改而改变。
+2.剪枝: path.length -&gt; 已取个数; k -&gt; 要取个数; k - path.length -&gt; 还需要的元素个数; n - (k - path.length) + 1 -&gt; 在集合中至多从这个位置开始取</t>
+  </si>
+  <si>
+    <t>216. 组合总和 III</t>
+  </si>
+  <si>
+    <t>js:
+方案一: 回溯, 顺利
+方案二: 剪枝, 抄的</t>
+  </si>
+  <si>
+    <t>17. 电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>分割</t>
+  </si>
+  <si>
     <t>计划9.13日</t>
   </si>
   <si>
+    <t>子集</t>
+  </si>
+  <si>
+    <t>排列</t>
+  </si>
+  <si>
     <t>计划9.14日</t>
   </si>
   <si>
+    <t>棋盘问题</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
     <t>计划9.15日</t>
   </si>
   <si>
-    <t>总结:</t>
+    <t>总结:
+1.回溯的本质是穷举
+2.组合是无序的, 排列是有序的
+3.回溯法解决的问题都可以抽象为树形结构. 因为回溯法解决的都是在集合中递归查找子集，集合的大小就构成了树的宽度，递归的深度就构成了树的深度
+4.回溯算法的模板框架:
+void backtracking(参数) {
+    if (终止条件) {
+        存放结果;
+        return;
+    }
+    for (选择：本层集合中元素（树中节点孩子的数量就是集合的大小）) {
+        处理节点;
+        backtracking(路径，选择列表); // 递归
+        回溯，撤销处理结果
+    }
+}</t>
   </si>
   <si>
     <t>贪心算法22</t>
@@ -2354,7 +2416,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2445,6 +2507,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2452,6 +2529,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2779,9 +2859,9 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F165" sqref="F165:F169"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4453,10 +4533,10 @@
         <v>9.2</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -4464,17 +4544,17 @@
         <v>20</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E102" s="19">
         <v>9.2</v>
       </c>
       <c r="F102" s="19"/>
       <c r="G102" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" ht="72" spans="2:7">
@@ -4482,17 +4562,17 @@
         <v>21</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F103" s="19"/>
       <c r="G103" s="12" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" ht="84" spans="2:7">
@@ -4500,17 +4580,17 @@
         <v>22</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E104" s="19">
         <v>9.6</v>
       </c>
       <c r="F104" s="19"/>
       <c r="G104" s="12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" ht="120" spans="2:7">
@@ -4518,17 +4598,17 @@
         <v>23</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F105" s="19"/>
       <c r="G105" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" ht="132" spans="2:7">
@@ -4537,16 +4617,16 @@
       </c>
       <c r="C106" s="29"/>
       <c r="D106" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E106" s="19">
         <v>9.7</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" ht="24" spans="2:7">
@@ -4554,17 +4634,17 @@
         <v>25</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E107" s="19">
         <v>9.7</v>
       </c>
       <c r="F107" s="28"/>
       <c r="G107" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" ht="60" spans="2:7">
@@ -4572,17 +4652,17 @@
         <v>26</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E108" s="19">
         <v>9.7</v>
       </c>
       <c r="F108" s="28"/>
       <c r="G108" s="12" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" ht="120" spans="2:7">
@@ -4590,17 +4670,17 @@
         <v>27</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E109" s="19">
         <v>9.7</v>
       </c>
       <c r="F109" s="28"/>
       <c r="G109" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" ht="48" spans="2:7">
@@ -4608,17 +4688,17 @@
         <v>28</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E110" s="19">
         <v>9.8</v>
       </c>
       <c r="F110" s="28"/>
       <c r="G110" s="12" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" ht="132" spans="2:7">
@@ -4626,17 +4706,17 @@
         <v>29</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E111" s="19">
         <v>9.8</v>
       </c>
       <c r="F111" s="29"/>
       <c r="G111" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" ht="72" spans="2:7">
@@ -4644,19 +4724,19 @@
         <v>30</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E112" s="19">
         <v>9.8</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" ht="108" spans="2:7">
@@ -4664,17 +4744,17 @@
         <v>31</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E113" s="19">
         <v>9.8</v>
       </c>
       <c r="F113" s="28"/>
       <c r="G113" s="12" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" ht="156" spans="2:7">
@@ -4682,17 +4762,17 @@
         <v>32</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E114" s="19">
         <v>9.8</v>
       </c>
       <c r="F114" s="28"/>
       <c r="G114" s="12" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" ht="276" spans="2:7">
@@ -4700,17 +4780,17 @@
         <v>33</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E115" s="19">
         <v>9.9</v>
       </c>
       <c r="F115" s="28"/>
       <c r="G115" s="12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" ht="96" spans="2:7">
@@ -4718,17 +4798,17 @@
         <v>34</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E116" s="19">
         <v>9.9</v>
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" ht="72" spans="2:7">
@@ -4736,19 +4816,19 @@
         <v>35</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E117" s="19">
         <v>9.9</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G117" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="118" ht="96" spans="2:7">
@@ -4756,17 +4836,17 @@
         <v>36</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E118" s="19">
         <v>9.9</v>
       </c>
       <c r="F118" s="28"/>
       <c r="G118" s="12" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="119" ht="24" spans="2:7">
@@ -4774,17 +4854,17 @@
         <v>37</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E119" s="19">
         <v>9.11</v>
       </c>
       <c r="F119" s="28"/>
       <c r="G119" s="12" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="120" ht="72" spans="2:7">
@@ -4792,17 +4872,17 @@
         <v>38</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E120" s="19">
         <v>9.11</v>
       </c>
       <c r="F120" s="29"/>
       <c r="G120" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" ht="36" spans="2:7">
@@ -4810,22 +4890,22 @@
         <v>39</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E121" s="19">
         <v>9.11</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="122" ht="408" customHeight="1" spans="2:7">
       <c r="B122" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -4835,7 +4915,7 @@
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
@@ -4843,35 +4923,53 @@
       <c r="F123" s="16"/>
       <c r="G123" s="22"/>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" ht="132" spans="2:7">
       <c r="B124" s="9">
         <v>1</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="19"/>
+      <c r="C124" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E124" s="19">
+        <v>9.12</v>
+      </c>
       <c r="F124" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="G124" s="12"/>
-    </row>
-    <row r="125" spans="2:7">
+        <v>299</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" ht="36" spans="2:7">
       <c r="B125" s="9">
         <v>2</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="19"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125" s="19">
+        <v>9.12</v>
+      </c>
       <c r="F125" s="28"/>
-      <c r="G125" s="12"/>
+      <c r="G125" s="12" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="126" spans="2:7">
       <c r="B126" s="9">
         <v>3</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="19"/>
+      <c r="C126" s="31"/>
+      <c r="D126" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E126" s="19">
+        <v>9.12</v>
+      </c>
       <c r="F126" s="28"/>
       <c r="G126" s="12"/>
     </row>
@@ -4879,9 +4977,11 @@
       <c r="B127" s="9">
         <v>4</v>
       </c>
-      <c r="C127" s="10"/>
+      <c r="C127" s="31"/>
       <c r="D127" s="12"/>
-      <c r="E127" s="19"/>
+      <c r="E127" s="19">
+        <v>9.12</v>
+      </c>
       <c r="F127" s="28"/>
       <c r="G127" s="12"/>
     </row>
@@ -4889,7 +4989,7 @@
       <c r="B128" s="9">
         <v>5</v>
       </c>
-      <c r="C128" s="10"/>
+      <c r="C128" s="32"/>
       <c r="D128" s="12"/>
       <c r="E128" s="19"/>
       <c r="F128" s="29"/>
@@ -4899,11 +4999,13 @@
       <c r="B129" s="9">
         <v>6</v>
       </c>
-      <c r="C129" s="10"/>
+      <c r="C129" s="30" t="s">
+        <v>304</v>
+      </c>
       <c r="D129" s="12"/>
       <c r="E129" s="19"/>
       <c r="F129" s="26" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="G129" s="12"/>
     </row>
@@ -4911,7 +5013,7 @@
       <c r="B130" s="9">
         <v>7</v>
       </c>
-      <c r="C130" s="10"/>
+      <c r="C130" s="32"/>
       <c r="D130" s="12"/>
       <c r="E130" s="19"/>
       <c r="F130" s="28"/>
@@ -4921,7 +5023,9 @@
       <c r="B131" s="9">
         <v>8</v>
       </c>
-      <c r="C131" s="10"/>
+      <c r="C131" s="30" t="s">
+        <v>306</v>
+      </c>
       <c r="D131" s="12"/>
       <c r="E131" s="19"/>
       <c r="F131" s="28"/>
@@ -4931,7 +5035,7 @@
       <c r="B132" s="9">
         <v>9</v>
       </c>
-      <c r="C132" s="10"/>
+      <c r="C132" s="32"/>
       <c r="D132" s="12"/>
       <c r="E132" s="19"/>
       <c r="F132" s="28"/>
@@ -4941,7 +5045,9 @@
       <c r="B133" s="9">
         <v>10</v>
       </c>
-      <c r="C133" s="10"/>
+      <c r="C133" s="30" t="s">
+        <v>307</v>
+      </c>
       <c r="D133" s="12"/>
       <c r="E133" s="19"/>
       <c r="F133" s="29"/>
@@ -4951,11 +5057,11 @@
       <c r="B134" s="9">
         <v>11</v>
       </c>
-      <c r="C134" s="10"/>
+      <c r="C134" s="32"/>
       <c r="D134" s="12"/>
       <c r="E134" s="19"/>
       <c r="F134" s="26" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G134" s="12"/>
     </row>
@@ -4963,7 +5069,9 @@
       <c r="B135" s="9">
         <v>12</v>
       </c>
-      <c r="C135" s="10"/>
+      <c r="C135" s="30" t="s">
+        <v>309</v>
+      </c>
       <c r="D135" s="12"/>
       <c r="E135" s="19"/>
       <c r="F135" s="28"/>
@@ -4973,7 +5081,7 @@
       <c r="B136" s="9">
         <v>13</v>
       </c>
-      <c r="C136" s="10"/>
+      <c r="C136" s="32"/>
       <c r="D136" s="12"/>
       <c r="E136" s="19"/>
       <c r="F136" s="28"/>
@@ -4983,7 +5091,9 @@
       <c r="B137" s="9">
         <v>14</v>
       </c>
-      <c r="C137" s="10"/>
+      <c r="C137" s="30" t="s">
+        <v>310</v>
+      </c>
       <c r="D137" s="12"/>
       <c r="E137" s="19"/>
       <c r="F137" s="28"/>
@@ -4993,7 +5103,7 @@
       <c r="B138" s="9">
         <v>15</v>
       </c>
-      <c r="C138" s="10"/>
+      <c r="C138" s="32"/>
       <c r="D138" s="12"/>
       <c r="E138" s="19"/>
       <c r="F138" s="29"/>
@@ -5007,7 +5117,7 @@
       <c r="D139" s="12"/>
       <c r="E139" s="19"/>
       <c r="F139" s="26" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="G139" s="12"/>
     </row>
@@ -5022,18 +5132,18 @@
       <c r="G140" s="12"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="33"/>
+      <c r="B141" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="C141" s="34"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="34"/>
+      <c r="F141" s="34"/>
+      <c r="G141" s="38"/>
     </row>
     <row r="142" spans="2:7">
       <c r="B142" s="15" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -5049,7 +5159,7 @@
       <c r="D143" s="12"/>
       <c r="E143" s="19"/>
       <c r="F143" s="26" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="G143" s="12"/>
     </row>
@@ -5091,7 +5201,7 @@
       <c r="D147" s="12"/>
       <c r="E147" s="19"/>
       <c r="F147" s="26" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G147" s="12"/>
     </row>
@@ -5133,7 +5243,7 @@
       <c r="D151" s="12"/>
       <c r="E151" s="19"/>
       <c r="F151" s="26" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="G151" s="12"/>
     </row>
@@ -5175,7 +5285,7 @@
       <c r="D155" s="12"/>
       <c r="E155" s="19"/>
       <c r="F155" s="26" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G155" s="12"/>
     </row>
@@ -5217,7 +5327,7 @@
       <c r="D159" s="12"/>
       <c r="E159" s="19"/>
       <c r="F159" s="26" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G159" s="12"/>
     </row>
@@ -5232,18 +5342,18 @@
       <c r="G160" s="12"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="30" t="s">
+      <c r="B161" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="C161" s="31"/>
-      <c r="D161" s="31"/>
-      <c r="E161" s="31"/>
-      <c r="F161" s="31"/>
-      <c r="G161" s="33"/>
+      <c r="C161" s="36"/>
+      <c r="D161" s="36"/>
+      <c r="E161" s="36"/>
+      <c r="F161" s="36"/>
+      <c r="G161" s="39"/>
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="15" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
@@ -5253,7 +5363,7 @@
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="15" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
@@ -5269,7 +5379,7 @@
       <c r="D165" s="12"/>
       <c r="E165" s="19"/>
       <c r="F165" s="26" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="G165" s="12"/>
     </row>
@@ -5314,16 +5424,16 @@
       <c r="G169" s="12"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="30"/>
-      <c r="C170" s="31"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="31"/>
-      <c r="G170" s="33"/>
+      <c r="B170" s="35"/>
+      <c r="C170" s="36"/>
+      <c r="D170" s="36"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="36"/>
+      <c r="G170" s="39"/>
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="15" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
@@ -5338,12 +5448,12 @@
       </c>
     </row>
     <row r="175" spans="3:3">
-      <c r="C175" s="32" t="s">
-        <v>311</v>
+      <c r="C175" s="37" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="53">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -5377,6 +5487,12 @@
     <mergeCell ref="C95:C96"/>
     <mergeCell ref="C97:C98"/>
     <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C124:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C133:C134"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="C137:C138"/>
     <mergeCell ref="F106:F111"/>
     <mergeCell ref="F112:F116"/>
     <mergeCell ref="F117:F120"/>
@@ -5416,7 +5532,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5424,24 +5540,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5466,10 +5582,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5477,7 +5593,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5485,7 +5601,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5493,7 +5609,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="340">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1561,6 +1561,23 @@
   </si>
   <si>
     <t>17. 电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>js:
+思路一样,但是比前面多了一层,没写出来,抄的</t>
+  </si>
+  <si>
+    <t>39. 组合总和</t>
+  </si>
+  <si>
+    <t>js:
+有一些小问题,大致顺利, 未剪枝
+本题还需要startIndex来控制for循环的起始位置，对于组合问题，什么时候需要startIndex呢？
+我举过例子，如果是一个集合来求组合的话，就需要startIndex，例如：77.组合; 216.组合总和III
+如果是多个集合取组合，各个集合之间相互不影响，那么就不用startIndex，例如：17.电话号码的字母组合</t>
+  </si>
+  <si>
+    <t>40. 组合总和 II</t>
   </si>
   <si>
     <t>分割</t>
@@ -2861,7 +2878,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
+      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4959,7 +4976,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" ht="24" spans="2:7">
       <c r="B126" s="9">
         <v>3</v>
       </c>
@@ -4971,27 +4988,37 @@
         <v>9.12</v>
       </c>
       <c r="F126" s="28"/>
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127" spans="2:7">
+      <c r="G126" s="12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="127" ht="72" spans="2:7">
       <c r="B127" s="9">
         <v>4</v>
       </c>
       <c r="C127" s="31"/>
-      <c r="D127" s="12"/>
+      <c r="D127" s="12" t="s">
+        <v>305</v>
+      </c>
       <c r="E127" s="19">
-        <v>9.12</v>
+        <v>9.13</v>
       </c>
       <c r="F127" s="28"/>
-      <c r="G127" s="12"/>
+      <c r="G127" s="12" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="128" spans="2:7">
       <c r="B128" s="9">
         <v>5</v>
       </c>
       <c r="C128" s="32"/>
-      <c r="D128" s="12"/>
-      <c r="E128" s="19"/>
+      <c r="D128" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E128" s="19">
+        <v>9.13</v>
+      </c>
       <c r="F128" s="29"/>
       <c r="G128" s="12"/>
     </row>
@@ -5000,12 +5027,12 @@
         <v>6</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="19"/>
       <c r="F129" s="26" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G129" s="12"/>
     </row>
@@ -5024,7 +5051,7 @@
         <v>8</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="19"/>
@@ -5046,7 +5073,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="19"/>
@@ -5061,7 +5088,7 @@
       <c r="D134" s="12"/>
       <c r="E134" s="19"/>
       <c r="F134" s="26" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G134" s="12"/>
     </row>
@@ -5070,7 +5097,7 @@
         <v>12</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="19"/>
@@ -5092,7 +5119,7 @@
         <v>14</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="19"/>
@@ -5117,7 +5144,7 @@
       <c r="D139" s="12"/>
       <c r="E139" s="19"/>
       <c r="F139" s="26" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G139" s="12"/>
     </row>
@@ -5133,7 +5160,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="33" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C141" s="34"/>
       <c r="D141" s="34"/>
@@ -5143,7 +5170,7 @@
     </row>
     <row r="142" spans="2:7">
       <c r="B142" s="15" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -5159,7 +5186,7 @@
       <c r="D143" s="12"/>
       <c r="E143" s="19"/>
       <c r="F143" s="26" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="G143" s="12"/>
     </row>
@@ -5201,7 +5228,7 @@
       <c r="D147" s="12"/>
       <c r="E147" s="19"/>
       <c r="F147" s="26" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="G147" s="12"/>
     </row>
@@ -5243,7 +5270,7 @@
       <c r="D151" s="12"/>
       <c r="E151" s="19"/>
       <c r="F151" s="26" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G151" s="12"/>
     </row>
@@ -5285,7 +5312,7 @@
       <c r="D155" s="12"/>
       <c r="E155" s="19"/>
       <c r="F155" s="26" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="G155" s="12"/>
     </row>
@@ -5327,7 +5354,7 @@
       <c r="D159" s="12"/>
       <c r="E159" s="19"/>
       <c r="F159" s="26" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G159" s="12"/>
     </row>
@@ -5353,7 +5380,7 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="15" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
@@ -5363,7 +5390,7 @@
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="15" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
@@ -5379,7 +5406,7 @@
       <c r="D165" s="12"/>
       <c r="E165" s="19"/>
       <c r="F165" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G165" s="12"/>
     </row>
@@ -5433,7 +5460,7 @@
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="15" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
@@ -5449,7 +5476,7 @@
     </row>
     <row r="175" spans="3:3">
       <c r="C175" s="37" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5532,7 +5559,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5540,24 +5567,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5582,10 +5609,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5593,7 +5620,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5601,7 +5628,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5609,7 +5636,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="341">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1578,6 +1578,18 @@
   </si>
   <si>
     <t>40. 组合总和 II</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 使用used数组去重-&gt; 抄的,本题思路巧妙,多复习
+方法二: 使用startIndex去重
+本题和39的区别: 1.本题candidates 中的每个数字在每个组合中只能使用一次; 2.本题数组candidates的元素是有重复的，而39.组合总和是无重复元素的数组candidates
+本题的难点在于区别2中：集合（数组candidates）有重复元素，但还不能有重复的组合。
+我把所有组合求出来，再用set或者map去重，这么做很容易超时！ 所以要在搜索的过程中就去掉重复组合。
+所谓去重，其实就是使用过的元素不能重复选取 ,对"使用过"的理解-&gt; 使用过”在这个树形结构上是有两个维度的，一个维度是同一树枝上使用过，一个维度是同一树层上使用过
+回看一下题目，元素在同一个组合内是可以重复的，怎么重复都没事，但两个组合不能相同。所以我们要去重的是同一树层上的“使用过”，同一树枝上的都是一个组合里的元素，不用去重。
+强调一下，树层去重的话，需要对数组排序！
+1. Set去重知识: Set 是一个集合类型，可以自动去重，但它只能对 基本类型（如字符串、数字）去重。如果使用 Set 对数组去重，它会根据引用地址来判断是否相同，而不是根据内容。因此，对像 [[1], [1], [3], [4], [3]] 这样的嵌套数组，直接用 Set 不能实现去重。</t>
   </si>
   <si>
     <t>分割</t>
@@ -2875,10 +2887,10 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E128" sqref="E128"/>
+      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -5008,7 +5020,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" ht="192" spans="2:7">
       <c r="B128" s="9">
         <v>5</v>
       </c>
@@ -5020,19 +5032,21 @@
         <v>9.13</v>
       </c>
       <c r="F128" s="29"/>
-      <c r="G128" s="12"/>
+      <c r="G128" s="12" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="129" spans="2:7">
       <c r="B129" s="9">
         <v>6</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D129" s="12"/>
       <c r="E129" s="19"/>
       <c r="F129" s="26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G129" s="12"/>
     </row>
@@ -5051,7 +5065,7 @@
         <v>8</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="19"/>
@@ -5073,7 +5087,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="19"/>
@@ -5088,7 +5102,7 @@
       <c r="D134" s="12"/>
       <c r="E134" s="19"/>
       <c r="F134" s="26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G134" s="12"/>
     </row>
@@ -5097,7 +5111,7 @@
         <v>12</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="19"/>
@@ -5119,7 +5133,7 @@
         <v>14</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="19"/>
@@ -5144,7 +5158,7 @@
       <c r="D139" s="12"/>
       <c r="E139" s="19"/>
       <c r="F139" s="26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G139" s="12"/>
     </row>
@@ -5160,7 +5174,7 @@
     </row>
     <row r="141" spans="2:7">
       <c r="B141" s="33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C141" s="34"/>
       <c r="D141" s="34"/>
@@ -5170,7 +5184,7 @@
     </row>
     <row r="142" spans="2:7">
       <c r="B142" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -5186,7 +5200,7 @@
       <c r="D143" s="12"/>
       <c r="E143" s="19"/>
       <c r="F143" s="26" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G143" s="12"/>
     </row>
@@ -5228,7 +5242,7 @@
       <c r="D147" s="12"/>
       <c r="E147" s="19"/>
       <c r="F147" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G147" s="12"/>
     </row>
@@ -5270,7 +5284,7 @@
       <c r="D151" s="12"/>
       <c r="E151" s="19"/>
       <c r="F151" s="26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G151" s="12"/>
     </row>
@@ -5312,7 +5326,7 @@
       <c r="D155" s="12"/>
       <c r="E155" s="19"/>
       <c r="F155" s="26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G155" s="12"/>
     </row>
@@ -5354,7 +5368,7 @@
       <c r="D159" s="12"/>
       <c r="E159" s="19"/>
       <c r="F159" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G159" s="12"/>
     </row>
@@ -5380,7 +5394,7 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
@@ -5390,7 +5404,7 @@
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
@@ -5406,7 +5420,7 @@
       <c r="D165" s="12"/>
       <c r="E165" s="19"/>
       <c r="F165" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G165" s="12"/>
     </row>
@@ -5460,7 +5474,7 @@
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
@@ -5476,7 +5490,7 @@
     </row>
     <row r="175" spans="3:3">
       <c r="C175" s="37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -5559,7 +5573,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5567,24 +5581,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5609,10 +5623,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5620,7 +5634,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5628,7 +5642,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5636,7 +5650,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="345">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1570,6 +1570,9 @@
     <t>39. 组合总和</t>
   </si>
   <si>
+    <t>计划9.13日</t>
+  </si>
+  <si>
     <t>js:
 有一些小问题,大致顺利, 未剪枝
 本题还需要startIndex来控制for循环的起始位置，对于组合问题，什么时候需要startIndex呢？
@@ -1595,7 +1598,23 @@
     <t>分割</t>
   </si>
   <si>
-    <t>计划9.13日</t>
+    <t>131. 分割回文串</t>
+  </si>
+  <si>
+    <t>js:
+抄的, 有点抽象..
+1.什么是回文串: 向前和向后读都相同的字符串
+2.push一个[]到另一个[]中的两种方法:
+result.push(Array.from(path)); // Array.from() 静态方法从可迭代或类数组对象创建一个新的浅拷贝的数组实例。   
+result.push(path.slice());</t>
+  </si>
+  <si>
+    <t>93. 复原 IP 地址</t>
+  </si>
+  <si>
+    <t>js:
+好难,,,写不出来,看不懂...
+没理解透彻,写的时候感觉思路很乱</t>
   </si>
   <si>
     <t>子集</t>
@@ -2445,7 +2464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2545,11 +2564,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2560,8 +2576,14 @@
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2887,10 +2909,10 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G128" sqref="G128"/>
+      <selection pane="bottomLeft" activeCell="F127" sqref="F127:F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4965,7 +4987,7 @@
       <c r="E124" s="19">
         <v>9.12</v>
       </c>
-      <c r="F124" s="26" t="s">
+      <c r="F124" s="30" t="s">
         <v>299</v>
       </c>
       <c r="G124" s="12" t="s">
@@ -4983,7 +5005,7 @@
       <c r="E125" s="19">
         <v>9.12</v>
       </c>
-      <c r="F125" s="28"/>
+      <c r="F125" s="31"/>
       <c r="G125" s="12" t="s">
         <v>302</v>
       </c>
@@ -4999,7 +5021,7 @@
       <c r="E126" s="19">
         <v>9.12</v>
       </c>
-      <c r="F126" s="28"/>
+      <c r="F126" s="31"/>
       <c r="G126" s="12" t="s">
         <v>304</v>
       </c>
@@ -5015,9 +5037,11 @@
       <c r="E127" s="19">
         <v>9.13</v>
       </c>
-      <c r="F127" s="28"/>
+      <c r="F127" s="31" t="s">
+        <v>306</v>
+      </c>
       <c r="G127" s="12" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="128" ht="192" spans="2:7">
@@ -5026,50 +5050,60 @@
       </c>
       <c r="C128" s="32"/>
       <c r="D128" s="12" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E128" s="19">
         <v>9.13</v>
       </c>
-      <c r="F128" s="29"/>
+      <c r="F128" s="31"/>
       <c r="G128" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" ht="84" spans="2:7">
       <c r="B129" s="9">
         <v>6</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="D129" s="12"/>
-      <c r="E129" s="19"/>
-      <c r="F129" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="G129" s="12"/>
-    </row>
-    <row r="130" spans="2:7">
+      <c r="D129" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E129" s="19">
+        <v>9.13</v>
+      </c>
+      <c r="F129" s="31"/>
+      <c r="G129" s="12" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="130" ht="36" spans="2:7">
       <c r="B130" s="9">
         <v>7</v>
       </c>
       <c r="C130" s="32"/>
-      <c r="D130" s="12"/>
-      <c r="E130" s="19"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="12"/>
+      <c r="D130" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="E130" s="19">
+        <v>9.13</v>
+      </c>
+      <c r="F130" s="31"/>
+      <c r="G130" s="12" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="131" spans="2:7">
       <c r="B131" s="9">
         <v>8</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D131" s="12"/>
       <c r="E131" s="19"/>
-      <c r="F131" s="28"/>
+      <c r="F131" s="31"/>
       <c r="G131" s="12"/>
     </row>
     <row r="132" spans="2:7">
@@ -5079,7 +5113,7 @@
       <c r="C132" s="32"/>
       <c r="D132" s="12"/>
       <c r="E132" s="19"/>
-      <c r="F132" s="28"/>
+      <c r="F132" s="37"/>
       <c r="G132" s="12"/>
     </row>
     <row r="133" spans="2:7">
@@ -5087,11 +5121,11 @@
         <v>10</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="19"/>
-      <c r="F133" s="29"/>
+      <c r="F133" s="38"/>
       <c r="G133" s="12"/>
     </row>
     <row r="134" spans="2:7">
@@ -5102,7 +5136,7 @@
       <c r="D134" s="12"/>
       <c r="E134" s="19"/>
       <c r="F134" s="26" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G134" s="12"/>
     </row>
@@ -5111,7 +5145,7 @@
         <v>12</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="19"/>
@@ -5133,7 +5167,7 @@
         <v>14</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="19"/>
@@ -5158,7 +5192,7 @@
       <c r="D139" s="12"/>
       <c r="E139" s="19"/>
       <c r="F139" s="26" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G139" s="12"/>
     </row>
@@ -5172,19 +5206,19 @@
       <c r="F140" s="29"/>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" spans="2:7">
-      <c r="B141" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="C141" s="34"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="34"/>
-      <c r="F141" s="34"/>
-      <c r="G141" s="38"/>
+    <row r="141" ht="127" customHeight="1" spans="2:7">
+      <c r="B141" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="39"/>
     </row>
     <row r="142" spans="2:7">
       <c r="B142" s="15" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -5200,7 +5234,7 @@
       <c r="D143" s="12"/>
       <c r="E143" s="19"/>
       <c r="F143" s="26" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G143" s="12"/>
     </row>
@@ -5242,7 +5276,7 @@
       <c r="D147" s="12"/>
       <c r="E147" s="19"/>
       <c r="F147" s="26" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G147" s="12"/>
     </row>
@@ -5284,7 +5318,7 @@
       <c r="D151" s="12"/>
       <c r="E151" s="19"/>
       <c r="F151" s="26" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G151" s="12"/>
     </row>
@@ -5326,7 +5360,7 @@
       <c r="D155" s="12"/>
       <c r="E155" s="19"/>
       <c r="F155" s="26" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G155" s="12"/>
     </row>
@@ -5368,7 +5402,7 @@
       <c r="D159" s="12"/>
       <c r="E159" s="19"/>
       <c r="F159" s="26" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="G159" s="12"/>
     </row>
@@ -5383,18 +5417,18 @@
       <c r="G160" s="12"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="35" t="s">
+      <c r="B161" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C161" s="36"/>
-      <c r="D161" s="36"/>
-      <c r="E161" s="36"/>
-      <c r="F161" s="36"/>
-      <c r="G161" s="39"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
+      <c r="E161" s="35"/>
+      <c r="F161" s="35"/>
+      <c r="G161" s="40"/>
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
@@ -5404,7 +5438,7 @@
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="15" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
@@ -5420,7 +5454,7 @@
       <c r="D165" s="12"/>
       <c r="E165" s="19"/>
       <c r="F165" s="26" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G165" s="12"/>
     </row>
@@ -5465,16 +5499,16 @@
       <c r="G169" s="12"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="35"/>
-      <c r="C170" s="36"/>
-      <c r="D170" s="36"/>
-      <c r="E170" s="36"/>
-      <c r="F170" s="36"/>
-      <c r="G170" s="39"/>
+      <c r="B170" s="34"/>
+      <c r="C170" s="35"/>
+      <c r="D170" s="35"/>
+      <c r="E170" s="35"/>
+      <c r="F170" s="35"/>
+      <c r="G170" s="40"/>
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="15" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
@@ -5489,8 +5523,8 @@
       </c>
     </row>
     <row r="175" spans="3:3">
-      <c r="C175" s="37" t="s">
-        <v>328</v>
+      <c r="C175" s="36" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -5537,8 +5571,8 @@
     <mergeCell ref="F106:F111"/>
     <mergeCell ref="F112:F116"/>
     <mergeCell ref="F117:F120"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="F129:F133"/>
+    <mergeCell ref="F124:F126"/>
+    <mergeCell ref="F127:F131"/>
     <mergeCell ref="F134:F138"/>
     <mergeCell ref="F139:F140"/>
     <mergeCell ref="F143:F146"/>
@@ -5573,7 +5607,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5581,24 +5615,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5623,10 +5657,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5634,7 +5668,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5642,7 +5676,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5650,7 +5684,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="347">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1614,10 +1614,19 @@
   <si>
     <t>js:
 好难,,,写不出来,看不懂...
-没理解透彻,写的时候感觉思路很乱</t>
+没理解透彻,写的时候感觉思路很乱
+抄的..</t>
   </si>
   <si>
     <t>子集</t>
+  </si>
+  <si>
+    <t>78. 子集</t>
+  </si>
+  <si>
+    <t xml:space="preserve">js:
+大致可以,但是没全对,抄了一部分
+1.还在犯这个错误! 这是数组的引用!! res.push(node); 这样写才对-&gt; res.push([...node]); </t>
   </si>
   <si>
     <t>排列</t>
@@ -2909,10 +2918,10 @@
   <sheetPr/>
   <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F127" sqref="F127:F131"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -5078,7 +5087,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="130" ht="36" spans="2:7">
+    <row r="130" ht="48" spans="2:7">
       <c r="B130" s="9">
         <v>7</v>
       </c>
@@ -5087,24 +5096,30 @@
         <v>313</v>
       </c>
       <c r="E130" s="19">
-        <v>9.13</v>
+        <v>9.16</v>
       </c>
       <c r="F130" s="31"/>
       <c r="G130" s="12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" ht="48" spans="2:7">
       <c r="B131" s="9">
         <v>8</v>
       </c>
       <c r="C131" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="D131" s="12"/>
-      <c r="E131" s="19"/>
+      <c r="D131" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E131" s="19">
+        <v>9.17</v>
+      </c>
       <c r="F131" s="31"/>
-      <c r="G131" s="12"/>
+      <c r="G131" s="12" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="132" spans="2:7">
       <c r="B132" s="9">
@@ -5121,7 +5136,7 @@
         <v>10</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="19"/>
@@ -5136,7 +5151,7 @@
       <c r="D134" s="12"/>
       <c r="E134" s="19"/>
       <c r="F134" s="26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G134" s="12"/>
     </row>
@@ -5145,7 +5160,7 @@
         <v>12</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="19"/>
@@ -5167,7 +5182,7 @@
         <v>14</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="19"/>
@@ -5192,7 +5207,7 @@
       <c r="D139" s="12"/>
       <c r="E139" s="19"/>
       <c r="F139" s="26" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G139" s="12"/>
     </row>
@@ -5208,7 +5223,7 @@
     </row>
     <row r="141" ht="127" customHeight="1" spans="2:7">
       <c r="B141" s="13" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
@@ -5218,7 +5233,7 @@
     </row>
     <row r="142" spans="2:7">
       <c r="B142" s="15" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -5234,7 +5249,7 @@
       <c r="D143" s="12"/>
       <c r="E143" s="19"/>
       <c r="F143" s="26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G143" s="12"/>
     </row>
@@ -5276,7 +5291,7 @@
       <c r="D147" s="12"/>
       <c r="E147" s="19"/>
       <c r="F147" s="26" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G147" s="12"/>
     </row>
@@ -5318,7 +5333,7 @@
       <c r="D151" s="12"/>
       <c r="E151" s="19"/>
       <c r="F151" s="26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G151" s="12"/>
     </row>
@@ -5360,7 +5375,7 @@
       <c r="D155" s="12"/>
       <c r="E155" s="19"/>
       <c r="F155" s="26" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G155" s="12"/>
     </row>
@@ -5402,7 +5417,7 @@
       <c r="D159" s="12"/>
       <c r="E159" s="19"/>
       <c r="F159" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G159" s="12"/>
     </row>
@@ -5428,7 +5443,7 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
@@ -5438,7 +5453,7 @@
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
@@ -5454,7 +5469,7 @@
       <c r="D165" s="12"/>
       <c r="E165" s="19"/>
       <c r="F165" s="26" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G165" s="12"/>
     </row>
@@ -5508,7 +5523,7 @@
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
@@ -5524,7 +5539,7 @@
     </row>
     <row r="175" spans="3:3">
       <c r="C175" s="36" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -5607,7 +5622,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5615,24 +5630,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5657,10 +5672,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5668,7 +5683,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5676,7 +5691,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5684,7 +5699,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="349">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1626,7 +1626,18 @@
   <si>
     <t xml:space="preserve">js:
 大致可以,但是没全对,抄了一部分
+要清楚子集问题和组合问题、分割问题的的区别，子集是收集树形结构中树的所有节点的结果,  而组合问题、分割问题是收集树形结构中叶子节点的结果
 1.还在犯这个错误! 这是数组的引用!! res.push(node); 这样写才对-&gt; res.push([...node]); </t>
+  </si>
+  <si>
+    <t>90. 子集 II</t>
+  </si>
+  <si>
+    <t>js:
+抄了一半, 回溯去重没掌握, 回溯算法中的去重问题，在40.组合总和II中已经详细讲解过了，和本题是一个套路。
+1.used[i - 1] == true，说明同一树枝candidates[i - 1]使用过
+    used[i - 1] == false，说明同一树层candidates[i - 1]使用过
+    而我们要对同一树层使用过的元素进行跳过</t>
   </si>
   <si>
     <t>排列</t>
@@ -2919,9 +2930,9 @@
   <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -5103,7 +5114,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="131" ht="48" spans="2:7">
+    <row r="131" ht="60" spans="2:7">
       <c r="B131" s="9">
         <v>8</v>
       </c>
@@ -5121,22 +5132,28 @@
         <v>317</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" ht="72" spans="2:7">
       <c r="B132" s="9">
         <v>9</v>
       </c>
       <c r="C132" s="32"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="19"/>
+      <c r="D132" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E132" s="19">
+        <v>9.17</v>
+      </c>
       <c r="F132" s="37"/>
-      <c r="G132" s="12"/>
+      <c r="G132" s="12" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="133" spans="2:7">
       <c r="B133" s="9">
         <v>10</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D133" s="12"/>
       <c r="E133" s="19"/>
@@ -5151,7 +5168,7 @@
       <c r="D134" s="12"/>
       <c r="E134" s="19"/>
       <c r="F134" s="26" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G134" s="12"/>
     </row>
@@ -5160,7 +5177,7 @@
         <v>12</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D135" s="12"/>
       <c r="E135" s="19"/>
@@ -5182,7 +5199,7 @@
         <v>14</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D137" s="12"/>
       <c r="E137" s="19"/>
@@ -5207,7 +5224,7 @@
       <c r="D139" s="12"/>
       <c r="E139" s="19"/>
       <c r="F139" s="26" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G139" s="12"/>
     </row>
@@ -5223,7 +5240,7 @@
     </row>
     <row r="141" ht="127" customHeight="1" spans="2:7">
       <c r="B141" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C141" s="33"/>
       <c r="D141" s="33"/>
@@ -5233,7 +5250,7 @@
     </row>
     <row r="142" spans="2:7">
       <c r="B142" s="15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
@@ -5249,7 +5266,7 @@
       <c r="D143" s="12"/>
       <c r="E143" s="19"/>
       <c r="F143" s="26" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G143" s="12"/>
     </row>
@@ -5291,7 +5308,7 @@
       <c r="D147" s="12"/>
       <c r="E147" s="19"/>
       <c r="F147" s="26" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G147" s="12"/>
     </row>
@@ -5333,7 +5350,7 @@
       <c r="D151" s="12"/>
       <c r="E151" s="19"/>
       <c r="F151" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G151" s="12"/>
     </row>
@@ -5375,7 +5392,7 @@
       <c r="D155" s="12"/>
       <c r="E155" s="19"/>
       <c r="F155" s="26" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G155" s="12"/>
     </row>
@@ -5417,7 +5434,7 @@
       <c r="D159" s="12"/>
       <c r="E159" s="19"/>
       <c r="F159" s="26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G159" s="12"/>
     </row>
@@ -5443,7 +5460,7 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="15" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
@@ -5453,7 +5470,7 @@
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="15" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
@@ -5469,7 +5486,7 @@
       <c r="D165" s="12"/>
       <c r="E165" s="19"/>
       <c r="F165" s="26" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G165" s="12"/>
     </row>
@@ -5523,7 +5540,7 @@
     </row>
     <row r="171" spans="2:7">
       <c r="B171" s="15" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
@@ -5539,7 +5556,7 @@
     </row>
     <row r="175" spans="3:3">
       <c r="C175" s="36" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -5622,7 +5639,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5630,24 +5647,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5672,10 +5689,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5683,7 +5700,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5691,7 +5708,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5699,7 +5716,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="355">
   <si>
     <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
 从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
@@ -1640,10 +1640,35 @@
     而我们要对同一树层使用过的元素进行跳过</t>
   </si>
   <si>
+    <t>491. 非递减子序列</t>
+  </si>
+  <si>
+    <t>js:
+抄的
+本题求自增子序列，是不能对原数组进行排序的, 所以不能使用之前的去重逻辑！</t>
+  </si>
+  <si>
     <t>排列</t>
   </si>
   <si>
+    <t>46. 全排列</t>
+  </si>
+  <si>
+    <t>js:
+抄的,大致懂
+每层都是从0开始搜索而不是startIndex
+需要used数组记录path里都放了哪些元素了</t>
+  </si>
+  <si>
+    <t>47. 全排列 II</t>
+  </si>
+  <si>
     <t>计划9.14日</t>
+  </si>
+  <si>
+    <t>js:
+抄的, 题之间细微差别没搞清楚, 需要横向对比, 画图对比
+一般来说：组合问题和排列问题是在树形结构的叶子节点上收集结果，而子集问题就是取树上所有节点的结果</t>
   </si>
   <si>
     <t>棋盘问题</t>
@@ -2927,12 +2952,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
+      <selection pane="bottomLeft" activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -5136,7 +5161,7 @@
       <c r="B132" s="9">
         <v>9</v>
       </c>
-      <c r="C132" s="32"/>
+      <c r="C132" s="31"/>
       <c r="D132" s="12" t="s">
         <v>318</v>
       </c>
@@ -5148,47 +5173,65 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" ht="36" spans="2:7">
       <c r="B133" s="9">
         <v>10</v>
       </c>
-      <c r="C133" s="30" t="s">
+      <c r="C133" s="31"/>
+      <c r="D133" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="D133" s="12"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="12"/>
-    </row>
-    <row r="134" spans="2:7">
+      <c r="E133" s="19">
+        <v>9.18</v>
+      </c>
+      <c r="F133" s="37"/>
+      <c r="G133" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="134" ht="60" spans="2:7">
       <c r="B134" s="9">
         <v>11</v>
       </c>
-      <c r="C134" s="32"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="G134" s="12"/>
-    </row>
-    <row r="135" spans="2:7">
+      <c r="C134" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E134" s="19">
+        <v>9.18</v>
+      </c>
+      <c r="F134" s="38"/>
+      <c r="G134" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="135" ht="36" spans="2:7">
       <c r="B135" s="9">
         <v>12</v>
       </c>
-      <c r="C135" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="D135" s="12"/>
-      <c r="E135" s="19"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="12"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E135" s="19">
+        <v>9.18</v>
+      </c>
+      <c r="F135" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="136" spans="2:7">
       <c r="B136" s="9">
         <v>13</v>
       </c>
-      <c r="C136" s="32"/>
+      <c r="C136" s="30" t="s">
+        <v>328</v>
+      </c>
       <c r="D136" s="12"/>
       <c r="E136" s="19"/>
       <c r="F136" s="28"/>
@@ -5198,9 +5241,7 @@
       <c r="B137" s="9">
         <v>14</v>
       </c>
-      <c r="C137" s="30" t="s">
-        <v>323</v>
-      </c>
+      <c r="C137" s="32"/>
       <c r="D137" s="12"/>
       <c r="E137" s="19"/>
       <c r="F137" s="28"/>
@@ -5210,22 +5251,22 @@
       <c r="B138" s="9">
         <v>15</v>
       </c>
-      <c r="C138" s="32"/>
+      <c r="C138" s="30" t="s">
+        <v>329</v>
+      </c>
       <c r="D138" s="12"/>
       <c r="E138" s="19"/>
-      <c r="F138" s="29"/>
+      <c r="F138" s="28"/>
       <c r="G138" s="12"/>
     </row>
     <row r="139" spans="2:7">
       <c r="B139" s="9">
         <v>16</v>
       </c>
-      <c r="C139" s="10"/>
+      <c r="C139" s="32"/>
       <c r="D139" s="12"/>
       <c r="E139" s="19"/>
-      <c r="F139" s="26" t="s">
-        <v>324</v>
-      </c>
+      <c r="F139" s="29"/>
       <c r="G139" s="12"/>
     </row>
     <row r="140" spans="2:7">
@@ -5235,54 +5276,56 @@
       <c r="C140" s="10"/>
       <c r="D140" s="12"/>
       <c r="E140" s="19"/>
-      <c r="F140" s="29"/>
+      <c r="F140" s="26" t="s">
+        <v>330</v>
+      </c>
       <c r="G140" s="12"/>
     </row>
-    <row r="141" ht="127" customHeight="1" spans="2:7">
-      <c r="B141" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="33"/>
-      <c r="G141" s="39"/>
-    </row>
-    <row r="142" spans="2:7">
-      <c r="B142" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="C142" s="16"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="16"/>
-      <c r="F142" s="16"/>
-      <c r="G142" s="22"/>
+    <row r="141" spans="2:7">
+      <c r="B141" s="9">
+        <v>18</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="12"/>
+    </row>
+    <row r="142" ht="127" customHeight="1" spans="2:7">
+      <c r="B142" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="39"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="9">
-        <v>1</v>
-      </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="12"/>
-      <c r="E143" s="19"/>
-      <c r="F143" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="G143" s="12"/>
+      <c r="B143" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="22"/>
     </row>
     <row r="144" spans="2:7">
       <c r="B144" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="12"/>
       <c r="E144" s="19"/>
-      <c r="F144" s="28"/>
+      <c r="F144" s="26" t="s">
+        <v>333</v>
+      </c>
       <c r="G144" s="12"/>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
@@ -5292,39 +5335,39 @@
     </row>
     <row r="146" spans="2:7">
       <c r="B146" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="12"/>
       <c r="E146" s="19"/>
-      <c r="F146" s="29"/>
+      <c r="F146" s="28"/>
       <c r="G146" s="12"/>
     </row>
     <row r="147" spans="2:7">
       <c r="B147" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="19"/>
-      <c r="F147" s="26" t="s">
-        <v>328</v>
-      </c>
+      <c r="F147" s="29"/>
       <c r="G147" s="12"/>
     </row>
     <row r="148" spans="2:7">
       <c r="B148" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="19"/>
-      <c r="F148" s="28"/>
+      <c r="F148" s="26" t="s">
+        <v>334</v>
+      </c>
       <c r="G148" s="12"/>
     </row>
     <row r="149" spans="2:7">
       <c r="B149" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
@@ -5334,39 +5377,39 @@
     </row>
     <row r="150" spans="2:7">
       <c r="B150" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="12"/>
       <c r="E150" s="19"/>
-      <c r="F150" s="29"/>
+      <c r="F150" s="28"/>
       <c r="G150" s="12"/>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="12"/>
       <c r="E151" s="19"/>
-      <c r="F151" s="26" t="s">
-        <v>329</v>
-      </c>
+      <c r="F151" s="29"/>
       <c r="G151" s="12"/>
     </row>
     <row r="152" spans="2:7">
       <c r="B152" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="12"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="28"/>
+      <c r="F152" s="26" t="s">
+        <v>335</v>
+      </c>
       <c r="G152" s="12"/>
     </row>
     <row r="153" spans="2:7">
       <c r="B153" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="12"/>
@@ -5376,39 +5419,39 @@
     </row>
     <row r="154" spans="2:7">
       <c r="B154" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="12"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="29"/>
+      <c r="F154" s="28"/>
       <c r="G154" s="12"/>
     </row>
     <row r="155" spans="2:7">
       <c r="B155" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="12"/>
       <c r="E155" s="19"/>
-      <c r="F155" s="26" t="s">
-        <v>330</v>
-      </c>
+      <c r="F155" s="29"/>
       <c r="G155" s="12"/>
     </row>
     <row r="156" spans="2:7">
       <c r="B156" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="12"/>
       <c r="E156" s="19"/>
-      <c r="F156" s="28"/>
+      <c r="F156" s="26" t="s">
+        <v>336</v>
+      </c>
       <c r="G156" s="12"/>
     </row>
     <row r="157" spans="2:7">
       <c r="B157" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="12"/>
@@ -5418,91 +5461,91 @@
     </row>
     <row r="158" spans="2:7">
       <c r="B158" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="12"/>
       <c r="E158" s="19"/>
-      <c r="F158" s="29"/>
+      <c r="F158" s="28"/>
       <c r="G158" s="12"/>
     </row>
     <row r="159" spans="2:7">
       <c r="B159" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="12"/>
       <c r="E159" s="19"/>
-      <c r="F159" s="26" t="s">
-        <v>331</v>
-      </c>
+      <c r="F159" s="29"/>
       <c r="G159" s="12"/>
     </row>
     <row r="160" spans="2:7">
       <c r="B160" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="12"/>
       <c r="E160" s="19"/>
-      <c r="F160" s="29"/>
+      <c r="F160" s="26" t="s">
+        <v>337</v>
+      </c>
       <c r="G160" s="12"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="34" t="s">
+      <c r="B161" s="9">
+        <v>18</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="19"/>
+      <c r="F161" s="29"/>
+      <c r="G161" s="12"/>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C161" s="35"/>
-      <c r="D161" s="35"/>
-      <c r="E161" s="35"/>
-      <c r="F161" s="35"/>
-      <c r="G161" s="40"/>
-    </row>
-    <row r="162" spans="2:7">
-      <c r="B162" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C162" s="16"/>
-      <c r="D162" s="16"/>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="22"/>
-    </row>
-    <row r="164" spans="2:7">
-      <c r="B164" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="22"/>
+      <c r="C162" s="35"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="35"/>
+      <c r="F162" s="35"/>
+      <c r="G162" s="40"/>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="22"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="9">
-        <v>1</v>
-      </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="12"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="G165" s="12"/>
+      <c r="B165" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="22"/>
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="12"/>
       <c r="E166" s="19"/>
-      <c r="F166" s="28"/>
+      <c r="F166" s="26" t="s">
+        <v>340</v>
+      </c>
       <c r="G166" s="12"/>
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
@@ -5512,7 +5555,7 @@
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="12"/>
@@ -5522,41 +5565,51 @@
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="19"/>
-      <c r="F169" s="29"/>
+      <c r="F169" s="28"/>
       <c r="G169" s="12"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="34"/>
-      <c r="C170" s="35"/>
-      <c r="D170" s="35"/>
-      <c r="E170" s="35"/>
-      <c r="F170" s="35"/>
-      <c r="G170" s="40"/>
+      <c r="B170" s="9">
+        <v>5</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="19"/>
+      <c r="F170" s="29"/>
+      <c r="G170" s="12"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="22"/>
-    </row>
-    <row r="174" spans="3:3">
-      <c r="C174" s="5">
+      <c r="B171" s="34"/>
+      <c r="C171" s="35"/>
+      <c r="D171" s="35"/>
+      <c r="E171" s="35"/>
+      <c r="F171" s="35"/>
+      <c r="G171" s="40"/>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="22"/>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175" s="5">
         <f>(19+20+22+52+5+30)/3</f>
         <v>49.3333333333333</v>
       </c>
     </row>
-    <row r="175" spans="3:3">
-      <c r="C175" s="36" t="s">
-        <v>336</v>
+    <row r="176" spans="3:3">
+      <c r="C176" s="36" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -5579,13 +5632,13 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B122:G122"/>
     <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B141:G141"/>
     <mergeCell ref="B142:G142"/>
-    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B143:G143"/>
     <mergeCell ref="B162:G162"/>
-    <mergeCell ref="B164:G164"/>
-    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="B163:G163"/>
+    <mergeCell ref="B165:G165"/>
     <mergeCell ref="B171:G171"/>
+    <mergeCell ref="B172:G172"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
@@ -5596,23 +5649,23 @@
     <mergeCell ref="C105:C106"/>
     <mergeCell ref="C124:C128"/>
     <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C133:C134"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C138:C139"/>
     <mergeCell ref="F106:F111"/>
     <mergeCell ref="F112:F116"/>
     <mergeCell ref="F117:F120"/>
     <mergeCell ref="F124:F126"/>
     <mergeCell ref="F127:F131"/>
-    <mergeCell ref="F134:F138"/>
-    <mergeCell ref="F139:F140"/>
-    <mergeCell ref="F143:F146"/>
-    <mergeCell ref="F147:F150"/>
-    <mergeCell ref="F151:F154"/>
-    <mergeCell ref="F155:F158"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="F165:F169"/>
+    <mergeCell ref="F135:F139"/>
+    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="F144:F147"/>
+    <mergeCell ref="F148:F151"/>
+    <mergeCell ref="F152:F155"/>
+    <mergeCell ref="F156:F159"/>
+    <mergeCell ref="F160:F161"/>
+    <mergeCell ref="F166:F170"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5639,7 +5692,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5647,24 +5700,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5689,10 +5742,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5700,7 +5753,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5708,7 +5761,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5716,7 +5769,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="12495"/>
+    <workbookView windowWidth="14940" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="355">
-  <si>
-    <t>从8月2日开始保持每天2个题目,还剩204题,写102天,2024年11月12日可刷完leetcode第一遍
-从9.3日起,如果每天写3个题,写37天,2024 年 10 月 22 日就能写完第一遍
-从9.3日起,如果每天写4个题,写37天,2024 年 10 月 9 日就能写完第一遍
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="353">
+  <si>
+    <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
   </si>
   <si>
@@ -1307,9 +1305,6 @@
     <t>113. 路径总和 II</t>
   </si>
   <si>
-    <t>计划9.7日</t>
-  </si>
-  <si>
     <t>js:
 这个题迭代方法不好写,要记录每条路径很麻烦
 递归方法-要遍历整个树,找到所有路径,所以递归函数不要返回值!
@@ -1373,9 +1368,6 @@
   </si>
   <si>
     <t>98. 验证二叉搜索树</t>
-  </si>
-  <si>
-    <t>计划9.8</t>
   </si>
   <si>
     <t>js:
@@ -1445,9 +1437,6 @@
   </si>
   <si>
     <t xml:space="preserve"> 701.二叉搜索树中的插入操作</t>
-  </si>
-  <si>
-    <t>计划9.9日</t>
   </si>
   <si>
     <t>js:
@@ -1540,9 +1529,6 @@
     <t>77. 组合</t>
   </si>
   <si>
-    <t>计划9.12日</t>
-  </si>
-  <si>
     <t>js:
 方案一: 回溯法, 抄的, 学习回溯算法,熟悉模板
 方案二: +剪枝操作
@@ -1568,9 +1554,6 @@
   </si>
   <si>
     <t>39. 组合总和</t>
-  </si>
-  <si>
-    <t>计划9.13日</t>
   </si>
   <si>
     <t>js:
@@ -1663,21 +1646,25 @@
     <t>47. 全排列 II</t>
   </si>
   <si>
-    <t>计划9.14日</t>
-  </si>
-  <si>
     <t>js:
 抄的, 题之间细微差别没搞清楚, 需要横向对比, 画图对比
 一般来说：组合问题和排列问题是在树形结构的叶子节点上收集结果，而子集问题就是取树上所有节点的结果</t>
   </si>
   <si>
+    <t>332. 重新安排行程</t>
+  </si>
+  <si>
+    <t>js:
+抄的，不会写，而且没过，超时</t>
+  </si>
+  <si>
     <t>棋盘问题</t>
   </si>
   <si>
+    <t>51. N 皇后</t>
+  </si>
+  <si>
     <t>其他</t>
-  </si>
-  <si>
-    <t>计划9.15日</t>
   </si>
   <si>
     <t>总结:
@@ -1701,19 +1688,25 @@
     <t>贪心算法22</t>
   </si>
   <si>
-    <t>计划9.16日</t>
-  </si>
-  <si>
-    <t>计划9.17日</t>
-  </si>
-  <si>
-    <t>计划9.18日</t>
-  </si>
-  <si>
-    <t>计划9.19日</t>
-  </si>
-  <si>
-    <t>计划9.20日</t>
+    <t>455. 分发饼干</t>
+  </si>
+  <si>
+    <t>js:
+本来很快就能写出来!结果,被sort摆了一道,气死我了!!!
+g.sort()：按照字符串的Unicode码点顺序进行排序。因此结果可能并不是按数值的大小进行排序。
+g.sort((a, b) =&gt; a - b)：带有比较函数的排序方式，能够按照数值的大小对数组元素进行排序。
+    (a, b) =&gt; a - b 是一个比较函数，当 a - b 为负数时，a 会排在 b 之前，这就能保证数字按升序排列。</t>
+  </si>
+  <si>
+    <t>9.23总结:
+1.什么是贪心: 本质是选择每一阶段的局部最优, 从而达到全局最优
+2.什么时候使用贪心:  刷题或者面试的时候，手动模拟一下感觉可以局部最优推出整体最优，而且想不到反例，那么就试一试贪心. 贪心没有套路，说白了就是常识性推导加上举反例
+3.贪心算法一般分为如下四步：
+    将问题分解为若干个子问题
+    找出适合的贪心策略
+    求解每一个子问题的最优解
+    将局部最优解堆叠成全局最优解
+做题的时候，只要想清楚 局部最优 是什么，如果推导出全局最优，其实就够了。</t>
   </si>
   <si>
     <t>动态规划52</t>
@@ -1722,13 +1715,176 @@
     <t>单调栈5</t>
   </si>
   <si>
-    <t>计划9.21日</t>
-  </si>
-  <si>
     <t>图论30</t>
   </si>
   <si>
     <t>2024/9/2 4:48:00+74</t>
+  </si>
+  <si>
+    <t>项目学习</t>
+  </si>
+  <si>
+    <t>js实现jquery</t>
+  </si>
+  <si>
+    <t>9.19-9.23</t>
+  </si>
+  <si>
+    <t>1.DOMContentLoaded: 当 HTML 文档完全解析，且所有延迟脚本（&lt;script defer src="…"&gt; 和 &lt;script type="module"&gt;）下载和执行完毕后，会触发 DOMContentLoaded 事件。它不会等待图片、子框架和异步脚本等其他内容完成加载。DOMContentLoaded 是一个不冒泡的事件。这意味着它只会在 document 对象上触发，而不会从 document 冒泡到 window 或其他元素。因此，不存在像常规冒泡事件（如 click、submit 等）那样的冒泡传播问题。
+2. DOM 事件模型中，事件的传播分为三个主要阶段：
+    捕获阶段：事件从文档的根节点开始，向下传播到目标元素。
+    目标阶段：事件到达目标元素，即事件所直接作用的元素。
+    冒泡阶段：事件从目标元素开始，向上传播到根节点（或父级元素）(解决方案: stopPropogation)
+举例:
+&lt;div id="parent"&gt;
+  &lt;button id="child"&gt;Click me&lt;/button&gt;
+&lt;/div&gt;
+    捕获阶段：
+        window → document → html → body → div#parent → button#child（但事件处理程序不会在目标元素 button 处触发，只是在它的祖先元素上触发，且需要设置 capture: true 才能捕获）
+    目标阶段：
+        事件到达目标元素 button#child，触发绑定在该元素上的监听器（无论是捕获阶段还是冒泡阶段的监听器）
+    冒泡阶段：
+        button#child → div#parent → body → html → document → window（在目标元素上的冒泡监听器触发，然后事件逐级往上冒泡）
+3.HTMLCollection 和 NodeList 的区别 &amp;&amp; 不能使用typeof判断类数组元素 &amp;&amp; 哪些元素获取器返回HTMLCollection,哪些返回NodeList &amp;&amp; jquery语法
+    a.HTMLCollection 和 NodeList 是两种不同的类数组集合，它们虽然都可以包含多个 DOM 元素，但本质上是不同的类型。
+       NodeList 对象是节点的集合，通常是由属性，如Node.childNodes 和 方法，如document.querySelectorAll 返回的
+    HTMLCollection：
+        动态更新：当文档中的元素被修改时，HTMLCollection 会自动反映这些更改。
+        返回方法：getElementsByClassName() 和 getElementsByTagName() 都返回 HTMLCollection 类型。
+    NodeList：
+        可以是静态或动态：NodeList 的内容可以是静态的，也可以动态更新。
+        返回方法：querySelectorAll() 返回的是 静态的 NodeList，而 childNodes 返回的是 动态的 NodeList。
+b.HTMLCollection 是一种类数组对象，用来表示一组 HTML 元素。它不是标准的 JavaScript 对象或数组，因此不能使用 typeof 来判断它。typeof 只能返回一些基本数据类型，如 string, number, object, function 等。对于 HTMLCollection，使用 typeof 结果会返回 "object"，但它和普通的 JavaScript 对象有明显的区别。HTMLCollection 不是一个真正的数组（例如，它没有数组的 forEach 方法），但它具有 length 属性，可以用 for 循环进行遍历。可以使用 instanceof 或 Array.isArray() 来进行判断. 通过 instanceof 来判断 this.arg 是否为 HTMLCollection 或 NodeList
+c.HTMLCollection 在某些环境中会被认为是 NodeList.
+d.getElementsByClassName和getElementsByTagName返回的是HTMLCollection, querySelectorAll返回的是NodeList, 由于浏览器的不一致行为,可能会导致getElementsByTagName
+4.运行测试器对比 JEST VS Karma
+Jest 是一个集成度更高、功能更丰富的测试运行器，适合Node.js 和现代前端框架（如 React、Vue）的单元测试。
+Karma 更适合需要在真实浏览器中运行的项目，尤其是在进行跨浏览器兼容性测试时。
+    Jest：
+        最初专注于 Node.js 环境，但通过 jsdom 支持浏览器测试。
+        内置功能丰富：Jest 内置了自动模拟、快照测试、并行运行测试、测试覆盖率等功能, 不需要额外配置断言库（如 Chai）或测试框架（如 Mocha），简化了测试配置和运行。
+        适合单元测试和小规模集成测试，配置简单且开箱即用，广受 React、Vue 等前端框架开发者的喜爱。
+        Jest 的测试速度较快，并且由于其强大的内置功能，很多开发者选择它来替代 Karma。
+    Karma：
+        浏览器测试为主：Karma 的一个重要特点是它能在真实浏览器中运行测试，因此更适合那些需要在多个浏览器中测试代码的项目。你可以通过 Karma 启动 Chrome、Firefox、Safari 等浏览器来运行测试。
+        纯测试运行器：Karma 专注于作为一个测试运行器，它本身不包含断言库或测试框架。Karma 需要结合其他测试框架和断言库使用，比如 Mocha、Jasmine 或 Chai。
+        更适合大规模的集成测试，特别是需要在不同浏览器中运行测试时。
+当前趋势
+    Jest 在现代前端开发中逐渐占据主导地位，但 Karma 在需要跨浏览器的测试场景中仍然有一定优势。如果主要在 Node.js 环境或不需要真实的浏览器运行，Jest 可能是更流行的选择。
+5.JEST:
+Jest 默认不支持 ES6 的模块语法（import/export）。在 Node.js 环境中，Jest 默认期望使用 CommonJS 模块语法（require）,如果要使用es模块,就要使用Babel转换成ES6语法, 除此之外, Jest 默认的测试环境不支持浏览器 API（如 document），因此你需要将测试环境设置为 jsdom，以便能够模拟浏览器环境 -&gt; 修改配置文件; 
+JEST测试结构:
+describe 块：用于组织相关的测试，便于分组和分类。
+test 或 it 块：每个测试用例，描述某个具体的功能。
+expect 函数：用于断言，验证函数的返回值是否符合预期。可以使用 toBe、toEqual、toContain 等多种断言方法。
+6.为什么 Karma 生成的配置文件使用 CommonJS 语法？
+    Karma 配置文件运行在 Node.js 中：
+        Karma 的配置文件（karma.conf.js）是在 Node.js 环境 下执行的，而不是在浏览器中运行的。Node.js 传统上使用 CommonJS 模块系统，因此 Karma 使用 CommonJS 语法来兼容大多数用户的开发环境。
+        当 Karma 运行时，它会启动一个 Node.js 服务器，并为浏览器提供测试文件。虽然浏览器可以处理 ES 模块，但 Karma 服务器的配置文件需要与 Node.js 的模块系统兼容。
+    向后兼容性和普遍性：
+        CommonJS 在 Node.js 中仍然是非常普遍的模块格式，因此 Karma 的默认配置使用这种格式来避免兼容性问题。这确保了它能在大多数项目中无缝运行，即便项目本身没有使用 ES 模块。
+    工具链和生态系统：
+        Karma 生态中很多插件（如 karma-webpack、karma-mocha）依然使用 CommonJS 规范进行模块管理。保持配置文件也使用 CommonJS，可以减少很多复杂的兼容性问题。
+7.测试工具学习建议:
+测试运行器（如 Mocha, Jest）：学习如何执行测试文件，了解测试生命周期（如 beforeEach、afterEach）。
+断言库（如 Chai, Jest 内置 expect）：学习如何编写断言，用于验证代码输出是否符合预期。
+测试框架：了解如何使用测试框架组织测试、分模块测试，以及如何进行异步测试。
+高级概念：学习如何进行性能测试、集成测试和端到端测试等。
+8.webpack是打包工具,和这里的测试运行器是什么关系,为什么需要一个打包工具帮助处理es模块,请详细解释
+之所以需要 Webpack 来帮助处理 ES 模块，主要是因为测试运行器（如 Karma）和浏览器本身并不能直接理解或运行未打包的 ES 模块文件。
+Karma 的作用是加载你的测试文件、运行测试，并把结果显示在终端或浏览器中，但它并不直接支持 ES 模块或其他现代 JavaScript 语法（例如 JSX、TypeScript、ES6+ 等）。原因: 1. 测试运行器的职责是启动浏览器并加载测试脚本，但并不理解或转换现代 JavaScript 语法。 2. 即便浏览器支持 ES 模块，但测试脚本和模块的加载方式可能会和打包环境有所不同。例如，如果你有多个模块文件，浏览器需要根据相对路径逐个加载它们，而 Karma 运行时只会加载单个入口文件（通常是测试文件），而不会自动加载相关依赖
+Webpack 在这里的作用
+Webpack 是一个模块打包工具，可以帮助你在运行测试之前将所有模块（包括测试文件及其依赖项）打包成一个文件，确保测试运行器和浏览器可以正确执行。这是通过以下方式实现的：
+    模块依赖管理：Webpack 解析 import 或 require 语句，将所有依赖的模块打包为一个或多个文件，解决了浏览器或测试运行器无法直接加载多个模块的问题。
+    转换代码：Webpack 能够配合 Babel 等工具，将 ES 模块转换为浏览器或测试环境能够识别的格式（例如 CommonJS 或 AMD 模块），并支持各种现代 JavaScript 语法。即使 Karma 不支持原生 ES 模块，Webpack 通过转换代码的方式保证测试代码能够运行。
+    预处理测试文件：在使用 Karma 运行测试时，Webpack 可以作为 Karma 的“预处理器”，即在 Karma 加载测试文件之前，先由 Webpack 对这些文件进行打包和转换，然后将打包后的文件交给 Karma 运行。
+Webpack 与 Karma 的工作流程
+当你在 Karma 中使用 Webpack 时，工作流程如下
+    Karma 启动：Karma 作为测试运行器启动，准备运行你的测试文件。
+    Webpack 预处理器：Karma 通过配置 Webpack 作为预处理器，在加载测试文件之前，Webpack 会根据 import 或 require 语句打包所有模块，并将所有依赖合并为一个文件。
+    浏览器运行：Webpack 完成打包后，Karma 会将生成的测试文件发送到浏览器中运行。浏览器不需要再单独加载和解析每个模块文件，而是一次性加载打包后的文件。
+    测试执行：浏览器中执行打包后的测试文件，Karma 收集测试结果并反馈到命令行或报告中。
+结论
+Webpack 在 Karma 测试环境中起到了关键作用，主要是通过：
+    解析和打包 ES 模块及其依赖。
+    转换现代 JavaScript 语法，使其兼容 Karma 和浏览器的测试环境。
+    提供预处理功能，在测试运行之前将测试代码打包为单个文件。
+Karma 本身默认支持 CommonJS 模块，因为它运行在 Node.js 环境中，并且插件和工具生态大多基于 CommonJS。
+ES 模块 支持依赖浏览器来处理，需要配置 Karma 和浏览器环境来支持 ES 模块的加载。
+使用 Webpack 或其他打包工具可以简化和增强对 ES 模块的支持，特别是当项目中使用大量 ES 模块时。
+9.使用webpack给Karma处理es模块的思路:
+1.Karma 使用 Webpack 作为预处理器： Karma 需要通过 Webpack 来处理 ES 模块，因此你要在 Karma 的配置中加入 Webpack 相关的设置。
+2.Webpack 专门为测试环境设置： 你可以使用部分和开发类似的 Webpack 配置，但需要根据测试需求简化或调整。
+10.Karma与Ci/CD的应用场景 &amp;&amp; 对比:
+Karma应用场景:
+适合前端开发人员在本地开发环境中执行单元测试或集成测试。
+提供跨浏览器的测试支持，确保代码在不同浏览器中的一致性。
+CI/CD应用场景:
+每当代码提交到远程仓库（如GitHub、GitLab等）时，CI/CD工具（如Jenkins、GitLab CI、Travis CI等）会自动拉取最新代码并运行预设的测试。
+测试可以包括单元测试、集成测试、端到端测试等。
+如果所有测试通过，CI/CD工具会将代码部署到特定的环境中。
+CI/CD和Karma的区别:
+    运行环境：
+        Karma测试：主要在本地或测试环境中使用，主要关注前端代码的正确性和跨浏览器兼容性。
+        CI/CD测试：主要在持续集成环境中自动执行，可能包括后端、数据库、API的测试。Karma测试可以是CI/CD流程中的一个步骤。
+    自动化程度：
+        Karma测试：可以手动或自动运行测试，通常与开发人员的日常工作结合。
+        CI/CD测试：完全自动化，通常触发代码提交或合并时运行。
+    范围：
+        Karma测试：通常是针对JavaScript代码的单元测试或前端集成测试。
+        CI/CD测试：包括单元测试、集成测试、端到端测试、性能测试，甚至包括Karma在内的多个测试工具。</t>
+  </si>
+  <si>
+    <t>小知识集锦:
+1.Node.js :是在服务器端运行 JavaScript 的环境，主要特点是基于事件驱动、异步 I/O，适合处理高并发场景
+2.js中匿名函数（和所有传统的 Javascript 函数）创建他们独有的 this 对象，而箭头函数则继承绑定他所在函数的 this 对象
+3. RegExp.prototype.test(): test() 方法执行一个检索，用来查看正则表达式与指定的字符串是否匹配。返回 true 或 false。
+4.jquery语法中$()括号中是可以传入NodeList类型内容,但是不能直接是HTMLCollection
+    语法: 以下这两种写法一样, 都是为了防止文档在完全加载（就绪）之前运行 jQuery 代码，即在 DOM 加载完成后才可以对 DOM 进行操作:
+$(document).ready(function(){
+   // 开始写 jQuery 代码...
+});
+$(function(){
+   // 开始写 jQuery 代码...
+});
+5.判断typeof的时候, ===右边应该是字符串: typeof arg === 'function'
+6.instanceof: instanceof 运算符用于检测构造函数的 prototype 属性是否出现在某个实例对象的原型链上。
+7. Object.entries(): 静态方法返回一个数组，包含给定对象自有的可枚举字符串键属性的键值对。可使用如下方法:
+for(const [key, value] of Object.entries(collections)) {
+    console.log(key, value);
+}
+8.npx 是什么: 一个工具，允许你在本地或全局安装的 node_modules 中执行包中的命令，而不需要将其全局安装。它简化了命令的调用，比如 eslint 或 webpack，无需手动安装到全局环境。
+9.断言: 是在测试中用于验证程序行为的一种表达。简单来说，断言就是检查某个值是否符合期望。如果断言成功（即条件为真），测试继续运行；如果断言失败，测试就会中断，并报告错误。
+在测试框架中，断言的目的是确保代码的行为符合预期。通常会有多种断言方法，用来检查不同类型的结果，比如值相等、对象相等、是否包含某个元素、函数是否抛出了异常等。
+10.Babel : 是一个 JavaScript 编译器，主要用于将现代 JavaScript 代码（如 ES6+、ES7、ES8 等）转换为向下兼容的旧版 JavaScript 代码，使得可以在不支持新特性的浏览器和环境中运行这些代码。
+babel-loader:这是 webpack 用来处理 Babel 转译 JavaScript 文件的加载器, @babel/preset-env 是 Babel 最常用的预设，用来将现代 JavaScript 代码转换为更兼容的版本
+11.Symbol不能使用this.SYM_NODE_LIST访问,使用this[SYM_NODE_LIST]才能访问. this.SYM_NODE_LIST: 这里 SYM_NODE_LIST 是一个普通的属性名，并且是以字符串形式存储的。它等价于 this['SYM_NODE_LIST'], SYM_NODE_LIST 是一个变量，它存储的是 Symbol('nodelist') 的值。Symbol 是一种创建独一无二的标识符的方式，因此 SYM_NODE_LIST 的值并不是字符串，而是一个 Symbol 类型的值。在使用 this[SYM_NODE_LIST] 时，你是在访问一个符号键的属性。通常用作对象的属性键，以确保属性的唯一性和不可冲突性。
+const SYM_NODE_LIST = Symbol('nodelist');  中的'nodelist' 作为描述仅用于标识这个 Symbol 与节点列表相关，但不参与代码逻辑中的行为，只是便于开发者理解。
+12.utils文件作用: 主要是抽象出独立于业务逻辑的工具方法
+13.'--save-dev 是 npm 命令中的一个选项，用于将指定的包（模块）作为 开发依赖 安装，并将其记录在 package.json 文件的 devDependencies 部分。
+14.CommonJS与ES Module:
+    CommonJS导入导出
+        require
+        module.exports
+        exports
+    ES Module导入导出
+        import
+        export
+        export default
+15.现代浏览器确实支持 ES6 模块（ESM）。但要使用 import 语句，必须确保在script中使用 type="module"
+16.webpack 和 webpack-cli 是 Webpack 的核心库，用于打包 JavaScript 文件。
+karma-webpack 是 Karma 与 Webpack 的整合插件，能够让 Karma 使用 Webpack 编译和打包文件。
+17.document.querySelectorAll('.test') 返回的是一个 NodeList 集合，而不是一个单一的 DOM 元素
+[...document.querySelectorAll(selector)]这样写就是普通数组
+18..js与.cjs的区别
+.js 文件在 "type": "module" 项目中表示 ES Module，而 .cjs 文件总是表示 CommonJS。
+语法：ESM 使用 import/export，而 CommonJS 使用 require/module.exports。
+兼容性：如果你的项目使用现代模块系统（如 ES6 模块），那么使用 .js；如果需要兼容旧的 CommonJS 模块，使用 .cjs
+19.CI/CD(是自动化集成测试的一部分，通常是软件交付流水线的一部分。CI（持续集成）指的是开发人员将代码频繁地合并到主分支，并在每次合并时自动运行一系列测试来验证代码的正确性。CD（持续交付/持续部署）则进一步自动化，将通过测试的代码部署到生产环境或预发布环境)
+20.在配置中的browsers: ['ChromeHeadless'],什么是无头模式:
+无头模式（Headless Mode）指的是运行浏览器时不显示图形界面的模式。它可以执行浏览器操作（如加载页面、执行JavaScript等），但不会在屏幕上显示出来。无头模式通常用于自动化测试、网络爬虫、CI/CD等场景，因为它更轻量、速度更快。
+在你的测试场景中，使用无头模式（如ChromeHeadless）可以通过Puppeteer控制浏览器来运行测试，而无需打开真实的浏览器窗口。
+21.同步任务按照顺序逐一执行，而异步任务在等待某些操作完成的同时，可以继续执行其他任务，不阻塞主线程</t>
   </si>
   <si>
     <t>已有书籍</t>
@@ -1773,8 +1929,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
@@ -1809,13 +1965,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1824,15 +1973,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1846,7 +2010,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1855,21 +2018,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1877,40 +2026,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1929,8 +2047,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1944,11 +2094,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1985,7 +2141,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,7 +2189,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2015,127 +2225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2153,13 +2243,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2262,65 +2418,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2345,6 +2442,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2359,157 +2480,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2600,35 +2756,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2952,12 +3111,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G135" sqref="G135"/>
+      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4702,7 +4861,7 @@
       <c r="E105" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F105" s="19"/>
+      <c r="F105" s="30"/>
       <c r="G105" s="12" t="s">
         <v>259</v>
       </c>
@@ -4718,11 +4877,9 @@
       <c r="E106" s="19">
         <v>9.7</v>
       </c>
-      <c r="F106" s="26" t="s">
+      <c r="F106" s="30"/>
+      <c r="G106" s="12" t="s">
         <v>261</v>
-      </c>
-      <c r="G106" s="12" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="107" ht="24" spans="2:7">
@@ -4730,17 +4887,17 @@
         <v>25</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E107" s="19">
         <v>9.7</v>
       </c>
-      <c r="F107" s="28"/>
+      <c r="F107" s="30"/>
       <c r="G107" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="108" ht="60" spans="2:7">
@@ -4748,17 +4905,17 @@
         <v>26</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E108" s="19">
         <v>9.7</v>
       </c>
-      <c r="F108" s="28"/>
+      <c r="F108" s="30"/>
       <c r="G108" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" ht="120" spans="2:7">
@@ -4766,17 +4923,17 @@
         <v>27</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E109" s="19">
         <v>9.7</v>
       </c>
-      <c r="F109" s="28"/>
+      <c r="F109" s="30"/>
       <c r="G109" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" ht="48" spans="2:7">
@@ -4784,17 +4941,17 @@
         <v>28</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E110" s="19">
         <v>9.8</v>
       </c>
-      <c r="F110" s="28"/>
+      <c r="F110" s="30"/>
       <c r="G110" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" ht="132" spans="2:7">
@@ -4802,17 +4959,17 @@
         <v>29</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E111" s="19">
         <v>9.8</v>
       </c>
-      <c r="F111" s="29"/>
+      <c r="F111" s="30"/>
       <c r="G111" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" ht="72" spans="2:7">
@@ -4820,19 +4977,17 @@
         <v>30</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E112" s="19">
         <v>9.8</v>
       </c>
-      <c r="F112" s="26" t="s">
-        <v>274</v>
-      </c>
+      <c r="F112" s="30"/>
       <c r="G112" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="113" ht="108" spans="2:7">
@@ -4840,17 +4995,17 @@
         <v>31</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E113" s="19">
         <v>9.8</v>
       </c>
-      <c r="F113" s="28"/>
+      <c r="F113" s="30"/>
       <c r="G113" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" ht="156" spans="2:7">
@@ -4858,17 +5013,17 @@
         <v>32</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E114" s="19">
         <v>9.8</v>
       </c>
-      <c r="F114" s="28"/>
+      <c r="F114" s="30"/>
       <c r="G114" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" ht="276" spans="2:7">
@@ -4876,17 +5031,17 @@
         <v>33</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E115" s="19">
         <v>9.9</v>
       </c>
-      <c r="F115" s="28"/>
+      <c r="F115" s="30"/>
       <c r="G115" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" ht="96" spans="2:7">
@@ -4894,17 +5049,17 @@
         <v>34</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E116" s="19">
         <v>9.9</v>
       </c>
-      <c r="F116" s="29"/>
+      <c r="F116" s="30"/>
       <c r="G116" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" ht="72" spans="2:7">
@@ -4912,19 +5067,17 @@
         <v>35</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E117" s="19">
         <v>9.9</v>
       </c>
-      <c r="F117" s="26" t="s">
-        <v>285</v>
-      </c>
+      <c r="F117" s="30"/>
       <c r="G117" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" ht="96" spans="2:7">
@@ -4932,17 +5085,17 @@
         <v>36</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E118" s="19">
         <v>9.9</v>
       </c>
-      <c r="F118" s="28"/>
+      <c r="F118" s="30"/>
       <c r="G118" s="12" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" ht="24" spans="2:7">
@@ -4950,17 +5103,17 @@
         <v>37</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E119" s="19">
         <v>9.11</v>
       </c>
-      <c r="F119" s="28"/>
+      <c r="F119" s="30"/>
       <c r="G119" s="12" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="120" ht="72" spans="2:7">
@@ -4968,17 +5121,17 @@
         <v>38</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E120" s="19">
         <v>9.11</v>
       </c>
-      <c r="F120" s="29"/>
+      <c r="F120" s="30"/>
       <c r="G120" s="12" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" ht="36" spans="2:7">
@@ -4986,22 +5139,22 @@
         <v>39</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E121" s="19">
         <v>9.11</v>
       </c>
       <c r="F121" s="10"/>
       <c r="G121" s="12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" ht="408" customHeight="1" spans="2:7">
       <c r="B122" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C122" s="14"/>
       <c r="D122" s="14"/>
@@ -5011,7 +5164,7 @@
     </row>
     <row r="123" spans="2:7">
       <c r="B123" s="15" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
@@ -5023,262 +5176,264 @@
       <c r="B124" s="9">
         <v>1</v>
       </c>
-      <c r="C124" s="30" t="s">
-        <v>297</v>
+      <c r="C124" s="26" t="s">
+        <v>294</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E124" s="19">
         <v>9.12</v>
       </c>
-      <c r="F124" s="30" t="s">
-        <v>299</v>
-      </c>
+      <c r="F124" s="30"/>
       <c r="G124" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" ht="36" spans="2:7">
       <c r="B125" s="9">
         <v>2</v>
       </c>
-      <c r="C125" s="31"/>
+      <c r="C125" s="28"/>
       <c r="D125" s="12" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E125" s="19">
         <v>9.12</v>
       </c>
-      <c r="F125" s="31"/>
+      <c r="F125" s="30"/>
       <c r="G125" s="12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" ht="24" spans="2:7">
       <c r="B126" s="9">
         <v>3</v>
       </c>
-      <c r="C126" s="31"/>
+      <c r="C126" s="28"/>
       <c r="D126" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E126" s="19">
         <v>9.12</v>
       </c>
-      <c r="F126" s="31"/>
+      <c r="F126" s="30"/>
       <c r="G126" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" ht="72" spans="2:7">
       <c r="B127" s="9">
         <v>4</v>
       </c>
-      <c r="C127" s="31"/>
+      <c r="C127" s="28"/>
       <c r="D127" s="12" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E127" s="19">
         <v>9.13</v>
       </c>
-      <c r="F127" s="31" t="s">
-        <v>306</v>
-      </c>
+      <c r="F127" s="30"/>
       <c r="G127" s="12" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="128" ht="192" spans="2:7">
       <c r="B128" s="9">
         <v>5</v>
       </c>
-      <c r="C128" s="32"/>
+      <c r="C128" s="29"/>
       <c r="D128" s="12" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E128" s="19">
         <v>9.13</v>
       </c>
-      <c r="F128" s="31"/>
+      <c r="F128" s="30"/>
       <c r="G128" s="12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" ht="84" spans="2:7">
       <c r="B129" s="9">
         <v>6</v>
       </c>
-      <c r="C129" s="30" t="s">
-        <v>310</v>
+      <c r="C129" s="26" t="s">
+        <v>305</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E129" s="19">
         <v>9.13</v>
       </c>
-      <c r="F129" s="31"/>
+      <c r="F129" s="30"/>
       <c r="G129" s="12" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" ht="48" spans="2:7">
       <c r="B130" s="9">
         <v>7</v>
       </c>
-      <c r="C130" s="32"/>
+      <c r="C130" s="29"/>
       <c r="D130" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E130" s="19">
         <v>9.16</v>
       </c>
-      <c r="F130" s="31"/>
+      <c r="F130" s="30"/>
       <c r="G130" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="131" ht="60" spans="2:7">
       <c r="B131" s="9">
         <v>8</v>
       </c>
-      <c r="C131" s="30" t="s">
-        <v>315</v>
+      <c r="C131" s="26" t="s">
+        <v>310</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E131" s="19">
         <v>9.17</v>
       </c>
-      <c r="F131" s="31"/>
+      <c r="F131" s="30"/>
       <c r="G131" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" ht="72" spans="2:7">
       <c r="B132" s="9">
         <v>9</v>
       </c>
-      <c r="C132" s="31"/>
+      <c r="C132" s="28"/>
       <c r="D132" s="12" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E132" s="19">
         <v>9.17</v>
       </c>
-      <c r="F132" s="37"/>
+      <c r="F132" s="30"/>
       <c r="G132" s="12" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133" ht="36" spans="2:7">
       <c r="B133" s="9">
         <v>10</v>
       </c>
-      <c r="C133" s="31"/>
+      <c r="C133" s="28"/>
       <c r="D133" s="12" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E133" s="19">
         <v>9.18</v>
       </c>
-      <c r="F133" s="37"/>
+      <c r="F133" s="30"/>
       <c r="G133" s="12" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134" ht="60" spans="2:7">
       <c r="B134" s="9">
         <v>11</v>
       </c>
-      <c r="C134" s="30" t="s">
-        <v>322</v>
+      <c r="C134" s="26" t="s">
+        <v>317</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E134" s="19">
         <v>9.18</v>
       </c>
-      <c r="F134" s="38"/>
+      <c r="F134" s="30"/>
       <c r="G134" s="12" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="135" ht="36" spans="2:7">
       <c r="B135" s="9">
         <v>12</v>
       </c>
-      <c r="C135" s="32"/>
+      <c r="C135" s="28"/>
       <c r="D135" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E135" s="19">
         <v>9.18</v>
       </c>
-      <c r="F135" s="26" t="s">
-        <v>326</v>
-      </c>
+      <c r="F135" s="30"/>
       <c r="G135" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="136" spans="2:7">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="136" ht="24" spans="2:7">
       <c r="B136" s="9">
         <v>13</v>
       </c>
-      <c r="C136" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="D136" s="12"/>
-      <c r="E136" s="19"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="12"/>
+      <c r="C136" s="28"/>
+      <c r="D136" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="E136" s="19">
+        <v>9.19</v>
+      </c>
+      <c r="F136" s="30"/>
+      <c r="G136" s="12" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="137" spans="2:7">
       <c r="B137" s="9">
         <v>14</v>
       </c>
-      <c r="C137" s="32"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="19"/>
-      <c r="F137" s="28"/>
+      <c r="C137" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="E137" s="19">
+        <v>9.19</v>
+      </c>
+      <c r="F137" s="30"/>
       <c r="G137" s="12"/>
     </row>
     <row r="138" spans="2:7">
       <c r="B138" s="9">
         <v>15</v>
       </c>
-      <c r="C138" s="30" t="s">
-        <v>329</v>
-      </c>
+      <c r="C138" s="28"/>
       <c r="D138" s="12"/>
       <c r="E138" s="19"/>
-      <c r="F138" s="28"/>
+      <c r="F138" s="30"/>
       <c r="G138" s="12"/>
     </row>
     <row r="139" spans="2:7">
       <c r="B139" s="9">
         <v>16</v>
       </c>
-      <c r="C139" s="32"/>
+      <c r="C139" s="28" t="s">
+        <v>326</v>
+      </c>
       <c r="D139" s="12"/>
       <c r="E139" s="19"/>
-      <c r="F139" s="29"/>
+      <c r="F139" s="30"/>
       <c r="G139" s="12"/>
     </row>
     <row r="140" spans="2:7">
       <c r="B140" s="9">
         <v>17</v>
       </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="12"/>
+      <c r="C140" s="31"/>
+      <c r="D140" s="32"/>
       <c r="E140" s="19"/>
-      <c r="F140" s="26" t="s">
-        <v>330</v>
-      </c>
+      <c r="F140" s="30"/>
       <c r="G140" s="12"/>
     </row>
     <row r="141" spans="2:7">
@@ -5288,22 +5443,22 @@
       <c r="C141" s="10"/>
       <c r="D141" s="12"/>
       <c r="E141" s="19"/>
-      <c r="F141" s="29"/>
+      <c r="F141" s="30"/>
       <c r="G141" s="12"/>
     </row>
     <row r="142" ht="127" customHeight="1" spans="2:7">
       <c r="B142" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="33"/>
-      <c r="G142" s="39"/>
+        <v>327</v>
+      </c>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="21"/>
     </row>
     <row r="143" spans="2:7">
       <c r="B143" s="15" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
@@ -5311,17 +5466,23 @@
       <c r="F143" s="16"/>
       <c r="G143" s="22"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" ht="72" spans="2:7">
       <c r="B144" s="9">
         <v>1</v>
       </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="19"/>
-      <c r="F144" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="G144" s="12"/>
+      <c r="C144" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D144" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E144" s="19">
+        <v>9.23</v>
+      </c>
+      <c r="F144" s="26"/>
+      <c r="G144" s="12" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="145" spans="2:7">
       <c r="B145" s="9">
@@ -5360,9 +5521,7 @@
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="19"/>
-      <c r="F148" s="26" t="s">
-        <v>334</v>
-      </c>
+      <c r="F148" s="26"/>
       <c r="G148" s="12"/>
     </row>
     <row r="149" spans="2:7">
@@ -5402,9 +5561,7 @@
       <c r="C152" s="10"/>
       <c r="D152" s="12"/>
       <c r="E152" s="19"/>
-      <c r="F152" s="26" t="s">
-        <v>335</v>
-      </c>
+      <c r="F152" s="26"/>
       <c r="G152" s="12"/>
     </row>
     <row r="153" spans="2:7">
@@ -5444,9 +5601,7 @@
       <c r="C156" s="10"/>
       <c r="D156" s="12"/>
       <c r="E156" s="19"/>
-      <c r="F156" s="26" t="s">
-        <v>336</v>
-      </c>
+      <c r="F156" s="26"/>
       <c r="G156" s="12"/>
     </row>
     <row r="157" spans="2:7">
@@ -5486,9 +5641,7 @@
       <c r="C160" s="10"/>
       <c r="D160" s="12"/>
       <c r="E160" s="19"/>
-      <c r="F160" s="26" t="s">
-        <v>337</v>
-      </c>
+      <c r="F160" s="26"/>
       <c r="G160" s="12"/>
     </row>
     <row r="161" spans="2:7">
@@ -5502,18 +5655,18 @@
       <c r="G161" s="12"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="C162" s="35"/>
-      <c r="D162" s="35"/>
-      <c r="E162" s="35"/>
-      <c r="F162" s="35"/>
+      <c r="B162" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
       <c r="G162" s="40"/>
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5523,7 +5676,7 @@
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="15" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
@@ -5538,9 +5691,7 @@
       <c r="C166" s="10"/>
       <c r="D166" s="12"/>
       <c r="E166" s="19"/>
-      <c r="F166" s="26" t="s">
-        <v>340</v>
-      </c>
+      <c r="F166" s="26"/>
       <c r="G166" s="12"/>
     </row>
     <row r="167" spans="2:7">
@@ -5589,11 +5740,11 @@
       <c r="D171" s="35"/>
       <c r="E171" s="35"/>
       <c r="F171" s="35"/>
-      <c r="G171" s="40"/>
+      <c r="G171" s="41"/>
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="15" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
@@ -5609,11 +5760,43 @@
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="36" t="s">
-        <v>342</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="22"/>
+    </row>
+    <row r="181" ht="409.5" spans="3:7">
+      <c r="C181" s="37"/>
+      <c r="D181" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="E181" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="F181" s="37"/>
+      <c r="G181" s="30" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="182" ht="409.5" spans="3:7">
+      <c r="C182" s="39"/>
+      <c r="D182" s="38"/>
+      <c r="E182" s="38"/>
+      <c r="F182" s="39"/>
+      <c r="G182" s="30" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="51">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -5632,6 +5815,7 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B122:G122"/>
     <mergeCell ref="B123:G123"/>
+    <mergeCell ref="C140:D140"/>
     <mergeCell ref="B142:G142"/>
     <mergeCell ref="B143:G143"/>
     <mergeCell ref="B162:G162"/>
@@ -5639,6 +5823,7 @@
     <mergeCell ref="B165:G165"/>
     <mergeCell ref="B171:G171"/>
     <mergeCell ref="B172:G172"/>
+    <mergeCell ref="B180:G180"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
@@ -5650,22 +5835,18 @@
     <mergeCell ref="C124:C128"/>
     <mergeCell ref="C129:C130"/>
     <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="F106:F111"/>
-    <mergeCell ref="F112:F116"/>
-    <mergeCell ref="F117:F120"/>
-    <mergeCell ref="F124:F126"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="F135:F139"/>
-    <mergeCell ref="F140:F141"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
     <mergeCell ref="F144:F147"/>
     <mergeCell ref="F148:F151"/>
     <mergeCell ref="F152:F155"/>
     <mergeCell ref="F156:F159"/>
     <mergeCell ref="F160:F161"/>
     <mergeCell ref="F166:F170"/>
+    <mergeCell ref="F181:F182"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5692,7 +5873,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5700,24 +5881,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>345</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5742,10 +5923,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5753,7 +5934,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5761,7 +5942,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5769,7 +5950,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="357">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -1693,9 +1693,24 @@
   <si>
     <t>js:
 本来很快就能写出来!结果,被sort摆了一道,气死我了!!!
-g.sort()：按照字符串的Unicode码点顺序进行排序。因此结果可能并不是按数值的大小进行排序。
+1.g.sort()：按照字符串的Unicode码点顺序进行排序。因此结果可能并不是按数值的大小进行排序。
 g.sort((a, b) =&gt; a - b)：带有比较函数的排序方式，能够按照数值的大小对数组元素进行排序。
-    (a, b) =&gt; a - b 是一个比较函数，当 a - b 为负数时，a 会排在 b 之前，这就能保证数字按升序排列。</t>
+    (a, b) =&gt; a - b 是一个比较函数，当 a - b 为负数时，a 会排在 b 之前，这就能保证数字按升序排列。
+2.技巧: 使用一个for循环控制</t>
+  </si>
+  <si>
+    <t>376. 摆动序列</t>
+  </si>
+  <si>
+    <t>js:
+这个题三种情况难考虑全!!思路还没捋清楚..</t>
+  </si>
+  <si>
+    <t>53. 最大子数组和</t>
+  </si>
+  <si>
+    <t>js:
+常识不好想,需要累计经验,代码比较好写</t>
   </si>
   <si>
     <t>9.23总结:
@@ -3113,10 +3128,10 @@
   <sheetPr/>
   <dimension ref="A1:G182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G144" sqref="G144"/>
+      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -5466,7 +5481,7 @@
       <c r="F143" s="16"/>
       <c r="G143" s="22"/>
     </row>
-    <row r="144" ht="72" spans="2:7">
+    <row r="144" ht="84" spans="2:7">
       <c r="B144" s="9">
         <v>1</v>
       </c>
@@ -5484,25 +5499,41 @@
         <v>330</v>
       </c>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" ht="24" spans="2:7">
       <c r="B145" s="9">
         <v>2</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="12"/>
-      <c r="E145" s="19"/>
+      <c r="C145" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="E145" s="19">
+        <v>9.24</v>
+      </c>
       <c r="F145" s="28"/>
-      <c r="G145" s="12"/>
-    </row>
-    <row r="146" spans="2:7">
+      <c r="G145" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="146" ht="24" spans="2:7">
       <c r="B146" s="9">
         <v>3</v>
       </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="12"/>
-      <c r="E146" s="19"/>
+      <c r="C146" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E146" s="19">
+        <v>9.24</v>
+      </c>
       <c r="F146" s="28"/>
-      <c r="G146" s="12"/>
+      <c r="G146" s="12" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="147" spans="2:7">
       <c r="B147" s="9">
@@ -5656,7 +5687,7 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="31" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
@@ -5666,7 +5697,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5676,7 +5707,7 @@
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="15" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
@@ -5744,7 +5775,7 @@
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="15" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
@@ -5760,12 +5791,12 @@
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="36" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="2:7">
       <c r="B180" s="15" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
@@ -5776,14 +5807,14 @@
     <row r="181" ht="409.5" spans="3:7">
       <c r="C181" s="37"/>
       <c r="D181" s="38" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="E181" s="38" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F181" s="37"/>
       <c r="G181" s="30" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="182" ht="409.5" spans="3:7">
@@ -5792,7 +5823,7 @@
       <c r="E182" s="38"/>
       <c r="F182" s="39"/>
       <c r="G182" s="30" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
@@ -5873,7 +5904,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5881,24 +5912,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5923,10 +5954,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5934,7 +5965,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5942,7 +5973,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5950,7 +5981,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="365">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -1711,6 +1711,39 @@
   <si>
     <t>js:
 常识不好想,需要累计经验,代码比较好写</t>
+  </si>
+  <si>
+    <t>122. 买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>js:
+代码好写,就是思路,没有抽象得很干净
+本题中理解利润拆分是关键点！ 不要整块的去看，而是把整体利润拆为每天的利润。
+一旦想到这里了，很自然就会想到贪心了，即：只收集每天的正利润，最后稳稳的就是最大利润了。</t>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+  </si>
+  <si>
+    <t>js:
+有思路,写了半天模拟出来,发现贪心咋不行??原来是自己的贪心思路错了...
+贪心算法局部最优解：每次取最大跳跃步数（取最大覆盖范围），整体最优解：最后得到整体最大覆盖范围，看是否能到终点。</t>
+  </si>
+  <si>
+    <t>45. 跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>js:
+没有思路, 思路巧妙, 代码简洁, 抄的 :  以最小的步数增加最大的覆盖范围，直到覆盖范围覆盖了终点，这个范围内最少步数一定可以跳到，不用管具体是怎么跳的，不纠结于一步究竟跳一个单位还是两个单位</t>
+  </si>
+  <si>
+    <t>1005. K 次取反后最大化的数组和</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 自己写的. 天哪,好久没有自己oc一个题了,开心!
+方法二: 优化
+做完这个题不是很能感觉用到了贪心,实际上用了两次,要梳理思路,贪心的思路要有</t>
   </si>
   <si>
     <t>9.23总结:
@@ -3129,9 +3162,9 @@
   <dimension ref="A1:G182"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G146" sqref="G146"/>
+      <selection pane="bottomLeft" activeCell="G150" sqref="G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -5535,45 +5568,77 @@
         <v>334</v>
       </c>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" ht="60" spans="2:7">
       <c r="B147" s="9">
         <v>4</v>
       </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="12"/>
-      <c r="E147" s="19"/>
+      <c r="C147" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E147" s="19">
+        <v>9.24</v>
+      </c>
       <c r="F147" s="29"/>
-      <c r="G147" s="12"/>
-    </row>
-    <row r="148" spans="2:7">
+      <c r="G147" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="148" ht="36" spans="2:7">
       <c r="B148" s="9">
         <v>5</v>
       </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="12"/>
-      <c r="E148" s="19"/>
+      <c r="C148" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E148" s="19">
+        <v>9.25</v>
+      </c>
       <c r="F148" s="26"/>
-      <c r="G148" s="12"/>
-    </row>
-    <row r="149" spans="2:7">
+      <c r="G148" s="12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="149" ht="36" spans="2:7">
       <c r="B149" s="9">
         <v>6</v>
       </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="12"/>
-      <c r="E149" s="19"/>
+      <c r="C149" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E149" s="19">
+        <v>9.25</v>
+      </c>
       <c r="F149" s="28"/>
-      <c r="G149" s="12"/>
-    </row>
-    <row r="150" spans="2:7">
+      <c r="G149" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="150" ht="60" spans="2:7">
       <c r="B150" s="9">
         <v>7</v>
       </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="12"/>
-      <c r="E150" s="19"/>
+      <c r="C150" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E150" s="19">
+        <v>9.25</v>
+      </c>
       <c r="F150" s="28"/>
-      <c r="G150" s="12"/>
+      <c r="G150" s="12" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="151" spans="2:7">
       <c r="B151" s="9">
@@ -5687,7 +5752,7 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="31" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
@@ -5697,7 +5762,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5707,7 +5772,7 @@
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="15" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
@@ -5775,7 +5840,7 @@
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="15" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
@@ -5791,12 +5856,12 @@
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="36" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="180" spans="2:7">
       <c r="B180" s="15" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
@@ -5807,14 +5872,14 @@
     <row r="181" ht="409.5" spans="3:7">
       <c r="C181" s="37"/>
       <c r="D181" s="38" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E181" s="38" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="F181" s="37"/>
       <c r="G181" s="30" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="182" ht="409.5" spans="3:7">
@@ -5823,7 +5888,7 @@
       <c r="E182" s="38"/>
       <c r="F182" s="39"/>
       <c r="G182" s="30" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5904,7 +5969,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5912,24 +5977,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -5954,10 +6019,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5965,7 +6030,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -5973,7 +6038,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -5981,7 +6046,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="370">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -1744,6 +1744,24 @@
 方法一: 自己写的. 天哪,好久没有自己oc一个题了,开心!
 方法二: 优化
 做完这个题不是很能感觉用到了贪心,实际上用了两次,要梳理思路,贪心的思路要有</t>
+  </si>
+  <si>
+    <t>134. 加油站</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 暴力,思路是对的,但是写不正确,总是乱七八糟的..
+for循环适合模拟从头到尾的遍历，而while循环适合模拟环形遍历，要善于使用while！
+方法二: 贪心,思路好巧妙,看懂后抄的</t>
+  </si>
+  <si>
+    <t>135. 分发糖果</t>
+  </si>
+  <si>
+    <t>js:
+有一点点思路,但不完全,正解思路好巧妙!!!
+确定右孩子大于左孩子要从前往后遍历, 确定左孩子大于右孩子的情况一定要从后向前遍历！
+1.给数组全部填充1: const candyVec = new Array(ratings.length).fill(1);</t>
   </si>
   <si>
     <t>9.23总结:
@@ -1933,6 +1951,17 @@
 无头模式（Headless Mode）指的是运行浏览器时不显示图形界面的模式。它可以执行浏览器操作（如加载页面、执行JavaScript等），但不会在屏幕上显示出来。无头模式通常用于自动化测试、网络爬虫、CI/CD等场景，因为它更轻量、速度更快。
 在你的测试场景中，使用无头模式（如ChromeHeadless）可以通过Puppeteer控制浏览器来运行测试，而无需打开真实的浏览器窗口。
 21.同步任务按照顺序逐一执行，而异步任务在等待某些操作完成的同时，可以继续执行其他任务，不阻塞主线程</t>
+  </si>
+  <si>
+    <t>华为面试官给的机考辅导
+ACM 模式刷题网站：
+1. 牛客：
+https://www.nowcoder.com/exam/oj/ta?tpId=37
+2.CSDN
+https://blog.csdn.net/DoSmall/article/details/125400942
+https://blog.csdn.net/wuhsujun/article/details/128023337
+3.
+https://mp.weixin.qq.com/s/GOOgO5Wp48jM9jSPzqJwOQ</t>
   </si>
   <si>
     <t>已有书籍</t>
@@ -2814,7 +2843,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2835,7 +2864,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3159,12 +3188,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G150" sqref="G150"/>
+      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -5527,7 +5556,7 @@
       <c r="E144" s="19">
         <v>9.23</v>
       </c>
-      <c r="F144" s="26"/>
+      <c r="F144" s="30"/>
       <c r="G144" s="12" t="s">
         <v>330</v>
       </c>
@@ -5545,7 +5574,7 @@
       <c r="E145" s="19">
         <v>9.24</v>
       </c>
-      <c r="F145" s="28"/>
+      <c r="F145" s="30"/>
       <c r="G145" s="12" t="s">
         <v>332</v>
       </c>
@@ -5563,7 +5592,7 @@
       <c r="E146" s="19">
         <v>9.24</v>
       </c>
-      <c r="F146" s="28"/>
+      <c r="F146" s="30"/>
       <c r="G146" s="12" t="s">
         <v>334</v>
       </c>
@@ -5581,7 +5610,7 @@
       <c r="E147" s="19">
         <v>9.24</v>
       </c>
-      <c r="F147" s="29"/>
+      <c r="F147" s="30"/>
       <c r="G147" s="12" t="s">
         <v>336</v>
       </c>
@@ -5599,7 +5628,7 @@
       <c r="E148" s="19">
         <v>9.25</v>
       </c>
-      <c r="F148" s="26"/>
+      <c r="F148" s="30"/>
       <c r="G148" s="12" t="s">
         <v>338</v>
       </c>
@@ -5617,7 +5646,7 @@
       <c r="E149" s="19">
         <v>9.25</v>
       </c>
-      <c r="F149" s="28"/>
+      <c r="F149" s="30"/>
       <c r="G149" s="12" t="s">
         <v>340</v>
       </c>
@@ -5635,30 +5664,46 @@
       <c r="E150" s="19">
         <v>9.25</v>
       </c>
-      <c r="F150" s="28"/>
+      <c r="F150" s="30"/>
       <c r="G150" s="12" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" ht="48" spans="2:7">
       <c r="B151" s="9">
         <v>8</v>
       </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="12"/>
-      <c r="E151" s="19"/>
-      <c r="F151" s="29"/>
-      <c r="G151" s="12"/>
-    </row>
-    <row r="152" spans="2:7">
+      <c r="C151" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="E151" s="19">
+        <v>9.25</v>
+      </c>
+      <c r="F151" s="30"/>
+      <c r="G151" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="152" ht="60" spans="2:7">
       <c r="B152" s="9">
         <v>9</v>
       </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="12"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="12"/>
+      <c r="C152" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D152" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="E152" s="19">
+        <v>9.26</v>
+      </c>
+      <c r="F152" s="30"/>
+      <c r="G152" s="12" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="153" spans="2:7">
       <c r="B153" s="9">
@@ -5667,7 +5712,7 @@
       <c r="C153" s="10"/>
       <c r="D153" s="12"/>
       <c r="E153" s="19"/>
-      <c r="F153" s="28"/>
+      <c r="F153" s="30"/>
       <c r="G153" s="12"/>
     </row>
     <row r="154" spans="2:7">
@@ -5677,7 +5722,7 @@
       <c r="C154" s="10"/>
       <c r="D154" s="12"/>
       <c r="E154" s="19"/>
-      <c r="F154" s="28"/>
+      <c r="F154" s="30"/>
       <c r="G154" s="12"/>
     </row>
     <row r="155" spans="2:7">
@@ -5687,7 +5732,7 @@
       <c r="C155" s="10"/>
       <c r="D155" s="12"/>
       <c r="E155" s="19"/>
-      <c r="F155" s="29"/>
+      <c r="F155" s="30"/>
       <c r="G155" s="12"/>
     </row>
     <row r="156" spans="2:7">
@@ -5697,7 +5742,7 @@
       <c r="C156" s="10"/>
       <c r="D156" s="12"/>
       <c r="E156" s="19"/>
-      <c r="F156" s="26"/>
+      <c r="F156" s="30"/>
       <c r="G156" s="12"/>
     </row>
     <row r="157" spans="2:7">
@@ -5707,7 +5752,7 @@
       <c r="C157" s="10"/>
       <c r="D157" s="12"/>
       <c r="E157" s="19"/>
-      <c r="F157" s="28"/>
+      <c r="F157" s="30"/>
       <c r="G157" s="12"/>
     </row>
     <row r="158" spans="2:7">
@@ -5717,7 +5762,7 @@
       <c r="C158" s="10"/>
       <c r="D158" s="12"/>
       <c r="E158" s="19"/>
-      <c r="F158" s="28"/>
+      <c r="F158" s="30"/>
       <c r="G158" s="12"/>
     </row>
     <row r="159" spans="2:7">
@@ -5727,7 +5772,7 @@
       <c r="C159" s="10"/>
       <c r="D159" s="12"/>
       <c r="E159" s="19"/>
-      <c r="F159" s="29"/>
+      <c r="F159" s="30"/>
       <c r="G159" s="12"/>
     </row>
     <row r="160" spans="2:7">
@@ -5737,7 +5782,7 @@
       <c r="C160" s="10"/>
       <c r="D160" s="12"/>
       <c r="E160" s="19"/>
-      <c r="F160" s="26"/>
+      <c r="F160" s="30"/>
       <c r="G160" s="12"/>
     </row>
     <row r="161" spans="2:7">
@@ -5747,12 +5792,12 @@
       <c r="C161" s="10"/>
       <c r="D161" s="12"/>
       <c r="E161" s="19"/>
-      <c r="F161" s="29"/>
+      <c r="F161" s="30"/>
       <c r="G161" s="12"/>
     </row>
-    <row r="162" spans="2:7">
-      <c r="B162" s="31" t="s">
-        <v>343</v>
+    <row r="162" ht="93" customHeight="1" spans="2:7">
+      <c r="B162" s="13" t="s">
+        <v>347</v>
       </c>
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
@@ -5762,7 +5807,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5772,7 +5817,7 @@
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="15" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
@@ -5840,7 +5885,7 @@
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="15" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
@@ -5856,12 +5901,12 @@
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="36" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="180" spans="2:7">
       <c r="B180" s="15" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
@@ -5872,14 +5917,14 @@
     <row r="181" ht="409.5" spans="3:7">
       <c r="C181" s="37"/>
       <c r="D181" s="38" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E181" s="38" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="F181" s="37"/>
       <c r="G181" s="30" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="182" ht="409.5" spans="3:7">
@@ -5888,11 +5933,16 @@
       <c r="E182" s="38"/>
       <c r="F182" s="39"/>
       <c r="G182" s="30" t="s">
-        <v>352</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="184" ht="192" spans="3:3">
+      <c r="C184" s="5" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="46">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -5936,11 +5986,6 @@
     <mergeCell ref="C181:C182"/>
     <mergeCell ref="D181:D182"/>
     <mergeCell ref="E181:E182"/>
-    <mergeCell ref="F144:F147"/>
-    <mergeCell ref="F148:F151"/>
-    <mergeCell ref="F152:F155"/>
-    <mergeCell ref="F156:F159"/>
-    <mergeCell ref="F160:F161"/>
     <mergeCell ref="F166:F170"/>
     <mergeCell ref="F181:F182"/>
     <mergeCell ref="G4:G8"/>
@@ -5969,7 +6014,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5977,24 +6022,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6019,10 +6064,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6030,7 +6075,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6038,7 +6083,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6046,7 +6091,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="376">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -1762,6 +1762,42 @@
 有一点点思路,但不完全,正解思路好巧妙!!!
 确定右孩子大于左孩子要从前往后遍历, 确定左孩子大于右孩子的情况一定要从后向前遍历！
 1.给数组全部填充1: const candyVec = new Array(ratings.length).fill(1);</t>
+  </si>
+  <si>
+    <t>860. 柠檬水找零</t>
+  </si>
+  <si>
+    <t>js:
+逻辑分析错了, 没必要用数组， 数字即可， 可优化</t>
+  </si>
+  <si>
+    <t>406. 根据身高重建队列</t>
+  </si>
+  <si>
+    <t>js:
+学习思路, 有了思路也不太好写..
+1.二维数组排序:
+people.sort((a, b) =&gt; {
+        if(b[0] !== a[0]) {
+            return (b[0] - a[0]);
+        }else {
+            return (a[1] - b[1]);
+        }
+    })
+2.Array.prototype.splice(): splice() 方法就地移除或者替换已存在的元素和/或添加新的元素
+let arr = [0, 1, 2, 3, 4, 5];
+arr.splice(1, 0, "A"); // [0, 'A', 1, 2, 3, 4, 5]
+arr.splice(1, 1, "A"); // [ 0, 'A', 2, 3, 4, 5 ]
+arr.splice(1, 2, "A"); // [ 0, 'A', 3, 4, 5 ]</t>
+  </si>
+  <si>
+    <t>452. 用最少数量的箭引爆气球</t>
+  </si>
+  <si>
+    <t>js:
+思路没想全,但还比较好写
+1.如何模拟气球射爆的过程呢？是在数组中移除元素还是做标记呢? 
+思路: 如果把气球排序之后，从前到后遍历气球，被射过的气球仅仅跳过就行了，没有必要让气球数组remove气球，只要记录一下箭的数量就可以了</t>
   </si>
   <si>
     <t>9.23总结:
@@ -1950,7 +1986,10 @@
 20.在配置中的browsers: ['ChromeHeadless'],什么是无头模式:
 无头模式（Headless Mode）指的是运行浏览器时不显示图形界面的模式。它可以执行浏览器操作（如加载页面、执行JavaScript等），但不会在屏幕上显示出来。无头模式通常用于自动化测试、网络爬虫、CI/CD等场景，因为它更轻量、速度更快。
 在你的测试场景中，使用无头模式（如ChromeHeadless）可以通过Puppeteer控制浏览器来运行测试，而无需打开真实的浏览器窗口。
-21.同步任务按照顺序逐一执行，而异步任务在等待某些操作完成的同时，可以继续执行其他任务，不阻塞主线程</t>
+21.同步任务按照顺序逐一执行，而异步任务在等待某些操作完成的同时，可以继续执行其他任务，不阻塞主线程
+22.npx和npm的区别:
+npm：用于管理 Node.js 包，可以用来安装、更新、卸载依赖包，以及执行项目中的脚本。常用命令包括 npm install、npm update 和 npm run。
+npx：用于执行在 node_modules 中的可执行包，而不需要全局安装它们。它可以直接运行在本地项目依赖中定义的命令。例如，使用 npx create-react-app my-app 可以直接创建一个新的 React 应用，而无需提前全局安装 create-react-app。</t>
   </si>
   <si>
     <t>华为面试官给的机考辅导
@@ -3191,9 +3230,9 @@
   <dimension ref="A1:G184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A150" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D157" sqref="D157"/>
+      <selection pane="bottomLeft" activeCell="G155" sqref="G155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -5705,35 +5744,59 @@
         <v>346</v>
       </c>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" ht="24" spans="2:7">
       <c r="B153" s="9">
         <v>10</v>
       </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="12"/>
-      <c r="E153" s="19"/>
+      <c r="C153" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D153" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="E153" s="19">
+        <v>9.26</v>
+      </c>
       <c r="F153" s="30"/>
-      <c r="G153" s="12"/>
-    </row>
-    <row r="154" spans="2:7">
+      <c r="G153" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="154" ht="204" spans="2:7">
       <c r="B154" s="9">
         <v>11</v>
       </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="19"/>
+      <c r="C154" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D154" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E154" s="19">
+        <v>9.27</v>
+      </c>
       <c r="F154" s="30"/>
-      <c r="G154" s="12"/>
-    </row>
-    <row r="155" spans="2:7">
+      <c r="G154" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="155" ht="60" spans="2:7">
       <c r="B155" s="9">
         <v>12</v>
       </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="12"/>
-      <c r="E155" s="19"/>
+      <c r="C155" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D155" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E155" s="19">
+        <v>9.27</v>
+      </c>
       <c r="F155" s="30"/>
-      <c r="G155" s="12"/>
+      <c r="G155" s="12" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="156" spans="2:7">
       <c r="B156" s="9">
@@ -5797,7 +5860,7 @@
     </row>
     <row r="162" ht="93" customHeight="1" spans="2:7">
       <c r="B162" s="13" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C162" s="33"/>
       <c r="D162" s="33"/>
@@ -5807,7 +5870,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="15" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
@@ -5817,7 +5880,7 @@
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="15" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
@@ -5885,7 +5948,7 @@
     </row>
     <row r="172" spans="2:7">
       <c r="B172" s="15" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
@@ -5901,12 +5964,12 @@
     </row>
     <row r="176" spans="3:3">
       <c r="C176" s="36" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="180" spans="2:7">
       <c r="B180" s="15" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
@@ -5917,14 +5980,14 @@
     <row r="181" ht="409.5" spans="3:7">
       <c r="C181" s="37"/>
       <c r="D181" s="38" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="E181" s="38" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="F181" s="37"/>
       <c r="G181" s="30" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="182" ht="409.5" spans="3:7">
@@ -5933,12 +5996,12 @@
       <c r="E182" s="38"/>
       <c r="F182" s="39"/>
       <c r="G182" s="30" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="184" ht="192" spans="3:3">
       <c r="C184" s="5" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -6014,7 +6077,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6022,24 +6085,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6064,10 +6127,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6075,7 +6138,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6083,7 +6146,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6091,7 +6154,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="391">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -1852,8 +1852,40 @@
     <t>动态规划52</t>
   </si>
   <si>
+    <t xml:space="preserve"> 509. 斐波那契数</t>
+  </si>
+  <si>
+    <t>js:
+方法一:递归思路,顺利
+方法二:动态规划五步:
+1.确定dp数组以及下标含义: dp[i]的含义:第i个数的菲波那契值是dp[i]
+2.确定递推公式: dp[i] = dp[i - 1] + dp[i - 2]
+3.dp数组如何初始化: dp[0] = 0, dp[1] = 1
+4.确定遍历顺序: dp[i]是依赖 dp[i - 1] 和 dp[i - 2]，那么遍历的顺序一定是从前到后遍历的
+5. 举例推导dp数组: 按照这个递推公式dp[i] = dp[i - 1] + dp[i - 2]，我们来推导一下，当N为10的时候，dp数组应该是如下的数列：
+0 1 1 2 3 5 8 13 21 34 55
+如果代码写出来，发现结果不对，就把dp数组打印出来看看和我们推导的数列是不是一致的。</t>
+  </si>
+  <si>
+    <t>70. 爬楼梯</t>
+  </si>
+  <si>
+    <t>js:
+先看思路,再自己写出来的
+1.确定dp数组及其下标的含义; 2.确定递推公式; 3.dp数组如何初始化; 4.确定遍历顺序; 5.举例推导dp数组</t>
+  </si>
+  <si>
     <t>总结:
-1.什么是动态规划:如果某一问题有很多重叠子问题，使用动态规划是最有效的。</t>
+1.理解动态规划:  动态规划中每一个状态一定是由上一个状态推导出来的，如果某一问题有很多重叠子问题，使用动态规划是最有效的
+2. 区分于贪心，贪心没有状态推导，而是从局部直接选最优的
+3.解题步骤:    
+    确定dp数组（dp table）以及下标的含义
+    确定递推公式
+    dp数组如何初始化
+    确定遍历顺序
+    举例推导dp数组
+4.如何debug:
+找问题的最好方式就是把dp数组打印出来，看看究竟是不是按照自己思路推导的！</t>
   </si>
   <si>
     <t>单调栈5</t>
@@ -3265,10 +3297,10 @@
   <sheetPr/>
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B184" sqref="B184:G184"/>
+      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -5954,24 +5986,46 @@
       <c r="F163" s="16"/>
       <c r="G163" s="22"/>
     </row>
-    <row r="164" spans="2:7">
-      <c r="B164" s="32"/>
-      <c r="C164" s="33"/>
-      <c r="D164" s="34"/>
-      <c r="E164" s="37"/>
+    <row r="164" ht="120" spans="2:7">
+      <c r="B164" s="32">
+        <v>1</v>
+      </c>
+      <c r="C164" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="D164" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="E164" s="37">
+        <v>10.7</v>
+      </c>
       <c r="F164" s="37"/>
-      <c r="G164" s="34"/>
-    </row>
-    <row r="165" spans="2:7">
-      <c r="B165" s="32"/>
-      <c r="C165" s="33"/>
-      <c r="D165" s="34"/>
-      <c r="E165" s="37"/>
+      <c r="G164" s="34" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="165" ht="36" spans="2:7">
+      <c r="B165" s="32">
+        <v>2</v>
+      </c>
+      <c r="C165" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="E165" s="37">
+        <v>10.8</v>
+      </c>
       <c r="F165" s="37"/>
-      <c r="G165" s="34"/>
+      <c r="G165" s="34" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="32"/>
+      <c r="B166" s="32">
+        <v>3</v>
+      </c>
       <c r="C166" s="33"/>
       <c r="D166" s="34"/>
       <c r="E166" s="37"/>
@@ -5979,7 +6033,9 @@
       <c r="G166" s="34"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="32"/>
+      <c r="B167" s="32">
+        <v>4</v>
+      </c>
       <c r="C167" s="33"/>
       <c r="D167" s="34"/>
       <c r="E167" s="37"/>
@@ -5987,7 +6043,9 @@
       <c r="G167" s="34"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="32"/>
+      <c r="B168" s="32">
+        <v>5</v>
+      </c>
       <c r="C168" s="33"/>
       <c r="D168" s="34"/>
       <c r="E168" s="37"/>
@@ -5995,7 +6053,9 @@
       <c r="G168" s="34"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="32"/>
+      <c r="B169" s="32">
+        <v>6</v>
+      </c>
       <c r="C169" s="33"/>
       <c r="D169" s="34"/>
       <c r="E169" s="37"/>
@@ -6116,7 +6176,7 @@
     </row>
     <row r="184" ht="90" customHeight="1" spans="2:7">
       <c r="B184" s="13" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
@@ -6126,7 +6186,7 @@
     </row>
     <row r="185" spans="2:7">
       <c r="B185" s="15" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
@@ -6194,7 +6254,7 @@
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="15" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -6210,12 +6270,12 @@
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="39" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="15" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -6226,14 +6286,14 @@
     <row r="201" ht="409.5" spans="3:7">
       <c r="C201" s="26"/>
       <c r="D201" s="10" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F201" s="26"/>
       <c r="G201" s="12" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="202" ht="409.5" spans="3:7">
@@ -6242,12 +6302,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="29"/>
       <c r="G202" s="12" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="204" ht="192" spans="3:3">
       <c r="C204" s="5" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -6324,7 +6384,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6332,24 +6392,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6374,10 +6434,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6385,7 +6445,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6393,7 +6453,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6401,7 +6461,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15780" windowHeight="12495"/>
+    <workbookView windowWidth="15075" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="403">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -1873,6 +1873,76 @@
     <t>js:
 先看思路,再自己写出来的
 1.确定dp数组及其下标的含义; 2.确定递推公式; 3.dp数组如何初始化; 4.确定遍历顺序; 5.举例推导dp数组</t>
+  </si>
+  <si>
+    <t>746. 使用最小花费爬楼梯</t>
+  </si>
+  <si>
+    <t>js:
+每一步都稍微有点点问题, 总体比较顺利</t>
+  </si>
+  <si>
+    <t>62. 不同路径</t>
+  </si>
+  <si>
+    <t>js:
+深搜思路没看, 还不会计算复杂度
+1.// 使用new Array创建二维数组
+    let dp = new Array(m);
+    for(let i = 0; i &lt; m; i++) {
+        dp[i] = new Array(n).fill(0);
+    }
+2.方法二创建二维数组:const dp = Array(m).fill().map(item =&gt; Array(n))
+fill() 方法用一个固定值填充一个数组中从起始索引（默认为 0）到终止索引（默认为 array.length）内的全部元素。它返回修改后的数组。
+Array.prototype.map(): map() 方法创建一个新数组，这个新数组由原数组中的每个元素都调用一次提供的函数后的返回值组成。
+为什么中间一定要有fill: 因为Array(3) 仅仅创建了一个长度为 3 的数组，但该数组中的元素是空的（empty slots），并没有实际的值（即 undefined 也没有）。所以当你直接使用 .map() 时，它无法对这些空位置进行操作，因为 map() 只对实际存在的元素有效。</t>
+  </si>
+  <si>
+    <t>63. 不同路径 II</t>
+  </si>
+  <si>
+    <t>js:
+初始化思路没想完全,其他比较顺利</t>
+  </si>
+  <si>
+    <t>343. 整数拆分</t>
+  </si>
+  <si>
+    <t>js:
+抄的, 递推公式难
+拆分一个数n 使之乘积最大，那么一定是拆分成m个近似相同的子数相乘才是最大的。那么 j 遍历，只需要遍历到 n/2 就可以，后面就没有必要遍历了，一定不是最大值。</t>
+  </si>
+  <si>
+    <t>96. 不同的二叉搜索树</t>
+  </si>
+  <si>
+    <t>js:
+思路没完全搞清楚, 抄的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01背包理论基础-卡码网 46. 携带研究材料（第六期模拟笔试） </t>
+  </si>
+  <si>
+    <t>js:
+面试的话，其实掌握01背包和完全背包，就够用了
+1.使用Array.from创建二位数组:
+let dp = Array.from({ length: m }, () =&gt; Array(bagVolumn + 1).fill(0));
+语法解释:
+ // 生成一个数字序列。因为数组在每个位置都使用 `undefined` 初始化，下面的 `v` 值将是 `undefined`
+Array.from({ length: 5 }, (v, i) =&gt; i);
+// [0, 1, 2, 3, 4]
+2.标准输入输出:
+const readline = require('readline').createInterface({
+    input: process.stdin,
+    output: process.stdout
+});
+let input = [];
+readline.on('line', (line) =&gt; {
+    input.push(line);
+});
+readline.on('close', () =&gt; {
+})
+3.Linux/macOS 上手动输入结束符：按 Ctrl + D。</t>
   </si>
   <si>
     <t>总结:
@@ -3297,10 +3367,10 @@
   <sheetPr/>
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G165" sqref="G165"/>
+      <selection pane="bottomLeft" activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -6022,64 +6092,118 @@
         <v>368</v>
       </c>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" ht="24" spans="2:7">
       <c r="B166" s="32">
         <v>3</v>
       </c>
-      <c r="C166" s="33"/>
-      <c r="D166" s="34"/>
-      <c r="E166" s="37"/>
+      <c r="C166" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="D166" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="E166" s="37">
+        <v>10.8</v>
+      </c>
       <c r="F166" s="37"/>
-      <c r="G166" s="34"/>
-    </row>
-    <row r="167" spans="2:7">
+      <c r="G166" s="34" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="167" ht="156" spans="2:7">
       <c r="B167" s="32">
         <v>4</v>
       </c>
-      <c r="C167" s="33"/>
-      <c r="D167" s="34"/>
-      <c r="E167" s="37"/>
+      <c r="C167" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="D167" s="34" t="s">
+        <v>371</v>
+      </c>
+      <c r="E167" s="37">
+        <v>10.8</v>
+      </c>
       <c r="F167" s="37"/>
-      <c r="G167" s="34"/>
-    </row>
-    <row r="168" spans="2:7">
+      <c r="G167" s="34" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="168" ht="24" spans="2:7">
       <c r="B168" s="32">
         <v>5</v>
       </c>
-      <c r="C168" s="33"/>
-      <c r="D168" s="34"/>
-      <c r="E168" s="37"/>
+      <c r="C168" s="33" t="s">
+        <v>373</v>
+      </c>
+      <c r="D168" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="E168" s="37">
+        <v>10.8</v>
+      </c>
       <c r="F168" s="37"/>
-      <c r="G168" s="34"/>
-    </row>
-    <row r="169" spans="2:7">
+      <c r="G168" s="34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="169" ht="48" spans="2:7">
       <c r="B169" s="32">
         <v>6</v>
       </c>
-      <c r="C169" s="33"/>
-      <c r="D169" s="34"/>
-      <c r="E169" s="37"/>
+      <c r="C169" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="D169" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="E169" s="37">
+        <v>10.8</v>
+      </c>
       <c r="F169" s="37"/>
-      <c r="G169" s="34"/>
-    </row>
-    <row r="170" spans="2:7">
-      <c r="B170" s="32"/>
-      <c r="C170" s="33"/>
-      <c r="D170" s="34"/>
-      <c r="E170" s="37"/>
+      <c r="G169" s="34" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="170" ht="24" spans="2:7">
+      <c r="B170" s="32">
+        <v>7</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="E170" s="37">
+        <v>10.8</v>
+      </c>
       <c r="F170" s="37"/>
-      <c r="G170" s="34"/>
-    </row>
-    <row r="171" spans="2:7">
-      <c r="B171" s="32"/>
-      <c r="C171" s="33"/>
-      <c r="D171" s="34"/>
-      <c r="E171" s="37"/>
+      <c r="G170" s="34" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="171" ht="300" spans="2:7">
+      <c r="B171" s="32">
+        <v>8</v>
+      </c>
+      <c r="C171" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="E171" s="37">
+        <v>10.1</v>
+      </c>
       <c r="F171" s="37"/>
-      <c r="G171" s="34"/>
+      <c r="G171" s="34" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="32"/>
+      <c r="B172" s="32">
+        <v>9</v>
+      </c>
       <c r="C172" s="33"/>
       <c r="D172" s="34"/>
       <c r="E172" s="37"/>
@@ -6176,7 +6300,7 @@
     </row>
     <row r="184" ht="90" customHeight="1" spans="2:7">
       <c r="B184" s="13" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
@@ -6186,7 +6310,7 @@
     </row>
     <row r="185" spans="2:7">
       <c r="B185" s="15" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
@@ -6254,7 +6378,7 @@
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="15" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -6270,12 +6394,12 @@
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="39" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="15" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -6286,14 +6410,14 @@
     <row r="201" ht="409.5" spans="3:7">
       <c r="C201" s="26"/>
       <c r="D201" s="10" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F201" s="26"/>
       <c r="G201" s="12" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="202" ht="409.5" spans="3:7">
@@ -6302,12 +6426,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="29"/>
       <c r="G202" s="12" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="204" ht="192" spans="3:3">
       <c r="C204" s="5" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -6384,7 +6508,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6392,24 +6516,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6434,10 +6558,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6445,7 +6569,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6453,7 +6577,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6461,7 +6585,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="406">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -1923,8 +1923,12 @@
     <t xml:space="preserve">01背包理论基础-卡码网 46. 携带研究材料（第六期模拟笔试） </t>
   </si>
   <si>
+    <t>10.10</t>
+  </si>
+  <si>
     <t>js:
 面试的话，其实掌握01背包和完全背包，就够用了
+滚动数组的方法看了,没有列举,不算完全看懂了
 1.使用Array.from创建二位数组:
 let dp = Array.from({ length: m }, () =&gt; Array(bagVolumn + 1).fill(0));
 语法解释:
@@ -1943,6 +1947,14 @@
 readline.on('close', () =&gt; {
 })
 3.Linux/macOS 上手动输入结束符：按 Ctrl + D。</t>
+  </si>
+  <si>
+    <t>416. 分割等和子集</t>
+  </si>
+  <si>
+    <t>回溯法不是很清楚..
+js:
+抄的,看懂一部分</t>
   </si>
   <si>
     <t>总结:
@@ -2925,7 +2937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3038,6 +3050,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3368,9 +3383,9 @@
   <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G175" sqref="G175"/>
+      <selection pane="bottomLeft" activeCell="B171" sqref="B171:B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -6182,7 +6197,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="171" ht="300" spans="2:7">
+    <row r="171" ht="312" spans="2:7">
       <c r="B171" s="32">
         <v>8</v>
       </c>
@@ -6192,26 +6207,36 @@
       <c r="D171" s="34" t="s">
         <v>379</v>
       </c>
-      <c r="E171" s="37">
-        <v>10.1</v>
+      <c r="E171" s="38" t="s">
+        <v>380</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="34" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="172" ht="36" spans="2:7">
       <c r="B172" s="32">
         <v>9</v>
       </c>
-      <c r="C172" s="33"/>
-      <c r="D172" s="34"/>
-      <c r="E172" s="37"/>
+      <c r="C172" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="D172" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="E172" s="38" t="s">
+        <v>380</v>
+      </c>
       <c r="F172" s="37"/>
-      <c r="G172" s="34"/>
+      <c r="G172" s="34" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="32"/>
+      <c r="B173" s="32">
+        <v>10</v>
+      </c>
       <c r="C173" s="33"/>
       <c r="D173" s="34"/>
       <c r="E173" s="37"/>
@@ -6300,7 +6325,7 @@
     </row>
     <row r="184" ht="90" customHeight="1" spans="2:7">
       <c r="B184" s="13" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
@@ -6310,7 +6335,7 @@
     </row>
     <row r="185" spans="2:7">
       <c r="B185" s="15" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
@@ -6374,11 +6399,11 @@
       <c r="D191" s="36"/>
       <c r="E191" s="36"/>
       <c r="F191" s="36"/>
-      <c r="G191" s="38"/>
+      <c r="G191" s="39"/>
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="15" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -6393,13 +6418,13 @@
       </c>
     </row>
     <row r="196" spans="3:3">
-      <c r="C196" s="39" t="s">
-        <v>384</v>
+      <c r="C196" s="40" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -6410,14 +6435,14 @@
     <row r="201" ht="409.5" spans="3:7">
       <c r="C201" s="26"/>
       <c r="D201" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F201" s="26"/>
       <c r="G201" s="12" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="202" ht="409.5" spans="3:7">
@@ -6426,12 +6451,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="29"/>
       <c r="G202" s="12" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="204" ht="192" spans="3:3">
       <c r="C204" s="5" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -6508,7 +6533,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6516,24 +6541,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6558,10 +6583,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6569,7 +6594,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6577,7 +6602,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6585,7 +6610,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="409">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -1923,12 +1923,12 @@
     <t xml:space="preserve">01背包理论基础-卡码网 46. 携带研究材料（第六期模拟笔试） </t>
   </si>
   <si>
-    <t>10.10</t>
+    <t>10.10,10.11</t>
   </si>
   <si>
     <t>js:
 面试的话，其实掌握01背包和完全背包，就够用了
-滚动数组的方法看了,没有列举,不算完全看懂了
+滚动数组的方法看懂了
 1.使用Array.from创建二位数组:
 let dp = Array.from({ length: m }, () =&gt; Array(bagVolumn + 1).fill(0));
 语法解释:
@@ -1952,9 +1952,18 @@
     <t>416. 分割等和子集</t>
   </si>
   <si>
+    <t>10.10</t>
+  </si>
+  <si>
     <t>回溯法不是很清楚..
 js:
 抄的,看懂一部分</t>
+  </si>
+  <si>
+    <t>1049. 最后一块石头的重量 II</t>
+  </si>
+  <si>
+    <t>js:</t>
   </si>
   <si>
     <t>总结:
@@ -3382,10 +3391,10 @@
   <sheetPr/>
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B171" sqref="B171:B173"/>
+      <selection pane="bottomLeft" activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -6226,22 +6235,30 @@
         <v>382</v>
       </c>
       <c r="E172" s="38" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="34" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="173" ht="24" spans="2:7">
       <c r="B173" s="32">
         <v>10</v>
       </c>
-      <c r="C173" s="33"/>
-      <c r="D173" s="34"/>
-      <c r="E173" s="37"/>
+      <c r="C173" s="33" t="s">
+        <v>385</v>
+      </c>
+      <c r="D173" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="E173" s="37">
+        <v>10.11</v>
+      </c>
       <c r="F173" s="37"/>
-      <c r="G173" s="34"/>
+      <c r="G173" s="34" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="174" spans="2:7">
       <c r="B174" s="32"/>
@@ -6325,7 +6342,7 @@
     </row>
     <row r="184" ht="90" customHeight="1" spans="2:7">
       <c r="B184" s="13" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
@@ -6335,7 +6352,7 @@
     </row>
     <row r="185" spans="2:7">
       <c r="B185" s="15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
@@ -6403,7 +6420,7 @@
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="15" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -6419,12 +6436,12 @@
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="40" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="15" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -6435,14 +6452,14 @@
     <row r="201" ht="409.5" spans="3:7">
       <c r="C201" s="26"/>
       <c r="D201" s="10" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F201" s="26"/>
       <c r="G201" s="12" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="202" ht="409.5" spans="3:7">
@@ -6451,12 +6468,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="29"/>
       <c r="G202" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="204" ht="192" spans="3:3">
       <c r="C204" s="5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6533,7 +6550,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6541,24 +6558,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6583,10 +6600,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6594,7 +6611,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6602,7 +6619,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6610,7 +6627,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="411">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -1963,7 +1963,11 @@
     <t>1049. 最后一块石头的重量 II</t>
   </si>
   <si>
-    <t>js:</t>
+    <t>js:
+抄的,对转换成01背包,在思想上还没完全想清楚, 套路知道了,还没具体看明白</t>
+  </si>
+  <si>
+    <t>494. 目标和</t>
   </si>
   <si>
     <t>总结:
@@ -1980,6 +1984,9 @@
   </si>
   <si>
     <t>单调栈5</t>
+  </si>
+  <si>
+    <t>739. 每日温度</t>
   </si>
   <si>
     <t>图论30</t>
@@ -3391,10 +3398,10 @@
   <sheetPr/>
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A171" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G173" sqref="G173"/>
+      <selection pane="bottomLeft" activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -6261,10 +6268,18 @@
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="32"/>
-      <c r="C174" s="33"/>
-      <c r="D174" s="34"/>
-      <c r="E174" s="37"/>
+      <c r="B174" s="32">
+        <v>11</v>
+      </c>
+      <c r="C174" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="D174" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="E174" s="37">
+        <v>10.11</v>
+      </c>
       <c r="F174" s="37"/>
       <c r="G174" s="34"/>
     </row>
@@ -6342,7 +6357,7 @@
     </row>
     <row r="184" ht="90" customHeight="1" spans="2:7">
       <c r="B184" s="13" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C184" s="14"/>
       <c r="D184" s="14"/>
@@ -6352,7 +6367,7 @@
     </row>
     <row r="185" spans="2:7">
       <c r="B185" s="15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
@@ -6364,9 +6379,15 @@
       <c r="B186" s="9">
         <v>1</v>
       </c>
-      <c r="C186" s="10"/>
-      <c r="D186" s="12"/>
-      <c r="E186" s="19"/>
+      <c r="C186" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E186" s="19">
+        <v>10.11</v>
+      </c>
       <c r="F186" s="26"/>
       <c r="G186" s="12"/>
     </row>
@@ -6420,7 +6441,7 @@
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="15" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -6436,12 +6457,12 @@
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="40" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="15" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -6452,14 +6473,14 @@
     <row r="201" ht="409.5" spans="3:7">
       <c r="C201" s="26"/>
       <c r="D201" s="10" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F201" s="26"/>
       <c r="G201" s="12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="202" ht="409.5" spans="3:7">
@@ -6468,12 +6489,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="29"/>
       <c r="G202" s="12" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="204" ht="192" spans="3:3">
       <c r="C204" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -6550,7 +6571,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6558,24 +6579,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6600,10 +6621,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6611,7 +6632,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6619,7 +6640,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6627,7 +6648,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="413">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -1987,6 +1987,14 @@
   </si>
   <si>
     <t>739. 每日温度</t>
+  </si>
+  <si>
+    <t>10.11,10.12</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 暴力法,超时
+方法二:单调栈</t>
   </si>
   <si>
     <t>图论30</t>
@@ -3398,10 +3406,10 @@
   <sheetPr/>
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E186" sqref="E186"/>
+      <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -6375,7 +6383,7 @@
       <c r="F185" s="16"/>
       <c r="G185" s="22"/>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" ht="36" spans="2:7">
       <c r="B186" s="9">
         <v>1</v>
       </c>
@@ -6385,11 +6393,13 @@
       <c r="D186" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="E186" s="19">
-        <v>10.11</v>
+      <c r="E186" s="19" t="s">
+        <v>391</v>
       </c>
       <c r="F186" s="26"/>
-      <c r="G186" s="12"/>
+      <c r="G186" s="12" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="187" spans="2:7">
       <c r="B187" s="9">
@@ -6441,7 +6451,7 @@
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="15" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -6457,12 +6467,12 @@
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="40" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="15" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -6473,14 +6483,14 @@
     <row r="201" ht="409.5" spans="3:7">
       <c r="C201" s="26"/>
       <c r="D201" s="10" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F201" s="26"/>
       <c r="G201" s="12" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="202" ht="409.5" spans="3:7">
@@ -6489,12 +6499,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="29"/>
       <c r="G202" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="204" ht="192" spans="3:3">
       <c r="C204" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -6571,7 +6581,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6579,24 +6589,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6621,10 +6631,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6632,7 +6642,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6640,7 +6650,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6648,7 +6658,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -1994,7 +1994,15 @@
   <si>
     <t>js:
 方法一: 暴力法,超时
-方法二:单调栈</t>
+方法二:单调栈, 抄的,多过思路, 多写, 注意细节
+获取栈顶元素:
+const top = sk.at(-1);
+或者 const top = sk[sk.length - 1];
+1.什么时候用单调栈: 通常是一维数组，要寻找任一个元素的右边或者左边第一个比自己大或者小的元素的位置，此时我们就要想到可以用单调栈了
+2.单调栈的本质: 是空间换时间, 时间复杂度为O(n), 因为在遍历的过程中需要用一个栈来记录右边第一个比当前元素高的元素，优点是整个数组只需要遍历一次
+3.单调栈里存放的元素是什么? 元素的下标i
+4.单调栈里元素是递增呢？ 还是递减呢？(顺序为从栈头到栈底)
+如果求一个元素右边第一个更大元素，单调栈就是递增的，如果求一个元素右边第一个更小元素，单调栈就是递减的。</t>
   </si>
   <si>
     <t>图论30</t>
@@ -3406,10 +3414,10 @@
   <sheetPr/>
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G186" sqref="G186"/>
+      <selection pane="bottomLeft" activeCell="B192" sqref="B192:G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -6383,7 +6391,7 @@
       <c r="F185" s="16"/>
       <c r="G185" s="22"/>
     </row>
-    <row r="186" ht="36" spans="2:7">
+    <row r="186" ht="180" spans="2:7">
       <c r="B186" s="9">
         <v>1</v>
       </c>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="417">
   <si>
     <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2003,6 +2003,25 @@
 3.单调栈里存放的元素是什么? 元素的下标i
 4.单调栈里元素是递增呢？ 还是递减呢？(顺序为从栈头到栈底)
 如果求一个元素右边第一个更大元素，单调栈就是递增的，如果求一个元素右边第一个更小元素，单调栈就是递减的。</t>
+  </si>
+  <si>
+    <t>496. 下一个更大元素 I</t>
+  </si>
+  <si>
+    <t>js:
+1.暴力法: 顺利
+2.单调栈: 思路有点绕, 抄的
+1.Map.prototype.set(): Map 实例的 set() 方法会向 Map 对象添加或更新一个指定的键值对。
+2.Map.prototype.get()</t>
+  </si>
+  <si>
+    <t>503. 下一个更大元素 II</t>
+  </si>
+  <si>
+    <t>js:
+1. 抄的, 和前面差不多,多过思路, 区别在模拟循环
+// 模拟循环操作: 模拟两个数组拼在一起, 再i % len
+    for(let i = 0; i &lt; len * 2; i++) {</t>
   </si>
   <si>
     <t>图论30</t>
@@ -3414,10 +3433,10 @@
   <sheetPr/>
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B192" sqref="B192:G192"/>
+      <selection pane="bottomLeft" activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -6409,25 +6428,41 @@
         <v>392</v>
       </c>
     </row>
-    <row r="187" spans="2:7">
+    <row r="187" ht="72" spans="2:7">
       <c r="B187" s="9">
         <v>2</v>
       </c>
-      <c r="C187" s="10"/>
-      <c r="D187" s="12"/>
-      <c r="E187" s="19"/>
+      <c r="C187" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="E187" s="19">
+        <v>10.12</v>
+      </c>
       <c r="F187" s="28"/>
-      <c r="G187" s="12"/>
-    </row>
-    <row r="188" spans="2:7">
+      <c r="G187" s="12" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="188" ht="60" spans="2:7">
       <c r="B188" s="9">
         <v>3</v>
       </c>
-      <c r="C188" s="10"/>
-      <c r="D188" s="12"/>
-      <c r="E188" s="19"/>
+      <c r="C188" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E188" s="19">
+        <v>10.12</v>
+      </c>
       <c r="F188" s="28"/>
-      <c r="G188" s="12"/>
+      <c r="G188" s="12" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="189" spans="2:7">
       <c r="B189" s="9">
@@ -6459,7 +6494,7 @@
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="15" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -6475,12 +6510,12 @@
     </row>
     <row r="196" spans="3:3">
       <c r="C196" s="40" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="15" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -6491,14 +6526,14 @@
     <row r="201" ht="409.5" spans="3:7">
       <c r="C201" s="26"/>
       <c r="D201" s="10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="F201" s="26"/>
       <c r="G201" s="12" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="202" ht="409.5" spans="3:7">
@@ -6507,12 +6542,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="29"/>
       <c r="G202" s="12" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="204" ht="192" spans="3:3">
       <c r="C204" s="5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -6589,7 +6624,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6597,24 +6632,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6639,10 +6674,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6650,7 +6685,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6658,7 +6693,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6666,7 +6701,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15075" windowHeight="12405"/>
+    <workbookView windowWidth="21915" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="417">
-  <si>
-    <t>从9月23日开始保持每天2个题目,还剩113题,写57天,2024年11月19日可刷完leetcode第一遍
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="420">
+  <si>
+    <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
   </si>
   <si>
@@ -2024,10 +2024,23 @@
     for(let i = 0; i &lt; len * 2; i++) {</t>
   </si>
   <si>
+    <t>42. 接雨水</t>
+  </si>
+  <si>
+    <t>js:
+方法一: 双指针,抄的. 按列计算 超时
+方法二: 单调栈, 抄的. 按照行计算的, 栈要保持的顺序: 从栈顶到栈底-&gt;从小到大; 栈中保存下标</t>
+  </si>
+  <si>
+    <t>84. 柱状图中最大的矩形</t>
+  </si>
+  <si>
+    <t>js:
+方法一:双指针,没看
+方法二:单调栈,抄的,需要静下心来仔细品味</t>
+  </si>
+  <si>
     <t>图论30</t>
-  </si>
-  <si>
-    <t>2024/9/2 4:48:00+74</t>
   </si>
   <si>
     <t>项目学习</t>
@@ -2251,12 +2264,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -2287,6 +2300,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2310,28 +2330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2340,9 +2338,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2365,29 +2386,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2403,6 +2401,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2410,17 +2423,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2428,6 +2433,14 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2458,13 +2471,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2476,25 +2489,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2506,25 +2519,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2542,7 +2555,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2554,13 +2615,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,73 +2651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2750,26 +2763,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2801,21 +2814,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2830,11 +2828,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2843,152 +2856,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3049,7 +3062,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3064,7 +3077,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3085,31 +3098,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3433,10 +3434,10 @@
   <sheetPr/>
   <dimension ref="A1:G204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G188" sqref="G188"/>
+      <selection pane="bottomLeft" activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -6123,272 +6124,272 @@
       <c r="G163" s="22"/>
     </row>
     <row r="164" ht="120" spans="2:7">
-      <c r="B164" s="32">
+      <c r="B164" s="9">
         <v>1</v>
       </c>
-      <c r="C164" s="33" t="s">
+      <c r="C164" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="D164" s="34" t="s">
+      <c r="D164" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="E164" s="37">
+      <c r="E164" s="19">
         <v>10.7</v>
       </c>
-      <c r="F164" s="37"/>
-      <c r="G164" s="34" t="s">
+      <c r="F164" s="19"/>
+      <c r="G164" s="12" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="165" ht="36" spans="2:7">
-      <c r="B165" s="32">
+      <c r="B165" s="9">
         <v>2</v>
       </c>
-      <c r="C165" s="33" t="s">
+      <c r="C165" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D165" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E165" s="37">
+      <c r="E165" s="19">
         <v>10.8</v>
       </c>
-      <c r="F165" s="37"/>
-      <c r="G165" s="34" t="s">
+      <c r="F165" s="19"/>
+      <c r="G165" s="12" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="166" ht="24" spans="2:7">
-      <c r="B166" s="32">
+      <c r="B166" s="9">
         <v>3</v>
       </c>
-      <c r="C166" s="33" t="s">
+      <c r="C166" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D166" s="34" t="s">
+      <c r="D166" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="E166" s="37">
+      <c r="E166" s="19">
         <v>10.8</v>
       </c>
-      <c r="F166" s="37"/>
-      <c r="G166" s="34" t="s">
+      <c r="F166" s="19"/>
+      <c r="G166" s="12" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="167" ht="156" spans="2:7">
-      <c r="B167" s="32">
+      <c r="B167" s="9">
         <v>4</v>
       </c>
-      <c r="C167" s="33" t="s">
+      <c r="C167" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="D167" s="34" t="s">
+      <c r="D167" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="E167" s="37">
+      <c r="E167" s="19">
         <v>10.8</v>
       </c>
-      <c r="F167" s="37"/>
-      <c r="G167" s="34" t="s">
+      <c r="F167" s="19"/>
+      <c r="G167" s="12" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="168" ht="24" spans="2:7">
-      <c r="B168" s="32">
+      <c r="B168" s="9">
         <v>5</v>
       </c>
-      <c r="C168" s="33" t="s">
+      <c r="C168" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D168" s="34" t="s">
+      <c r="D168" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="E168" s="37">
+      <c r="E168" s="19">
         <v>10.8</v>
       </c>
-      <c r="F168" s="37"/>
-      <c r="G168" s="34" t="s">
+      <c r="F168" s="19"/>
+      <c r="G168" s="12" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="169" ht="48" spans="2:7">
-      <c r="B169" s="32">
+      <c r="B169" s="9">
         <v>6</v>
       </c>
-      <c r="C169" s="33" t="s">
+      <c r="C169" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="D169" s="34" t="s">
+      <c r="D169" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="E169" s="37">
+      <c r="E169" s="19">
         <v>10.8</v>
       </c>
-      <c r="F169" s="37"/>
-      <c r="G169" s="34" t="s">
+      <c r="F169" s="19"/>
+      <c r="G169" s="12" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="170" ht="24" spans="2:7">
-      <c r="B170" s="32">
+      <c r="B170" s="9">
         <v>7</v>
       </c>
-      <c r="C170" s="33" t="s">
+      <c r="C170" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="D170" s="34" t="s">
+      <c r="D170" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="E170" s="37">
+      <c r="E170" s="19">
         <v>10.8</v>
       </c>
-      <c r="F170" s="37"/>
-      <c r="G170" s="34" t="s">
+      <c r="F170" s="19"/>
+      <c r="G170" s="12" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="171" ht="312" spans="2:7">
-      <c r="B171" s="32">
+      <c r="B171" s="9">
         <v>8</v>
       </c>
-      <c r="C171" s="33" t="s">
+      <c r="C171" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="D171" s="34" t="s">
+      <c r="D171" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="E171" s="38" t="s">
+      <c r="E171" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="F171" s="37"/>
-      <c r="G171" s="34" t="s">
+      <c r="F171" s="19"/>
+      <c r="G171" s="12" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="172" ht="36" spans="2:7">
-      <c r="B172" s="32">
+      <c r="B172" s="9">
         <v>9</v>
       </c>
-      <c r="C172" s="33" t="s">
+      <c r="C172" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="D172" s="34" t="s">
+      <c r="D172" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E172" s="38" t="s">
+      <c r="E172" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="F172" s="37"/>
-      <c r="G172" s="34" t="s">
+      <c r="F172" s="19"/>
+      <c r="G172" s="12" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="173" ht="24" spans="2:7">
-      <c r="B173" s="32">
+      <c r="B173" s="9">
         <v>10</v>
       </c>
-      <c r="C173" s="33" t="s">
+      <c r="C173" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="D173" s="34" t="s">
+      <c r="D173" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="E173" s="37">
+      <c r="E173" s="19">
         <v>10.11</v>
       </c>
-      <c r="F173" s="37"/>
-      <c r="G173" s="34" t="s">
+      <c r="F173" s="19"/>
+      <c r="G173" s="12" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="32">
+      <c r="B174" s="9">
         <v>11</v>
       </c>
-      <c r="C174" s="33" t="s">
+      <c r="C174" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="D174" s="34" t="s">
+      <c r="D174" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="E174" s="37">
+      <c r="E174" s="19">
         <v>10.11</v>
       </c>
-      <c r="F174" s="37"/>
-      <c r="G174" s="34"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="12"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="32"/>
-      <c r="C175" s="33"/>
-      <c r="D175" s="34"/>
-      <c r="E175" s="37"/>
-      <c r="F175" s="37"/>
-      <c r="G175" s="34"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="12"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="32"/>
-      <c r="C176" s="33"/>
-      <c r="D176" s="34"/>
-      <c r="E176" s="37"/>
-      <c r="F176" s="37"/>
-      <c r="G176" s="34"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="12"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="32"/>
-      <c r="C177" s="33"/>
-      <c r="D177" s="34"/>
-      <c r="E177" s="37"/>
-      <c r="F177" s="37"/>
-      <c r="G177" s="34"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="12"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="32"/>
-      <c r="C178" s="33"/>
-      <c r="D178" s="34"/>
-      <c r="E178" s="37"/>
-      <c r="F178" s="37"/>
-      <c r="G178" s="34"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="12"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="32"/>
-      <c r="C179" s="33"/>
-      <c r="D179" s="34"/>
-      <c r="E179" s="37"/>
-      <c r="F179" s="37"/>
-      <c r="G179" s="34"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="12"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="32"/>
-      <c r="C180" s="33"/>
-      <c r="D180" s="34"/>
-      <c r="E180" s="37"/>
-      <c r="F180" s="37"/>
-      <c r="G180" s="34"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="12"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="32"/>
-      <c r="C181" s="33"/>
-      <c r="D181" s="34"/>
-      <c r="E181" s="37"/>
-      <c r="F181" s="37"/>
-      <c r="G181" s="34"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="12"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="32"/>
-      <c r="C182" s="33"/>
-      <c r="D182" s="34"/>
-      <c r="E182" s="37"/>
-      <c r="F182" s="37"/>
-      <c r="G182" s="34"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="12"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="32"/>
-      <c r="C183" s="33"/>
-      <c r="D183" s="34"/>
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
-      <c r="G183" s="34"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="12"/>
     </row>
     <row r="184" ht="90" customHeight="1" spans="2:7">
       <c r="B184" s="13" t="s">
@@ -6464,37 +6465,53 @@
         <v>396</v>
       </c>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" ht="36" spans="2:7">
       <c r="B189" s="9">
         <v>4</v>
       </c>
-      <c r="C189" s="10"/>
-      <c r="D189" s="12"/>
-      <c r="E189" s="19"/>
+      <c r="C189" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D189" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="E189" s="19">
+        <v>10.21</v>
+      </c>
       <c r="F189" s="28"/>
-      <c r="G189" s="12"/>
-    </row>
-    <row r="190" spans="2:7">
+      <c r="G189" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="190" ht="36" spans="2:7">
       <c r="B190" s="9">
         <v>5</v>
       </c>
-      <c r="C190" s="10"/>
-      <c r="D190" s="12"/>
-      <c r="E190" s="19"/>
+      <c r="C190" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="D190" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="E190" s="19">
+        <v>10.22</v>
+      </c>
       <c r="F190" s="29"/>
-      <c r="G190" s="12"/>
+      <c r="G190" s="12" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="35"/>
-      <c r="C191" s="36"/>
-      <c r="D191" s="36"/>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="39"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="35"/>
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="15" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
@@ -6504,18 +6521,16 @@
     </row>
     <row r="195" spans="3:3">
       <c r="C195" s="5">
-        <f>(19+20+22+52+5+30)/3</f>
-        <v>49.3333333333333</v>
+        <f>73/3</f>
+        <v>24.3333333333333</v>
       </c>
     </row>
     <row r="196" spans="3:3">
-      <c r="C196" s="40" t="s">
-        <v>398</v>
-      </c>
+      <c r="C196" s="36"/>
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="15" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -6526,14 +6541,14 @@
     <row r="201" ht="409.5" spans="3:7">
       <c r="C201" s="26"/>
       <c r="D201" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F201" s="26"/>
       <c r="G201" s="12" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="202" ht="409.5" spans="3:7">
@@ -6542,12 +6557,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="29"/>
       <c r="G202" s="12" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" ht="192" spans="3:3">
       <c r="C204" s="5" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -6624,7 +6639,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6632,24 +6647,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -6674,10 +6689,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6685,7 +6700,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -6693,7 +6708,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6701,7 +6716,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wadaxi\leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC120387-2975-4569-BD9D-5260B4891109}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0279BA54-CE79-4F5B-8624-681458397DDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21915" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="427">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2981,6 +2981,31 @@
   </si>
   <si>
     <r>
+      <t>10.28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10.29</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
@@ -3025,6 +3050,7 @@
         <charset val="134"/>
       </rPr>
       <t>）优先搜索理论基础：
+0.深搜，回溯，迭代法三者关系：dfs，bfs是基础搜索算法，二叉树的递归法就是dfs，只是取了个新名字，回溯则是具体算法中一个过程的名字
 1，深搜三部曲：1.确认递归函数，参数；2.确认终止条件；3.处理目前搜索节点出发的路径
 二叉树的递归法其实就是dfs，而二叉树的迭代法，就是bfs（广度优先搜索）
 回溯法代码框架：
@@ -3254,28 +3280,41 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>10.28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10.29</t>
-    </r>
+    <t>广度优先搜索理论基础
+1.使用场景：两点之间最短路径问题，岛屿问题（bfs，dfs都可以使用）
+2.实现：栈，队列，数组都可以
+3.模板：
+int dir[4][2] = {0, 1, 1, 0, -1, 0, 0, -1}; // 表示四个方向
+// grid 是地图，也就是一个二维数组
+// visited标记访问过的节点，不要重复访问
+// x,y 表示开始搜索节点的下标
+void bfs(vector&lt;vector&lt;char&gt;&gt;&amp; grid, vector&lt;vector&lt;bool&gt;&gt;&amp; visited, int x, int y) {
+    queue&lt;pair&lt;int, int&gt;&gt; que; // 定义队列
+    que.push({x, y}); // 起始节点加入队列
+    visited[x][y] = true; // 只要加入队列，立刻标记为访问过的节点
+    while(!que.empty()) { // 开始遍历队列里的元素
+        pair&lt;int ,int&gt; cur = que.front(); que.pop(); // 从队列取元素
+        int curx = cur.first;
+        int cury = cur.second; // 当前节点坐标
+        for (int i = 0; i &lt; 4; i++) { // 开始想当前节点的四个方向左右上下去遍历
+            int nextx = curx + dir[i][0];
+            int nexty = cury + dir[i][1]; // 获取周边四个方向的坐标
+            if (nextx &lt; 0 || nextx &gt;= grid.size() || nexty &lt; 0 || nexty &gt;= grid[0].size()) continue;  // 坐标越界了，直接跳过
+            if (!visited[nextx][nexty]) { // 如果节点没被访问过
+                que.push({nextx, nexty});  // 队列添加该节点为下一轮要遍历的节点
+                visited[nextx][nexty] = true; // 只要加入队列立刻标记，避免重复访问
+            }
+        }
+    }
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>99. 岛屿数量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.29，10.30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3882,8 +3921,8 @@
   <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F193" sqref="F193"/>
+      <pane ySplit="2" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5"/>
@@ -3893,7 +3932,7 @@
     <col min="4" max="4" width="13.125" style="5" customWidth="1"/>
     <col min="5" max="5" width="5.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="13" style="6" customWidth="1"/>
-    <col min="7" max="7" width="54.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="73.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="54" customHeight="1">
@@ -6976,20 +7015,28 @@
         <v>419</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F193" s="10"/>
       <c r="G193" s="40" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="194" spans="2:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" ht="369.75">
       <c r="B194" s="7"/>
-      <c r="C194" s="8"/>
-      <c r="D194" s="9"/>
-      <c r="E194" s="10"/>
+      <c r="C194" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D194" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E194" s="10" t="s">
+        <v>426</v>
+      </c>
       <c r="F194" s="10"/>
-      <c r="G194" s="9"/>
+      <c r="G194" s="9" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="195" spans="2:7">
       <c r="B195" s="7"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27750" windowHeight="12675"/>
+    <workbookView windowWidth="20745" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="leetcode刷题" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="429">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2713,7 +2713,7 @@
 4.async 和 await 是 JavaScript 中用于处理异步编程的关键字，它们使得异步代码的写法更接近同步代码，从而提高可读性。
 5.async：用于声明一个函数为异步函数。异步函数会返回一个 Promise 对象，且可以使用 await 关键字。
 6.只能在 async 函数内部使用。它用于等待一个 Promise 完成，并返回结果。如果 Promise 被拒绝（rejected），则会抛出错误
-7.标准输入输出代码：
+7.标准输入输出代码,包含异步：
 const r1 = require('readline').createInterface({
     input: process.stdin,
     output: process.stdout
@@ -2799,6 +2799,11 @@
   </si>
   <si>
     <t xml:space="preserve">100. 岛屿的最大面积 </t>
+  </si>
+  <si>
+    <t>js:
+方法一: bfs
+ initGraph前面必须加await的原因: initGraph 函数被定义为一个异步函数（async），这意味着它会返回一个 Promise。当你调用 initGraph() 时，你需要使用 await 来等待这个 Promise 完成, 从而避免在图还未完全构建完成时输出空的或未初始化的内容</t>
   </si>
   <si>
     <t>总结：
@@ -4250,7 +4255,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E195" sqref="E195"/>
+      <selection pane="bottomLeft" activeCell="B199" sqref="B199:G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7366,7 +7371,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" ht="60" spans="2:7">
       <c r="B195" s="9"/>
       <c r="C195" s="10" t="s">
         <v>408</v>
@@ -7375,10 +7380,12 @@
         <v>408</v>
       </c>
       <c r="E195" s="19">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="F195" s="19"/>
-      <c r="G195" s="12"/>
+      <c r="G195" s="12" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="196" spans="2:7">
       <c r="B196" s="9"/>
@@ -7406,7 +7413,7 @@
     </row>
     <row r="199" ht="260.25" customHeight="1" spans="2:7">
       <c r="B199" s="38" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C199" s="38"/>
       <c r="D199" s="38"/>
@@ -7416,7 +7423,7 @@
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="39" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -7427,14 +7434,14 @@
     <row r="201" ht="409.5" spans="3:7">
       <c r="C201" s="27"/>
       <c r="D201" s="10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F201" s="27"/>
       <c r="G201" s="12" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="202" ht="409.5" spans="3:7">
@@ -7443,12 +7450,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="30"/>
       <c r="G202" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="204" ht="192" spans="3:3">
       <c r="C204" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -7527,7 +7534,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7535,24 +7542,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7577,10 +7584,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7588,7 +7595,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7596,7 +7603,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7604,7 +7611,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="431">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2802,8 +2802,14 @@
   </si>
   <si>
     <t>js:
-方法一: bfs
+方法一: bfs, 顺利
  initGraph前面必须加await的原因: initGraph 函数被定义为一个异步函数（async），这意味着它会返回一个 Promise。当你调用 initGraph() 时，你需要使用 await 来等待这个 Promise 完成, 从而避免在图还未完全构建完成时输出空的或未初始化的内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101. 孤岛的总面积 </t>
+  </si>
+  <si>
+    <t>101. 孤岛的总面积</t>
   </si>
   <si>
     <t>总结：
@@ -4255,7 +4261,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B199" sqref="B199:G199"/>
+      <selection pane="bottomLeft" activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7389,9 +7395,15 @@
     </row>
     <row r="196" spans="2:7">
       <c r="B196" s="9"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="12"/>
-      <c r="E196" s="19"/>
+      <c r="C196" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E196" s="19">
+        <v>11.2</v>
+      </c>
       <c r="F196" s="19"/>
       <c r="G196" s="12"/>
     </row>
@@ -7413,7 +7425,7 @@
     </row>
     <row r="199" ht="260.25" customHeight="1" spans="2:7">
       <c r="B199" s="38" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C199" s="38"/>
       <c r="D199" s="38"/>
@@ -7423,7 +7435,7 @@
     </row>
     <row r="200" spans="2:7">
       <c r="B200" s="39" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
@@ -7434,14 +7446,14 @@
     <row r="201" ht="409.5" spans="3:7">
       <c r="C201" s="27"/>
       <c r="D201" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F201" s="27"/>
       <c r="G201" s="12" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="202" ht="409.5" spans="3:7">
@@ -7450,12 +7462,12 @@
       <c r="E202" s="10"/>
       <c r="F202" s="30"/>
       <c r="G202" s="12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="204" ht="192" spans="3:3">
       <c r="C204" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -7534,7 +7546,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7542,24 +7554,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7584,10 +7596,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7595,7 +7607,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7603,7 +7615,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7611,7 +7623,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="436">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2812,6 +2812,25 @@
     <t>101. 孤岛的总面积</t>
   </si>
   <si>
+    <t>js:
+方法一:dfs  想清楚思路后顺利</t>
+  </si>
+  <si>
+    <t>102. 沉没孤岛</t>
+  </si>
+  <si>
+    <t>js:
+方法一: dfs 顺利</t>
+  </si>
+  <si>
+    <t>103. 水流问题</t>
+  </si>
+  <si>
+    <t>js: 多过思路~理解了还是不难
+方法一: dfs-超时-分别判断每一个节点能否到达第一二边界  O(n^2 * m^2)
+方法二: bfs 从第一边界和第二边界开始向高处流, 标记可以流到的位置, 两个边界都能到达的位置就是所求结果</t>
+  </si>
+  <si>
     <t>总结：
 1.图的基本概念：
 图的种类（（加权）有向图，（加权）无向图）
@@ -3054,15 +3073,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3090,12 +3109,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="AR PL UMing HK"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3107,13 +3120,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3130,31 +3136,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3176,17 +3159,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3200,39 +3190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3247,7 +3207,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3259,7 +3272,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3286,7 +3299,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3298,19 +3383,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3322,25 +3437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3352,121 +3461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3569,24 +3570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3606,7 +3589,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3626,6 +3618,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3637,17 +3649,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3671,152 +3672,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3877,7 +3878,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3892,9 +3893,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3928,13 +3926,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4256,12 +4254,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E196" sqref="E196"/>
+      <selection pane="bottomLeft" activeCell="G198" sqref="G198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4714,7 +4712,7 @@
       <c r="F27" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="12" t="s">
         <v>77</v>
       </c>
     </row>
@@ -4788,10 +4786,10 @@
       <c r="D31" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <v>8.1</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="25" t="s">
         <v>94</v>
       </c>
       <c r="G31" s="12" t="s">
@@ -4808,10 +4806,10 @@
       <c r="D32" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="25">
         <v>8.1</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F32" s="25" t="s">
         <v>98</v>
       </c>
       <c r="G32" s="12" t="s">
@@ -4828,10 +4826,10 @@
       <c r="D33" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E33" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="25" t="s">
         <v>103</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -4848,10 +4846,10 @@
       <c r="D34" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="25">
         <v>8.12</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F34" s="25" t="s">
         <v>107</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -5497,7 +5495,7 @@
       <c r="B75" s="9">
         <v>1</v>
       </c>
-      <c r="C75" s="27" t="s">
+      <c r="C75" s="26" t="s">
         <v>196</v>
       </c>
       <c r="D75" s="12" t="s">
@@ -5512,10 +5510,10 @@
       </c>
     </row>
     <row r="76" ht="24" spans="2:7">
-      <c r="B76" s="28">
+      <c r="B76" s="27">
         <v>2</v>
       </c>
-      <c r="C76" s="29"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="12" t="s">
         <v>199</v>
       </c>
@@ -5531,7 +5529,7 @@
       <c r="B77" s="9">
         <v>3</v>
       </c>
-      <c r="C77" s="30"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="12" t="s">
         <v>201</v>
       </c>
@@ -5544,8 +5542,8 @@
       </c>
     </row>
     <row r="78" ht="48" spans="2:7">
-      <c r="B78" s="28"/>
-      <c r="C78" s="27" t="s">
+      <c r="B78" s="27"/>
+      <c r="C78" s="26" t="s">
         <v>202</v>
       </c>
       <c r="D78" s="12" t="s">
@@ -5561,7 +5559,7 @@
     </row>
     <row r="79" ht="36" spans="2:7">
       <c r="B79" s="9"/>
-      <c r="C79" s="29"/>
+      <c r="C79" s="28"/>
       <c r="D79" s="12" t="s">
         <v>199</v>
       </c>
@@ -5574,8 +5572,8 @@
       </c>
     </row>
     <row r="80" ht="36" spans="2:7">
-      <c r="B80" s="28"/>
-      <c r="C80" s="30"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="29"/>
       <c r="D80" s="12" t="s">
         <v>201</v>
       </c>
@@ -5588,8 +5586,8 @@
       </c>
     </row>
     <row r="81" ht="48" spans="2:7">
-      <c r="B81" s="28"/>
-      <c r="C81" s="27" t="s">
+      <c r="B81" s="27"/>
+      <c r="C81" s="26" t="s">
         <v>206</v>
       </c>
       <c r="D81" s="12" t="s">
@@ -5604,8 +5602,8 @@
       </c>
     </row>
     <row r="82" ht="24" spans="2:7">
-      <c r="B82" s="28"/>
-      <c r="C82" s="29"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="28"/>
       <c r="D82" s="12" t="s">
         <v>199</v>
       </c>
@@ -5618,8 +5616,8 @@
       </c>
     </row>
     <row r="83" ht="36" spans="2:7">
-      <c r="B83" s="28"/>
-      <c r="C83" s="30"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="29"/>
       <c r="D83" s="12" t="s">
         <v>197</v>
       </c>
@@ -5632,10 +5630,10 @@
       </c>
     </row>
     <row r="84" ht="72" spans="2:7">
-      <c r="B84" s="28">
+      <c r="B84" s="27">
         <v>4</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C84" s="26" t="s">
         <v>210</v>
       </c>
       <c r="D84" s="12" t="s">
@@ -5650,10 +5648,10 @@
       </c>
     </row>
     <row r="85" ht="24" spans="2:7">
-      <c r="B85" s="28">
+      <c r="B85" s="27">
         <v>5</v>
       </c>
-      <c r="C85" s="29"/>
+      <c r="C85" s="28"/>
       <c r="D85" s="12" t="s">
         <v>213</v>
       </c>
@@ -5666,10 +5664,10 @@
       </c>
     </row>
     <row r="86" ht="24" spans="2:7">
-      <c r="B86" s="28">
+      <c r="B86" s="27">
         <v>6</v>
       </c>
-      <c r="C86" s="29"/>
+      <c r="C86" s="28"/>
       <c r="D86" s="12" t="s">
         <v>215</v>
       </c>
@@ -5682,10 +5680,10 @@
       </c>
     </row>
     <row r="87" ht="24" spans="2:7">
-      <c r="B87" s="28">
+      <c r="B87" s="27">
         <v>7</v>
       </c>
-      <c r="C87" s="29"/>
+      <c r="C87" s="28"/>
       <c r="D87" s="12" t="s">
         <v>217</v>
       </c>
@@ -5698,10 +5696,10 @@
       </c>
     </row>
     <row r="88" ht="24" spans="2:7">
-      <c r="B88" s="28">
+      <c r="B88" s="27">
         <v>8</v>
       </c>
-      <c r="C88" s="29"/>
+      <c r="C88" s="28"/>
       <c r="D88" s="12" t="s">
         <v>219</v>
       </c>
@@ -5714,10 +5712,10 @@
       </c>
     </row>
     <row r="89" ht="24" spans="2:7">
-      <c r="B89" s="28">
+      <c r="B89" s="27">
         <v>9</v>
       </c>
-      <c r="C89" s="29"/>
+      <c r="C89" s="28"/>
       <c r="D89" s="12" t="s">
         <v>221</v>
       </c>
@@ -5730,10 +5728,10 @@
       </c>
     </row>
     <row r="90" ht="24" spans="2:7">
-      <c r="B90" s="28">
+      <c r="B90" s="27">
         <v>10</v>
       </c>
-      <c r="C90" s="29"/>
+      <c r="C90" s="28"/>
       <c r="D90" s="12" t="s">
         <v>223</v>
       </c>
@@ -5746,10 +5744,10 @@
       </c>
     </row>
     <row r="91" ht="24" spans="2:7">
-      <c r="B91" s="28">
+      <c r="B91" s="27">
         <v>11</v>
       </c>
-      <c r="C91" s="29"/>
+      <c r="C91" s="28"/>
       <c r="D91" s="12" t="s">
         <v>225</v>
       </c>
@@ -5762,10 +5760,10 @@
       </c>
     </row>
     <row r="92" ht="36" spans="2:7">
-      <c r="B92" s="28">
+      <c r="B92" s="27">
         <v>12</v>
       </c>
-      <c r="C92" s="29"/>
+      <c r="C92" s="28"/>
       <c r="D92" s="12" t="s">
         <v>226</v>
       </c>
@@ -5778,10 +5776,10 @@
       </c>
     </row>
     <row r="93" ht="24" spans="2:7">
-      <c r="B93" s="28">
+      <c r="B93" s="27">
         <v>13</v>
       </c>
-      <c r="C93" s="30"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="12" t="s">
         <v>228</v>
       </c>
@@ -5794,7 +5792,7 @@
       </c>
     </row>
     <row r="94" ht="84" spans="2:7">
-      <c r="B94" s="28">
+      <c r="B94" s="27">
         <v>14</v>
       </c>
       <c r="C94" s="10" t="s">
@@ -5812,10 +5810,10 @@
       </c>
     </row>
     <row r="95" ht="48" spans="2:7">
-      <c r="B95" s="28">
+      <c r="B95" s="27">
         <v>15</v>
       </c>
-      <c r="C95" s="27" t="s">
+      <c r="C95" s="26" t="s">
         <v>232</v>
       </c>
       <c r="D95" s="12" t="s">
@@ -5832,10 +5830,10 @@
       </c>
     </row>
     <row r="96" ht="36" spans="2:7">
-      <c r="B96" s="28">
+      <c r="B96" s="27">
         <v>16</v>
       </c>
-      <c r="C96" s="29"/>
+      <c r="C96" s="28"/>
       <c r="D96" s="12" t="s">
         <v>235</v>
       </c>
@@ -5848,8 +5846,8 @@
       </c>
     </row>
     <row r="97" ht="24" spans="2:7">
-      <c r="B97" s="28"/>
-      <c r="C97" s="27" t="s">
+      <c r="B97" s="27"/>
+      <c r="C97" s="26" t="s">
         <v>237</v>
       </c>
       <c r="D97" s="12" t="s">
@@ -5866,10 +5864,10 @@
       </c>
     </row>
     <row r="98" ht="48" spans="2:7">
-      <c r="B98" s="28">
+      <c r="B98" s="27">
         <v>17</v>
       </c>
-      <c r="C98" s="30"/>
+      <c r="C98" s="29"/>
       <c r="D98" s="12" t="s">
         <v>240</v>
       </c>
@@ -5882,7 +5880,7 @@
       </c>
     </row>
     <row r="99" ht="60" spans="2:7">
-      <c r="B99" s="28"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="10" t="s">
         <v>242</v>
       </c>
@@ -5900,7 +5898,7 @@
       </c>
     </row>
     <row r="100" ht="48" spans="2:7">
-      <c r="B100" s="28">
+      <c r="B100" s="27">
         <v>18</v>
       </c>
       <c r="C100" s="10" t="s">
@@ -5920,7 +5918,7 @@
       </c>
     </row>
     <row r="101" ht="144" spans="2:7">
-      <c r="B101" s="28">
+      <c r="B101" s="27">
         <v>19</v>
       </c>
       <c r="C101" s="10" t="s">
@@ -5940,7 +5938,7 @@
       </c>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="28">
+      <c r="B102" s="27">
         <v>20</v>
       </c>
       <c r="C102" s="10" t="s">
@@ -5958,7 +5956,7 @@
       </c>
     </row>
     <row r="103" ht="60" spans="2:7">
-      <c r="B103" s="28">
+      <c r="B103" s="27">
         <v>21</v>
       </c>
       <c r="C103" s="10" t="s">
@@ -5976,7 +5974,7 @@
       </c>
     </row>
     <row r="104" ht="84" spans="2:7">
-      <c r="B104" s="28">
+      <c r="B104" s="27">
         <v>22</v>
       </c>
       <c r="C104" s="10" t="s">
@@ -5994,10 +5992,10 @@
       </c>
     </row>
     <row r="105" ht="108" spans="2:7">
-      <c r="B105" s="28">
+      <c r="B105" s="27">
         <v>23</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="C105" s="26" t="s">
         <v>257</v>
       </c>
       <c r="D105" s="12" t="s">
@@ -6012,10 +6010,10 @@
       </c>
     </row>
     <row r="106" ht="108" spans="2:7">
-      <c r="B106" s="28">
+      <c r="B106" s="27">
         <v>24</v>
       </c>
-      <c r="C106" s="30"/>
+      <c r="C106" s="29"/>
       <c r="D106" s="12" t="s">
         <v>260</v>
       </c>
@@ -6028,7 +6026,7 @@
       </c>
     </row>
     <row r="107" ht="24" spans="2:7">
-      <c r="B107" s="28">
+      <c r="B107" s="27">
         <v>25</v>
       </c>
       <c r="C107" s="10" t="s">
@@ -6046,7 +6044,7 @@
       </c>
     </row>
     <row r="108" ht="60" spans="2:7">
-      <c r="B108" s="28">
+      <c r="B108" s="27">
         <v>26</v>
       </c>
       <c r="C108" s="10" t="s">
@@ -6064,7 +6062,7 @@
       </c>
     </row>
     <row r="109" ht="108" spans="2:7">
-      <c r="B109" s="28">
+      <c r="B109" s="27">
         <v>27</v>
       </c>
       <c r="C109" s="10" t="s">
@@ -6082,7 +6080,7 @@
       </c>
     </row>
     <row r="110" ht="48" spans="2:7">
-      <c r="B110" s="28">
+      <c r="B110" s="27">
         <v>28</v>
       </c>
       <c r="C110" s="10" t="s">
@@ -6100,7 +6098,7 @@
       </c>
     </row>
     <row r="111" ht="132" spans="2:7">
-      <c r="B111" s="28">
+      <c r="B111" s="27">
         <v>29</v>
       </c>
       <c r="C111" s="10" t="s">
@@ -6118,7 +6116,7 @@
       </c>
     </row>
     <row r="112" ht="60" spans="2:7">
-      <c r="B112" s="28">
+      <c r="B112" s="27">
         <v>30</v>
       </c>
       <c r="C112" s="10" t="s">
@@ -6136,7 +6134,7 @@
       </c>
     </row>
     <row r="113" ht="108" spans="2:7">
-      <c r="B113" s="28">
+      <c r="B113" s="27">
         <v>31</v>
       </c>
       <c r="C113" s="10" t="s">
@@ -6154,7 +6152,7 @@
       </c>
     </row>
     <row r="114" ht="156" spans="2:7">
-      <c r="B114" s="28">
+      <c r="B114" s="27">
         <v>32</v>
       </c>
       <c r="C114" s="10" t="s">
@@ -6172,7 +6170,7 @@
       </c>
     </row>
     <row r="115" ht="264" spans="2:7">
-      <c r="B115" s="28">
+      <c r="B115" s="27">
         <v>33</v>
       </c>
       <c r="C115" s="10" t="s">
@@ -6190,7 +6188,7 @@
       </c>
     </row>
     <row r="116" ht="84" spans="2:7">
-      <c r="B116" s="28">
+      <c r="B116" s="27">
         <v>34</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -6208,7 +6206,7 @@
       </c>
     </row>
     <row r="117" ht="72" spans="2:7">
-      <c r="B117" s="28">
+      <c r="B117" s="27">
         <v>35</v>
       </c>
       <c r="C117" s="10" t="s">
@@ -6226,7 +6224,7 @@
       </c>
     </row>
     <row r="118" ht="96" spans="2:7">
-      <c r="B118" s="28">
+      <c r="B118" s="27">
         <v>36</v>
       </c>
       <c r="C118" s="10" t="s">
@@ -6244,7 +6242,7 @@
       </c>
     </row>
     <row r="119" ht="24" spans="2:7">
-      <c r="B119" s="28">
+      <c r="B119" s="27">
         <v>37</v>
       </c>
       <c r="C119" s="10" t="s">
@@ -6262,7 +6260,7 @@
       </c>
     </row>
     <row r="120" ht="60" spans="2:7">
-      <c r="B120" s="28">
+      <c r="B120" s="27">
         <v>38</v>
       </c>
       <c r="C120" s="10" t="s">
@@ -6280,7 +6278,7 @@
       </c>
     </row>
     <row r="121" ht="36" spans="2:7">
-      <c r="B121" s="28">
+      <c r="B121" s="27">
         <v>39</v>
       </c>
       <c r="C121" s="10" t="s">
@@ -6321,7 +6319,7 @@
       <c r="B124" s="9">
         <v>1</v>
       </c>
-      <c r="C124" s="27" t="s">
+      <c r="C124" s="26" t="s">
         <v>294</v>
       </c>
       <c r="D124" s="12" t="s">
@@ -6339,7 +6337,7 @@
       <c r="B125" s="9">
         <v>2</v>
       </c>
-      <c r="C125" s="29"/>
+      <c r="C125" s="28"/>
       <c r="D125" s="12" t="s">
         <v>297</v>
       </c>
@@ -6355,7 +6353,7 @@
       <c r="B126" s="9">
         <v>3</v>
       </c>
-      <c r="C126" s="29"/>
+      <c r="C126" s="28"/>
       <c r="D126" s="12" t="s">
         <v>299</v>
       </c>
@@ -6371,7 +6369,7 @@
       <c r="B127" s="9">
         <v>4</v>
       </c>
-      <c r="C127" s="29"/>
+      <c r="C127" s="28"/>
       <c r="D127" s="12" t="s">
         <v>301</v>
       </c>
@@ -6387,7 +6385,7 @@
       <c r="B128" s="9">
         <v>5</v>
       </c>
-      <c r="C128" s="30"/>
+      <c r="C128" s="29"/>
       <c r="D128" s="12" t="s">
         <v>303</v>
       </c>
@@ -6403,7 +6401,7 @@
       <c r="B129" s="9">
         <v>6</v>
       </c>
-      <c r="C129" s="27" t="s">
+      <c r="C129" s="26" t="s">
         <v>305</v>
       </c>
       <c r="D129" s="12" t="s">
@@ -6421,7 +6419,7 @@
       <c r="B130" s="9">
         <v>7</v>
       </c>
-      <c r="C130" s="30"/>
+      <c r="C130" s="29"/>
       <c r="D130" s="12" t="s">
         <v>308</v>
       </c>
@@ -6437,7 +6435,7 @@
       <c r="B131" s="9">
         <v>8</v>
       </c>
-      <c r="C131" s="27" t="s">
+      <c r="C131" s="26" t="s">
         <v>310</v>
       </c>
       <c r="D131" s="12" t="s">
@@ -6455,7 +6453,7 @@
       <c r="B132" s="9">
         <v>9</v>
       </c>
-      <c r="C132" s="29"/>
+      <c r="C132" s="28"/>
       <c r="D132" s="12" t="s">
         <v>313</v>
       </c>
@@ -6471,7 +6469,7 @@
       <c r="B133" s="9">
         <v>10</v>
       </c>
-      <c r="C133" s="29"/>
+      <c r="C133" s="28"/>
       <c r="D133" s="12" t="s">
         <v>315</v>
       </c>
@@ -6487,7 +6485,7 @@
       <c r="B134" s="9">
         <v>11</v>
       </c>
-      <c r="C134" s="27" t="s">
+      <c r="C134" s="26" t="s">
         <v>317</v>
       </c>
       <c r="D134" s="12" t="s">
@@ -6505,7 +6503,7 @@
       <c r="B135" s="9">
         <v>12</v>
       </c>
-      <c r="C135" s="29"/>
+      <c r="C135" s="28"/>
       <c r="D135" s="12" t="s">
         <v>320</v>
       </c>
@@ -6521,7 +6519,7 @@
       <c r="B136" s="9">
         <v>13</v>
       </c>
-      <c r="C136" s="29"/>
+      <c r="C136" s="28"/>
       <c r="D136" s="12" t="s">
         <v>322</v>
       </c>
@@ -6537,7 +6535,7 @@
       <c r="B137" s="9">
         <v>14</v>
       </c>
-      <c r="C137" s="27" t="s">
+      <c r="C137" s="26" t="s">
         <v>324</v>
       </c>
       <c r="D137" s="12" t="s">
@@ -6553,7 +6551,7 @@
       <c r="B138" s="9">
         <v>15</v>
       </c>
-      <c r="C138" s="29"/>
+      <c r="C138" s="28"/>
       <c r="D138" s="12"/>
       <c r="E138" s="19"/>
       <c r="F138" s="12"/>
@@ -6563,7 +6561,7 @@
       <c r="B139" s="9">
         <v>16</v>
       </c>
-      <c r="C139" s="29" t="s">
+      <c r="C139" s="28" t="s">
         <v>326</v>
       </c>
       <c r="D139" s="12"/>
@@ -6575,8 +6573,8 @@
       <c r="B140" s="9">
         <v>17</v>
       </c>
-      <c r="C140" s="31"/>
-      <c r="D140" s="32"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="31"/>
       <c r="E140" s="19"/>
       <c r="F140" s="12"/>
       <c r="G140" s="12"/>
@@ -7083,7 +7081,7 @@
       <c r="D171" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="E171" s="35" t="s">
+      <c r="E171" s="34" t="s">
         <v>380</v>
       </c>
       <c r="F171" s="19"/>
@@ -7101,7 +7099,7 @@
       <c r="D172" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="E172" s="35" t="s">
+      <c r="E172" s="34" t="s">
         <v>383</v>
       </c>
       <c r="F172" s="19"/>
@@ -7248,7 +7246,7 @@
       <c r="E186" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="F186" s="27"/>
+      <c r="F186" s="26"/>
       <c r="G186" s="12" t="s">
         <v>392</v>
       </c>
@@ -7266,7 +7264,7 @@
       <c r="E187" s="19">
         <v>10.12</v>
       </c>
-      <c r="F187" s="29"/>
+      <c r="F187" s="28"/>
       <c r="G187" s="12" t="s">
         <v>394</v>
       </c>
@@ -7284,7 +7282,7 @@
       <c r="E188" s="19">
         <v>10.12</v>
       </c>
-      <c r="F188" s="29"/>
+      <c r="F188" s="28"/>
       <c r="G188" s="12" t="s">
         <v>396</v>
       </c>
@@ -7302,7 +7300,7 @@
       <c r="E189" s="19">
         <v>10.21</v>
       </c>
-      <c r="F189" s="29"/>
+      <c r="F189" s="28"/>
       <c r="G189" s="12" t="s">
         <v>398</v>
       </c>
@@ -7320,18 +7318,18 @@
       <c r="E190" s="19">
         <v>10.22</v>
       </c>
-      <c r="F190" s="30"/>
+      <c r="F190" s="29"/>
       <c r="G190" s="12" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="33"/>
-      <c r="C191" s="34"/>
-      <c r="D191" s="34"/>
-      <c r="E191" s="34"/>
-      <c r="F191" s="34"/>
-      <c r="G191" s="36"/>
+      <c r="B191" s="32"/>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="35"/>
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="15" t="s">
@@ -7393,9 +7391,9 @@
         <v>409</v>
       </c>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" ht="24" spans="2:7">
       <c r="B196" s="9"/>
-      <c r="C196" s="37" t="s">
+      <c r="C196" s="36" t="s">
         <v>410</v>
       </c>
       <c r="D196" s="12" t="s">
@@ -7405,69 +7403,135 @@
         <v>11.2</v>
       </c>
       <c r="F196" s="19"/>
-      <c r="G196" s="12"/>
-    </row>
-    <row r="197" spans="2:7">
+      <c r="G196" s="12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="197" ht="24" spans="2:7">
       <c r="B197" s="9"/>
-      <c r="C197" s="10"/>
-      <c r="D197" s="12"/>
-      <c r="E197" s="19"/>
+      <c r="C197" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D197" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="E197" s="19">
+        <v>11.2</v>
+      </c>
       <c r="F197" s="19"/>
-      <c r="G197" s="12"/>
-    </row>
-    <row r="198" spans="2:7">
+      <c r="G197" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="198" ht="36" spans="2:7">
       <c r="B198" s="9"/>
-      <c r="C198" s="10"/>
-      <c r="D198" s="12"/>
-      <c r="E198" s="19"/>
+      <c r="C198" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="E198" s="19">
+        <v>11.3</v>
+      </c>
       <c r="F198" s="19"/>
-      <c r="G198" s="12"/>
-    </row>
-    <row r="199" ht="260.25" customHeight="1" spans="2:7">
-      <c r="B199" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="C199" s="38"/>
-      <c r="D199" s="38"/>
-      <c r="E199" s="38"/>
-      <c r="F199" s="38"/>
-      <c r="G199" s="38"/>
+      <c r="G198" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" s="9"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="12"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="C200" s="16"/>
-      <c r="D200" s="16"/>
-      <c r="E200" s="16"/>
-      <c r="F200" s="16"/>
-      <c r="G200" s="22"/>
-    </row>
-    <row r="201" ht="409.5" spans="3:7">
-      <c r="C201" s="27"/>
-      <c r="D201" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="E201" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="F201" s="27"/>
-      <c r="G201" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="202" ht="409.5" spans="3:7">
-      <c r="C202" s="30"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="30"/>
-      <c r="G202" s="12" t="s">
+      <c r="B200" s="9"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="19"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="12"/>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="9"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="12"/>
+      <c r="E201" s="19"/>
+      <c r="F201" s="19"/>
+      <c r="G201" s="12"/>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" s="9"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="12"/>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="12"/>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" s="9"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="12"/>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="12"/>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" s="9"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="12"/>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="12"/>
+    </row>
+    <row r="205" ht="260.25" customHeight="1" spans="2:7">
+      <c r="B205" s="37" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="204" ht="192" spans="3:3">
-      <c r="C204" s="5" t="s">
+      <c r="C205" s="37"/>
+      <c r="D205" s="37"/>
+      <c r="E205" s="37"/>
+      <c r="F205" s="37"/>
+      <c r="G205" s="37"/>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="38" t="s">
         <v>418</v>
+      </c>
+      <c r="C206" s="16"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="16"/>
+      <c r="G206" s="22"/>
+    </row>
+    <row r="207" ht="409.5" spans="3:7">
+      <c r="C207" s="26"/>
+      <c r="D207" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="E207" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="F207" s="26"/>
+      <c r="G207" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="208" ht="409.5" spans="3:7">
+      <c r="C208" s="29"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="29"/>
+      <c r="G208" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="210" ht="192" spans="3:3">
+      <c r="C210" s="5" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -7499,8 +7563,8 @@
     <mergeCell ref="B185:G185"/>
     <mergeCell ref="B191:G191"/>
     <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B200:G200"/>
+    <mergeCell ref="B205:G205"/>
+    <mergeCell ref="B206:G206"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
@@ -7514,11 +7578,11 @@
     <mergeCell ref="C131:C133"/>
     <mergeCell ref="C134:C136"/>
     <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:D202"/>
-    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="C207:C208"/>
+    <mergeCell ref="D207:D208"/>
+    <mergeCell ref="E207:E208"/>
     <mergeCell ref="F186:F190"/>
-    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="F207:F208"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7546,7 +7610,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7554,24 +7618,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7596,10 +7660,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7607,7 +7671,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7615,7 +7679,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7623,7 +7687,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="440">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2829,6 +2829,26 @@
     <t>js: 多过思路~理解了还是不难
 方法一: dfs-超时-分别判断每一个节点能否到达第一二边界  O(n^2 * m^2)
 方法二: bfs 从第一边界和第二边界开始向高处流, 标记可以流到的位置, 两个边界都能到达的位置就是所求结果</t>
+  </si>
+  <si>
+    <t>104.建造最大岛屿</t>
+  </si>
+  <si>
+    <t>js:
+dfs,和答案思路差不多,但没考虑到海洋四周可能是同一个岛屿的情况,要注意重复!!!
+唉这个题做了半天,到处都没考虑到呢~ 
+1.const areaMap = new Map(); // map要new!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 110. 字符串接龙</t>
+  </si>
+  <si>
+    <t>js:
+思路:无向图求最短路，广搜最为合适，广搜只要搜到了终点，那么一定是最短的路径。因为广搜就是以起点中心向四周扩散的搜索。本题如果用深搜，会比较麻烦，要在到达终点的不同路径中选则一条最短路
+1.String.fromCharCode(): 返回由指定的 UTF-16 码元序列创建的字符串, 语法: String.fromCharCode(num1, num2, /* …, */ numN), numN: 一个介于 0 和 65535（0xFFFF）之间的数字，表示一个 UTF-16 码元, 返回值: 一个长度为 N 的字符串，由 N 个指定的 UTF-16 码元组成
+2.String.prototype.charCodeAt(): 返回一个整数，表示给定索引处的 UTF-16 码元，其值介于 0 和 65535 之间
+3.Set常用方法: add, has, values
+4.Map常用方法: set, get, has, values</t>
   </si>
   <si>
     <t>总结：
@@ -4256,10 +4276,10 @@
   <sheetPr/>
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G198" sqref="G198"/>
+      <selection pane="bottomLeft" activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7439,21 +7459,37 @@
         <v>416</v>
       </c>
     </row>
-    <row r="199" spans="2:7">
+    <row r="199" ht="60" spans="2:7">
       <c r="B199" s="9"/>
-      <c r="C199" s="10"/>
-      <c r="D199" s="12"/>
-      <c r="E199" s="19"/>
+      <c r="C199" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D199" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="E199" s="19">
+        <v>11.3</v>
+      </c>
       <c r="F199" s="19"/>
-      <c r="G199" s="12"/>
-    </row>
-    <row r="200" spans="2:7">
+      <c r="G199" s="12" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="200" ht="108" spans="2:7">
       <c r="B200" s="9"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="12"/>
-      <c r="E200" s="19"/>
+      <c r="C200" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="E200" s="19">
+        <v>11.4</v>
+      </c>
       <c r="F200" s="19"/>
-      <c r="G200" s="12"/>
+      <c r="G200" s="12" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="201" spans="2:7">
       <c r="B201" s="9"/>
@@ -7489,7 +7525,7 @@
     </row>
     <row r="205" ht="260.25" customHeight="1" spans="2:7">
       <c r="B205" s="37" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C205" s="37"/>
       <c r="D205" s="37"/>
@@ -7499,7 +7535,7 @@
     </row>
     <row r="206" spans="2:7">
       <c r="B206" s="38" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
@@ -7510,14 +7546,14 @@
     <row r="207" ht="409.5" spans="3:7">
       <c r="C207" s="26"/>
       <c r="D207" s="10" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="F207" s="26"/>
       <c r="G207" s="12" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="208" ht="409.5" spans="3:7">
@@ -7526,12 +7562,12 @@
       <c r="E208" s="10"/>
       <c r="F208" s="29"/>
       <c r="G208" s="12" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="210" ht="192" spans="3:3">
       <c r="C210" s="5" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -7610,7 +7646,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7618,24 +7654,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7660,10 +7696,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7671,7 +7707,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7679,7 +7715,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7687,7 +7723,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="450">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2849,6 +2849,90 @@
 2.String.prototype.charCodeAt(): 返回一个整数，表示给定索引处的 UTF-16 码元，其值介于 0 和 65535 之间
 3.Set常用方法: add, has, values
 4.Map常用方法: set, get, has, values</t>
+  </si>
+  <si>
+    <t>105.有向图的完全可达性</t>
+  </si>
+  <si>
+    <t>js:  还没过..逻辑有问题..
+方法一:dfs, dfs函数的设计, 使用二位数组有点麻烦, 空间和时间花销都太大, 有没有其他方式记录节点和边的结构~???
+有向图搜索全路径的问题。 只能用深搜（DFS）或者广搜（BFS）来搜</t>
+  </si>
+  <si>
+    <t>106. 岛屿的周长</t>
+  </si>
+  <si>
+    <t>js:
+很顺利,bfs,dfs都用不上~</t>
+  </si>
+  <si>
+    <t>107. 寻找存在的路径</t>
+  </si>
+  <si>
+    <t xml:space="preserve">js:
+边写边看,多复习~思路挺简单
+并查集理论基础     (好牛的思路~)
+1.解决什么问题:
+解决连通性问题。就是当我们需要判断两个元素是否在同一个集合里的时候，我们就要想到用并查集。
+能解决的问题: 两个节点是否在一个集合，也可以将两个节点添加到一个集合中
+并查集主要有3个功能:
+    1.寻找根节点，函数：find(int u)，也就是判断这个节点的祖先节点是哪个
+    2.将两个节点接入到同一个集合，函数：join(int u, int v)，将两个节点连在同一个根节点上
+    3.判断两个节点是否在同一个集合，函数：isSame(int u, int v)，就是判断两个节点是不是同一个根节点
+代码模板:
+1.加入了路径压缩!
+2.误区:join中的代码和isSame中的代码有点相似,但不能简化,本质不同,join必须要找到根
+3.模拟过程
+4.按秩（rank）合并方法没有细看,掌握路径压缩方法即可
+5.复杂度分析: 在第一次查询的时候，相当于是n叉树上从叶子节点到根节点的查询过程，时间复杂度是logn，但路径压缩后，后面的查询操作都是O(1)，而 join 函数 和 isSame函数 里涉及的查询操作也是一样的过程
+代码:
+int n = 1005; // n根据题目中节点数量而定，一般比节点数量大一点就好
+vector&lt;int&gt; father = vector&lt;int&gt; (n, 0); // C++里的一种数组结构
+// 并查集初始化
+void init() {
+    for (int i = 0; i &lt; n; ++i) {
+        father[i] = i;
+    }
+}
+// 并查集里寻根的过程
+int find(int u) {
+    if (u == father[u]) return u;
+    else return father[u] = find(father[u]); // 路径压缩
+}
+// 判断 u 和 v是否找到同一个根
+bool isSame(int u, int v) {
+    u = find(u);
+    v = find(v);
+    return u == v;
+}
+// 将v-&gt;u 这条边加入并查集
+void join(int u, int v) {
+    u = find(u); // 寻找u的根
+    v = find(v); // 寻找v的根
+    if (u == v) return ; // 如果发现根相同，则说明在一个集合，不用两个节点相连直接返回
+    father[v] = u;
+}
+</t>
+  </si>
+  <si>
+    <t>108. 冗余连接</t>
+  </si>
+  <si>
+    <t>js: 无向图,简单很多
+思路清楚后,很顺利~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">109. 冗余连接II </t>
+  </si>
+  <si>
+    <t>js:
+抄的,大致思路ok,有些细节实现..脑子转不过来了,明天再看看
+区别于上一个题,这个是有向图
+题解:
+1. 情况一：如果我们找到入度为2的点，那么删一条指向该节点的边就行了
+2. 情况二:  只能删特定的一条边
+综合1,2: 如果发现入度为2的节点，我们需要判断删除哪一条边，删除后本图能成为有向树。如果是删哪个都可以，优先删顺序靠后的边
+3. 情况三： 如果没有入度为2的点，说明 图中有环了（注意是有向环）, 删掉构成环的边就可以了</t>
   </si>
   <si>
     <t>总结：
@@ -4274,12 +4358,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G195" sqref="G195"/>
+      <selection pane="bottomLeft" activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7491,83 +7575,163 @@
         <v>420</v>
       </c>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" ht="36" spans="2:7">
       <c r="B201" s="9"/>
-      <c r="C201" s="10"/>
-      <c r="D201" s="12"/>
-      <c r="E201" s="19"/>
+      <c r="C201" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="D201" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="E201" s="19">
+        <v>11.4</v>
+      </c>
       <c r="F201" s="19"/>
-      <c r="G201" s="12"/>
-    </row>
-    <row r="202" spans="2:7">
+      <c r="G201" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="202" ht="24" spans="2:7">
       <c r="B202" s="9"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="12"/>
-      <c r="E202" s="19"/>
+      <c r="C202" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D202" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E202" s="19">
+        <v>11.4</v>
+      </c>
       <c r="F202" s="19"/>
-      <c r="G202" s="12"/>
-    </row>
-    <row r="203" spans="2:7">
+      <c r="G202" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="203" ht="409.5" spans="2:7">
       <c r="B203" s="9"/>
-      <c r="C203" s="10"/>
-      <c r="D203" s="12"/>
-      <c r="E203" s="19"/>
+      <c r="C203" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="E203" s="19">
+        <v>11.4</v>
+      </c>
       <c r="F203" s="19"/>
-      <c r="G203" s="12"/>
-    </row>
-    <row r="204" spans="2:7">
+      <c r="G203" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="204" ht="24" spans="2:7">
       <c r="B204" s="9"/>
-      <c r="C204" s="10"/>
-      <c r="D204" s="12"/>
-      <c r="E204" s="19"/>
+      <c r="C204" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D204" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="E204" s="19">
+        <v>11.4</v>
+      </c>
       <c r="F204" s="19"/>
-      <c r="G204" s="12"/>
-    </row>
-    <row r="205" ht="260.25" customHeight="1" spans="2:7">
-      <c r="B205" s="37" t="s">
-        <v>421</v>
-      </c>
-      <c r="C205" s="37"/>
-      <c r="D205" s="37"/>
-      <c r="E205" s="37"/>
-      <c r="F205" s="37"/>
-      <c r="G205" s="37"/>
+      <c r="G204" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="205" ht="108" spans="2:7">
+      <c r="B205" s="9"/>
+      <c r="C205" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="E205" s="19">
+        <v>11.4</v>
+      </c>
+      <c r="F205" s="19"/>
+      <c r="G205" s="12" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="38" t="s">
-        <v>422</v>
-      </c>
-      <c r="C206" s="16"/>
-      <c r="D206" s="16"/>
-      <c r="E206" s="16"/>
-      <c r="F206" s="16"/>
-      <c r="G206" s="22"/>
-    </row>
-    <row r="207" ht="409.5" spans="3:7">
-      <c r="C207" s="26"/>
-      <c r="D207" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="E207" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="F207" s="26"/>
-      <c r="G207" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="208" ht="409.5" spans="3:7">
-      <c r="C208" s="29"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="29"/>
-      <c r="G208" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="210" ht="192" spans="3:3">
-      <c r="C210" s="5" t="s">
-        <v>427</v>
+      <c r="B206" s="9"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="12"/>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="12"/>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="9"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="12"/>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="12"/>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="9"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="12"/>
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="12"/>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="9"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="12"/>
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="12"/>
+    </row>
+    <row r="210" ht="260.25" customHeight="1" spans="2:7">
+      <c r="B210" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="C210" s="37"/>
+      <c r="D210" s="37"/>
+      <c r="E210" s="37"/>
+      <c r="F210" s="37"/>
+      <c r="G210" s="37"/>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="C211" s="16"/>
+      <c r="D211" s="16"/>
+      <c r="E211" s="16"/>
+      <c r="F211" s="16"/>
+      <c r="G211" s="22"/>
+    </row>
+    <row r="212" ht="409.5" spans="3:7">
+      <c r="C212" s="26"/>
+      <c r="D212" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="E212" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="F212" s="26"/>
+      <c r="G212" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="213" ht="409.5" spans="3:7">
+      <c r="C213" s="29"/>
+      <c r="D213" s="10"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="29"/>
+      <c r="G213" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="215" ht="192" spans="3:3">
+      <c r="C215" s="5" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -7599,8 +7763,8 @@
     <mergeCell ref="B185:G185"/>
     <mergeCell ref="B191:G191"/>
     <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B205:G205"/>
-    <mergeCell ref="B206:G206"/>
+    <mergeCell ref="B210:G210"/>
+    <mergeCell ref="B211:G211"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
@@ -7614,11 +7778,11 @@
     <mergeCell ref="C131:C133"/>
     <mergeCell ref="C134:C136"/>
     <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C207:C208"/>
-    <mergeCell ref="D207:D208"/>
-    <mergeCell ref="E207:E208"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
     <mergeCell ref="F186:F190"/>
-    <mergeCell ref="F207:F208"/>
+    <mergeCell ref="F212:F213"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7646,7 +7810,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7654,24 +7818,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7696,10 +7860,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7707,7 +7871,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7715,7 +7879,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7723,7 +7887,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="457">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2698,6 +2698,9 @@
     <t>图论30</t>
   </si>
   <si>
+    <t>BFS和DFS</t>
+  </si>
+  <si>
     <t>98. 所有可达路径</t>
   </si>
   <si>
@@ -2806,9 +2809,6 @@
  initGraph前面必须加await的原因: initGraph 函数被定义为一个异步函数（async），这意味着它会返回一个 Promise。当你调用 initGraph() 时，你需要使用 await 来等待这个 Promise 完成, 从而避免在图还未完全构建完成时输出空的或未初始化的内容</t>
   </si>
   <si>
-    <t xml:space="preserve">101. 孤岛的总面积 </t>
-  </si>
-  <si>
     <t>101. 孤岛的总面积</t>
   </si>
   <si>
@@ -2864,6 +2864,9 @@
   <si>
     <t>js:
 很顺利,bfs,dfs都用不上~</t>
+  </si>
+  <si>
+    <t>并查集</t>
   </si>
   <si>
     <t>107. 寻找存在的路径</t>
@@ -2933,6 +2936,44 @@
 2. 情况二:  只能删特定的一条边
 综合1,2: 如果发现入度为2的节点，我们需要判断删除哪一条边，删除后本图能成为有向树。如果是删哪个都可以，优先删顺序靠后的边
 3. 情况三： 如果没有入度为2的点，说明 图中有环了（注意是有向环）, 删掉构成环的边就可以了</t>
+  </si>
+  <si>
+    <t>最小生成树</t>
+  </si>
+  <si>
+    <t>53. 寻宝（第七期模拟笔试）</t>
+  </si>
+  <si>
+    <t>js: 模板题
+最小生成树: 是所有节点的最小连通子图， 即：以最小的成本（边的权值）将图中所有节点链接到一起
+prim算法: 从节点的角度, 采用贪心的策略, 每次寻找距离, 最小生成树最近的节点, 并加入到最小生成树中
+prim三部曲：
+    第一步，选距离生成树最近节点
+    第二步，最近节点加入生成树
+    第三步，更新非生成树节点到生成树的距离（即更新minDist数组）
+核心:minDist数组 -&gt;  用来记录每一个节点距离最小生成树的最近距离
+拓展: 如果让打印出来 最小生成树的每条边呢？ 或者说 要把这个最小生成树画出来呢？</t>
+  </si>
+  <si>
+    <t>最小生成树--kruskal算法-&gt;prim 算法是维护节点的集合，而 Kruskal 是维护边的集合
+时间复杂度：nlogn （快排） + logn （并查集） ，所以最后依然是 nlogn 。n为边的数量。
+算法思路:
+    1.边的权值排序，因为要优先选最小的边加入到生成树里
+    2.遍历排序后的边
+        如果边首尾的两个节点在同一个集合，说明如果连上这条边图中会出现环
+        如果边首尾的两个节点不在同一个集合，加入到最小生成树，并把两个节点加入同一个集合
+如果将两个节点加入同一个集合，又如何判断两个节点是否在同一个集合呢？--&gt; 并查集
+拓展一: 如果题目要求将最小生成树的边输出的话，应该怎么办呢？
+拓展二: 什么情况用哪个算法更合适呢
+边少，使用 Kruskal 更优; 节点数量越少，prim算法效率就越优
+Prim 算法 时间复杂度为 O(n^2)，其中 n 为节点数量，它的运行效率和图中边树无关，适用稠密图。
+Kruskal算法 时间复杂度 为 nlogn，其中n 为边的数量，适用稀疏图。</t>
+  </si>
+  <si>
+    <t>拓扑排序</t>
+  </si>
+  <si>
+    <t>最短路算法</t>
   </si>
   <si>
     <t>总结：
@@ -3176,13 +3217,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -3921,7 +3961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3982,7 +4022,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4030,7 +4070,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4358,12 +4404,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G215"/>
+  <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G205" sqref="G205"/>
+      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7449,57 +7495,51 @@
       <c r="B193" s="9">
         <v>1</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="C193" s="36" t="s">
         <v>402</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F193" s="12"/>
       <c r="G193" s="12" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="194" ht="409.5" spans="2:7">
       <c r="B194" s="9"/>
-      <c r="C194" s="10" t="s">
-        <v>405</v>
-      </c>
+      <c r="C194" s="37"/>
       <c r="D194" s="12" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E194" s="19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F194" s="19"/>
       <c r="G194" s="12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="195" ht="60" spans="2:7">
       <c r="B195" s="9"/>
-      <c r="C195" s="10" t="s">
-        <v>408</v>
-      </c>
+      <c r="C195" s="37"/>
       <c r="D195" s="12" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E195" s="19">
         <v>11.2</v>
       </c>
       <c r="F195" s="19"/>
       <c r="G195" s="12" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="196" ht="24" spans="2:7">
       <c r="B196" s="9"/>
-      <c r="C196" s="36" t="s">
-        <v>410</v>
-      </c>
+      <c r="C196" s="37"/>
       <c r="D196" s="12" t="s">
         <v>411</v>
       </c>
@@ -7513,9 +7553,7 @@
     </row>
     <row r="197" ht="24" spans="2:7">
       <c r="B197" s="9"/>
-      <c r="C197" s="10" t="s">
-        <v>413</v>
-      </c>
+      <c r="C197" s="37"/>
       <c r="D197" s="12" t="s">
         <v>413</v>
       </c>
@@ -7529,9 +7567,7 @@
     </row>
     <row r="198" ht="36" spans="2:7">
       <c r="B198" s="9"/>
-      <c r="C198" s="10" t="s">
-        <v>415</v>
-      </c>
+      <c r="C198" s="37"/>
       <c r="D198" s="12" t="s">
         <v>415</v>
       </c>
@@ -7545,9 +7581,7 @@
     </row>
     <row r="199" ht="60" spans="2:7">
       <c r="B199" s="9"/>
-      <c r="C199" s="10" t="s">
-        <v>417</v>
-      </c>
+      <c r="C199" s="37"/>
       <c r="D199" s="12" t="s">
         <v>417</v>
       </c>
@@ -7561,9 +7595,7 @@
     </row>
     <row r="200" ht="108" spans="2:7">
       <c r="B200" s="9"/>
-      <c r="C200" s="10" t="s">
-        <v>419</v>
-      </c>
+      <c r="C200" s="37"/>
       <c r="D200" s="12" t="s">
         <v>419</v>
       </c>
@@ -7577,9 +7609,7 @@
     </row>
     <row r="201" ht="36" spans="2:7">
       <c r="B201" s="9"/>
-      <c r="C201" s="10" t="s">
-        <v>421</v>
-      </c>
+      <c r="C201" s="37"/>
       <c r="D201" s="12" t="s">
         <v>421</v>
       </c>
@@ -7593,9 +7623,7 @@
     </row>
     <row r="202" ht="24" spans="2:7">
       <c r="B202" s="9"/>
-      <c r="C202" s="10" t="s">
-        <v>423</v>
-      </c>
+      <c r="C202" s="38"/>
       <c r="D202" s="12" t="s">
         <v>423</v>
       </c>
@@ -7609,71 +7637,83 @@
     </row>
     <row r="203" ht="409.5" spans="2:7">
       <c r="B203" s="9"/>
-      <c r="C203" s="10" t="s">
+      <c r="C203" s="36" t="s">
         <v>425</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E203" s="19">
         <v>11.4</v>
       </c>
       <c r="F203" s="19"/>
       <c r="G203" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="204" ht="24" spans="2:7">
       <c r="B204" s="9"/>
-      <c r="C204" s="10" t="s">
-        <v>427</v>
-      </c>
+      <c r="C204" s="37"/>
       <c r="D204" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E204" s="19">
         <v>11.4</v>
       </c>
       <c r="F204" s="19"/>
       <c r="G204" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="205" ht="108" spans="2:7">
       <c r="B205" s="9"/>
-      <c r="C205" s="10" t="s">
-        <v>429</v>
-      </c>
+      <c r="C205" s="38"/>
       <c r="D205" s="12" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E205" s="19">
         <v>11.4</v>
       </c>
       <c r="F205" s="19"/>
       <c r="G205" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="206" spans="2:7">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="206" ht="144" spans="2:7">
       <c r="B206" s="9"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="12"/>
-      <c r="E206" s="19"/>
+      <c r="C206" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E206" s="19">
+        <v>11.5</v>
+      </c>
       <c r="F206" s="19"/>
-      <c r="G206" s="12"/>
-    </row>
-    <row r="207" spans="2:7">
+      <c r="G206" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="207" ht="192" spans="2:7">
       <c r="B207" s="9"/>
-      <c r="C207" s="10"/>
-      <c r="D207" s="12"/>
-      <c r="E207" s="19"/>
+      <c r="C207" s="38"/>
+      <c r="D207" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="E207" s="19">
+        <v>11.5</v>
+      </c>
       <c r="F207" s="19"/>
-      <c r="G207" s="12"/>
+      <c r="G207" s="12" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="208" spans="2:7">
       <c r="B208" s="9"/>
-      <c r="C208" s="10"/>
+      <c r="C208" s="36" t="s">
+        <v>436</v>
+      </c>
       <c r="D208" s="12"/>
       <c r="E208" s="19"/>
       <c r="F208" s="19"/>
@@ -7681,61 +7721,111 @@
     </row>
     <row r="209" spans="2:7">
       <c r="B209" s="9"/>
-      <c r="C209" s="10"/>
+      <c r="C209" s="37"/>
       <c r="D209" s="12"/>
       <c r="E209" s="19"/>
       <c r="F209" s="19"/>
       <c r="G209" s="12"/>
     </row>
-    <row r="210" ht="260.25" customHeight="1" spans="2:7">
-      <c r="B210" s="37" t="s">
-        <v>431</v>
-      </c>
+    <row r="210" spans="2:7">
+      <c r="B210" s="9"/>
       <c r="C210" s="37"/>
-      <c r="D210" s="37"/>
-      <c r="E210" s="37"/>
-      <c r="F210" s="37"/>
-      <c r="G210" s="37"/>
+      <c r="D210" s="12"/>
+      <c r="E210" s="19"/>
+      <c r="F210" s="19"/>
+      <c r="G210" s="12"/>
     </row>
     <row r="211" spans="2:7">
-      <c r="B211" s="38" t="s">
-        <v>432</v>
-      </c>
-      <c r="C211" s="16"/>
-      <c r="D211" s="16"/>
-      <c r="E211" s="16"/>
-      <c r="F211" s="16"/>
-      <c r="G211" s="22"/>
-    </row>
-    <row r="212" ht="409.5" spans="3:7">
-      <c r="C212" s="26"/>
-      <c r="D212" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="E212" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="F212" s="26"/>
-      <c r="G212" s="12" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="213" ht="409.5" spans="3:7">
-      <c r="C213" s="29"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="29"/>
-      <c r="G213" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="215" ht="192" spans="3:3">
-      <c r="C215" s="5" t="s">
+      <c r="B211" s="9"/>
+      <c r="C211" s="38"/>
+      <c r="D211" s="12"/>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="12"/>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" s="9"/>
+      <c r="C212" s="36" t="s">
         <v>437</v>
       </c>
+      <c r="D212" s="12"/>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="12"/>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" s="9"/>
+      <c r="C213" s="37"/>
+      <c r="D213" s="12"/>
+      <c r="E213" s="19"/>
+      <c r="F213" s="19"/>
+      <c r="G213" s="12"/>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" s="9"/>
+      <c r="C214" s="38"/>
+      <c r="D214" s="12"/>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="12"/>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" s="9"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="12"/>
+      <c r="E215" s="19"/>
+      <c r="F215" s="19"/>
+      <c r="G215" s="12"/>
+    </row>
+    <row r="216" ht="260.25" customHeight="1" spans="2:7">
+      <c r="B216" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="C216" s="39"/>
+      <c r="D216" s="39"/>
+      <c r="E216" s="39"/>
+      <c r="F216" s="39"/>
+      <c r="G216" s="39"/>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="C217" s="16"/>
+      <c r="D217" s="16"/>
+      <c r="E217" s="16"/>
+      <c r="F217" s="16"/>
+      <c r="G217" s="22"/>
+    </row>
+    <row r="218" ht="409.5" spans="3:7">
+      <c r="C218" s="26"/>
+      <c r="D218" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E218" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="F218" s="26"/>
+      <c r="G218" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="219" ht="409.5" spans="3:7">
+      <c r="C219" s="29"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="29"/>
+      <c r="G219" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="221" ht="192" spans="3:3">
+      <c r="C221" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="53">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -7763,8 +7853,8 @@
     <mergeCell ref="B185:G185"/>
     <mergeCell ref="B191:G191"/>
     <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B210:G210"/>
-    <mergeCell ref="B211:G211"/>
+    <mergeCell ref="B216:G216"/>
+    <mergeCell ref="B217:G217"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
@@ -7778,11 +7868,16 @@
     <mergeCell ref="C131:C133"/>
     <mergeCell ref="C134:C136"/>
     <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="C193:C202"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="C206:C207"/>
+    <mergeCell ref="C208:C211"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="C218:C219"/>
+    <mergeCell ref="D218:D219"/>
+    <mergeCell ref="E218:E219"/>
     <mergeCell ref="F186:F190"/>
-    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="F218:F219"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7810,7 +7905,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7818,24 +7913,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7860,10 +7955,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7871,7 +7966,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7879,7 +7974,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7887,7 +7982,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -2955,7 +2955,9 @@
 拓展: 如果让打印出来 最小生成树的每条边呢？ 或者说 要把这个最小生成树画出来呢？</t>
   </si>
   <si>
-    <t>最小生成树--kruskal算法-&gt;prim 算法是维护节点的集合，而 Kruskal 是维护边的集合
+    <t>js:模板题
+有一个疑问: join(x, y); // 两个节点加入到同一个集合  这个地方为什么不是join(edge[0], edge[1])吗??
+最小生成树--kruskal算法-&gt;prim 算法是维护节点的集合，而 Kruskal 是维护边的集合
 时间复杂度：nlogn （快排） + logn （并查集） ，所以最后依然是 nlogn 。n为边的数量。
 算法思路:
     1.边的权值排序，因为要优先选最小的边加入到生成树里
@@ -4409,7 +4411,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
+      <selection pane="bottomLeft" activeCell="G212" sqref="G212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7695,7 +7697,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="207" ht="192" spans="2:7">
+    <row r="207" ht="228" spans="2:7">
       <c r="B207" s="9"/>
       <c r="C207" s="38"/>
       <c r="D207" s="12" t="s">

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="459">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2973,6 +2973,23 @@
   </si>
   <si>
     <t>拓扑排序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">117. 软件构建 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">拓扑排序: 
+1.概念: 给出一个 有向图，把这个有向图转成线性的排序 就叫拓扑排序
+2.解决什么问题: 专门解决有依赖的问题,给出排序
+3.检测有环: 拓扑排序是图论中判断有向无环图的常用方法. 因为拓扑排序也要检测这个有向图 是否有环，即存在循环依赖的情况，因为这种情况是不能做线性排序的
+4.拓扑排序指的是一种 解决问题的大体思路， 而具体算法，可能是广搜也可能是深搜
+5.只要能在把 有向无环图 进行线性排序 的算法 都可以叫做 拓扑排序
+6.一般来说我们只需要掌握 BFS （广度优先搜索）就可以了
+思路:
+    1.找到入度为0 的节点，加入结果集
+    2.将该节点从图中移除
+拓扑排序判断有向环的方法: 如果发现结果集元素个数 不等于 图中节点个数，我们就可以认定图中一定有 有向环！
+</t>
   </si>
   <si>
     <t>最短路算法</t>
@@ -4408,10 +4425,10 @@
   <sheetPr/>
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G212" sqref="G212"/>
+      <selection pane="bottomLeft" activeCell="G208" sqref="G208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7711,15 +7728,21 @@
         <v>435</v>
       </c>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" ht="168" spans="2:7">
       <c r="B208" s="9"/>
       <c r="C208" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="D208" s="12"/>
-      <c r="E208" s="19"/>
+      <c r="D208" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="E208" s="19">
+        <v>11.5</v>
+      </c>
       <c r="F208" s="19"/>
-      <c r="G208" s="12"/>
+      <c r="G208" s="12" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="209" spans="2:7">
       <c r="B209" s="9"/>
@@ -7748,7 +7771,7 @@
     <row r="212" spans="2:7">
       <c r="B212" s="9"/>
       <c r="C212" s="36" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D212" s="12"/>
       <c r="E212" s="19"/>
@@ -7781,7 +7804,7 @@
     </row>
     <row r="216" ht="260.25" customHeight="1" spans="2:7">
       <c r="B216" s="39" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C216" s="39"/>
       <c r="D216" s="39"/>
@@ -7791,7 +7814,7 @@
     </row>
     <row r="217" spans="2:7">
       <c r="B217" s="40" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C217" s="16"/>
       <c r="D217" s="16"/>
@@ -7802,14 +7825,14 @@
     <row r="218" ht="409.5" spans="3:7">
       <c r="C218" s="26"/>
       <c r="D218" s="10" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F218" s="26"/>
       <c r="G218" s="12" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="219" ht="409.5" spans="3:7">
@@ -7818,12 +7841,12 @@
       <c r="E219" s="10"/>
       <c r="F219" s="29"/>
       <c r="G219" s="12" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" ht="192" spans="3:3">
       <c r="C221" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -7907,7 +7930,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7915,24 +7938,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7957,10 +7980,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7968,7 +7991,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7976,7 +7999,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -7984,7 +8007,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="461">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2993,6 +2993,21 @@
   </si>
   <si>
     <t>最短路算法</t>
+  </si>
+  <si>
+    <t>47. 参加科学大会</t>
+  </si>
+  <si>
+    <t>dijkstra算法:
+prim是求 非访问节点到最小生成树的最小距离，而 dijkstra是求 非访问节点到源点的最小距离
+1.解决什么问题: 在有权图（权值非负数）中求从起点到其他节点的最短路径算法
+2.注意:    2.1 dijkstra 算法可以同时求 起点到所有节点的最短路径；2. 权值不能为负数
+3.和prim算法接近,也是贪心的思路, 算法三部曲
+    第一步，选源点到哪个节点近且该节点未被访问过
+    第二步，该最近节点被标记访问过
+    第三步，更新非访问节点到源点的距离（即更新minDist数组）
+4. minDist数组 用来记录 每一个节点距离源点的最小距离
+5.有负值的情况: 对于负权值的出现，大家可以针对某一个场景 不断去修改 dijkstra 的代码，但最终会发现只是 拆了东墙补西墙，对dijkstra的补充逻辑只能满足某特定场景最短路求解</t>
   </si>
   <si>
     <t>总结：
@@ -3673,7 +3688,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3684,9 +3701,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -3980,7 +3995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3996,7 +4011,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4005,90 +4020,93 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4098,11 +4116,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4425,10 +4452,10 @@
   <sheetPr/>
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G208" sqref="G208"/>
+      <selection pane="bottomLeft" activeCell="F209" sqref="F209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4445,3412 +4472,3418 @@
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" ht="36" spans="2:7">
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="23">
         <v>6.21</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="48" spans="2:7">
-      <c r="B5" s="9">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="23">
         <v>6.24</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" ht="36" spans="2:7">
-      <c r="B6" s="9">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="23">
         <v>6.24</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" ht="36" spans="2:7">
-      <c r="B7" s="9">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="23">
         <v>6.29</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="9">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="25">
         <v>6.3</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="48" spans="2:7">
-      <c r="B9" s="9">
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="23">
         <v>7.24</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="120" spans="2:7">
-      <c r="B10" s="9">
+      <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="23">
         <v>7.25</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="24" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="36" spans="2:7">
-      <c r="B11" s="9">
+      <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="2:7">
-      <c r="B12" s="9">
+      <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="23">
         <v>7.27</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="9">
+      <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="9">
+      <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="12"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" ht="54.95" customHeight="1" spans="2:7">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="21"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="12" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="24" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" ht="24" spans="2:7">
-      <c r="B18" s="9">
+      <c r="B18" s="11">
         <v>1</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="24" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" ht="36" spans="2:7">
-      <c r="B19" s="9">
+      <c r="B19" s="11">
         <v>2</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="23">
         <v>7.31</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="24" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" ht="72" spans="2:7">
-      <c r="B20" s="9">
+      <c r="B20" s="11">
         <v>3</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="24" spans="2:7">
-      <c r="B21" s="9">
+      <c r="B21" s="11">
         <v>4</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="23">
         <v>8.2</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="24" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" ht="36" spans="2:7">
-      <c r="B22" s="9">
+      <c r="B22" s="11">
         <v>5</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="19">
+      <c r="E22" s="23">
         <v>8.2</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="27" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="23" ht="24" spans="2:7">
-      <c r="B23" s="9">
+      <c r="B23" s="11">
         <v>6</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="23">
         <v>8.3</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="24" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" ht="24" spans="2:7">
-      <c r="B24" s="9">
+      <c r="B24" s="11">
         <v>7</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="23">
         <v>8.3</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="27" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" ht="92.1" customHeight="1" spans="2:7">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="24"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="22"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" ht="155.25" spans="2:7">
-      <c r="B27" s="9">
+      <c r="B27" s="11">
         <v>1</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="24" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" ht="60" spans="2:7">
-      <c r="B28" s="9">
+      <c r="B28" s="11">
         <v>2</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E28" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" ht="144" spans="2:7">
-      <c r="B29" s="9">
+      <c r="B29" s="11">
         <v>3</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="23">
         <v>8.9</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="24" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" ht="72" spans="2:7">
-      <c r="B30" s="9">
+      <c r="B30" s="11">
         <v>4</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="19" t="s">
+      <c r="E30" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="24" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" ht="60" spans="2:7">
-      <c r="B31" s="9">
+      <c r="B31" s="11">
         <v>5</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="28">
         <v>8.1</v>
       </c>
-      <c r="F31" s="25" t="s">
+      <c r="F31" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" ht="36" spans="2:7">
-      <c r="B32" s="9">
+      <c r="B32" s="11">
         <v>6</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="28">
         <v>8.1</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="24" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" ht="48" spans="2:7">
-      <c r="B33" s="9">
+      <c r="B33" s="11">
         <v>7</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="25" t="s">
+      <c r="F33" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" ht="36" spans="2:7">
-      <c r="B34" s="9">
+      <c r="B34" s="11">
         <v>8</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="28">
         <v>8.12</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="24" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" ht="263.1" customHeight="1" spans="2:7">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="21"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="22"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" ht="96" spans="2:7">
-      <c r="B37" s="9">
+      <c r="B37" s="11">
         <v>1</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="12"/>
+      <c r="D37" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="23">
         <v>8.5</v>
       </c>
-      <c r="F37" s="19" t="s">
+      <c r="F37" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" ht="72" spans="2:7">
-      <c r="B38" s="9">
+      <c r="B38" s="11">
         <v>2</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="19" t="s">
+      <c r="F38" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="24" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" ht="72" spans="2:7">
-      <c r="B39" s="9">
+      <c r="B39" s="11">
         <v>3</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="23">
         <v>8.5</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="24" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" ht="228" spans="2:7">
-      <c r="B40" s="9">
+      <c r="B40" s="11">
         <v>4</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="12" t="s">
+      <c r="C40" s="12"/>
+      <c r="D40" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="23">
         <v>8.6</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="24" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" ht="240" spans="2:7">
-      <c r="B41" s="9">
+      <c r="B41" s="11">
         <v>5</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="12" t="s">
+      <c r="C41" s="12"/>
+      <c r="D41" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="24" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" ht="36" spans="2:7">
-      <c r="B42" s="9">
+      <c r="B42" s="11">
         <v>6</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="12" t="s">
+      <c r="C42" s="12"/>
+      <c r="D42" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="23">
         <v>8.8</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="24" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="155.1" customHeight="1" spans="2:7">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="21"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="22"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" ht="36" spans="2:7">
-      <c r="B45" s="9">
+      <c r="B45" s="11">
         <v>1</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E45" s="23">
         <v>8.12</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="24" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="46" ht="84" spans="2:7">
-      <c r="B46" s="9">
+      <c r="B46" s="11">
         <v>2</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="24" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" ht="72" spans="2:7">
-      <c r="B47" s="9">
+      <c r="B47" s="11">
         <v>3</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E47" s="23">
         <v>8.13</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="24" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" ht="156" spans="2:7">
-      <c r="B48" s="9">
+      <c r="B48" s="11">
         <v>4</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="23">
         <v>8.14</v>
       </c>
-      <c r="F48" s="19" t="s">
+      <c r="F48" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="24" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="49" ht="409.5" spans="2:7">
-      <c r="B49" s="9">
+      <c r="B49" s="11">
         <v>5</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="19">
+      <c r="E49" s="23">
         <v>8.14</v>
       </c>
-      <c r="F49" s="19" t="s">
+      <c r="F49" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="50" ht="24" spans="2:7">
-      <c r="B50" s="9">
+      <c r="B50" s="11">
         <v>6</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="12" t="s">
         <v>153</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="19">
+      <c r="E50" s="23">
         <v>8.14</v>
       </c>
-      <c r="F50" s="19"/>
-      <c r="G50" s="12"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="9">
+      <c r="B51" s="11">
         <v>7</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" ht="159" customHeight="1" spans="2:7">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="21"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="22"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" ht="60" spans="2:7">
-      <c r="B54" s="9">
+      <c r="B54" s="11">
         <v>1</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E54" s="23">
         <v>8.18</v>
       </c>
-      <c r="F54" s="19" t="s">
+      <c r="F54" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="24" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="55" ht="24" spans="2:7">
-      <c r="B55" s="9">
+      <c r="B55" s="11">
         <v>2</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="19">
+      <c r="E55" s="23">
         <v>8.18</v>
       </c>
-      <c r="F55" s="19"/>
-      <c r="G55" s="12" t="s">
+      <c r="F55" s="23"/>
+      <c r="G55" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="56" ht="36" spans="2:7">
-      <c r="B56" s="9">
+      <c r="B56" s="11">
         <v>3</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="19">
+      <c r="E56" s="23">
         <v>8.18</v>
       </c>
-      <c r="F56" s="19"/>
-      <c r="G56" s="12" t="s">
+      <c r="F56" s="23"/>
+      <c r="G56" s="24" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="57" ht="24" spans="2:7">
-      <c r="B57" s="9">
+      <c r="B57" s="11">
         <v>4</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="19">
+      <c r="E57" s="23">
         <v>8.18</v>
       </c>
-      <c r="F57" s="19"/>
-      <c r="G57" s="12" t="s">
+      <c r="F57" s="23"/>
+      <c r="G57" s="24" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="58" ht="24" spans="2:7">
-      <c r="B58" s="9">
+      <c r="B58" s="11">
         <v>5</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="19">
+      <c r="E58" s="23">
         <v>8.18</v>
       </c>
-      <c r="F58" s="19"/>
-      <c r="G58" s="12" t="s">
+      <c r="F58" s="23"/>
+      <c r="G58" s="24" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="59" ht="24" spans="2:7">
-      <c r="B59" s="9">
+      <c r="B59" s="11">
         <v>6</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="19">
+      <c r="E59" s="23">
         <v>8.18</v>
       </c>
-      <c r="F59" s="19"/>
-      <c r="G59" s="12"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="9">
+      <c r="B60" s="11">
         <v>7</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="12"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="9">
+      <c r="B61" s="11">
         <v>8</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="12"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" ht="24" spans="2:7">
-      <c r="B62" s="9">
+      <c r="B62" s="11">
         <v>9</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="19">
+      <c r="E62" s="23">
         <v>8.18</v>
       </c>
-      <c r="F62" s="19"/>
-      <c r="G62" s="12" t="s">
+      <c r="F62" s="23"/>
+      <c r="G62" s="24" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="63" ht="24" spans="2:7">
-      <c r="B63" s="9">
+      <c r="B63" s="11">
         <v>10</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E63" s="23">
         <v>8.18</v>
       </c>
-      <c r="F63" s="19"/>
-      <c r="G63" s="12" t="s">
+      <c r="F63" s="23"/>
+      <c r="G63" s="24" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="21"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="22"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" ht="409.5" spans="2:7">
-      <c r="B66" s="9">
+      <c r="B66" s="11">
         <v>1</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C66" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E66" s="23">
         <v>8.23</v>
       </c>
-      <c r="F66" s="19"/>
-      <c r="G66" s="12" t="s">
+      <c r="F66" s="23"/>
+      <c r="G66" s="24" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="67" ht="60" spans="2:7">
-      <c r="B67" s="9">
+      <c r="B67" s="11">
         <v>2</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C67" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E67" s="19">
+      <c r="E67" s="23">
         <v>8.23</v>
       </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="12" t="s">
+      <c r="F67" s="23"/>
+      <c r="G67" s="24" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="68" ht="48" spans="2:7">
-      <c r="B68" s="9">
+      <c r="B68" s="11">
         <v>3</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E68" s="19">
+      <c r="E68" s="23">
         <v>8.23</v>
       </c>
-      <c r="F68" s="19"/>
-      <c r="G68" s="12" t="s">
+      <c r="F68" s="23"/>
+      <c r="G68" s="24" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="69" ht="84" spans="2:7">
-      <c r="B69" s="9">
+      <c r="B69" s="11">
         <v>4</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C69" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="19">
+      <c r="E69" s="23">
         <v>8.28</v>
       </c>
-      <c r="F69" s="19"/>
-      <c r="G69" s="12" t="s">
+      <c r="F69" s="23"/>
+      <c r="G69" s="24" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="70" ht="60" spans="2:7">
-      <c r="B70" s="9">
+      <c r="B70" s="11">
         <v>5</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C70" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="23">
         <v>8.28</v>
       </c>
-      <c r="F70" s="19"/>
-      <c r="G70" s="12" t="s">
+      <c r="F70" s="23"/>
+      <c r="G70" s="24" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="71" ht="36" spans="2:7">
-      <c r="B71" s="9">
+      <c r="B71" s="11">
         <v>6</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C71" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="12" t="s">
+      <c r="D71" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="23">
         <v>8.28</v>
       </c>
-      <c r="F71" s="19"/>
-      <c r="G71" s="12" t="s">
+      <c r="F71" s="23"/>
+      <c r="G71" s="24" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="72" ht="409.5" spans="2:7">
-      <c r="B72" s="9">
+      <c r="B72" s="11">
         <v>7</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C72" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D72" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="23">
         <v>8.28</v>
       </c>
-      <c r="F72" s="19" t="s">
+      <c r="F72" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="G72" s="12" t="s">
+      <c r="G72" s="24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="73" ht="257.1" customHeight="1" spans="1:7">
-      <c r="A73" s="12"/>
-      <c r="B73" s="13" t="s">
+      <c r="A73" s="24"/>
+      <c r="B73" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="21"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="26"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="22"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="16"/>
     </row>
     <row r="75" ht="120" spans="2:7">
-      <c r="B75" s="9">
+      <c r="B75" s="11">
         <v>1</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E75" s="23">
         <v>8.29</v>
       </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="12" t="s">
+      <c r="F75" s="23"/>
+      <c r="G75" s="24" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="76" ht="24" spans="2:7">
-      <c r="B76" s="27">
+      <c r="B76" s="11">
         <v>2</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="12" t="s">
+      <c r="C76" s="12"/>
+      <c r="D76" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E76" s="19">
+      <c r="E76" s="23">
         <v>8.29</v>
       </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="12" t="s">
+      <c r="F76" s="23"/>
+      <c r="G76" s="24" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="77" ht="24" spans="2:7">
-      <c r="B77" s="9">
+      <c r="B77" s="11">
         <v>3</v>
       </c>
-      <c r="C77" s="29"/>
-      <c r="D77" s="12" t="s">
+      <c r="C77" s="12"/>
+      <c r="D77" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E77" s="23">
         <v>8.29</v>
       </c>
-      <c r="F77" s="19"/>
-      <c r="G77" s="12" t="s">
+      <c r="F77" s="23"/>
+      <c r="G77" s="24" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="78" ht="48" spans="2:7">
-      <c r="B78" s="27"/>
-      <c r="C78" s="26" t="s">
+      <c r="B78" s="11"/>
+      <c r="C78" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="23">
         <v>8.29</v>
       </c>
-      <c r="F78" s="19"/>
-      <c r="G78" s="12" t="s">
+      <c r="F78" s="23"/>
+      <c r="G78" s="24" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="79" ht="36" spans="2:7">
-      <c r="B79" s="9"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="12" t="s">
+      <c r="B79" s="11"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="19">
+      <c r="E79" s="23">
         <v>8.31</v>
       </c>
-      <c r="F79" s="19"/>
-      <c r="G79" s="12" t="s">
+      <c r="F79" s="23"/>
+      <c r="G79" s="24" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="80" ht="36" spans="2:7">
-      <c r="B80" s="27"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="12" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E80" s="19">
+      <c r="E80" s="23">
         <v>8.31</v>
       </c>
-      <c r="F80" s="19"/>
-      <c r="G80" s="12" t="s">
+      <c r="F80" s="23"/>
+      <c r="G80" s="24" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="81" ht="48" spans="2:7">
-      <c r="B81" s="27"/>
-      <c r="C81" s="26" t="s">
+      <c r="B81" s="11"/>
+      <c r="C81" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="12" t="s">
+      <c r="D81" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E81" s="19">
+      <c r="E81" s="23">
         <v>8.31</v>
       </c>
-      <c r="F81" s="19"/>
-      <c r="G81" s="12" t="s">
+      <c r="F81" s="23"/>
+      <c r="G81" s="24" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="82" ht="24" spans="2:7">
-      <c r="B82" s="27"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="12" t="s">
+      <c r="B82" s="11"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E82" s="19">
+      <c r="E82" s="23">
         <v>8.31</v>
       </c>
-      <c r="F82" s="19"/>
-      <c r="G82" s="12" t="s">
+      <c r="F82" s="23"/>
+      <c r="G82" s="24" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="83" ht="36" spans="2:7">
-      <c r="B83" s="27"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="12" t="s">
+      <c r="B83" s="11"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="19">
+      <c r="E83" s="23">
         <v>8.31</v>
       </c>
-      <c r="F83" s="19"/>
-      <c r="G83" s="12" t="s">
+      <c r="F83" s="23"/>
+      <c r="G83" s="24" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="84" ht="72" spans="2:7">
-      <c r="B84" s="27">
+      <c r="B84" s="11">
         <v>4</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="19">
+      <c r="E84" s="23">
         <v>8.31</v>
       </c>
-      <c r="F84" s="19"/>
-      <c r="G84" s="12" t="s">
+      <c r="F84" s="23"/>
+      <c r="G84" s="24" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="85" ht="24" spans="2:7">
-      <c r="B85" s="27">
+      <c r="B85" s="11">
         <v>5</v>
       </c>
-      <c r="C85" s="28"/>
-      <c r="D85" s="12" t="s">
+      <c r="C85" s="12"/>
+      <c r="D85" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85" s="23">
         <v>8.31</v>
       </c>
-      <c r="F85" s="19"/>
-      <c r="G85" s="12" t="s">
+      <c r="F85" s="23"/>
+      <c r="G85" s="24" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="86" ht="24" spans="2:7">
-      <c r="B86" s="27">
+      <c r="B86" s="11">
         <v>6</v>
       </c>
-      <c r="C86" s="28"/>
-      <c r="D86" s="12" t="s">
+      <c r="C86" s="12"/>
+      <c r="D86" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="23">
         <v>8.31</v>
       </c>
-      <c r="F86" s="19"/>
-      <c r="G86" s="12" t="s">
+      <c r="F86" s="23"/>
+      <c r="G86" s="24" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" ht="24" spans="2:7">
-      <c r="B87" s="27">
+      <c r="B87" s="11">
         <v>7</v>
       </c>
-      <c r="C87" s="28"/>
-      <c r="D87" s="12" t="s">
+      <c r="C87" s="12"/>
+      <c r="D87" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E87" s="19">
+      <c r="E87" s="23">
         <v>8.31</v>
       </c>
-      <c r="F87" s="19"/>
-      <c r="G87" s="12" t="s">
+      <c r="F87" s="23"/>
+      <c r="G87" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="88" ht="24" spans="2:7">
-      <c r="B88" s="27">
+      <c r="B88" s="11">
         <v>8</v>
       </c>
-      <c r="C88" s="28"/>
-      <c r="D88" s="12" t="s">
+      <c r="C88" s="12"/>
+      <c r="D88" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="E88" s="19">
+      <c r="E88" s="23">
         <v>8.31</v>
       </c>
-      <c r="F88" s="19"/>
-      <c r="G88" s="12" t="s">
+      <c r="F88" s="23"/>
+      <c r="G88" s="24" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="89" ht="24" spans="2:7">
-      <c r="B89" s="27">
+      <c r="B89" s="11">
         <v>9</v>
       </c>
-      <c r="C89" s="28"/>
-      <c r="D89" s="12" t="s">
+      <c r="C89" s="12"/>
+      <c r="D89" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="E89" s="19">
+      <c r="E89" s="23">
         <v>8.31</v>
       </c>
-      <c r="F89" s="19"/>
-      <c r="G89" s="12" t="s">
+      <c r="F89" s="23"/>
+      <c r="G89" s="24" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="90" ht="24" spans="2:7">
-      <c r="B90" s="27">
+      <c r="B90" s="11">
         <v>10</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="12" t="s">
+      <c r="C90" s="12"/>
+      <c r="D90" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="E90" s="19">
+      <c r="E90" s="23">
         <v>8.31</v>
       </c>
-      <c r="F90" s="19"/>
-      <c r="G90" s="12" t="s">
+      <c r="F90" s="23"/>
+      <c r="G90" s="24" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="91" ht="24" spans="2:7">
-      <c r="B91" s="27">
+      <c r="B91" s="11">
         <v>11</v>
       </c>
-      <c r="C91" s="28"/>
-      <c r="D91" s="12" t="s">
+      <c r="C91" s="12"/>
+      <c r="D91" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E91" s="19">
+      <c r="E91" s="23">
         <v>8.31</v>
       </c>
-      <c r="F91" s="19"/>
-      <c r="G91" s="12" t="s">
+      <c r="F91" s="23"/>
+      <c r="G91" s="24" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="92" ht="36" spans="2:7">
-      <c r="B92" s="27">
+      <c r="B92" s="11">
         <v>12</v>
       </c>
-      <c r="C92" s="28"/>
-      <c r="D92" s="12" t="s">
+      <c r="C92" s="12"/>
+      <c r="D92" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E92" s="19">
+      <c r="E92" s="23">
         <v>9.1</v>
       </c>
-      <c r="F92" s="19"/>
-      <c r="G92" s="12" t="s">
+      <c r="F92" s="23"/>
+      <c r="G92" s="24" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="93" ht="24" spans="2:7">
-      <c r="B93" s="27">
+      <c r="B93" s="11">
         <v>13</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="12" t="s">
+      <c r="C93" s="12"/>
+      <c r="D93" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E93" s="19">
+      <c r="E93" s="23">
         <v>9.1</v>
       </c>
-      <c r="F93" s="19"/>
-      <c r="G93" s="12" t="s">
+      <c r="F93" s="23"/>
+      <c r="G93" s="24" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="94" ht="84" spans="2:7">
-      <c r="B94" s="27">
+      <c r="B94" s="11">
         <v>14</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C94" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="D94" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E94" s="19">
+      <c r="E94" s="23">
         <v>9.1</v>
       </c>
-      <c r="F94" s="19"/>
-      <c r="G94" s="12" t="s">
+      <c r="F94" s="23"/>
+      <c r="G94" s="24" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="95" ht="48" spans="2:7">
-      <c r="B95" s="27">
+      <c r="B95" s="11">
         <v>15</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D95" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="E95" s="19">
+      <c r="E95" s="23">
         <v>9.1</v>
       </c>
-      <c r="F95" s="19" t="s">
+      <c r="F95" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="G95" s="12" t="s">
+      <c r="G95" s="24" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="96" ht="36" spans="2:7">
-      <c r="B96" s="27">
+      <c r="B96" s="11">
         <v>16</v>
       </c>
-      <c r="C96" s="28"/>
-      <c r="D96" s="12" t="s">
+      <c r="C96" s="12"/>
+      <c r="D96" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="E96" s="19">
+      <c r="E96" s="23">
         <v>9.3</v>
       </c>
-      <c r="F96" s="19"/>
-      <c r="G96" s="12" t="s">
+      <c r="F96" s="23"/>
+      <c r="G96" s="24" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="97" ht="24" spans="2:7">
-      <c r="B97" s="27"/>
-      <c r="C97" s="26" t="s">
+      <c r="B97" s="11"/>
+      <c r="C97" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E97" s="19">
+      <c r="E97" s="23">
         <v>9.2</v>
       </c>
-      <c r="F97" s="19" t="s">
+      <c r="F97" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G97" s="12" t="s">
+      <c r="G97" s="24" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="98" ht="48" spans="2:7">
-      <c r="B98" s="27">
+      <c r="B98" s="11">
         <v>17</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="12" t="s">
+      <c r="C98" s="12"/>
+      <c r="D98" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="E98" s="19">
+      <c r="E98" s="23">
         <v>9.2</v>
       </c>
-      <c r="F98" s="19"/>
-      <c r="G98" s="12" t="s">
+      <c r="F98" s="23"/>
+      <c r="G98" s="24" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="99" ht="60" spans="2:7">
-      <c r="B99" s="27"/>
-      <c r="C99" s="10" t="s">
+      <c r="B99" s="11"/>
+      <c r="C99" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="E99" s="19">
+      <c r="E99" s="23">
         <v>9.2</v>
       </c>
-      <c r="F99" s="19" t="s">
+      <c r="F99" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G99" s="12" t="s">
+      <c r="G99" s="24" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="100" ht="48" spans="2:7">
-      <c r="B100" s="27">
+      <c r="B100" s="11">
         <v>18</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="D100" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="E100" s="19">
+      <c r="E100" s="23">
         <v>9.2</v>
       </c>
-      <c r="F100" s="19" t="s">
+      <c r="F100" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="G100" s="12" t="s">
+      <c r="G100" s="24" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="101" ht="144" spans="2:7">
-      <c r="B101" s="27">
+      <c r="B101" s="11">
         <v>19</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="D101" s="12" t="s">
+      <c r="D101" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="E101" s="19">
+      <c r="E101" s="23">
         <v>9.2</v>
       </c>
-      <c r="F101" s="19" t="s">
+      <c r="F101" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="G101" s="12" t="s">
+      <c r="G101" s="24" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="27">
+      <c r="B102" s="11">
         <v>20</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="D102" s="12" t="s">
+      <c r="D102" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="E102" s="19">
+      <c r="E102" s="23">
         <v>9.2</v>
       </c>
-      <c r="F102" s="19"/>
-      <c r="G102" s="12" t="s">
+      <c r="F102" s="23"/>
+      <c r="G102" s="24" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="103" ht="60" spans="2:7">
-      <c r="B103" s="27">
+      <c r="B103" s="11">
         <v>21</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D103" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="E103" s="19" t="s">
+      <c r="E103" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="F103" s="19"/>
-      <c r="G103" s="12" t="s">
+      <c r="F103" s="23"/>
+      <c r="G103" s="24" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="104" ht="84" spans="2:7">
-      <c r="B104" s="27">
+      <c r="B104" s="11">
         <v>22</v>
       </c>
-      <c r="C104" s="10" t="s">
+      <c r="C104" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="D104" s="12" t="s">
+      <c r="D104" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E104" s="19">
+      <c r="E104" s="23">
         <v>9.6</v>
       </c>
-      <c r="F104" s="19"/>
-      <c r="G104" s="12" t="s">
+      <c r="F104" s="23"/>
+      <c r="G104" s="24" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="105" ht="108" spans="2:7">
-      <c r="B105" s="27">
+      <c r="B105" s="11">
         <v>23</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D105" s="12" t="s">
+      <c r="D105" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="E105" s="19" t="s">
+      <c r="E105" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12" t="s">
+      <c r="F105" s="24"/>
+      <c r="G105" s="24" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="106" ht="108" spans="2:7">
-      <c r="B106" s="27">
+      <c r="B106" s="11">
         <v>24</v>
       </c>
-      <c r="C106" s="29"/>
-      <c r="D106" s="12" t="s">
+      <c r="C106" s="12"/>
+      <c r="D106" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="23">
         <v>9.7</v>
       </c>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12" t="s">
+      <c r="F106" s="24"/>
+      <c r="G106" s="24" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="107" ht="24" spans="2:7">
-      <c r="B107" s="27">
+      <c r="B107" s="11">
         <v>25</v>
       </c>
-      <c r="C107" s="10" t="s">
+      <c r="C107" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="D107" s="12" t="s">
+      <c r="D107" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="E107" s="19">
+      <c r="E107" s="23">
         <v>9.7</v>
       </c>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12" t="s">
+      <c r="F107" s="24"/>
+      <c r="G107" s="24" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="108" ht="60" spans="2:7">
-      <c r="B108" s="27">
+      <c r="B108" s="11">
         <v>26</v>
       </c>
-      <c r="C108" s="10" t="s">
+      <c r="C108" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D108" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="E108" s="19">
+      <c r="E108" s="23">
         <v>9.7</v>
       </c>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12" t="s">
+      <c r="F108" s="24"/>
+      <c r="G108" s="24" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="109" ht="108" spans="2:7">
-      <c r="B109" s="27">
+      <c r="B109" s="11">
         <v>27</v>
       </c>
-      <c r="C109" s="10" t="s">
+      <c r="C109" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="E109" s="19">
+      <c r="E109" s="23">
         <v>9.7</v>
       </c>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12" t="s">
+      <c r="F109" s="24"/>
+      <c r="G109" s="24" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="110" ht="48" spans="2:7">
-      <c r="B110" s="27">
+      <c r="B110" s="11">
         <v>28</v>
       </c>
-      <c r="C110" s="10" t="s">
+      <c r="C110" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="E110" s="19">
+      <c r="E110" s="23">
         <v>9.8</v>
       </c>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12" t="s">
+      <c r="F110" s="24"/>
+      <c r="G110" s="24" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="111" ht="132" spans="2:7">
-      <c r="B111" s="27">
+      <c r="B111" s="11">
         <v>29</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="D111" s="12" t="s">
+      <c r="D111" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E111" s="19">
+      <c r="E111" s="23">
         <v>9.8</v>
       </c>
-      <c r="F111" s="12"/>
-      <c r="G111" s="12" t="s">
+      <c r="F111" s="24"/>
+      <c r="G111" s="24" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="112" ht="60" spans="2:7">
-      <c r="B112" s="27">
+      <c r="B112" s="11">
         <v>30</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D112" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="E112" s="19">
+      <c r="E112" s="23">
         <v>9.8</v>
       </c>
-      <c r="F112" s="12"/>
-      <c r="G112" s="12" t="s">
+      <c r="F112" s="24"/>
+      <c r="G112" s="24" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="113" ht="108" spans="2:7">
-      <c r="B113" s="27">
+      <c r="B113" s="11">
         <v>31</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E113" s="19">
+      <c r="E113" s="23">
         <v>9.8</v>
       </c>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12" t="s">
+      <c r="F113" s="24"/>
+      <c r="G113" s="24" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="114" ht="156" spans="2:7">
-      <c r="B114" s="27">
+      <c r="B114" s="11">
         <v>32</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="D114" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="E114" s="19">
+      <c r="E114" s="23">
         <v>9.8</v>
       </c>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12" t="s">
+      <c r="F114" s="24"/>
+      <c r="G114" s="24" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="115" ht="264" spans="2:7">
-      <c r="B115" s="27">
+      <c r="B115" s="11">
         <v>33</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="D115" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="E115" s="19">
+      <c r="E115" s="23">
         <v>9.9</v>
       </c>
-      <c r="F115" s="12"/>
-      <c r="G115" s="12" t="s">
+      <c r="F115" s="24"/>
+      <c r="G115" s="24" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="116" ht="84" spans="2:7">
-      <c r="B116" s="27">
+      <c r="B116" s="11">
         <v>34</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="D116" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E116" s="19">
+      <c r="E116" s="23">
         <v>9.9</v>
       </c>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12" t="s">
+      <c r="F116" s="24"/>
+      <c r="G116" s="24" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="117" ht="72" spans="2:7">
-      <c r="B117" s="27">
+      <c r="B117" s="11">
         <v>35</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="C117" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="D117" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="E117" s="19">
+      <c r="E117" s="23">
         <v>9.9</v>
       </c>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12" t="s">
+      <c r="F117" s="24"/>
+      <c r="G117" s="24" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="118" ht="96" spans="2:7">
-      <c r="B118" s="27">
+      <c r="B118" s="11">
         <v>36</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="E118" s="19">
+      <c r="E118" s="23">
         <v>9.9</v>
       </c>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12" t="s">
+      <c r="F118" s="24"/>
+      <c r="G118" s="24" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="119" ht="24" spans="2:7">
-      <c r="B119" s="27">
+      <c r="B119" s="11">
         <v>37</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="C119" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D119" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="E119" s="19">
+      <c r="E119" s="23">
         <v>9.11</v>
       </c>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12" t="s">
+      <c r="F119" s="24"/>
+      <c r="G119" s="24" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="120" ht="60" spans="2:7">
-      <c r="B120" s="27">
+      <c r="B120" s="11">
         <v>38</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E120" s="19">
+      <c r="E120" s="23">
         <v>9.11</v>
       </c>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12" t="s">
+      <c r="F120" s="24"/>
+      <c r="G120" s="24" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="121" ht="36" spans="2:7">
-      <c r="B121" s="27">
+      <c r="B121" s="11">
         <v>39</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="D121" s="12" t="s">
+      <c r="D121" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="E121" s="19">
+      <c r="E121" s="23">
         <v>9.11</v>
       </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="12" t="s">
+      <c r="F121" s="12"/>
+      <c r="G121" s="24" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="122" ht="408" customHeight="1" spans="2:7">
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="21"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="26"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="22"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="20"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="16"/>
     </row>
     <row r="124" ht="108" spans="2:7">
-      <c r="B124" s="9">
+      <c r="B124" s="11">
         <v>1</v>
       </c>
-      <c r="C124" s="26" t="s">
+      <c r="C124" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="D124" s="12" t="s">
+      <c r="D124" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="E124" s="19">
+      <c r="E124" s="23">
         <v>9.12</v>
       </c>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12" t="s">
+      <c r="F124" s="24"/>
+      <c r="G124" s="24" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="125" ht="36" spans="2:7">
-      <c r="B125" s="9">
+      <c r="B125" s="11">
         <v>2</v>
       </c>
-      <c r="C125" s="28"/>
-      <c r="D125" s="12" t="s">
+      <c r="C125" s="12"/>
+      <c r="D125" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="E125" s="19">
+      <c r="E125" s="23">
         <v>9.12</v>
       </c>
-      <c r="F125" s="12"/>
-      <c r="G125" s="12" t="s">
+      <c r="F125" s="24"/>
+      <c r="G125" s="24" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="126" ht="24" spans="2:7">
-      <c r="B126" s="9">
+      <c r="B126" s="11">
         <v>3</v>
       </c>
-      <c r="C126" s="28"/>
-      <c r="D126" s="12" t="s">
+      <c r="C126" s="12"/>
+      <c r="D126" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="E126" s="19">
+      <c r="E126" s="23">
         <v>9.12</v>
       </c>
-      <c r="F126" s="12"/>
-      <c r="G126" s="12" t="s">
+      <c r="F126" s="24"/>
+      <c r="G126" s="24" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="127" ht="72" spans="2:7">
-      <c r="B127" s="9">
+      <c r="B127" s="11">
         <v>4</v>
       </c>
-      <c r="C127" s="28"/>
-      <c r="D127" s="12" t="s">
+      <c r="C127" s="12"/>
+      <c r="D127" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="E127" s="19">
+      <c r="E127" s="23">
         <v>9.13</v>
       </c>
-      <c r="F127" s="12"/>
-      <c r="G127" s="12" t="s">
+      <c r="F127" s="24"/>
+      <c r="G127" s="24" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="128" ht="156" spans="2:7">
-      <c r="B128" s="9">
+      <c r="B128" s="11">
         <v>5</v>
       </c>
-      <c r="C128" s="29"/>
-      <c r="D128" s="12" t="s">
+      <c r="C128" s="12"/>
+      <c r="D128" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="E128" s="19">
+      <c r="E128" s="23">
         <v>9.13</v>
       </c>
-      <c r="F128" s="12"/>
-      <c r="G128" s="12" t="s">
+      <c r="F128" s="24"/>
+      <c r="G128" s="24" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="129" ht="84" spans="2:7">
-      <c r="B129" s="9">
+      <c r="B129" s="11">
         <v>6</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D129" s="12" t="s">
+      <c r="D129" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="E129" s="19">
+      <c r="E129" s="23">
         <v>9.13</v>
       </c>
-      <c r="F129" s="12"/>
-      <c r="G129" s="12" t="s">
+      <c r="F129" s="24"/>
+      <c r="G129" s="24" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="130" ht="48" spans="2:7">
-      <c r="B130" s="9">
+      <c r="B130" s="11">
         <v>7</v>
       </c>
-      <c r="C130" s="29"/>
-      <c r="D130" s="12" t="s">
+      <c r="C130" s="12"/>
+      <c r="D130" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="E130" s="19">
+      <c r="E130" s="23">
         <v>9.16</v>
       </c>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12" t="s">
+      <c r="F130" s="24"/>
+      <c r="G130" s="24" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="131" ht="48" spans="2:7">
-      <c r="B131" s="9">
+      <c r="B131" s="11">
         <v>8</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="D131" s="12" t="s">
+      <c r="D131" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="E131" s="19">
+      <c r="E131" s="23">
         <v>9.17</v>
       </c>
-      <c r="F131" s="12"/>
-      <c r="G131" s="12" t="s">
+      <c r="F131" s="24"/>
+      <c r="G131" s="24" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="132" ht="72" spans="2:7">
-      <c r="B132" s="9">
+      <c r="B132" s="11">
         <v>9</v>
       </c>
-      <c r="C132" s="28"/>
-      <c r="D132" s="12" t="s">
+      <c r="C132" s="12"/>
+      <c r="D132" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="E132" s="19">
+      <c r="E132" s="23">
         <v>9.17</v>
       </c>
-      <c r="F132" s="12"/>
-      <c r="G132" s="12" t="s">
+      <c r="F132" s="24"/>
+      <c r="G132" s="24" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="133" ht="36" spans="2:7">
-      <c r="B133" s="9">
+      <c r="B133" s="11">
         <v>10</v>
       </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="12" t="s">
+      <c r="C133" s="12"/>
+      <c r="D133" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="E133" s="19">
+      <c r="E133" s="23">
         <v>9.18</v>
       </c>
-      <c r="F133" s="12"/>
-      <c r="G133" s="12" t="s">
+      <c r="F133" s="24"/>
+      <c r="G133" s="24" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="134" ht="60" spans="2:7">
-      <c r="B134" s="9">
+      <c r="B134" s="11">
         <v>11</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="D134" s="12" t="s">
+      <c r="D134" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="23">
         <v>9.18</v>
       </c>
-      <c r="F134" s="12"/>
-      <c r="G134" s="12" t="s">
+      <c r="F134" s="24"/>
+      <c r="G134" s="24" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="135" ht="36" spans="2:7">
-      <c r="B135" s="9">
+      <c r="B135" s="11">
         <v>12</v>
       </c>
-      <c r="C135" s="28"/>
-      <c r="D135" s="12" t="s">
+      <c r="C135" s="12"/>
+      <c r="D135" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="E135" s="19">
+      <c r="E135" s="23">
         <v>9.18</v>
       </c>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12" t="s">
+      <c r="F135" s="24"/>
+      <c r="G135" s="24" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="136" ht="24" spans="2:7">
-      <c r="B136" s="9">
+      <c r="B136" s="11">
         <v>13</v>
       </c>
-      <c r="C136" s="28"/>
-      <c r="D136" s="12" t="s">
+      <c r="C136" s="12"/>
+      <c r="D136" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="E136" s="19">
+      <c r="E136" s="23">
         <v>9.19</v>
       </c>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12" t="s">
+      <c r="F136" s="24"/>
+      <c r="G136" s="24" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="9">
+      <c r="B137" s="11">
         <v>14</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="D137" s="12" t="s">
+      <c r="D137" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="E137" s="19">
+      <c r="E137" s="23">
         <v>9.19</v>
       </c>
-      <c r="F137" s="12"/>
-      <c r="G137" s="12"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="9">
+      <c r="B138" s="11">
         <v>15</v>
       </c>
-      <c r="C138" s="28"/>
-      <c r="D138" s="12"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="24"/>
+      <c r="G138" s="24"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="9">
+      <c r="B139" s="11">
         <v>16</v>
       </c>
-      <c r="C139" s="28" t="s">
+      <c r="C139" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="D139" s="12"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="24"/>
+      <c r="G139" s="24"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="9">
+      <c r="B140" s="11">
         <v>17</v>
       </c>
-      <c r="C140" s="30"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="24"/>
+      <c r="G140" s="24"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="9">
+      <c r="B141" s="11">
         <v>18</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="12"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
     </row>
     <row r="142" ht="126.95" customHeight="1" spans="2:7">
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="21"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="19"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="26"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="15" t="s">
+      <c r="B143" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
-      <c r="F143" s="16"/>
-      <c r="G143" s="22"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="20"/>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="16"/>
     </row>
     <row r="144" ht="84" spans="2:7">
-      <c r="B144" s="9">
+      <c r="B144" s="11">
         <v>1</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D144" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="E144" s="19">
+      <c r="E144" s="23">
         <v>9.23</v>
       </c>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12" t="s">
+      <c r="F144" s="24"/>
+      <c r="G144" s="24" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="145" ht="24" spans="2:7">
-      <c r="B145" s="9">
+      <c r="B145" s="11">
         <v>2</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="C145" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D145" s="12" t="s">
+      <c r="D145" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="E145" s="19">
+      <c r="E145" s="23">
         <v>9.24</v>
       </c>
-      <c r="F145" s="12"/>
-      <c r="G145" s="12" t="s">
+      <c r="F145" s="24"/>
+      <c r="G145" s="24" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="146" ht="24" spans="2:7">
-      <c r="B146" s="9">
+      <c r="B146" s="11">
         <v>3</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D146" s="12" t="s">
+      <c r="D146" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="E146" s="19">
+      <c r="E146" s="23">
         <v>9.24</v>
       </c>
-      <c r="F146" s="12"/>
-      <c r="G146" s="12" t="s">
+      <c r="F146" s="24"/>
+      <c r="G146" s="24" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="147" ht="60" spans="2:7">
-      <c r="B147" s="9">
+      <c r="B147" s="11">
         <v>4</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C147" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D147" s="12" t="s">
+      <c r="D147" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="E147" s="19">
+      <c r="E147" s="23">
         <v>9.24</v>
       </c>
-      <c r="F147" s="12"/>
-      <c r="G147" s="12" t="s">
+      <c r="F147" s="24"/>
+      <c r="G147" s="24" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="148" ht="36" spans="2:7">
-      <c r="B148" s="9">
+      <c r="B148" s="11">
         <v>5</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="C148" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="D148" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="E148" s="19">
+      <c r="E148" s="23">
         <v>9.25</v>
       </c>
-      <c r="F148" s="12"/>
-      <c r="G148" s="12" t="s">
+      <c r="F148" s="24"/>
+      <c r="G148" s="24" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="149" ht="36" spans="2:7">
-      <c r="B149" s="9">
+      <c r="B149" s="11">
         <v>6</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C149" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="D149" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="E149" s="19">
+      <c r="E149" s="23">
         <v>9.25</v>
       </c>
-      <c r="F149" s="12"/>
-      <c r="G149" s="12" t="s">
+      <c r="F149" s="24"/>
+      <c r="G149" s="24" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="150" ht="60" spans="2:7">
-      <c r="B150" s="9">
+      <c r="B150" s="11">
         <v>7</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="C150" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D150" s="12" t="s">
+      <c r="D150" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="E150" s="19">
+      <c r="E150" s="23">
         <v>9.25</v>
       </c>
-      <c r="F150" s="12"/>
-      <c r="G150" s="12" t="s">
+      <c r="F150" s="24"/>
+      <c r="G150" s="24" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="151" ht="48" spans="2:7">
-      <c r="B151" s="9">
+      <c r="B151" s="11">
         <v>8</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="C151" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="D151" s="12" t="s">
+      <c r="D151" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="E151" s="19">
+      <c r="E151" s="23">
         <v>9.25</v>
       </c>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12" t="s">
+      <c r="F151" s="24"/>
+      <c r="G151" s="24" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="152" ht="60" spans="2:7">
-      <c r="B152" s="9">
+      <c r="B152" s="11">
         <v>9</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D152" s="12" t="s">
+      <c r="D152" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="E152" s="19">
+      <c r="E152" s="23">
         <v>9.26</v>
       </c>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12" t="s">
+      <c r="F152" s="24"/>
+      <c r="G152" s="24" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="153" ht="24" spans="2:7">
-      <c r="B153" s="9">
+      <c r="B153" s="11">
         <v>10</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="C153" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="D153" s="12" t="s">
+      <c r="D153" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="E153" s="19">
+      <c r="E153" s="23">
         <v>9.26</v>
       </c>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12" t="s">
+      <c r="F153" s="24"/>
+      <c r="G153" s="24" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="154" ht="204" spans="2:7">
-      <c r="B154" s="9">
+      <c r="B154" s="11">
         <v>11</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="D154" s="12" t="s">
+      <c r="D154" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="E154" s="19">
+      <c r="E154" s="23">
         <v>9.27</v>
       </c>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12" t="s">
+      <c r="F154" s="24"/>
+      <c r="G154" s="24" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="155" ht="48" spans="2:7">
-      <c r="B155" s="9">
+      <c r="B155" s="11">
         <v>12</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D155" s="12" t="s">
+      <c r="D155" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="E155" s="19">
+      <c r="E155" s="23">
         <v>9.27</v>
       </c>
-      <c r="F155" s="12"/>
-      <c r="G155" s="12" t="s">
+      <c r="F155" s="24"/>
+      <c r="G155" s="24" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="156" ht="24" spans="2:7">
-      <c r="B156" s="9">
+      <c r="B156" s="11">
         <v>13</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C156" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="D156" s="12" t="s">
+      <c r="D156" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="E156" s="19">
+      <c r="E156" s="23">
         <v>9.27</v>
       </c>
-      <c r="F156" s="12"/>
-      <c r="G156" s="12" t="s">
+      <c r="F156" s="24"/>
+      <c r="G156" s="24" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="157" ht="24" spans="2:7">
-      <c r="B157" s="9">
+      <c r="B157" s="11">
         <v>14</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="D157" s="19" t="s">
+      <c r="D157" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="E157" s="19">
+      <c r="E157" s="23">
         <v>9.27</v>
       </c>
-      <c r="F157" s="12"/>
-      <c r="G157" s="12" t="s">
+      <c r="F157" s="24"/>
+      <c r="G157" s="24" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="158" ht="24" spans="2:7">
-      <c r="B158" s="9">
+      <c r="B158" s="11">
         <v>15</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D158" s="12" t="s">
+      <c r="D158" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="E158" s="19">
+      <c r="E158" s="23">
         <v>9.27</v>
       </c>
-      <c r="F158" s="12"/>
-      <c r="G158" s="12" t="s">
+      <c r="F158" s="24"/>
+      <c r="G158" s="24" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="159" ht="36" spans="2:7">
-      <c r="B159" s="9">
+      <c r="B159" s="11">
         <v>16</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D159" s="12" t="s">
+      <c r="D159" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="E159" s="19">
+      <c r="E159" s="23">
         <v>9.29</v>
       </c>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12" t="s">
+      <c r="F159" s="24"/>
+      <c r="G159" s="24" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="160" ht="48" spans="2:7">
-      <c r="B160" s="9">
+      <c r="B160" s="11">
         <v>17</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="C160" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="D160" s="12" t="s">
+      <c r="D160" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="E160" s="19">
+      <c r="E160" s="23">
         <v>9.29</v>
       </c>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12" t="s">
+      <c r="F160" s="24"/>
+      <c r="G160" s="24" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="9">
+      <c r="B161" s="11">
         <v>18</v>
       </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="12"/>
-      <c r="E161" s="19"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
     </row>
     <row r="162" ht="93" customHeight="1" spans="2:7">
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="21"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="19"/>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="26"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="15" t="s">
+      <c r="B163" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="22"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="20"/>
+      <c r="E163" s="20"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="16"/>
     </row>
     <row r="164" ht="120" spans="2:7">
-      <c r="B164" s="9">
+      <c r="B164" s="11">
         <v>1</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="C164" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D164" s="12" t="s">
+      <c r="D164" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="E164" s="19">
+      <c r="E164" s="23">
         <v>10.7</v>
       </c>
-      <c r="F164" s="19"/>
-      <c r="G164" s="12" t="s">
+      <c r="F164" s="23"/>
+      <c r="G164" s="24" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="165" ht="36" spans="2:7">
-      <c r="B165" s="9">
+      <c r="B165" s="11">
         <v>2</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D165" s="12" t="s">
+      <c r="D165" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="E165" s="19">
+      <c r="E165" s="23">
         <v>10.8</v>
       </c>
-      <c r="F165" s="19"/>
-      <c r="G165" s="12" t="s">
+      <c r="F165" s="23"/>
+      <c r="G165" s="24" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="166" ht="24" spans="2:7">
-      <c r="B166" s="9">
+      <c r="B166" s="11">
         <v>3</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="C166" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="D166" s="12" t="s">
+      <c r="D166" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="E166" s="19">
+      <c r="E166" s="23">
         <v>10.8</v>
       </c>
-      <c r="F166" s="19"/>
-      <c r="G166" s="12" t="s">
+      <c r="F166" s="23"/>
+      <c r="G166" s="24" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="167" ht="162.75" spans="2:7">
-      <c r="B167" s="9">
+      <c r="B167" s="11">
         <v>4</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="C167" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D167" s="12" t="s">
+      <c r="D167" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="E167" s="19">
+      <c r="E167" s="23">
         <v>10.8</v>
       </c>
-      <c r="F167" s="19"/>
-      <c r="G167" s="12" t="s">
+      <c r="F167" s="23"/>
+      <c r="G167" s="24" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="168" ht="24" spans="2:7">
-      <c r="B168" s="9">
+      <c r="B168" s="11">
         <v>5</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="C168" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D168" s="12" t="s">
+      <c r="D168" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="E168" s="19">
+      <c r="E168" s="23">
         <v>10.8</v>
       </c>
-      <c r="F168" s="19"/>
-      <c r="G168" s="12" t="s">
+      <c r="F168" s="23"/>
+      <c r="G168" s="24" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="169" ht="36" spans="2:7">
-      <c r="B169" s="9">
+      <c r="B169" s="11">
         <v>6</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D169" s="12" t="s">
+      <c r="D169" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="E169" s="19">
+      <c r="E169" s="23">
         <v>10.8</v>
       </c>
-      <c r="F169" s="19"/>
-      <c r="G169" s="12" t="s">
+      <c r="F169" s="23"/>
+      <c r="G169" s="24" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="170" ht="24" spans="2:7">
-      <c r="B170" s="9">
+      <c r="B170" s="11">
         <v>7</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D170" s="12" t="s">
+      <c r="D170" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="E170" s="19">
+      <c r="E170" s="23">
         <v>10.8</v>
       </c>
-      <c r="F170" s="19"/>
-      <c r="G170" s="12" t="s">
+      <c r="F170" s="23"/>
+      <c r="G170" s="24" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="171" ht="312" spans="2:7">
-      <c r="B171" s="9">
+      <c r="B171" s="11">
         <v>8</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="D171" s="12" t="s">
+      <c r="D171" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="E171" s="34" t="s">
+      <c r="E171" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="F171" s="19"/>
-      <c r="G171" s="12" t="s">
+      <c r="F171" s="23"/>
+      <c r="G171" s="24" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="172" ht="36" spans="2:7">
-      <c r="B172" s="9">
+      <c r="B172" s="11">
         <v>9</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="D172" s="12" t="s">
+      <c r="D172" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="E172" s="34" t="s">
+      <c r="E172" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="F172" s="19"/>
-      <c r="G172" s="12" t="s">
+      <c r="F172" s="23"/>
+      <c r="G172" s="24" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="173" ht="24" spans="2:7">
-      <c r="B173" s="9">
+      <c r="B173" s="11">
         <v>10</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D173" s="12" t="s">
+      <c r="D173" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="E173" s="19">
+      <c r="E173" s="23">
         <v>10.11</v>
       </c>
-      <c r="F173" s="19"/>
-      <c r="G173" s="12" t="s">
+      <c r="F173" s="23"/>
+      <c r="G173" s="24" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="9">
+      <c r="B174" s="11">
         <v>11</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D174" s="12" t="s">
+      <c r="D174" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="E174" s="19">
+      <c r="E174" s="23">
         <v>10.11</v>
       </c>
-      <c r="F174" s="19"/>
-      <c r="G174" s="12"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="24"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="9"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="12"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="12"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="24"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="9"/>
-      <c r="C176" s="10"/>
-      <c r="D176" s="12"/>
-      <c r="E176" s="19"/>
-      <c r="F176" s="19"/>
-      <c r="G176" s="12"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="24"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="9"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="12"/>
-      <c r="E177" s="19"/>
-      <c r="F177" s="19"/>
-      <c r="G177" s="12"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23"/>
+      <c r="G177" s="24"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="9"/>
-      <c r="C178" s="10"/>
-      <c r="D178" s="12"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="12"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="24"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="9"/>
-      <c r="C179" s="10"/>
-      <c r="D179" s="12"/>
-      <c r="E179" s="19"/>
-      <c r="F179" s="19"/>
-      <c r="G179" s="12"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="24"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="9"/>
-      <c r="C180" s="10"/>
-      <c r="D180" s="12"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="12"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23"/>
+      <c r="G180" s="24"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="9"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="19"/>
-      <c r="F181" s="19"/>
-      <c r="G181" s="12"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="24"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="9"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="12"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="12"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="23"/>
+      <c r="G182" s="24"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="9"/>
-      <c r="C183" s="10"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="12"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="23"/>
+      <c r="G183" s="24"/>
     </row>
     <row r="184" ht="90" customHeight="1" spans="2:7">
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="21"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="26"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="15" t="s">
+      <c r="B185" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="C185" s="16"/>
-      <c r="D185" s="16"/>
-      <c r="E185" s="16"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="22"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="16"/>
     </row>
     <row r="186" ht="156" spans="2:7">
-      <c r="B186" s="9">
+      <c r="B186" s="11">
         <v>1</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="D186" s="12" t="s">
+      <c r="D186" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="E186" s="19" t="s">
+      <c r="E186" s="23" t="s">
         <v>391</v>
       </c>
-      <c r="F186" s="26"/>
-      <c r="G186" s="12" t="s">
+      <c r="F186" s="33"/>
+      <c r="G186" s="24" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="187" ht="72" spans="2:7">
-      <c r="B187" s="9">
+      <c r="B187" s="11">
         <v>2</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="D187" s="12" t="s">
+      <c r="D187" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="E187" s="19">
+      <c r="E187" s="23">
         <v>10.12</v>
       </c>
-      <c r="F187" s="28"/>
-      <c r="G187" s="12" t="s">
+      <c r="F187" s="34"/>
+      <c r="G187" s="24" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="188" ht="60" spans="2:7">
-      <c r="B188" s="9">
+      <c r="B188" s="11">
         <v>3</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="D188" s="12" t="s">
+      <c r="D188" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="E188" s="19">
+      <c r="E188" s="23">
         <v>10.12</v>
       </c>
-      <c r="F188" s="28"/>
-      <c r="G188" s="12" t="s">
+      <c r="F188" s="34"/>
+      <c r="G188" s="24" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="189" ht="36" spans="2:7">
-      <c r="B189" s="9">
+      <c r="B189" s="11">
         <v>4</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C189" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="D189" s="12" t="s">
+      <c r="D189" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="E189" s="19">
+      <c r="E189" s="23">
         <v>10.21</v>
       </c>
-      <c r="F189" s="28"/>
-      <c r="G189" s="12" t="s">
+      <c r="F189" s="34"/>
+      <c r="G189" s="24" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="190" ht="36" spans="2:7">
-      <c r="B190" s="9">
+      <c r="B190" s="11">
         <v>5</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="D190" s="12" t="s">
+      <c r="D190" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="E190" s="19">
+      <c r="E190" s="23">
         <v>10.22</v>
       </c>
-      <c r="F190" s="29"/>
-      <c r="G190" s="12" t="s">
+      <c r="F190" s="35"/>
+      <c r="G190" s="24" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="32"/>
-      <c r="C191" s="33"/>
-      <c r="D191" s="33"/>
-      <c r="E191" s="33"/>
-      <c r="F191" s="33"/>
-      <c r="G191" s="35"/>
+      <c r="B191" s="29"/>
+      <c r="C191" s="30"/>
+      <c r="D191" s="31"/>
+      <c r="E191" s="31"/>
+      <c r="F191" s="31"/>
+      <c r="G191" s="36"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="15" t="s">
+      <c r="B192" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="C192" s="16"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="16"/>
-      <c r="F192" s="16"/>
-      <c r="G192" s="22"/>
+      <c r="C192" s="15"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="16"/>
     </row>
     <row r="193" ht="409.5" spans="2:7">
-      <c r="B193" s="9">
+      <c r="B193" s="11">
         <v>1</v>
       </c>
-      <c r="C193" s="36" t="s">
+      <c r="C193" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D193" s="12" t="s">
+      <c r="D193" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="E193" s="12" t="s">
+      <c r="E193" s="24" t="s">
         <v>404</v>
       </c>
-      <c r="F193" s="12"/>
-      <c r="G193" s="12" t="s">
+      <c r="F193" s="24"/>
+      <c r="G193" s="24" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="194" ht="409.5" spans="2:7">
-      <c r="B194" s="9"/>
-      <c r="C194" s="37"/>
-      <c r="D194" s="12" t="s">
+      <c r="B194" s="11"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="E194" s="19" t="s">
+      <c r="E194" s="23" t="s">
         <v>407</v>
       </c>
-      <c r="F194" s="19"/>
-      <c r="G194" s="12" t="s">
+      <c r="F194" s="23"/>
+      <c r="G194" s="24" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="195" ht="60" spans="2:7">
-      <c r="B195" s="9"/>
-      <c r="C195" s="37"/>
-      <c r="D195" s="12" t="s">
+      <c r="B195" s="11"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="E195" s="19">
+      <c r="E195" s="23">
         <v>11.2</v>
       </c>
-      <c r="F195" s="19"/>
-      <c r="G195" s="12" t="s">
+      <c r="F195" s="23"/>
+      <c r="G195" s="24" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="196" ht="24" spans="2:7">
-      <c r="B196" s="9"/>
-      <c r="C196" s="37"/>
-      <c r="D196" s="12" t="s">
+      <c r="B196" s="11"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="E196" s="19">
+      <c r="E196" s="23">
         <v>11.2</v>
       </c>
-      <c r="F196" s="19"/>
-      <c r="G196" s="12" t="s">
+      <c r="F196" s="23"/>
+      <c r="G196" s="24" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="197" ht="24" spans="2:7">
-      <c r="B197" s="9"/>
-      <c r="C197" s="37"/>
-      <c r="D197" s="12" t="s">
+      <c r="B197" s="11"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="E197" s="19">
+      <c r="E197" s="23">
         <v>11.2</v>
       </c>
-      <c r="F197" s="19"/>
-      <c r="G197" s="12" t="s">
+      <c r="F197" s="23"/>
+      <c r="G197" s="24" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="198" ht="36" spans="2:7">
-      <c r="B198" s="9"/>
-      <c r="C198" s="37"/>
-      <c r="D198" s="12" t="s">
+      <c r="B198" s="11"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="E198" s="19">
+      <c r="E198" s="23">
         <v>11.3</v>
       </c>
-      <c r="F198" s="19"/>
-      <c r="G198" s="12" t="s">
+      <c r="F198" s="23"/>
+      <c r="G198" s="24" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="199" ht="60" spans="2:7">
-      <c r="B199" s="9"/>
-      <c r="C199" s="37"/>
-      <c r="D199" s="12" t="s">
+      <c r="B199" s="11"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="E199" s="19">
+      <c r="E199" s="23">
         <v>11.3</v>
       </c>
-      <c r="F199" s="19"/>
-      <c r="G199" s="12" t="s">
+      <c r="F199" s="23"/>
+      <c r="G199" s="24" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="200" ht="108" spans="2:7">
-      <c r="B200" s="9"/>
-      <c r="C200" s="37"/>
-      <c r="D200" s="12" t="s">
+      <c r="B200" s="11"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="E200" s="19">
+      <c r="E200" s="23">
         <v>11.4</v>
       </c>
-      <c r="F200" s="19"/>
-      <c r="G200" s="12" t="s">
+      <c r="F200" s="23"/>
+      <c r="G200" s="24" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="201" ht="36" spans="2:7">
-      <c r="B201" s="9"/>
-      <c r="C201" s="37"/>
-      <c r="D201" s="12" t="s">
+      <c r="B201" s="11"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="E201" s="19">
+      <c r="E201" s="23">
         <v>11.4</v>
       </c>
-      <c r="F201" s="19"/>
-      <c r="G201" s="12" t="s">
+      <c r="F201" s="23"/>
+      <c r="G201" s="24" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="202" ht="24" spans="2:7">
-      <c r="B202" s="9"/>
-      <c r="C202" s="38"/>
-      <c r="D202" s="12" t="s">
+      <c r="B202" s="11"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="E202" s="19">
+      <c r="E202" s="23">
         <v>11.4</v>
       </c>
-      <c r="F202" s="19"/>
-      <c r="G202" s="12" t="s">
+      <c r="F202" s="23"/>
+      <c r="G202" s="24" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="203" ht="409.5" spans="2:7">
-      <c r="B203" s="9"/>
-      <c r="C203" s="36" t="s">
+      <c r="B203" s="11"/>
+      <c r="C203" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D203" s="12" t="s">
+      <c r="D203" s="17" t="s">
         <v>426</v>
       </c>
-      <c r="E203" s="19">
+      <c r="E203" s="23">
         <v>11.4</v>
       </c>
-      <c r="F203" s="19"/>
-      <c r="G203" s="12" t="s">
+      <c r="F203" s="23"/>
+      <c r="G203" s="24" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="204" ht="24" spans="2:7">
-      <c r="B204" s="9"/>
-      <c r="C204" s="37"/>
-      <c r="D204" s="12" t="s">
+      <c r="B204" s="11"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="E204" s="19">
+      <c r="E204" s="23">
         <v>11.4</v>
       </c>
-      <c r="F204" s="19"/>
-      <c r="G204" s="12" t="s">
+      <c r="F204" s="23"/>
+      <c r="G204" s="24" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="205" ht="108" spans="2:7">
-      <c r="B205" s="9"/>
-      <c r="C205" s="38"/>
-      <c r="D205" s="12" t="s">
+      <c r="B205" s="11"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="17" t="s">
         <v>430</v>
       </c>
-      <c r="E205" s="19">
+      <c r="E205" s="23">
         <v>11.4</v>
       </c>
-      <c r="F205" s="19"/>
-      <c r="G205" s="12" t="s">
+      <c r="F205" s="23"/>
+      <c r="G205" s="24" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="206" ht="144" spans="2:7">
-      <c r="B206" s="9"/>
-      <c r="C206" s="36" t="s">
+      <c r="B206" s="11"/>
+      <c r="C206" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D206" s="12" t="s">
+      <c r="D206" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="E206" s="19">
+      <c r="E206" s="23">
         <v>11.5</v>
       </c>
-      <c r="F206" s="19"/>
-      <c r="G206" s="12" t="s">
+      <c r="F206" s="23"/>
+      <c r="G206" s="24" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="207" ht="228" spans="2:7">
-      <c r="B207" s="9"/>
-      <c r="C207" s="38"/>
-      <c r="D207" s="12" t="s">
+      <c r="B207" s="11"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="E207" s="19">
+      <c r="E207" s="23">
         <v>11.5</v>
       </c>
-      <c r="F207" s="19"/>
-      <c r="G207" s="12" t="s">
+      <c r="F207" s="23"/>
+      <c r="G207" s="24" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="208" ht="168" spans="2:7">
-      <c r="B208" s="9"/>
-      <c r="C208" s="36" t="s">
+      <c r="B208" s="11"/>
+      <c r="C208" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D208" s="12" t="s">
+      <c r="D208" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="E208" s="19">
+      <c r="E208" s="23">
         <v>11.5</v>
       </c>
-      <c r="F208" s="19"/>
-      <c r="G208" s="12" t="s">
+      <c r="F208" s="23"/>
+      <c r="G208" s="24" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="209" spans="2:7">
-      <c r="B209" s="9"/>
-      <c r="C209" s="37"/>
-      <c r="D209" s="12"/>
-      <c r="E209" s="19"/>
-      <c r="F209" s="19"/>
-      <c r="G209" s="12"/>
+    <row r="209" ht="132" spans="2:7">
+      <c r="B209" s="11"/>
+      <c r="C209" s="37" t="s">
+        <v>439</v>
+      </c>
+      <c r="D209" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="E209" s="23">
+        <v>11.5</v>
+      </c>
+      <c r="F209" s="23"/>
+      <c r="G209" s="24" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="210" spans="2:7">
-      <c r="B210" s="9"/>
-      <c r="C210" s="37"/>
-      <c r="D210" s="12"/>
-      <c r="E210" s="19"/>
-      <c r="F210" s="19"/>
-      <c r="G210" s="12"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="38"/>
+      <c r="D210" s="17"/>
+      <c r="E210" s="23"/>
+      <c r="F210" s="23"/>
+      <c r="G210" s="24"/>
     </row>
     <row r="211" spans="2:7">
-      <c r="B211" s="9"/>
+      <c r="B211" s="11"/>
       <c r="C211" s="38"/>
-      <c r="D211" s="12"/>
-      <c r="E211" s="19"/>
-      <c r="F211" s="19"/>
-      <c r="G211" s="12"/>
+      <c r="D211" s="17"/>
+      <c r="E211" s="23"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="24"/>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="9"/>
-      <c r="C212" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="D212" s="12"/>
-      <c r="E212" s="19"/>
-      <c r="F212" s="19"/>
-      <c r="G212" s="12"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="38"/>
+      <c r="D212" s="17"/>
+      <c r="E212" s="23"/>
+      <c r="F212" s="23"/>
+      <c r="G212" s="24"/>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="9"/>
-      <c r="C213" s="37"/>
-      <c r="D213" s="12"/>
-      <c r="E213" s="19"/>
-      <c r="F213" s="19"/>
-      <c r="G213" s="12"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="38"/>
+      <c r="D213" s="17"/>
+      <c r="E213" s="23"/>
+      <c r="F213" s="23"/>
+      <c r="G213" s="24"/>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="9"/>
-      <c r="C214" s="38"/>
-      <c r="D214" s="12"/>
-      <c r="E214" s="19"/>
-      <c r="F214" s="19"/>
-      <c r="G214" s="12"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="39"/>
+      <c r="D214" s="17"/>
+      <c r="E214" s="23"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="24"/>
     </row>
     <row r="215" spans="2:7">
-      <c r="B215" s="9"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="12"/>
-      <c r="E215" s="19"/>
-      <c r="F215" s="19"/>
-      <c r="G215" s="12"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="17"/>
+      <c r="E215" s="23"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="24"/>
     </row>
     <row r="216" ht="260.25" customHeight="1" spans="2:7">
-      <c r="B216" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="C216" s="39"/>
-      <c r="D216" s="39"/>
-      <c r="E216" s="39"/>
-      <c r="F216" s="39"/>
-      <c r="G216" s="39"/>
+      <c r="B216" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="C216" s="41"/>
+      <c r="D216" s="42"/>
+      <c r="E216" s="44"/>
+      <c r="F216" s="44"/>
+      <c r="G216" s="44"/>
     </row>
     <row r="217" spans="2:7">
-      <c r="B217" s="40" t="s">
-        <v>441</v>
-      </c>
-      <c r="C217" s="16"/>
-      <c r="D217" s="16"/>
-      <c r="E217" s="16"/>
-      <c r="F217" s="16"/>
-      <c r="G217" s="22"/>
+      <c r="B217" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="C217" s="15"/>
+      <c r="D217" s="20"/>
+      <c r="E217" s="20"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="16"/>
     </row>
     <row r="218" ht="409.5" spans="3:7">
-      <c r="C218" s="26"/>
-      <c r="D218" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="E218" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="F218" s="26"/>
-      <c r="G218" s="12" t="s">
+      <c r="C218" s="12"/>
+      <c r="D218" s="13" t="s">
         <v>444</v>
       </c>
+      <c r="E218" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="F218" s="33"/>
+      <c r="G218" s="24" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="219" ht="409.5" spans="3:7">
-      <c r="C219" s="29"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="29"/>
-      <c r="G219" s="12" t="s">
-        <v>445</v>
+      <c r="C219" s="12"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="35"/>
+      <c r="G219" s="24" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="221" ht="192" spans="3:3">
       <c r="C221" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="53">
+  <mergeCells count="52">
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B15:G15"/>
@@ -7896,8 +7929,7 @@
     <mergeCell ref="C193:C202"/>
     <mergeCell ref="C203:C205"/>
     <mergeCell ref="C206:C207"/>
-    <mergeCell ref="C208:C211"/>
-    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="C209:C214"/>
     <mergeCell ref="C218:C219"/>
     <mergeCell ref="D218:D219"/>
     <mergeCell ref="E218:E219"/>
@@ -7930,7 +7962,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7938,24 +7970,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -7980,10 +8012,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -7991,7 +8023,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7999,7 +8031,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8007,7 +8039,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="470">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2998,7 +2998,7 @@
     <t>47. 参加科学大会</t>
   </si>
   <si>
-    <t>dijkstra算法:
+    <t>dijkstra算法(要求图中边的权值都为正数)-朴素版-时间复杂度为 O(n^2)
 prim是求 非访问节点到最小生成树的最小距离，而 dijkstra是求 非访问节点到源点的最小距离
 1.解决什么问题: 在有权图（权值非负数）中求从起点到其他节点的最短路径算法
 2.注意:    2.1 dijkstra 算法可以同时求 起点到所有节点的最短路径；2. 权值不能为负数
@@ -3008,6 +3008,50 @@
     第三步，更新非访问节点到源点的距离（即更新minDist数组）
 4. minDist数组 用来记录 每一个节点距离源点的最小距离
 5.有负值的情况: 对于负权值的出现，大家可以针对某一个场景 不断去修改 dijkstra 的代码，但最终会发现只是 拆了东墙补西墙，对dijkstra的补充逻辑只能满足某特定场景最短路求解</t>
+  </si>
+  <si>
+    <t>dijkstra算法(要求图中边的权值都为正数)-堆优化版本:
+粗略看了一遍,没实现..
+稀疏图的角度-&gt;边少(Kruskal)-&gt;邻接表(数组+链表 )-&gt;dijkstra堆优化版本
+稠密图的角度-&gt;点多(Prim)-&gt;邻接矩阵(数组)-&gt;dijkstra朴素版本
+三部曲:
+    第一步，选源点到哪个节点近且该节点未被访问过-&gt; 需要一个 小顶堆 来帮我们对边的权值排序，每次从小顶堆堆顶 取边就是权值最小的边
+    第二步，该最近节点被标记访问过
+    第三步，更新非访问节点到源点的距离（即更新minDist数组）
+小顶堆知识点:
+小顶堆（Min-Heap）是一种完全二叉树的特殊类型，它满足以下两个性质：
+    完全二叉树：除了最后一层，其他每一层的节点数都达到最大值，并且最后一层的节点都集中在左边。
+    堆的顺序性质：在小顶堆中，每个节点的值都小于或等于其子节点的值。这意味着堆顶（根节点）是堆中的最小元素。
+小顶堆的特点
+    根节点：堆顶的根节点是最小值。
+    子节点关系：对于任何一个节点 i，其左子节点位于 2i + 1，右子节点位于 2i + 2（假设从 0 开始编号）。对于每个节点，值都不大于它的左右子节点。
+小顶堆的应用
+    优先队列：
+        小顶堆常用于实现优先队列，在优先队列中，我们总是能快速地得到最小值。每次从队列中删除最小元素时，可以通过调整小顶堆来实现。
+    堆排序：
+        使用小顶堆实现堆排序时，可以通过不断取出堆顶元素（最小值）并重新调整堆，得到从小到大的排序序列。
+    最小值选择问题：
+        例如在图的最短路径问题（如 Dijkstra 算法）中，可以使用小顶堆来动态地选择当前未处理的最小节点。</t>
+  </si>
+  <si>
+    <t>Bellman_ford 算法(不同之处在于 边的权值是有负数了, dijkstra要求图中边的权值都为正数)
+核心思想: 对所有边进行松弛n-1次操作（n为节点数量），从而求得目标最短路
+抽象,核心点没理解到..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bellman_ford 队列优化算法（又名SPFA）</t>
+  </si>
+  <si>
+    <t>bellman_ford之判断负权回路</t>
+  </si>
+  <si>
+    <t>bellman_ford之单源有限最短路</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Floyd 算法</t>
+  </si>
+  <si>
+    <t>A * 算法</t>
   </si>
   <si>
     <t>总结：
@@ -3198,6 +3242,75 @@
 22.npx和npm的区别:
 npm：用于管理 Node.js 包，可以用来安装、更新、卸载依赖包，以及执行项目中的脚本。常用命令包括 npm install、npm update 和 npm run。
 npx：用于执行在 node_modules 中的可执行包，而不需要全局安装它们。它可以直接运行在本地项目依赖中定义的命令。例如，使用 npx create-react-app my-app 可以直接创建一个新的 React 应用，而无需提前全局安装 create-react-app。</t>
+  </si>
+  <si>
+    <t>js实现lodash</t>
+  </si>
+  <si>
+    <t>1.NaN（不是一个数字）是一种数值数据类型，指代一种未定义的值或者不能够被描述的值，尤其浮点型结算的结果。
+    使用 isNaN() 或 Number.isNaN() 来判断数组中的元素是否是 NaN
+2.undefined 是 JavaScript 中未初始化或未传递的变量的默认值。因此，你可以直接检查参数是否等于 undefined, 来判断参数是不是没传
+3.Array.prototype.slice(): slice() 方法返回一个新的数组对象，这一对象是一个由 start 和 end 决定的原数组的浅拷贝（包括 start，不包括 end），其中 start 和 end 代表了数组元素的索引。原始数组不会被改变。
+4. Math.ceil(): 总是向上舍入，并返回大于等于给定数字的最小整数。
+5.empty（空元素）和 undefined 的区别：
+    空元素：在数组中，如果元素位置没有值，就会被认为是“空元素” (empty)。
+    undefined：这是一个明确的值，可以表示变量或数组元素尚未被赋值。
+    在 falsey 数组中，第一个元素 , 表示一个“空元素”，在访问 falsey[0] 时会得到 undefined，但是它和直接赋值 undefined 不完全相同。
+empty 的行为：
+    empty 元素在数组遍历中，比如使用 map 时，map 函数会将 empty 作为 undefined 传递给回调函数。
+    因此，虽然 falsey[0] 实际上是一个空位置，但在使用 map 遍历时，map 会将它当作 undefined 传入回调函数。
+6.Array.prototype.map():
+      语法:map(callbackFn) / map(callbackFn, thisArg)
+      参数: 为数组中的每个元素执行的函数。它的返回值作为一个元素被添加为新数组中。该函数被调用时将传入以下参数：element(数组当前正在处理的元素); index(正在处理的元素在数组中的索引);array(调用了map的数组本身)
+运行测试器选择(前面jq学过的内容): 
+1..运行测试器对比 JEST VS Karma
+Jest 是一个集成度更高、功能更丰富的测试运行器，适合Node.js 和现代前端框架（如 React、Vue）的单元测试。
+Karma 更适合需要在真实浏览器中运行的项目，尤其是在进行跨浏览器兼容性测试时。
+    Jest：
+        最初专注于 Node.js 环境，但通过 jsdom 支持浏览器测试。
+        内置功能丰富：Jest 内置了自动模拟、快照测试、并行运行测试、测试覆盖率等功能, 不需要额外配置断言库（如 Chai）或测试框架（如 Mocha），简化了测试配置和运行。
+        适合单元测试和小规模集成测试，配置简单且开箱即用，广受 React、Vue 等前端框架开发者的喜爱。
+        Jest 的测试速度较快，并且由于其强大的内置功能，很多开发者选择它来替代 Karma。
+    Karma：
+        浏览器测试为主：Karma 的一个重要特点是它能在真实浏览器中运行测试，因此更适合那些需要在多个浏览器中测试代码的项目。你可以通过 Karma 启动 Chrome、Firefox、Safari 等浏览器来运行测试。
+        纯测试运行器：Karma 专注于作为一个测试运行器，它本身不包含断言库或测试框架。Karma 需要结合其他测试框架和断言库使用，比如 Mocha、Jasmine 或 Chai。
+        更适合大规模的集成测试，特别是需要在不同浏览器中运行测试时。
+当前趋势
+    Jest 在现代前端开发中逐渐占据主导地位，但 Karma 在需要跨浏览器的测试场景中仍然有一定优势。如果主要在 Node.js 环境或不需要真实的浏览器运行，Jest 可能是更流行的选择。
+2.Jest:
+Jest 默认不支持 ES6 的模块语法（import/export）。在 Node.js 环境中，Jest 默认期望使用 CommonJS 模块语法（require）,如果要使用es模块,就要使用Babel转换成ES6语法, 除此之外, Jest 默认的测试环境不支持浏览器 API（如 document），因此你需要将测试环境设置为 jsdom，以便能够模拟浏览器环境 -&gt; 修改配置文件; 
+JEST测试结构:
+describe 块：用于组织相关的测试，便于分组和分类。
+test 或 it 块：每个测试用例，描述某个具体的功能。
+expect 函数：用于断言，验证函数的返回值是否符合预期。可以使用 toBe、toEqual、toContain 等多种断言方法。
+3.Babel : 是一个 JavaScript 编译器，主要用于将现代 JavaScript 代码（如 ES6+、ES7、ES8 等）转换为向下兼容的旧版 JavaScript 代码，使得可以在不支持新特性的浏览器和环境中运行这些代码。
+4.测试流程:
+a.安装相关依赖
+b.配置babel
+c.配置Jest使用esm: 在 package.json 中设置 "type": "module" 来告知 Node.js 和 Jest 使用 ESM
+d.写测试代码
+e.确保 package.json 中配置了 Jest: 
+"scripts": {
+    "test": "jest"
+  }
+f.在根目录下: npm test
+g.eslint检查代码
+h.webpack打包(npx webpack init , npm run build 可能会出现一些问题,例如webpack不支持es6语法,记得把配置后缀改成.cjs)
+4..babelrc.js:
+{
+    "presets": [
+        [
+            "@babel/preset-env",
+            {
+                "targets": {
+                    "node": "current"
+                }
+            }
+        ]
+    ]
+}
+4.1@babel/preset-env for compiling ES2015+ syntax
+4.2如果要针对当前节点版本进行编译，可以指定 "node": true 或 "node": "current"(通过配置 Babel 使其能够兼容当前的 Node 版本)，这与 "node": process.versions.node 相同。</t>
   </si>
   <si>
     <t>华为面试官给的机考辅导
@@ -3995,7 +4108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4015,11 +4128,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4047,89 +4163,101 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4450,12 +4578,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F209" sqref="F209"/>
+      <selection pane="bottomLeft" activeCell="G221" sqref="G221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4465,367 +4593,367 @@
     <col min="4" max="4" width="13.1244444444444" style="6" customWidth="1"/>
     <col min="5" max="5" width="5.37333333333333" style="7" customWidth="1"/>
     <col min="6" max="6" width="13" style="7" customWidth="1"/>
-    <col min="7" max="7" width="73.5022222222222" style="6" customWidth="1"/>
+    <col min="7" max="7" width="73.5022222222222" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="2:7">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" ht="36" spans="2:7">
-      <c r="B4" s="11">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>6.21</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="48" spans="2:7">
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>6.24</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" ht="36" spans="2:7">
-      <c r="B6" s="11">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <v>6.24</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" ht="36" spans="2:7">
-      <c r="B7" s="11">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <v>6.29</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="11">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="24">
         <v>6.3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="48" spans="2:7">
-      <c r="B9" s="11">
+      <c r="B9" s="12">
         <v>6</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <v>7.24</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" ht="120" spans="2:7">
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>7</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <v>7.25</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" ht="36" spans="2:7">
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>8</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" ht="409.5" spans="2:7">
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>7.27</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>10</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>11</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
     </row>
     <row r="15" ht="54.95" customHeight="1" spans="2:7">
       <c r="B15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="13"/>
       <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="26"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="15"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" ht="24" spans="2:7">
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>1</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="23" t="s">
+      <c r="F18" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" ht="36" spans="2:7">
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>2</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <v>7.31</v>
       </c>
-      <c r="F19" s="23" t="s">
+      <c r="F19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="20" ht="72" spans="2:7">
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>3</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" ht="24" spans="2:7">
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>4</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>8.2</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" ht="36" spans="2:7">
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>5</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>8.2</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F22" s="22" t="s">
         <v>61</v>
       </c>
       <c r="G22" s="27" t="s">
@@ -4833,39 +4961,39 @@
       </c>
     </row>
     <row r="23" ht="24" spans="2:7">
-      <c r="B23" s="11">
+      <c r="B23" s="12">
         <v>6</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>8.3</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="24" ht="24" spans="2:7">
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>7</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>8.3</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="27" t="s">
@@ -4876,179 +5004,179 @@
       <c r="B25" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="17"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="15"/>
+      <c r="C26" s="16"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="16"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" ht="155.25" spans="2:7">
-      <c r="B27" s="11">
+      <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="23" t="s">
+      <c r="F27" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" ht="60" spans="2:7">
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <v>2</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="29" ht="144" spans="2:7">
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>3</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <v>8.9</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="30" ht="72" spans="2:7">
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>4</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" ht="60" spans="2:7">
-      <c r="B31" s="11">
+      <c r="B31" s="12">
         <v>5</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="17" t="s">
+      <c r="D31" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="30">
         <v>8.1</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F31" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="32" ht="36" spans="2:7">
-      <c r="B32" s="11">
+      <c r="B32" s="12">
         <v>6</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="28">
+      <c r="E32" s="30">
         <v>8.1</v>
       </c>
-      <c r="F32" s="28" t="s">
+      <c r="F32" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" ht="48" spans="2:7">
-      <c r="B33" s="11">
+      <c r="B33" s="12">
         <v>7</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="28" t="s">
+      <c r="E33" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="28" t="s">
+      <c r="F33" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" ht="36" spans="2:7">
-      <c r="B34" s="11">
+      <c r="B34" s="12">
         <v>8</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="28">
+      <c r="E34" s="30">
         <v>8.12</v>
       </c>
-      <c r="F34" s="28" t="s">
+      <c r="F34" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="23" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5056,127 +5184,127 @@
       <c r="B35" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="26"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="16"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="16"/>
+      <c r="G36" s="17"/>
     </row>
     <row r="37" ht="96" spans="2:7">
-      <c r="B37" s="11">
+      <c r="B37" s="12">
         <v>1</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="17" t="s">
+      <c r="C37" s="13"/>
+      <c r="D37" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <v>8.5</v>
       </c>
-      <c r="F37" s="23" t="s">
+      <c r="F37" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="38" ht="72" spans="2:7">
-      <c r="B38" s="11">
+      <c r="B38" s="12">
         <v>2</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="17" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="23" t="s">
+      <c r="F38" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" ht="72" spans="2:7">
-      <c r="B39" s="11">
+      <c r="B39" s="12">
         <v>3</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="17" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <v>8.5</v>
       </c>
-      <c r="F39" s="23" t="s">
+      <c r="F39" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="24" t="s">
+      <c r="G39" s="23" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="40" ht="228" spans="2:7">
-      <c r="B40" s="11">
+      <c r="B40" s="12">
         <v>4</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="17" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="23">
+      <c r="E40" s="22">
         <v>8.6</v>
       </c>
-      <c r="F40" s="23" t="s">
+      <c r="F40" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="24" t="s">
+      <c r="G40" s="23" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" ht="240" spans="2:7">
-      <c r="B41" s="11">
+      <c r="B41" s="12">
         <v>5</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="13"/>
+      <c r="D41" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="42" ht="36" spans="2:7">
-      <c r="B42" s="11">
+      <c r="B42" s="12">
         <v>6</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="17" t="s">
+      <c r="C42" s="13"/>
+      <c r="D42" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="22">
         <v>8.8</v>
       </c>
-      <c r="F42" s="23" t="s">
+      <c r="F42" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="23" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5184,337 +5312,337 @@
       <c r="B43" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="26"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" ht="36" spans="2:7">
-      <c r="B45" s="11">
+      <c r="B45" s="12">
         <v>1</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="D45" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="23">
+      <c r="E45" s="22">
         <v>8.12</v>
       </c>
-      <c r="F45" s="23" t="s">
+      <c r="F45" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="23" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="46" ht="84" spans="2:7">
-      <c r="B46" s="11">
+      <c r="B46" s="12">
         <v>2</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="17" t="s">
+      <c r="D46" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="23" t="s">
+      <c r="F46" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="23" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="47" ht="72" spans="2:7">
-      <c r="B47" s="11">
+      <c r="B47" s="12">
         <v>3</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="22">
         <v>8.13</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="23" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="48" ht="156" spans="2:7">
-      <c r="B48" s="11">
+      <c r="B48" s="12">
         <v>4</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="17" t="s">
+      <c r="D48" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="22">
         <v>8.14</v>
       </c>
-      <c r="F48" s="23" t="s">
+      <c r="F48" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="23" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="49" ht="409.5" spans="2:7">
-      <c r="B49" s="11">
+      <c r="B49" s="12">
         <v>5</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D49" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="23">
+      <c r="E49" s="22">
         <v>8.14</v>
       </c>
-      <c r="F49" s="23" t="s">
+      <c r="F49" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="24" t="s">
+      <c r="G49" s="23" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="50" ht="24" spans="2:7">
-      <c r="B50" s="11">
+      <c r="B50" s="12">
         <v>6</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>153</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="22">
         <v>8.14</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="24"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="11">
+      <c r="B51" s="12">
         <v>7</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="24"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" ht="159" customHeight="1" spans="2:7">
       <c r="B52" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="12"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="26"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="15"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="17"/>
     </row>
     <row r="54" ht="60" spans="2:7">
-      <c r="B54" s="11">
+      <c r="B54" s="12">
         <v>1</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="17" t="s">
+      <c r="D54" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="22">
         <v>8.18</v>
       </c>
-      <c r="F54" s="23" t="s">
+      <c r="F54" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="23" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="55" ht="24" spans="2:7">
-      <c r="B55" s="11">
+      <c r="B55" s="12">
         <v>2</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="23">
+      <c r="E55" s="22">
         <v>8.18</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="24" t="s">
+      <c r="F55" s="22"/>
+      <c r="G55" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="56" ht="36" spans="2:7">
-      <c r="B56" s="11">
+      <c r="B56" s="12">
         <v>3</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="17" t="s">
+      <c r="D56" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="22">
         <v>8.18</v>
       </c>
-      <c r="F56" s="23"/>
-      <c r="G56" s="24" t="s">
+      <c r="F56" s="22"/>
+      <c r="G56" s="23" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="57" ht="24" spans="2:7">
-      <c r="B57" s="11">
+      <c r="B57" s="12">
         <v>4</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="23">
+      <c r="E57" s="22">
         <v>8.18</v>
       </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24" t="s">
+      <c r="F57" s="22"/>
+      <c r="G57" s="23" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="58" ht="24" spans="2:7">
-      <c r="B58" s="11">
+      <c r="B58" s="12">
         <v>5</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D58" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="23">
+      <c r="E58" s="22">
         <v>8.18</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="24" t="s">
+      <c r="F58" s="22"/>
+      <c r="G58" s="23" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="59" ht="24" spans="2:7">
-      <c r="B59" s="11">
+      <c r="B59" s="12">
         <v>6</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D59" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="23">
+      <c r="E59" s="22">
         <v>8.18</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="24"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="23"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="11">
+      <c r="B60" s="12">
         <v>7</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="17" t="s">
+      <c r="D60" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="23"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="11">
+      <c r="B61" s="12">
         <v>8</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="D61" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="24"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="23"/>
     </row>
     <row r="62" ht="24" spans="2:7">
-      <c r="B62" s="11">
+      <c r="B62" s="12">
         <v>9</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="17" t="s">
+      <c r="D62" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="22">
         <v>8.18</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="24" t="s">
+      <c r="F62" s="22"/>
+      <c r="G62" s="23" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="63" ht="24" spans="2:7">
-      <c r="B63" s="11">
+      <c r="B63" s="12">
         <v>10</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="17" t="s">
+      <c r="D63" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="23">
+      <c r="E63" s="22">
         <v>8.18</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="24" t="s">
+      <c r="F63" s="22"/>
+      <c r="G63" s="23" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5522,972 +5650,972 @@
       <c r="B64" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="12"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
       <c r="G64" s="26"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="15"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="16"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" ht="409.5" spans="2:7">
-      <c r="B66" s="11">
+      <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="22">
         <v>8.23</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="24" t="s">
+      <c r="F66" s="22"/>
+      <c r="G66" s="23" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="67" ht="60" spans="2:7">
-      <c r="B67" s="11">
+      <c r="B67" s="12">
         <v>2</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="E67" s="23">
+      <c r="E67" s="22">
         <v>8.23</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="24" t="s">
+      <c r="F67" s="22"/>
+      <c r="G67" s="23" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="68" ht="48" spans="2:7">
-      <c r="B68" s="11">
+      <c r="B68" s="12">
         <v>3</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D68" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="E68" s="23">
+      <c r="E68" s="22">
         <v>8.23</v>
       </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="24" t="s">
+      <c r="F68" s="22"/>
+      <c r="G68" s="23" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="69" ht="84" spans="2:7">
-      <c r="B69" s="11">
+      <c r="B69" s="12">
         <v>4</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="23">
+      <c r="E69" s="22">
         <v>8.28</v>
       </c>
-      <c r="F69" s="23"/>
-      <c r="G69" s="24" t="s">
+      <c r="F69" s="22"/>
+      <c r="G69" s="23" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="70" ht="60" spans="2:7">
-      <c r="B70" s="11">
+      <c r="B70" s="12">
         <v>5</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="22">
         <v>8.28</v>
       </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="24" t="s">
+      <c r="F70" s="22"/>
+      <c r="G70" s="23" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="71" ht="36" spans="2:7">
-      <c r="B71" s="11">
+      <c r="B71" s="12">
         <v>6</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="E71" s="23">
+      <c r="E71" s="22">
         <v>8.28</v>
       </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="24" t="s">
+      <c r="F71" s="22"/>
+      <c r="G71" s="23" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="72" ht="409.5" spans="2:7">
-      <c r="B72" s="11">
+      <c r="B72" s="12">
         <v>7</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E72" s="22">
         <v>8.28</v>
       </c>
-      <c r="F72" s="23" t="s">
+      <c r="F72" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="G72" s="24" t="s">
+      <c r="G72" s="23" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="73" ht="257.1" customHeight="1" spans="1:7">
-      <c r="A73" s="24"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="12"/>
+      <c r="C73" s="13"/>
       <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
       <c r="G73" s="26"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="15"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="16"/>
+      <c r="G74" s="17"/>
     </row>
     <row r="75" ht="120" spans="2:7">
-      <c r="B75" s="11">
+      <c r="B75" s="12">
         <v>1</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C75" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="17" t="s">
+      <c r="D75" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E75" s="23">
+      <c r="E75" s="22">
         <v>8.29</v>
       </c>
-      <c r="F75" s="23"/>
-      <c r="G75" s="24" t="s">
+      <c r="F75" s="22"/>
+      <c r="G75" s="23" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="76" ht="24" spans="2:7">
-      <c r="B76" s="11">
+      <c r="B76" s="12">
         <v>2</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="17" t="s">
+      <c r="C76" s="13"/>
+      <c r="D76" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E76" s="22">
         <v>8.29</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="24" t="s">
+      <c r="F76" s="22"/>
+      <c r="G76" s="23" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="77" ht="24" spans="2:7">
-      <c r="B77" s="11">
+      <c r="B77" s="12">
         <v>3</v>
       </c>
-      <c r="C77" s="12"/>
-      <c r="D77" s="17" t="s">
+      <c r="C77" s="13"/>
+      <c r="D77" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E77" s="23">
+      <c r="E77" s="22">
         <v>8.29</v>
       </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="24" t="s">
+      <c r="F77" s="22"/>
+      <c r="G77" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="78" ht="48" spans="2:7">
-      <c r="B78" s="11"/>
-      <c r="C78" s="12" t="s">
+      <c r="B78" s="12"/>
+      <c r="C78" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="D78" s="17" t="s">
+      <c r="D78" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="22">
         <v>8.29</v>
       </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="24" t="s">
+      <c r="F78" s="22"/>
+      <c r="G78" s="23" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="79" ht="36" spans="2:7">
-      <c r="B79" s="11"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="17" t="s">
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="23">
+      <c r="E79" s="22">
         <v>8.31</v>
       </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="24" t="s">
+      <c r="F79" s="22"/>
+      <c r="G79" s="23" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="80" ht="36" spans="2:7">
-      <c r="B80" s="11"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="17" t="s">
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E80" s="23">
+      <c r="E80" s="22">
         <v>8.31</v>
       </c>
-      <c r="F80" s="23"/>
-      <c r="G80" s="24" t="s">
+      <c r="F80" s="22"/>
+      <c r="G80" s="23" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="81" ht="48" spans="2:7">
-      <c r="B81" s="11"/>
-      <c r="C81" s="12" t="s">
+      <c r="B81" s="12"/>
+      <c r="C81" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E81" s="23">
+      <c r="E81" s="22">
         <v>8.31</v>
       </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="24" t="s">
+      <c r="F81" s="22"/>
+      <c r="G81" s="23" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="82" ht="24" spans="2:7">
-      <c r="B82" s="11"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="17" t="s">
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="22">
         <v>8.31</v>
       </c>
-      <c r="F82" s="23"/>
-      <c r="G82" s="24" t="s">
+      <c r="F82" s="22"/>
+      <c r="G82" s="23" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="83" ht="36" spans="2:7">
-      <c r="B83" s="11"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="17" t="s">
+      <c r="B83" s="12"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="23">
+      <c r="E83" s="22">
         <v>8.31</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="24" t="s">
+      <c r="F83" s="22"/>
+      <c r="G83" s="23" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="84" ht="72" spans="2:7">
-      <c r="B84" s="11">
+      <c r="B84" s="12">
         <v>4</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C84" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D84" s="17" t="s">
+      <c r="D84" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="23">
+      <c r="E84" s="22">
         <v>8.31</v>
       </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="24" t="s">
+      <c r="F84" s="22"/>
+      <c r="G84" s="23" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="85" ht="24" spans="2:7">
-      <c r="B85" s="11">
+      <c r="B85" s="12">
         <v>5</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="17" t="s">
+      <c r="C85" s="13"/>
+      <c r="D85" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="E85" s="23">
+      <c r="E85" s="22">
         <v>8.31</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="24" t="s">
+      <c r="F85" s="22"/>
+      <c r="G85" s="23" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="86" ht="24" spans="2:7">
-      <c r="B86" s="11">
+      <c r="B86" s="12">
         <v>6</v>
       </c>
-      <c r="C86" s="12"/>
-      <c r="D86" s="17" t="s">
+      <c r="C86" s="13"/>
+      <c r="D86" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="E86" s="23">
+      <c r="E86" s="22">
         <v>8.31</v>
       </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="24" t="s">
+      <c r="F86" s="22"/>
+      <c r="G86" s="23" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" ht="24" spans="2:7">
-      <c r="B87" s="11">
+      <c r="B87" s="12">
         <v>7</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="17" t="s">
+      <c r="C87" s="13"/>
+      <c r="D87" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="E87" s="23">
+      <c r="E87" s="22">
         <v>8.31</v>
       </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="24" t="s">
+      <c r="F87" s="22"/>
+      <c r="G87" s="23" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="88" ht="24" spans="2:7">
-      <c r="B88" s="11">
+      <c r="B88" s="12">
         <v>8</v>
       </c>
-      <c r="C88" s="12"/>
-      <c r="D88" s="17" t="s">
+      <c r="C88" s="13"/>
+      <c r="D88" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="E88" s="23">
+      <c r="E88" s="22">
         <v>8.31</v>
       </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="24" t="s">
+      <c r="F88" s="22"/>
+      <c r="G88" s="23" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="89" ht="24" spans="2:7">
-      <c r="B89" s="11">
+      <c r="B89" s="12">
         <v>9</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="17" t="s">
+      <c r="C89" s="13"/>
+      <c r="D89" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="E89" s="23">
+      <c r="E89" s="22">
         <v>8.31</v>
       </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="24" t="s">
+      <c r="F89" s="22"/>
+      <c r="G89" s="23" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="90" ht="24" spans="2:7">
-      <c r="B90" s="11">
+      <c r="B90" s="12">
         <v>10</v>
       </c>
-      <c r="C90" s="12"/>
-      <c r="D90" s="17" t="s">
+      <c r="C90" s="13"/>
+      <c r="D90" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="22">
         <v>8.31</v>
       </c>
-      <c r="F90" s="23"/>
-      <c r="G90" s="24" t="s">
+      <c r="F90" s="22"/>
+      <c r="G90" s="23" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="91" ht="24" spans="2:7">
-      <c r="B91" s="11">
+      <c r="B91" s="12">
         <v>11</v>
       </c>
-      <c r="C91" s="12"/>
-      <c r="D91" s="17" t="s">
+      <c r="C91" s="13"/>
+      <c r="D91" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="E91" s="23">
+      <c r="E91" s="22">
         <v>8.31</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="24" t="s">
+      <c r="F91" s="22"/>
+      <c r="G91" s="23" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="92" ht="36" spans="2:7">
-      <c r="B92" s="11">
+      <c r="B92" s="12">
         <v>12</v>
       </c>
-      <c r="C92" s="12"/>
-      <c r="D92" s="17" t="s">
+      <c r="C92" s="13"/>
+      <c r="D92" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E92" s="23">
+      <c r="E92" s="22">
         <v>9.1</v>
       </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="24" t="s">
+      <c r="F92" s="22"/>
+      <c r="G92" s="23" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="93" ht="24" spans="2:7">
-      <c r="B93" s="11">
+      <c r="B93" s="12">
         <v>13</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="17" t="s">
+      <c r="C93" s="13"/>
+      <c r="D93" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E93" s="23">
+      <c r="E93" s="22">
         <v>9.1</v>
       </c>
-      <c r="F93" s="23"/>
-      <c r="G93" s="24" t="s">
+      <c r="F93" s="22"/>
+      <c r="G93" s="23" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="94" ht="84" spans="2:7">
-      <c r="B94" s="11">
+      <c r="B94" s="12">
         <v>14</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C94" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="D94" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="E94" s="23">
+      <c r="E94" s="22">
         <v>9.1</v>
       </c>
-      <c r="F94" s="23"/>
-      <c r="G94" s="24" t="s">
+      <c r="F94" s="22"/>
+      <c r="G94" s="23" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="95" ht="48" spans="2:7">
-      <c r="B95" s="11">
+      <c r="B95" s="12">
         <v>15</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C95" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="E95" s="23">
+      <c r="E95" s="22">
         <v>9.1</v>
       </c>
-      <c r="F95" s="23" t="s">
+      <c r="F95" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="G95" s="24" t="s">
+      <c r="G95" s="23" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="96" ht="36" spans="2:7">
-      <c r="B96" s="11">
+      <c r="B96" s="12">
         <v>16</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="17" t="s">
+      <c r="C96" s="13"/>
+      <c r="D96" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="E96" s="23">
+      <c r="E96" s="22">
         <v>9.3</v>
       </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="24" t="s">
+      <c r="F96" s="22"/>
+      <c r="G96" s="23" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="97" ht="24" spans="2:7">
-      <c r="B97" s="11"/>
-      <c r="C97" s="12" t="s">
+      <c r="B97" s="12"/>
+      <c r="C97" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="E97" s="23">
+      <c r="E97" s="22">
         <v>9.2</v>
       </c>
-      <c r="F97" s="23" t="s">
+      <c r="F97" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="G97" s="24" t="s">
+      <c r="G97" s="23" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="98" ht="48" spans="2:7">
-      <c r="B98" s="11">
+      <c r="B98" s="12">
         <v>17</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="17" t="s">
+      <c r="C98" s="13"/>
+      <c r="D98" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="E98" s="23">
+      <c r="E98" s="22">
         <v>9.2</v>
       </c>
-      <c r="F98" s="23"/>
-      <c r="G98" s="24" t="s">
+      <c r="F98" s="22"/>
+      <c r="G98" s="23" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="99" ht="60" spans="2:7">
-      <c r="B99" s="11"/>
-      <c r="C99" s="12" t="s">
+      <c r="B99" s="12"/>
+      <c r="C99" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D99" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="E99" s="23">
+      <c r="E99" s="22">
         <v>9.2</v>
       </c>
-      <c r="F99" s="23" t="s">
+      <c r="F99" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="G99" s="24" t="s">
+      <c r="G99" s="23" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="100" ht="48" spans="2:7">
-      <c r="B100" s="11">
+      <c r="B100" s="12">
         <v>18</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="D100" s="17" t="s">
+      <c r="D100" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="E100" s="23">
+      <c r="E100" s="22">
         <v>9.2</v>
       </c>
-      <c r="F100" s="23" t="s">
+      <c r="F100" s="22" t="s">
         <v>238</v>
       </c>
-      <c r="G100" s="24" t="s">
+      <c r="G100" s="23" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="101" ht="144" spans="2:7">
-      <c r="B101" s="11">
+      <c r="B101" s="12">
         <v>19</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C101" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="E101" s="23">
+      <c r="E101" s="22">
         <v>9.2</v>
       </c>
-      <c r="F101" s="23" t="s">
+      <c r="F101" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="G101" s="23" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="11">
+      <c r="B102" s="12">
         <v>20</v>
       </c>
-      <c r="C102" s="12" t="s">
+      <c r="C102" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="D102" s="17" t="s">
+      <c r="D102" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="E102" s="23">
+      <c r="E102" s="22">
         <v>9.2</v>
       </c>
-      <c r="F102" s="23"/>
-      <c r="G102" s="24" t="s">
+      <c r="F102" s="22"/>
+      <c r="G102" s="23" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="103" ht="60" spans="2:7">
-      <c r="B103" s="11">
+      <c r="B103" s="12">
         <v>21</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D103" s="17" t="s">
+      <c r="D103" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="E103" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="F103" s="23"/>
-      <c r="G103" s="24" t="s">
+      <c r="F103" s="22"/>
+      <c r="G103" s="23" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="104" ht="84" spans="2:7">
-      <c r="B104" s="11">
+      <c r="B104" s="12">
         <v>22</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C104" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D104" s="17" t="s">
+      <c r="D104" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="E104" s="23">
+      <c r="E104" s="22">
         <v>9.6</v>
       </c>
-      <c r="F104" s="23"/>
-      <c r="G104" s="24" t="s">
+      <c r="F104" s="22"/>
+      <c r="G104" s="23" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="105" ht="108" spans="2:7">
-      <c r="B105" s="11">
+      <c r="B105" s="12">
         <v>23</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C105" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D105" s="17" t="s">
+      <c r="D105" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E105" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24" t="s">
+      <c r="F105" s="23"/>
+      <c r="G105" s="23" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="106" ht="108" spans="2:7">
-      <c r="B106" s="11">
+      <c r="B106" s="12">
         <v>24</v>
       </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="17" t="s">
+      <c r="C106" s="13"/>
+      <c r="D106" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="E106" s="23">
+      <c r="E106" s="22">
         <v>9.7</v>
       </c>
-      <c r="F106" s="24"/>
-      <c r="G106" s="24" t="s">
+      <c r="F106" s="23"/>
+      <c r="G106" s="23" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="107" ht="24" spans="2:7">
-      <c r="B107" s="11">
+      <c r="B107" s="12">
         <v>25</v>
       </c>
-      <c r="C107" s="12" t="s">
+      <c r="C107" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="E107" s="23">
+      <c r="E107" s="22">
         <v>9.7</v>
       </c>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24" t="s">
+      <c r="F107" s="23"/>
+      <c r="G107" s="23" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="108" ht="60" spans="2:7">
-      <c r="B108" s="11">
+      <c r="B108" s="12">
         <v>26</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="D108" s="17" t="s">
+      <c r="D108" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="E108" s="23">
+      <c r="E108" s="22">
         <v>9.7</v>
       </c>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24" t="s">
+      <c r="F108" s="23"/>
+      <c r="G108" s="23" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="109" ht="108" spans="2:7">
-      <c r="B109" s="11">
+      <c r="B109" s="12">
         <v>27</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D109" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="E109" s="23">
+      <c r="E109" s="22">
         <v>9.7</v>
       </c>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24" t="s">
+      <c r="F109" s="23"/>
+      <c r="G109" s="23" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="110" ht="48" spans="2:7">
-      <c r="B110" s="11">
+      <c r="B110" s="12">
         <v>28</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="D110" s="17" t="s">
+      <c r="D110" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E110" s="23">
+      <c r="E110" s="22">
         <v>9.8</v>
       </c>
-      <c r="F110" s="24"/>
-      <c r="G110" s="24" t="s">
+      <c r="F110" s="23"/>
+      <c r="G110" s="23" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="111" ht="132" spans="2:7">
-      <c r="B111" s="11">
+      <c r="B111" s="12">
         <v>29</v>
       </c>
-      <c r="C111" s="12" t="s">
+      <c r="C111" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D111" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="E111" s="23">
+      <c r="E111" s="22">
         <v>9.8</v>
       </c>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24" t="s">
+      <c r="F111" s="23"/>
+      <c r="G111" s="23" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="112" ht="60" spans="2:7">
-      <c r="B112" s="11">
+      <c r="B112" s="12">
         <v>30</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D112" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="E112" s="23">
+      <c r="E112" s="22">
         <v>9.8</v>
       </c>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24" t="s">
+      <c r="F112" s="23"/>
+      <c r="G112" s="23" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="113" ht="108" spans="2:7">
-      <c r="B113" s="11">
+      <c r="B113" s="12">
         <v>31</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D113" s="17" t="s">
+      <c r="D113" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E113" s="23">
+      <c r="E113" s="22">
         <v>9.8</v>
       </c>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24" t="s">
+      <c r="F113" s="23"/>
+      <c r="G113" s="23" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="114" ht="156" spans="2:7">
-      <c r="B114" s="11">
+      <c r="B114" s="12">
         <v>32</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C114" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="D114" s="17" t="s">
+      <c r="D114" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="E114" s="23">
+      <c r="E114" s="22">
         <v>9.8</v>
       </c>
-      <c r="F114" s="24"/>
-      <c r="G114" s="24" t="s">
+      <c r="F114" s="23"/>
+      <c r="G114" s="23" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="115" ht="264" spans="2:7">
-      <c r="B115" s="11">
+      <c r="B115" s="12">
         <v>33</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C115" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="E115" s="23">
+      <c r="E115" s="22">
         <v>9.9</v>
       </c>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24" t="s">
+      <c r="F115" s="23"/>
+      <c r="G115" s="23" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="116" ht="84" spans="2:7">
-      <c r="B116" s="11">
+      <c r="B116" s="12">
         <v>34</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="D116" s="17" t="s">
+      <c r="D116" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="E116" s="23">
+      <c r="E116" s="22">
         <v>9.9</v>
       </c>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24" t="s">
+      <c r="F116" s="23"/>
+      <c r="G116" s="23" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="117" ht="72" spans="2:7">
-      <c r="B117" s="11">
+      <c r="B117" s="12">
         <v>35</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C117" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="D117" s="17" t="s">
+      <c r="D117" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="E117" s="23">
+      <c r="E117" s="22">
         <v>9.9</v>
       </c>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24" t="s">
+      <c r="F117" s="23"/>
+      <c r="G117" s="23" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="118" ht="96" spans="2:7">
-      <c r="B118" s="11">
+      <c r="B118" s="12">
         <v>36</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="D118" s="17" t="s">
+      <c r="D118" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="E118" s="23">
+      <c r="E118" s="22">
         <v>9.9</v>
       </c>
-      <c r="F118" s="24"/>
-      <c r="G118" s="24" t="s">
+      <c r="F118" s="23"/>
+      <c r="G118" s="23" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="119" ht="24" spans="2:7">
-      <c r="B119" s="11">
+      <c r="B119" s="12">
         <v>37</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D119" s="17" t="s">
+      <c r="D119" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="E119" s="23">
+      <c r="E119" s="22">
         <v>9.11</v>
       </c>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24" t="s">
+      <c r="F119" s="23"/>
+      <c r="G119" s="23" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="120" ht="60" spans="2:7">
-      <c r="B120" s="11">
+      <c r="B120" s="12">
         <v>38</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="D120" s="17" t="s">
+      <c r="D120" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="22">
         <v>9.11</v>
       </c>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24" t="s">
+      <c r="F120" s="23"/>
+      <c r="G120" s="23" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="121" ht="36" spans="2:7">
-      <c r="B121" s="11">
+      <c r="B121" s="12">
         <v>39</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C121" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="D121" s="17" t="s">
+      <c r="D121" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="E121" s="23">
+      <c r="E121" s="22">
         <v>9.11</v>
       </c>
-      <c r="F121" s="12"/>
-      <c r="G121" s="24" t="s">
+      <c r="F121" s="13"/>
+      <c r="G121" s="23" t="s">
         <v>291</v>
       </c>
     </row>
@@ -6495,1391 +6623,1488 @@
       <c r="B122" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="C122" s="12"/>
+      <c r="C122" s="13"/>
       <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
       <c r="G122" s="26"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C123" s="15"/>
+      <c r="C123" s="16"/>
       <c r="D123" s="20"/>
       <c r="E123" s="20"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="16"/>
+      <c r="G123" s="17"/>
     </row>
     <row r="124" ht="108" spans="2:7">
-      <c r="B124" s="11">
+      <c r="B124" s="12">
         <v>1</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C124" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="D124" s="17" t="s">
+      <c r="D124" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="E124" s="23">
+      <c r="E124" s="22">
         <v>9.12</v>
       </c>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24" t="s">
+      <c r="F124" s="23"/>
+      <c r="G124" s="23" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="125" ht="36" spans="2:7">
-      <c r="B125" s="11">
+      <c r="B125" s="12">
         <v>2</v>
       </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="17" t="s">
+      <c r="C125" s="13"/>
+      <c r="D125" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="E125" s="23">
+      <c r="E125" s="22">
         <v>9.12</v>
       </c>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24" t="s">
+      <c r="F125" s="23"/>
+      <c r="G125" s="23" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="126" ht="24" spans="2:7">
-      <c r="B126" s="11">
+      <c r="B126" s="12">
         <v>3</v>
       </c>
-      <c r="C126" s="12"/>
-      <c r="D126" s="17" t="s">
+      <c r="C126" s="13"/>
+      <c r="D126" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="E126" s="23">
+      <c r="E126" s="22">
         <v>9.12</v>
       </c>
-      <c r="F126" s="24"/>
-      <c r="G126" s="24" t="s">
+      <c r="F126" s="23"/>
+      <c r="G126" s="23" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="127" ht="72" spans="2:7">
-      <c r="B127" s="11">
+      <c r="B127" s="12">
         <v>4</v>
       </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="17" t="s">
+      <c r="C127" s="13"/>
+      <c r="D127" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="E127" s="23">
+      <c r="E127" s="22">
         <v>9.13</v>
       </c>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24" t="s">
+      <c r="F127" s="23"/>
+      <c r="G127" s="23" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="128" ht="156" spans="2:7">
-      <c r="B128" s="11">
+      <c r="B128" s="12">
         <v>5</v>
       </c>
-      <c r="C128" s="12"/>
-      <c r="D128" s="17" t="s">
+      <c r="C128" s="13"/>
+      <c r="D128" s="14" t="s">
         <v>303</v>
       </c>
-      <c r="E128" s="23">
+      <c r="E128" s="22">
         <v>9.13</v>
       </c>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24" t="s">
+      <c r="F128" s="23"/>
+      <c r="G128" s="23" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="129" ht="84" spans="2:7">
-      <c r="B129" s="11">
+      <c r="B129" s="12">
         <v>6</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="D129" s="17" t="s">
+      <c r="D129" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="E129" s="23">
+      <c r="E129" s="22">
         <v>9.13</v>
       </c>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24" t="s">
+      <c r="F129" s="23"/>
+      <c r="G129" s="23" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="130" ht="48" spans="2:7">
-      <c r="B130" s="11">
+      <c r="B130" s="12">
         <v>7</v>
       </c>
-      <c r="C130" s="12"/>
-      <c r="D130" s="17" t="s">
+      <c r="C130" s="13"/>
+      <c r="D130" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="E130" s="23">
+      <c r="E130" s="22">
         <v>9.16</v>
       </c>
-      <c r="F130" s="24"/>
-      <c r="G130" s="24" t="s">
+      <c r="F130" s="23"/>
+      <c r="G130" s="23" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="131" ht="48" spans="2:7">
-      <c r="B131" s="11">
+      <c r="B131" s="12">
         <v>8</v>
       </c>
-      <c r="C131" s="12" t="s">
+      <c r="C131" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="D131" s="14" t="s">
         <v>311</v>
       </c>
-      <c r="E131" s="23">
+      <c r="E131" s="22">
         <v>9.17</v>
       </c>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24" t="s">
+      <c r="F131" s="23"/>
+      <c r="G131" s="23" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="132" ht="72" spans="2:7">
-      <c r="B132" s="11">
+      <c r="B132" s="12">
         <v>9</v>
       </c>
-      <c r="C132" s="12"/>
-      <c r="D132" s="17" t="s">
+      <c r="C132" s="13"/>
+      <c r="D132" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="E132" s="23">
+      <c r="E132" s="22">
         <v>9.17</v>
       </c>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24" t="s">
+      <c r="F132" s="23"/>
+      <c r="G132" s="23" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="133" ht="36" spans="2:7">
-      <c r="B133" s="11">
+      <c r="B133" s="12">
         <v>10</v>
       </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="17" t="s">
+      <c r="C133" s="13"/>
+      <c r="D133" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="E133" s="23">
+      <c r="E133" s="22">
         <v>9.18</v>
       </c>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24" t="s">
+      <c r="F133" s="23"/>
+      <c r="G133" s="23" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="134" ht="60" spans="2:7">
-      <c r="B134" s="11">
+      <c r="B134" s="12">
         <v>11</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C134" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D134" s="17" t="s">
+      <c r="D134" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="E134" s="23">
+      <c r="E134" s="22">
         <v>9.18</v>
       </c>
-      <c r="F134" s="24"/>
-      <c r="G134" s="24" t="s">
+      <c r="F134" s="23"/>
+      <c r="G134" s="23" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="135" ht="36" spans="2:7">
-      <c r="B135" s="11">
+      <c r="B135" s="12">
         <v>12</v>
       </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="17" t="s">
+      <c r="C135" s="13"/>
+      <c r="D135" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="E135" s="23">
+      <c r="E135" s="22">
         <v>9.18</v>
       </c>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24" t="s">
+      <c r="F135" s="23"/>
+      <c r="G135" s="23" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="136" ht="24" spans="2:7">
-      <c r="B136" s="11">
+      <c r="B136" s="12">
         <v>13</v>
       </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="17" t="s">
+      <c r="C136" s="13"/>
+      <c r="D136" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E136" s="22">
         <v>9.19</v>
       </c>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24" t="s">
+      <c r="F136" s="23"/>
+      <c r="G136" s="23" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="11">
+      <c r="B137" s="12">
         <v>14</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C137" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D137" s="17" t="s">
+      <c r="D137" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="E137" s="23">
+      <c r="E137" s="22">
         <v>9.19</v>
       </c>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="23"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="11">
+      <c r="B138" s="12">
         <v>15</v>
       </c>
-      <c r="C138" s="12"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="23"/>
-      <c r="F138" s="24"/>
-      <c r="G138" s="24"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="22"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="23"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="11">
+      <c r="B139" s="12">
         <v>16</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="D139" s="17"/>
-      <c r="E139" s="23"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="22"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="23"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="11">
+      <c r="B140" s="12">
         <v>17</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="13"/>
-      <c r="E140" s="23"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="22"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="23"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="11">
+      <c r="B141" s="12">
         <v>18</v>
       </c>
-      <c r="C141" s="12"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="24"/>
-      <c r="G141" s="24"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="23"/>
     </row>
     <row r="142" ht="126.95" customHeight="1" spans="2:7">
       <c r="B142" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C142" s="12"/>
+      <c r="C142" s="13"/>
       <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
       <c r="G142" s="26"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="C143" s="15"/>
+      <c r="C143" s="16"/>
       <c r="D143" s="20"/>
       <c r="E143" s="20"/>
       <c r="F143" s="20"/>
-      <c r="G143" s="16"/>
+      <c r="G143" s="17"/>
     </row>
     <row r="144" ht="84" spans="2:7">
-      <c r="B144" s="11">
+      <c r="B144" s="12">
         <v>1</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D144" s="17" t="s">
+      <c r="D144" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="E144" s="23">
+      <c r="E144" s="22">
         <v>9.23</v>
       </c>
-      <c r="F144" s="24"/>
-      <c r="G144" s="24" t="s">
+      <c r="F144" s="23"/>
+      <c r="G144" s="23" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="145" ht="24" spans="2:7">
-      <c r="B145" s="11">
+      <c r="B145" s="12">
         <v>2</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D145" s="17" t="s">
+      <c r="D145" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="E145" s="23">
+      <c r="E145" s="22">
         <v>9.24</v>
       </c>
-      <c r="F145" s="24"/>
-      <c r="G145" s="24" t="s">
+      <c r="F145" s="23"/>
+      <c r="G145" s="23" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="146" ht="24" spans="2:7">
-      <c r="B146" s="11">
+      <c r="B146" s="12">
         <v>3</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D146" s="17" t="s">
+      <c r="D146" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="E146" s="23">
+      <c r="E146" s="22">
         <v>9.24</v>
       </c>
-      <c r="F146" s="24"/>
-      <c r="G146" s="24" t="s">
+      <c r="F146" s="23"/>
+      <c r="G146" s="23" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="147" ht="60" spans="2:7">
-      <c r="B147" s="11">
+      <c r="B147" s="12">
         <v>4</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="D147" s="17" t="s">
+      <c r="D147" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="E147" s="23">
+      <c r="E147" s="22">
         <v>9.24</v>
       </c>
-      <c r="F147" s="24"/>
-      <c r="G147" s="24" t="s">
+      <c r="F147" s="23"/>
+      <c r="G147" s="23" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="148" ht="36" spans="2:7">
-      <c r="B148" s="11">
+      <c r="B148" s="12">
         <v>5</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="D148" s="17" t="s">
+      <c r="D148" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="E148" s="23">
+      <c r="E148" s="22">
         <v>9.25</v>
       </c>
-      <c r="F148" s="24"/>
-      <c r="G148" s="24" t="s">
+      <c r="F148" s="23"/>
+      <c r="G148" s="23" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="149" ht="36" spans="2:7">
-      <c r="B149" s="11">
+      <c r="B149" s="12">
         <v>6</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="D149" s="17" t="s">
+      <c r="D149" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="E149" s="23">
+      <c r="E149" s="22">
         <v>9.25</v>
       </c>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24" t="s">
+      <c r="F149" s="23"/>
+      <c r="G149" s="23" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="150" ht="60" spans="2:7">
-      <c r="B150" s="11">
+      <c r="B150" s="12">
         <v>7</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D150" s="17" t="s">
+      <c r="D150" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="E150" s="23">
+      <c r="E150" s="22">
         <v>9.25</v>
       </c>
-      <c r="F150" s="24"/>
-      <c r="G150" s="24" t="s">
+      <c r="F150" s="23"/>
+      <c r="G150" s="23" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="151" ht="48" spans="2:7">
-      <c r="B151" s="11">
+      <c r="B151" s="12">
         <v>8</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D151" s="17" t="s">
+      <c r="D151" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="E151" s="23">
+      <c r="E151" s="22">
         <v>9.25</v>
       </c>
-      <c r="F151" s="24"/>
-      <c r="G151" s="24" t="s">
+      <c r="F151" s="23"/>
+      <c r="G151" s="23" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="152" ht="60" spans="2:7">
-      <c r="B152" s="11">
+      <c r="B152" s="12">
         <v>9</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="D152" s="17" t="s">
+      <c r="D152" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="E152" s="23">
+      <c r="E152" s="22">
         <v>9.26</v>
       </c>
-      <c r="F152" s="24"/>
-      <c r="G152" s="24" t="s">
+      <c r="F152" s="23"/>
+      <c r="G152" s="23" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="153" ht="24" spans="2:7">
-      <c r="B153" s="11">
+      <c r="B153" s="12">
         <v>10</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C153" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D153" s="17" t="s">
+      <c r="D153" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="E153" s="23">
+      <c r="E153" s="22">
         <v>9.26</v>
       </c>
-      <c r="F153" s="24"/>
-      <c r="G153" s="24" t="s">
+      <c r="F153" s="23"/>
+      <c r="G153" s="23" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="154" ht="204" spans="2:7">
-      <c r="B154" s="11">
+      <c r="B154" s="12">
         <v>11</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C154" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="D154" s="17" t="s">
+      <c r="D154" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="E154" s="23">
+      <c r="E154" s="22">
         <v>9.27</v>
       </c>
-      <c r="F154" s="24"/>
-      <c r="G154" s="24" t="s">
+      <c r="F154" s="23"/>
+      <c r="G154" s="23" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="155" ht="48" spans="2:7">
-      <c r="B155" s="11">
+      <c r="B155" s="12">
         <v>12</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D155" s="17" t="s">
+      <c r="D155" s="14" t="s">
         <v>351</v>
       </c>
-      <c r="E155" s="23">
+      <c r="E155" s="22">
         <v>9.27</v>
       </c>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24" t="s">
+      <c r="F155" s="23"/>
+      <c r="G155" s="23" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="156" ht="24" spans="2:7">
-      <c r="B156" s="11">
+      <c r="B156" s="12">
         <v>13</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="D156" s="17" t="s">
+      <c r="D156" s="14" t="s">
         <v>353</v>
       </c>
-      <c r="E156" s="23">
+      <c r="E156" s="22">
         <v>9.27</v>
       </c>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24" t="s">
+      <c r="F156" s="23"/>
+      <c r="G156" s="23" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="157" ht="24" spans="2:7">
-      <c r="B157" s="11">
+      <c r="B157" s="12">
         <v>14</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C157" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D157" s="26" t="s">
+      <c r="D157" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="E157" s="23">
+      <c r="E157" s="22">
         <v>9.27</v>
       </c>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24" t="s">
+      <c r="F157" s="23"/>
+      <c r="G157" s="23" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="158" ht="24" spans="2:7">
-      <c r="B158" s="11">
+      <c r="B158" s="12">
         <v>15</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="C158" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D158" s="17" t="s">
+      <c r="D158" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="E158" s="23">
+      <c r="E158" s="22">
         <v>9.27</v>
       </c>
-      <c r="F158" s="24"/>
-      <c r="G158" s="24" t="s">
+      <c r="F158" s="23"/>
+      <c r="G158" s="23" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="159" ht="36" spans="2:7">
-      <c r="B159" s="11">
+      <c r="B159" s="12">
         <v>16</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C159" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="D159" s="17" t="s">
+      <c r="D159" s="14" t="s">
         <v>359</v>
       </c>
-      <c r="E159" s="23">
+      <c r="E159" s="22">
         <v>9.29</v>
       </c>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24" t="s">
+      <c r="F159" s="23"/>
+      <c r="G159" s="23" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="160" ht="48" spans="2:7">
-      <c r="B160" s="11">
+      <c r="B160" s="12">
         <v>17</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C160" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D160" s="17" t="s">
+      <c r="D160" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="E160" s="23">
+      <c r="E160" s="22">
         <v>9.29</v>
       </c>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24" t="s">
+      <c r="F160" s="23"/>
+      <c r="G160" s="23" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="11">
+      <c r="B161" s="12">
         <v>18</v>
       </c>
-      <c r="C161" s="12"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="22"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="23"/>
     </row>
     <row r="162" ht="93" customHeight="1" spans="2:7">
       <c r="B162" s="18" t="s">
         <v>363</v>
       </c>
-      <c r="C162" s="12"/>
+      <c r="C162" s="13"/>
       <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
-      <c r="F162" s="19"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="25"/>
       <c r="G162" s="26"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="C163" s="15"/>
+      <c r="C163" s="16"/>
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
       <c r="F163" s="20"/>
-      <c r="G163" s="16"/>
+      <c r="G163" s="17"/>
     </row>
     <row r="164" ht="120" spans="2:7">
-      <c r="B164" s="11">
+      <c r="B164" s="12">
         <v>1</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C164" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D164" s="17" t="s">
+      <c r="D164" s="14" t="s">
         <v>365</v>
       </c>
-      <c r="E164" s="23">
+      <c r="E164" s="22">
         <v>10.7</v>
       </c>
-      <c r="F164" s="23"/>
-      <c r="G164" s="24" t="s">
+      <c r="F164" s="22"/>
+      <c r="G164" s="23" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="165" ht="36" spans="2:7">
-      <c r="B165" s="11">
+      <c r="B165" s="12">
         <v>2</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="C165" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="D165" s="17" t="s">
+      <c r="D165" s="14" t="s">
         <v>367</v>
       </c>
-      <c r="E165" s="23">
+      <c r="E165" s="22">
         <v>10.8</v>
       </c>
-      <c r="F165" s="23"/>
-      <c r="G165" s="24" t="s">
+      <c r="F165" s="22"/>
+      <c r="G165" s="23" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="166" ht="24" spans="2:7">
-      <c r="B166" s="11">
+      <c r="B166" s="12">
         <v>3</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C166" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D166" s="17" t="s">
+      <c r="D166" s="14" t="s">
         <v>369</v>
       </c>
-      <c r="E166" s="23">
+      <c r="E166" s="22">
         <v>10.8</v>
       </c>
-      <c r="F166" s="23"/>
-      <c r="G166" s="24" t="s">
+      <c r="F166" s="22"/>
+      <c r="G166" s="23" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="167" ht="162.75" spans="2:7">
-      <c r="B167" s="11">
+      <c r="B167" s="12">
         <v>4</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D167" s="17" t="s">
+      <c r="D167" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="E167" s="23">
+      <c r="E167" s="22">
         <v>10.8</v>
       </c>
-      <c r="F167" s="23"/>
-      <c r="G167" s="24" t="s">
+      <c r="F167" s="22"/>
+      <c r="G167" s="23" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="168" ht="24" spans="2:7">
-      <c r="B168" s="11">
+      <c r="B168" s="12">
         <v>5</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="D168" s="17" t="s">
+      <c r="D168" s="14" t="s">
         <v>373</v>
       </c>
-      <c r="E168" s="23">
+      <c r="E168" s="22">
         <v>10.8</v>
       </c>
-      <c r="F168" s="23"/>
-      <c r="G168" s="24" t="s">
+      <c r="F168" s="22"/>
+      <c r="G168" s="23" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="169" ht="36" spans="2:7">
-      <c r="B169" s="11">
+      <c r="B169" s="12">
         <v>6</v>
       </c>
-      <c r="C169" s="12" t="s">
+      <c r="C169" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="D169" s="17" t="s">
+      <c r="D169" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="E169" s="23">
+      <c r="E169" s="22">
         <v>10.8</v>
       </c>
-      <c r="F169" s="23"/>
-      <c r="G169" s="24" t="s">
+      <c r="F169" s="22"/>
+      <c r="G169" s="23" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="170" ht="24" spans="2:7">
-      <c r="B170" s="11">
+      <c r="B170" s="12">
         <v>7</v>
       </c>
-      <c r="C170" s="12" t="s">
+      <c r="C170" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="D170" s="17" t="s">
+      <c r="D170" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="E170" s="23">
+      <c r="E170" s="22">
         <v>10.8</v>
       </c>
-      <c r="F170" s="23"/>
-      <c r="G170" s="24" t="s">
+      <c r="F170" s="22"/>
+      <c r="G170" s="23" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="171" ht="312" spans="2:7">
-      <c r="B171" s="11">
+      <c r="B171" s="12">
         <v>8</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C171" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D171" s="17" t="s">
+      <c r="D171" s="14" t="s">
         <v>379</v>
       </c>
-      <c r="E171" s="32" t="s">
+      <c r="E171" s="34" t="s">
         <v>380</v>
       </c>
-      <c r="F171" s="23"/>
-      <c r="G171" s="24" t="s">
+      <c r="F171" s="22"/>
+      <c r="G171" s="23" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="172" ht="36" spans="2:7">
-      <c r="B172" s="11">
+      <c r="B172" s="12">
         <v>9</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C172" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="D172" s="17" t="s">
+      <c r="D172" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="E172" s="32" t="s">
+      <c r="E172" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="F172" s="23"/>
-      <c r="G172" s="24" t="s">
+      <c r="F172" s="22"/>
+      <c r="G172" s="23" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="173" ht="24" spans="2:7">
-      <c r="B173" s="11">
+      <c r="B173" s="12">
         <v>10</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D173" s="17" t="s">
+      <c r="D173" s="14" t="s">
         <v>385</v>
       </c>
-      <c r="E173" s="23">
+      <c r="E173" s="22">
         <v>10.11</v>
       </c>
-      <c r="F173" s="23"/>
-      <c r="G173" s="24" t="s">
+      <c r="F173" s="22"/>
+      <c r="G173" s="23" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="11">
+      <c r="B174" s="12">
         <v>11</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C174" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D174" s="17" t="s">
+      <c r="D174" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="E174" s="23">
+      <c r="E174" s="22">
         <v>10.11</v>
       </c>
-      <c r="F174" s="23"/>
-      <c r="G174" s="24"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="23"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="11"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="23"/>
-      <c r="F175" s="23"/>
-      <c r="G175" s="24"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="22"/>
+      <c r="F175" s="22"/>
+      <c r="G175" s="23"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="11"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="23"/>
-      <c r="F176" s="23"/>
-      <c r="G176" s="24"/>
+      <c r="B176" s="12"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="22"/>
+      <c r="F176" s="22"/>
+      <c r="G176" s="23"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="11"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="23"/>
-      <c r="F177" s="23"/>
-      <c r="G177" s="24"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="22"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="23"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="11"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="23"/>
-      <c r="F178" s="23"/>
-      <c r="G178" s="24"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="22"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="23"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="11"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="23"/>
-      <c r="F179" s="23"/>
-      <c r="G179" s="24"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="22"/>
+      <c r="F179" s="22"/>
+      <c r="G179" s="23"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="11"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="23"/>
-      <c r="F180" s="23"/>
-      <c r="G180" s="24"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="22"/>
+      <c r="F180" s="22"/>
+      <c r="G180" s="23"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="11"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="23"/>
-      <c r="F181" s="23"/>
-      <c r="G181" s="24"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="22"/>
+      <c r="F181" s="22"/>
+      <c r="G181" s="23"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="11"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="23"/>
-      <c r="F182" s="23"/>
-      <c r="G182" s="24"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="22"/>
+      <c r="F182" s="22"/>
+      <c r="G182" s="23"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="11"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="23"/>
-      <c r="F183" s="23"/>
-      <c r="G183" s="24"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="23"/>
     </row>
     <row r="184" ht="90" customHeight="1" spans="2:7">
       <c r="B184" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="C184" s="12"/>
+      <c r="C184" s="13"/>
       <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
+      <c r="E184" s="25"/>
+      <c r="F184" s="25"/>
       <c r="G184" s="26"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="C185" s="15"/>
+      <c r="C185" s="16"/>
       <c r="D185" s="20"/>
       <c r="E185" s="20"/>
       <c r="F185" s="20"/>
-      <c r="G185" s="16"/>
+      <c r="G185" s="17"/>
     </row>
     <row r="186" ht="156" spans="2:7">
-      <c r="B186" s="11">
+      <c r="B186" s="12">
         <v>1</v>
       </c>
-      <c r="C186" s="12" t="s">
+      <c r="C186" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D186" s="17" t="s">
+      <c r="D186" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="E186" s="23" t="s">
+      <c r="E186" s="22" t="s">
         <v>391</v>
       </c>
-      <c r="F186" s="33"/>
-      <c r="G186" s="24" t="s">
+      <c r="F186" s="35"/>
+      <c r="G186" s="23" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="187" ht="72" spans="2:7">
-      <c r="B187" s="11">
+      <c r="B187" s="12">
         <v>2</v>
       </c>
-      <c r="C187" s="12" t="s">
+      <c r="C187" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="D187" s="17" t="s">
+      <c r="D187" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="E187" s="23">
+      <c r="E187" s="22">
         <v>10.12</v>
       </c>
-      <c r="F187" s="34"/>
-      <c r="G187" s="24" t="s">
+      <c r="F187" s="36"/>
+      <c r="G187" s="23" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="188" ht="60" spans="2:7">
-      <c r="B188" s="11">
+      <c r="B188" s="12">
         <v>3</v>
       </c>
-      <c r="C188" s="12" t="s">
+      <c r="C188" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="D188" s="17" t="s">
+      <c r="D188" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="E188" s="23">
+      <c r="E188" s="22">
         <v>10.12</v>
       </c>
-      <c r="F188" s="34"/>
-      <c r="G188" s="24" t="s">
+      <c r="F188" s="36"/>
+      <c r="G188" s="23" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="189" ht="36" spans="2:7">
-      <c r="B189" s="11">
+      <c r="B189" s="12">
         <v>4</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C189" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="D189" s="17" t="s">
+      <c r="D189" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="E189" s="23">
+      <c r="E189" s="22">
         <v>10.21</v>
       </c>
-      <c r="F189" s="34"/>
-      <c r="G189" s="24" t="s">
+      <c r="F189" s="36"/>
+      <c r="G189" s="23" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="190" ht="36" spans="2:7">
-      <c r="B190" s="11">
+      <c r="B190" s="12">
         <v>5</v>
       </c>
-      <c r="C190" s="12" t="s">
+      <c r="C190" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="D190" s="17" t="s">
+      <c r="D190" s="14" t="s">
         <v>399</v>
       </c>
-      <c r="E190" s="23">
+      <c r="E190" s="22">
         <v>10.22</v>
       </c>
-      <c r="F190" s="35"/>
-      <c r="G190" s="24" t="s">
+      <c r="F190" s="37"/>
+      <c r="G190" s="23" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="29"/>
-      <c r="C191" s="30"/>
-      <c r="D191" s="31"/>
-      <c r="E191" s="31"/>
-      <c r="F191" s="31"/>
-      <c r="G191" s="36"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="32"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="38"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="14" t="s">
+      <c r="B192" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="C192" s="15"/>
+      <c r="C192" s="16"/>
       <c r="D192" s="20"/>
       <c r="E192" s="20"/>
       <c r="F192" s="20"/>
-      <c r="G192" s="16"/>
+      <c r="G192" s="17"/>
     </row>
     <row r="193" ht="409.5" spans="2:7">
-      <c r="B193" s="11">
+      <c r="B193" s="12">
         <v>1</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D193" s="17" t="s">
+      <c r="D193" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="E193" s="24" t="s">
+      <c r="E193" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="F193" s="24"/>
-      <c r="G193" s="24" t="s">
+      <c r="F193" s="23"/>
+      <c r="G193" s="23" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="194" ht="409.5" spans="2:7">
-      <c r="B194" s="11"/>
+      <c r="B194" s="12">
+        <v>2</v>
+      </c>
       <c r="C194" s="5"/>
-      <c r="D194" s="17" t="s">
+      <c r="D194" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="E194" s="23" t="s">
+      <c r="E194" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="F194" s="23"/>
-      <c r="G194" s="24" t="s">
+      <c r="F194" s="22"/>
+      <c r="G194" s="23" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="195" ht="60" spans="2:7">
-      <c r="B195" s="11"/>
+      <c r="B195" s="12">
+        <v>3</v>
+      </c>
       <c r="C195" s="5"/>
-      <c r="D195" s="17" t="s">
+      <c r="D195" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="E195" s="23">
+      <c r="E195" s="22">
         <v>11.2</v>
       </c>
-      <c r="F195" s="23"/>
-      <c r="G195" s="24" t="s">
+      <c r="F195" s="22"/>
+      <c r="G195" s="23" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="196" ht="24" spans="2:7">
-      <c r="B196" s="11"/>
+      <c r="B196" s="12">
+        <v>4</v>
+      </c>
       <c r="C196" s="5"/>
-      <c r="D196" s="17" t="s">
+      <c r="D196" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="E196" s="23">
+      <c r="E196" s="22">
         <v>11.2</v>
       </c>
-      <c r="F196" s="23"/>
-      <c r="G196" s="24" t="s">
+      <c r="F196" s="22"/>
+      <c r="G196" s="23" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="197" ht="24" spans="2:7">
-      <c r="B197" s="11"/>
+      <c r="B197" s="12">
+        <v>5</v>
+      </c>
       <c r="C197" s="5"/>
-      <c r="D197" s="17" t="s">
+      <c r="D197" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="E197" s="23">
+      <c r="E197" s="22">
         <v>11.2</v>
       </c>
-      <c r="F197" s="23"/>
-      <c r="G197" s="24" t="s">
+      <c r="F197" s="22"/>
+      <c r="G197" s="23" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="198" ht="36" spans="2:7">
-      <c r="B198" s="11"/>
+      <c r="B198" s="12">
+        <v>6</v>
+      </c>
       <c r="C198" s="5"/>
-      <c r="D198" s="17" t="s">
+      <c r="D198" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="E198" s="23">
+      <c r="E198" s="22">
         <v>11.3</v>
       </c>
-      <c r="F198" s="23"/>
-      <c r="G198" s="24" t="s">
+      <c r="F198" s="22"/>
+      <c r="G198" s="23" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="199" ht="60" spans="2:7">
-      <c r="B199" s="11"/>
+      <c r="B199" s="12">
+        <v>7</v>
+      </c>
       <c r="C199" s="5"/>
-      <c r="D199" s="17" t="s">
+      <c r="D199" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="E199" s="23">
+      <c r="E199" s="22">
         <v>11.3</v>
       </c>
-      <c r="F199" s="23"/>
-      <c r="G199" s="24" t="s">
+      <c r="F199" s="22"/>
+      <c r="G199" s="23" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="200" ht="108" spans="2:7">
-      <c r="B200" s="11"/>
+      <c r="B200" s="12">
+        <v>8</v>
+      </c>
       <c r="C200" s="5"/>
-      <c r="D200" s="17" t="s">
+      <c r="D200" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="E200" s="23">
+      <c r="E200" s="22">
         <v>11.4</v>
       </c>
-      <c r="F200" s="23"/>
-      <c r="G200" s="24" t="s">
+      <c r="F200" s="22"/>
+      <c r="G200" s="23" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="201" ht="36" spans="2:7">
-      <c r="B201" s="11"/>
+      <c r="B201" s="12">
+        <v>9</v>
+      </c>
       <c r="C201" s="5"/>
-      <c r="D201" s="17" t="s">
+      <c r="D201" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="E201" s="23">
+      <c r="E201" s="22">
         <v>11.4</v>
       </c>
-      <c r="F201" s="23"/>
-      <c r="G201" s="24" t="s">
+      <c r="F201" s="22"/>
+      <c r="G201" s="23" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="202" ht="24" spans="2:7">
-      <c r="B202" s="11"/>
+      <c r="B202" s="12">
+        <v>10</v>
+      </c>
       <c r="C202" s="5"/>
-      <c r="D202" s="17" t="s">
+      <c r="D202" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="E202" s="23">
+      <c r="E202" s="22">
         <v>11.4</v>
       </c>
-      <c r="F202" s="23"/>
-      <c r="G202" s="24" t="s">
+      <c r="F202" s="22"/>
+      <c r="G202" s="23" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="203" ht="409.5" spans="2:7">
-      <c r="B203" s="11"/>
+      <c r="B203" s="12">
+        <v>11</v>
+      </c>
       <c r="C203" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="D203" s="17" t="s">
+      <c r="D203" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="E203" s="23">
+      <c r="E203" s="22">
         <v>11.4</v>
       </c>
-      <c r="F203" s="23"/>
-      <c r="G203" s="24" t="s">
+      <c r="F203" s="22"/>
+      <c r="G203" s="23" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="204" ht="24" spans="2:7">
-      <c r="B204" s="11"/>
+      <c r="B204" s="12">
+        <v>12</v>
+      </c>
       <c r="C204" s="5"/>
-      <c r="D204" s="17" t="s">
+      <c r="D204" s="14" t="s">
         <v>428</v>
       </c>
-      <c r="E204" s="23">
+      <c r="E204" s="22">
         <v>11.4</v>
       </c>
-      <c r="F204" s="23"/>
-      <c r="G204" s="24" t="s">
+      <c r="F204" s="22"/>
+      <c r="G204" s="23" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="205" ht="108" spans="2:7">
-      <c r="B205" s="11"/>
+      <c r="B205" s="12">
+        <v>13</v>
+      </c>
       <c r="C205" s="5"/>
-      <c r="D205" s="17" t="s">
+      <c r="D205" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="E205" s="23">
+      <c r="E205" s="22">
         <v>11.4</v>
       </c>
-      <c r="F205" s="23"/>
-      <c r="G205" s="24" t="s">
+      <c r="F205" s="22"/>
+      <c r="G205" s="23" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="206" ht="144" spans="2:7">
-      <c r="B206" s="11"/>
+      <c r="B206" s="12">
+        <v>14</v>
+      </c>
       <c r="C206" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="D206" s="17" t="s">
+      <c r="D206" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="E206" s="23">
+      <c r="E206" s="22">
         <v>11.5</v>
       </c>
-      <c r="F206" s="23"/>
-      <c r="G206" s="24" t="s">
+      <c r="F206" s="22"/>
+      <c r="G206" s="23" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="207" ht="228" spans="2:7">
-      <c r="B207" s="11"/>
+      <c r="B207" s="12">
+        <v>15</v>
+      </c>
       <c r="C207" s="5"/>
-      <c r="D207" s="17" t="s">
+      <c r="D207" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="E207" s="23">
+      <c r="E207" s="22">
         <v>11.5</v>
       </c>
-      <c r="F207" s="23"/>
-      <c r="G207" s="24" t="s">
+      <c r="F207" s="22"/>
+      <c r="G207" s="23" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="208" ht="168" spans="2:7">
-      <c r="B208" s="11"/>
+      <c r="B208" s="12">
+        <v>16</v>
+      </c>
       <c r="C208" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="D208" s="17" t="s">
+      <c r="D208" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="E208" s="23">
+      <c r="E208" s="22">
         <v>11.5</v>
       </c>
-      <c r="F208" s="23"/>
-      <c r="G208" s="24" t="s">
+      <c r="F208" s="22"/>
+      <c r="G208" s="23" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="209" ht="132" spans="2:7">
-      <c r="B209" s="11"/>
-      <c r="C209" s="37" t="s">
+      <c r="B209" s="12">
+        <v>17</v>
+      </c>
+      <c r="C209" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="D209" s="17" t="s">
+      <c r="D209" s="14" t="s">
         <v>440</v>
       </c>
-      <c r="E209" s="23">
+      <c r="E209" s="22">
         <v>11.5</v>
       </c>
-      <c r="F209" s="23"/>
-      <c r="G209" s="24" t="s">
+      <c r="F209" s="22"/>
+      <c r="G209" s="23" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="210" spans="2:7">
-      <c r="B210" s="11"/>
-      <c r="C210" s="38"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="23"/>
-      <c r="F210" s="23"/>
-      <c r="G210" s="24"/>
-    </row>
-    <row r="211" spans="2:7">
-      <c r="B211" s="11"/>
-      <c r="C211" s="38"/>
-      <c r="D211" s="17"/>
-      <c r="E211" s="23"/>
-      <c r="F211" s="23"/>
-      <c r="G211" s="24"/>
+    <row r="210" ht="288" spans="2:7">
+      <c r="B210" s="12">
+        <v>18</v>
+      </c>
+      <c r="C210" s="40"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="22">
+        <v>11.7</v>
+      </c>
+      <c r="F210" s="22"/>
+      <c r="G210" s="23" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="211" ht="48" spans="2:7">
+      <c r="B211" s="12">
+        <v>19</v>
+      </c>
+      <c r="C211" s="40"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="22"/>
+      <c r="F211" s="22"/>
+      <c r="G211" s="23" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="11"/>
-      <c r="C212" s="38"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="23"/>
-      <c r="F212" s="23"/>
-      <c r="G212" s="24"/>
+      <c r="B212" s="12">
+        <v>20</v>
+      </c>
+      <c r="C212" s="40"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="22"/>
+      <c r="F212" s="22"/>
+      <c r="G212" s="23" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="11"/>
-      <c r="C213" s="38"/>
-      <c r="D213" s="17"/>
-      <c r="E213" s="23"/>
-      <c r="F213" s="23"/>
-      <c r="G213" s="24"/>
+      <c r="B213" s="12">
+        <v>21</v>
+      </c>
+      <c r="C213" s="40"/>
+      <c r="D213" s="14"/>
+      <c r="E213" s="22"/>
+      <c r="F213" s="22"/>
+      <c r="G213" s="23" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="11"/>
-      <c r="C214" s="39"/>
-      <c r="D214" s="17"/>
-      <c r="E214" s="23"/>
-      <c r="F214" s="23"/>
-      <c r="G214" s="24"/>
+      <c r="B214" s="12">
+        <v>22</v>
+      </c>
+      <c r="C214" s="41"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="22"/>
+      <c r="F214" s="22"/>
+      <c r="G214" s="23" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="215" spans="2:7">
-      <c r="B215" s="11"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="23"/>
-      <c r="F215" s="23"/>
-      <c r="G215" s="24"/>
-    </row>
-    <row r="216" ht="260.25" customHeight="1" spans="2:7">
-      <c r="B216" s="40" t="s">
-        <v>442</v>
-      </c>
-      <c r="C216" s="41"/>
-      <c r="D216" s="42"/>
-      <c r="E216" s="44"/>
-      <c r="F216" s="44"/>
-      <c r="G216" s="44"/>
-    </row>
-    <row r="217" spans="2:7">
-      <c r="B217" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="C217" s="15"/>
-      <c r="D217" s="20"/>
-      <c r="E217" s="20"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="16"/>
-    </row>
-    <row r="218" ht="409.5" spans="3:7">
-      <c r="C218" s="12"/>
-      <c r="D218" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="E218" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="F218" s="33"/>
-      <c r="G218" s="24" t="s">
-        <v>446</v>
-      </c>
+      <c r="B215" s="12">
+        <v>23</v>
+      </c>
+      <c r="C215" s="13"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="22"/>
+      <c r="F215" s="22"/>
+      <c r="G215" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" s="12">
+        <v>24</v>
+      </c>
+      <c r="C216" s="13"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="22"/>
+      <c r="F216" s="22"/>
+      <c r="G216" s="23" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="217" ht="260.25" customHeight="1" spans="2:7">
+      <c r="B217" s="42" t="s">
+        <v>449</v>
+      </c>
+      <c r="C217" s="43"/>
+      <c r="D217" s="44"/>
+      <c r="E217" s="47"/>
+      <c r="F217" s="47"/>
+      <c r="G217" s="47"/>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" s="45" t="s">
+        <v>450</v>
+      </c>
+      <c r="C218" s="16"/>
+      <c r="D218" s="20"/>
+      <c r="E218" s="20"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="17"/>
     </row>
     <row r="219" ht="409.5" spans="3:7">
-      <c r="C219" s="12"/>
-      <c r="D219" s="13"/>
-      <c r="E219" s="12"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="E219" s="13" t="s">
+        <v>452</v>
+      </c>
       <c r="F219" s="35"/>
-      <c r="G219" s="24" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="221" ht="192" spans="3:3">
-      <c r="C221" s="5" t="s">
-        <v>448</v>
+      <c r="G219" s="23" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="220" ht="409.5" spans="3:7">
+      <c r="C220" s="13"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="37"/>
+      <c r="G220" s="23" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="221" ht="409.5" spans="4:7">
+      <c r="D221" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E221" s="48">
+        <v>11.7</v>
+      </c>
+      <c r="F221" s="48"/>
+      <c r="G221" s="49" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="222" spans="4:7">
+      <c r="D222" s="5"/>
+      <c r="E222" s="48"/>
+      <c r="F222" s="48"/>
+      <c r="G222" s="49"/>
+    </row>
+    <row r="223" spans="4:7">
+      <c r="D223" s="5"/>
+      <c r="E223" s="48"/>
+      <c r="F223" s="48"/>
+      <c r="G223" s="49"/>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" s="46"/>
+    </row>
+    <row r="225" ht="192" spans="3:3">
+      <c r="C225" s="5" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -7911,8 +8136,8 @@
     <mergeCell ref="B185:G185"/>
     <mergeCell ref="B191:G191"/>
     <mergeCell ref="B192:G192"/>
-    <mergeCell ref="B216:G216"/>
     <mergeCell ref="B217:G217"/>
+    <mergeCell ref="B218:G218"/>
     <mergeCell ref="C4:C8"/>
     <mergeCell ref="C75:C77"/>
     <mergeCell ref="C78:C80"/>
@@ -7930,11 +8155,11 @@
     <mergeCell ref="C203:C205"/>
     <mergeCell ref="C206:C207"/>
     <mergeCell ref="C209:C214"/>
-    <mergeCell ref="C218:C219"/>
-    <mergeCell ref="D218:D219"/>
-    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="D219:D220"/>
+    <mergeCell ref="E219:E220"/>
     <mergeCell ref="F186:F190"/>
-    <mergeCell ref="F218:F219"/>
+    <mergeCell ref="F219:F220"/>
     <mergeCell ref="G4:G8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7962,7 +8187,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7970,24 +8195,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8012,10 +8237,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8023,7 +8248,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8031,7 +8256,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8039,7 +8264,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="471">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2623,6 +2623,9 @@
   </si>
   <si>
     <t>494. 目标和</t>
+  </si>
+  <si>
+    <t>474. 一和零</t>
   </si>
   <si>
     <t>总结:
@@ -4580,10 +4583,10 @@
   <sheetPr/>
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G221" sqref="G221"/>
+      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -7467,8 +7470,12 @@
     </row>
     <row r="175" spans="2:7">
       <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="14"/>
+      <c r="C175" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>388</v>
+      </c>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
       <c r="G175" s="23"/>
@@ -7539,7 +7546,7 @@
     </row>
     <row r="184" ht="90" customHeight="1" spans="2:7">
       <c r="B184" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C184" s="13"/>
       <c r="D184" s="19"/>
@@ -7549,7 +7556,7 @@
     </row>
     <row r="185" spans="2:7">
       <c r="B185" s="15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C185" s="16"/>
       <c r="D185" s="20"/>
@@ -7562,17 +7569,17 @@
         <v>1</v>
       </c>
       <c r="C186" s="13" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F186" s="35"/>
       <c r="G186" s="23" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="187" ht="72" spans="2:7">
@@ -7580,17 +7587,17 @@
         <v>2</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E187" s="22">
         <v>10.12</v>
       </c>
       <c r="F187" s="36"/>
       <c r="G187" s="23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="188" ht="60" spans="2:7">
@@ -7598,17 +7605,17 @@
         <v>3</v>
       </c>
       <c r="C188" s="13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E188" s="22">
         <v>10.12</v>
       </c>
       <c r="F188" s="36"/>
       <c r="G188" s="23" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="189" ht="36" spans="2:7">
@@ -7616,17 +7623,17 @@
         <v>4</v>
       </c>
       <c r="C189" s="13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E189" s="22">
         <v>10.21</v>
       </c>
       <c r="F189" s="36"/>
       <c r="G189" s="23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="190" ht="36" spans="2:7">
@@ -7634,17 +7641,17 @@
         <v>5</v>
       </c>
       <c r="C190" s="13" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E190" s="22">
         <v>10.22</v>
       </c>
       <c r="F190" s="37"/>
       <c r="G190" s="23" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="191" spans="2:7">
@@ -7657,7 +7664,7 @@
     </row>
     <row r="192" spans="2:7">
       <c r="B192" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C192" s="16"/>
       <c r="D192" s="20"/>
@@ -7670,17 +7677,17 @@
         <v>1</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E193" s="23" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="23" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="194" ht="409.5" spans="2:7">
@@ -7689,14 +7696,14 @@
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="14" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F194" s="22"/>
       <c r="G194" s="23" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="195" ht="60" spans="2:7">
@@ -7705,14 +7712,14 @@
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E195" s="22">
         <v>11.2</v>
       </c>
       <c r="F195" s="22"/>
       <c r="G195" s="23" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="196" ht="24" spans="2:7">
@@ -7721,14 +7728,14 @@
       </c>
       <c r="C196" s="5"/>
       <c r="D196" s="14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E196" s="22">
         <v>11.2</v>
       </c>
       <c r="F196" s="22"/>
       <c r="G196" s="23" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="197" ht="24" spans="2:7">
@@ -7737,14 +7744,14 @@
       </c>
       <c r="C197" s="5"/>
       <c r="D197" s="14" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E197" s="22">
         <v>11.2</v>
       </c>
       <c r="F197" s="22"/>
       <c r="G197" s="23" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="198" ht="36" spans="2:7">
@@ -7753,14 +7760,14 @@
       </c>
       <c r="C198" s="5"/>
       <c r="D198" s="14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E198" s="22">
         <v>11.3</v>
       </c>
       <c r="F198" s="22"/>
       <c r="G198" s="23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="199" ht="60" spans="2:7">
@@ -7769,14 +7776,14 @@
       </c>
       <c r="C199" s="5"/>
       <c r="D199" s="14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E199" s="22">
         <v>11.3</v>
       </c>
       <c r="F199" s="22"/>
       <c r="G199" s="23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="200" ht="108" spans="2:7">
@@ -7785,14 +7792,14 @@
       </c>
       <c r="C200" s="5"/>
       <c r="D200" s="14" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E200" s="22">
         <v>11.4</v>
       </c>
       <c r="F200" s="22"/>
       <c r="G200" s="23" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="201" ht="36" spans="2:7">
@@ -7801,14 +7808,14 @@
       </c>
       <c r="C201" s="5"/>
       <c r="D201" s="14" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E201" s="22">
         <v>11.4</v>
       </c>
       <c r="F201" s="22"/>
       <c r="G201" s="23" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="202" ht="24" spans="2:7">
@@ -7817,14 +7824,14 @@
       </c>
       <c r="C202" s="5"/>
       <c r="D202" s="14" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E202" s="22">
         <v>11.4</v>
       </c>
       <c r="F202" s="22"/>
       <c r="G202" s="23" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="203" ht="409.5" spans="2:7">
@@ -7832,17 +7839,17 @@
         <v>11</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E203" s="22">
         <v>11.4</v>
       </c>
       <c r="F203" s="22"/>
       <c r="G203" s="23" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="204" ht="24" spans="2:7">
@@ -7851,14 +7858,14 @@
       </c>
       <c r="C204" s="5"/>
       <c r="D204" s="14" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E204" s="22">
         <v>11.4</v>
       </c>
       <c r="F204" s="22"/>
       <c r="G204" s="23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="205" ht="108" spans="2:7">
@@ -7867,14 +7874,14 @@
       </c>
       <c r="C205" s="5"/>
       <c r="D205" s="14" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E205" s="22">
         <v>11.4</v>
       </c>
       <c r="F205" s="22"/>
       <c r="G205" s="23" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="206" ht="144" spans="2:7">
@@ -7882,17 +7889,17 @@
         <v>14</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E206" s="22">
         <v>11.5</v>
       </c>
       <c r="F206" s="22"/>
       <c r="G206" s="23" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="207" ht="228" spans="2:7">
@@ -7901,14 +7908,14 @@
       </c>
       <c r="C207" s="5"/>
       <c r="D207" s="14" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E207" s="22">
         <v>11.5</v>
       </c>
       <c r="F207" s="22"/>
       <c r="G207" s="23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="208" ht="168" spans="2:7">
@@ -7916,17 +7923,17 @@
         <v>16</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E208" s="22">
         <v>11.5</v>
       </c>
       <c r="F208" s="22"/>
       <c r="G208" s="23" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="209" ht="132" spans="2:7">
@@ -7934,17 +7941,17 @@
         <v>17</v>
       </c>
       <c r="C209" s="39" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E209" s="22">
         <v>11.5</v>
       </c>
       <c r="F209" s="22"/>
       <c r="G209" s="23" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" ht="288" spans="2:7">
@@ -7958,7 +7965,7 @@
       </c>
       <c r="F210" s="22"/>
       <c r="G210" s="23" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="211" ht="48" spans="2:7">
@@ -7970,7 +7977,7 @@
       <c r="E211" s="22"/>
       <c r="F211" s="22"/>
       <c r="G211" s="23" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="212" spans="2:7">
@@ -7982,7 +7989,7 @@
       <c r="E212" s="22"/>
       <c r="F212" s="22"/>
       <c r="G212" s="23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="213" spans="2:7">
@@ -7994,7 +8001,7 @@
       <c r="E213" s="22"/>
       <c r="F213" s="22"/>
       <c r="G213" s="23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="214" spans="2:7">
@@ -8006,7 +8013,7 @@
       <c r="E214" s="22"/>
       <c r="F214" s="22"/>
       <c r="G214" s="23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="215" spans="2:7">
@@ -8018,7 +8025,7 @@
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
       <c r="G215" s="23" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="216" spans="2:7">
@@ -8030,12 +8037,12 @@
       <c r="E216" s="22"/>
       <c r="F216" s="22"/>
       <c r="G216" s="23" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="217" ht="260.25" customHeight="1" spans="2:7">
       <c r="B217" s="42" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C217" s="43"/>
       <c r="D217" s="44"/>
@@ -8045,7 +8052,7 @@
     </row>
     <row r="218" spans="2:7">
       <c r="B218" s="45" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C218" s="16"/>
       <c r="D218" s="20"/>
@@ -8056,14 +8063,14 @@
     <row r="219" ht="409.5" spans="3:7">
       <c r="C219" s="13"/>
       <c r="D219" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F219" s="35"/>
       <c r="G219" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" ht="409.5" spans="3:7">
@@ -8072,19 +8079,19 @@
       <c r="E220" s="13"/>
       <c r="F220" s="37"/>
       <c r="G220" s="23" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="221" ht="409.5" spans="4:7">
       <c r="D221" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E221" s="48">
         <v>11.7</v>
       </c>
       <c r="F221" s="48"/>
       <c r="G221" s="49" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="222" spans="4:7">
@@ -8104,7 +8111,7 @@
     </row>
     <row r="225" ht="192" spans="3:3">
       <c r="C225" s="5" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -8187,7 +8194,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8195,24 +8202,24 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -8237,10 +8244,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8248,7 +8255,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8256,7 +8263,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8264,7 +8271,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>

--- a/leetcode路线.xlsx
+++ b/leetcode路线.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="472">
   <si>
     <t>从10.21日开始保持每天3个题,还剩73题,写24天,11月12日可刷完leetcode第一遍
 慢慢做,不要慌,每个题都要搞懂,不要水,静下心来</t>
@@ -2625,6 +2625,10 @@
     <t>494. 目标和</t>
   </si>
   <si>
+    <t>js:
+这个题的讲解写得就像一坨...解析的思想难看懂,想半天想不通...卡了很久..</t>
+  </si>
+  <si>
     <t>474. 一和零</t>
   </si>
   <si>
@@ -3368,12 +3372,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -3417,7 +3421,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3430,16 +3456,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3453,8 +3509,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3462,7 +3526,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3477,41 +3541,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3525,36 +3558,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3593,7 +3597,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3605,7 +3621,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3617,49 +3717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3671,49 +3729,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3725,7 +3753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3737,31 +3765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3864,30 +3868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3897,37 +3877,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3961,157 +3915,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4151,9 +4155,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4229,15 +4230,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4250,17 +4242,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4583,10 +4566,10 @@
   <sheetPr/>
   <dimension ref="A1:G225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D175" sqref="D175"/>
+      <selection pane="bottomLeft" activeCell="G174" sqref="G174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12444444444444" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -4613,49 +4596,49 @@
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" ht="36" spans="2:7">
       <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="21">
         <v>6.21</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4663,83 +4646,79 @@
       <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>6.24</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" ht="36" spans="2:7">
       <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>6.24</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" ht="36" spans="2:7">
       <c r="B7" s="12">
         <v>4</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>6.29</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="13"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="23">
         <v>6.3</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" s="4" customFormat="1" ht="48" spans="2:7">
       <c r="B9" s="12">
         <v>6</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>7.24</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4747,19 +4726,19 @@
       <c r="B10" s="12">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>7.25</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4767,19 +4746,19 @@
       <c r="B11" s="12">
         <v>8</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4787,19 +4766,19 @@
       <c r="B12" s="12">
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <v>7.27</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="22" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4807,59 +4786,56 @@
       <c r="B13" s="12">
         <v>10</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="12">
         <v>11</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" ht="54.95" customHeight="1" spans="2:7">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="12"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="23" t="s">
+      <c r="F17" s="21"/>
+      <c r="G17" s="22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4867,19 +4843,19 @@
       <c r="B18" s="12">
         <v>1</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4887,19 +4863,19 @@
       <c r="B19" s="12">
         <v>2</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <v>7.31</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="23" t="s">
+      <c r="G19" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4907,19 +4883,19 @@
       <c r="B20" s="12">
         <v>3</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="22" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4927,19 +4903,19 @@
       <c r="B21" s="12">
         <v>4</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="21">
         <v>8.2</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="23" t="s">
+      <c r="G21" s="22" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4947,19 +4923,19 @@
       <c r="B22" s="12">
         <v>5</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="21">
         <v>8.2</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="27" t="s">
+      <c r="G22" s="26" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4967,19 +4943,19 @@
       <c r="B23" s="12">
         <v>6</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>8.3</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="22" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4987,59 +4963,58 @@
       <c r="B24" s="12">
         <v>7</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>8.3</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="26" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" ht="92.1" customHeight="1" spans="2:7">
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="29"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="28"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="17"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" ht="155.25" spans="2:7">
       <c r="B27" s="12">
         <v>1</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="22" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5047,19 +5022,19 @@
       <c r="B28" s="12">
         <v>2</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="22" t="s">
         <v>82</v>
       </c>
     </row>
@@ -5067,19 +5042,19 @@
       <c r="B29" s="12">
         <v>3</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>8.9</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="22" t="s">
         <v>86</v>
       </c>
     </row>
@@ -5087,19 +5062,19 @@
       <c r="B30" s="12">
         <v>4</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="22" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5107,19 +5082,19 @@
       <c r="B31" s="12">
         <v>5</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <v>8.1</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="22" t="s">
         <v>95</v>
       </c>
     </row>
@@ -5127,19 +5102,19 @@
       <c r="B32" s="12">
         <v>6</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <v>8.1</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="22" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5147,19 +5122,19 @@
       <c r="B33" s="12">
         <v>7</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="22" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5167,57 +5142,55 @@
       <c r="B34" s="12">
         <v>8</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D34" s="14" t="s">
+      <c r="D34" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <v>8.12</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="22" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" ht="263.1" customHeight="1" spans="2:7">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="17"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" ht="96" spans="2:7">
       <c r="B37" s="12">
         <v>1</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14" t="s">
+      <c r="D37" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="21">
         <v>8.5</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="22" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5225,17 +5198,16 @@
       <c r="B38" s="12">
         <v>2</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="22" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5243,17 +5215,16 @@
       <c r="B39" s="12">
         <v>3</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="21">
         <v>8.5</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="G39" s="23" t="s">
+      <c r="G39" s="22" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5261,17 +5232,16 @@
       <c r="B40" s="12">
         <v>4</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="21">
         <v>8.6</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="23" t="s">
+      <c r="G40" s="22" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5279,17 +5249,16 @@
       <c r="B41" s="12">
         <v>5</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="22" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5297,57 +5266,56 @@
       <c r="B42" s="12">
         <v>6</v>
       </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="21">
         <v>8.8</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="22" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="155.1" customHeight="1" spans="2:7">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="13"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="25"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="17"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" ht="36" spans="2:7">
       <c r="B45" s="12">
         <v>1</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="21">
         <v>8.12</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="22" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5355,19 +5323,19 @@
       <c r="B46" s="12">
         <v>2</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="22" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5375,19 +5343,19 @@
       <c r="B47" s="12">
         <v>3</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="14" t="s">
+      <c r="D47" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="21">
         <v>8.13</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="22" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5395,19 +5363,19 @@
       <c r="B48" s="12">
         <v>4</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="21">
         <v>8.14</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="22" t="s">
         <v>148</v>
       </c>
     </row>
@@ -5415,19 +5383,19 @@
       <c r="B49" s="12">
         <v>5</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="14" t="s">
+      <c r="D49" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E49" s="22">
+      <c r="E49" s="21">
         <v>8.14</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="23" t="s">
+      <c r="G49" s="22" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5435,65 +5403,63 @@
       <c r="B50" s="12">
         <v>6</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="5" t="s">
         <v>153</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="21">
         <v>8.14</v>
       </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="2:7">
       <c r="B51" s="12">
         <v>7</v>
       </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" ht="159" customHeight="1" spans="2:7">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="13"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="25"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="17"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" ht="60" spans="2:7">
       <c r="B54" s="12">
         <v>1</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="21">
         <v>8.18</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="F54" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="G54" s="23" t="s">
+      <c r="G54" s="22" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5501,17 +5467,17 @@
       <c r="B55" s="12">
         <v>2</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="E55" s="22">
+      <c r="E55" s="21">
         <v>8.18</v>
       </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23" t="s">
+      <c r="F55" s="21"/>
+      <c r="G55" s="22" t="s">
         <v>160</v>
       </c>
     </row>
@@ -5519,17 +5485,17 @@
       <c r="B56" s="12">
         <v>3</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="21">
         <v>8.18</v>
       </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23" t="s">
+      <c r="F56" s="21"/>
+      <c r="G56" s="22" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5537,17 +5503,17 @@
       <c r="B57" s="12">
         <v>4</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="E57" s="22">
+      <c r="E57" s="21">
         <v>8.18</v>
       </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23" t="s">
+      <c r="F57" s="21"/>
+      <c r="G57" s="22" t="s">
         <v>164</v>
       </c>
     </row>
@@ -5555,17 +5521,17 @@
       <c r="B58" s="12">
         <v>5</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="21">
         <v>8.18</v>
       </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="23" t="s">
+      <c r="F58" s="21"/>
+      <c r="G58" s="22" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5573,61 +5539,61 @@
       <c r="B59" s="12">
         <v>6</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="21">
         <v>8.18</v>
       </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="23"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" spans="2:7">
       <c r="B60" s="12">
         <v>7</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="23"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="2:7">
       <c r="B61" s="12">
         <v>8</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="23"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" ht="24" spans="2:7">
       <c r="B62" s="12">
         <v>9</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="D62" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E62" s="21">
         <v>8.18</v>
       </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="23" t="s">
+      <c r="F62" s="21"/>
+      <c r="G62" s="22" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5635,55 +5601,54 @@
       <c r="B63" s="12">
         <v>10</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E63" s="22">
+      <c r="E63" s="21">
         <v>8.18</v>
       </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="23" t="s">
+      <c r="F63" s="21"/>
+      <c r="G63" s="22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="17"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" ht="409.5" spans="2:7">
       <c r="B66" s="12">
         <v>1</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D66" s="14" t="s">
+      <c r="D66" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="21">
         <v>8.23</v>
       </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="23" t="s">
+      <c r="F66" s="21"/>
+      <c r="G66" s="22" t="s">
         <v>174</v>
       </c>
     </row>
@@ -5691,17 +5656,17 @@
       <c r="B67" s="12">
         <v>2</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="D67" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="E67" s="22">
+      <c r="E67" s="21">
         <v>8.23</v>
       </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="23" t="s">
+      <c r="F67" s="21"/>
+      <c r="G67" s="22" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5709,17 +5674,17 @@
       <c r="B68" s="12">
         <v>3</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E68" s="21">
         <v>8.23</v>
       </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="23" t="s">
+      <c r="F68" s="21"/>
+      <c r="G68" s="22" t="s">
         <v>180</v>
       </c>
     </row>
@@ -5727,17 +5692,17 @@
       <c r="B69" s="12">
         <v>4</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E69" s="22">
+      <c r="E69" s="21">
         <v>8.28</v>
       </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="23" t="s">
+      <c r="F69" s="21"/>
+      <c r="G69" s="22" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5745,17 +5710,17 @@
       <c r="B70" s="12">
         <v>5</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E70" s="21">
         <v>8.28</v>
       </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="23" t="s">
+      <c r="F70" s="21"/>
+      <c r="G70" s="22" t="s">
         <v>186</v>
       </c>
     </row>
@@ -5763,17 +5728,17 @@
       <c r="B71" s="12">
         <v>6</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="E71" s="22">
+      <c r="E71" s="21">
         <v>8.28</v>
       </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="23" t="s">
+      <c r="F71" s="21"/>
+      <c r="G71" s="22" t="s">
         <v>189</v>
       </c>
     </row>
@@ -5781,58 +5746,57 @@
       <c r="B72" s="12">
         <v>7</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E72" s="21">
         <v>8.28</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="F72" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="G72" s="23" t="s">
+      <c r="G72" s="22" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="73" ht="257.1" customHeight="1" spans="1:7">
-      <c r="A73" s="23"/>
-      <c r="B73" s="18" t="s">
+      <c r="A73" s="22"/>
+      <c r="B73" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="25"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="15" t="s">
+      <c r="B74" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="17"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="16"/>
     </row>
     <row r="75" ht="120" spans="2:7">
       <c r="B75" s="12">
         <v>1</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E75" s="22">
+      <c r="E75" s="21">
         <v>8.29</v>
       </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23" t="s">
+      <c r="F75" s="21"/>
+      <c r="G75" s="22" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5840,15 +5804,14 @@
       <c r="B76" s="12">
         <v>2</v>
       </c>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E76" s="21">
         <v>8.29</v>
       </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23" t="s">
+      <c r="F76" s="21"/>
+      <c r="G76" s="22" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5856,103 +5819,98 @@
       <c r="B77" s="12">
         <v>3</v>
       </c>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E77" s="21">
         <v>8.29</v>
       </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="23" t="s">
+      <c r="F77" s="21"/>
+      <c r="G77" s="22" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="78" ht="48" spans="2:7">
       <c r="B78" s="12"/>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E78" s="22">
+      <c r="E78" s="21">
         <v>8.29</v>
       </c>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23" t="s">
+      <c r="F78" s="21"/>
+      <c r="G78" s="22" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="79" ht="36" spans="2:7">
       <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E79" s="22">
+      <c r="E79" s="21">
         <v>8.31</v>
       </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23" t="s">
+      <c r="F79" s="21"/>
+      <c r="G79" s="22" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="80" ht="36" spans="2:7">
       <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14" t="s">
+      <c r="D80" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E80" s="21">
         <v>8.31</v>
       </c>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23" t="s">
+      <c r="F80" s="21"/>
+      <c r="G80" s="22" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="81" ht="48" spans="2:7">
       <c r="B81" s="12"/>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D81" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="E81" s="22">
+      <c r="E81" s="21">
         <v>8.31</v>
       </c>
-      <c r="F81" s="22"/>
-      <c r="G81" s="23" t="s">
+      <c r="F81" s="21"/>
+      <c r="G81" s="22" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="82" ht="24" spans="2:7">
       <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E82" s="22">
+      <c r="E82" s="21">
         <v>8.31</v>
       </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23" t="s">
+      <c r="F82" s="21"/>
+      <c r="G82" s="22" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="83" ht="36" spans="2:7">
       <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14" t="s">
+      <c r="D83" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="22">
+      <c r="E83" s="21">
         <v>8.31</v>
       </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23" t="s">
+      <c r="F83" s="21"/>
+      <c r="G83" s="22" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5960,17 +5918,17 @@
       <c r="B84" s="12">
         <v>4</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D84" s="14" t="s">
+      <c r="D84" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="E84" s="22">
+      <c r="E84" s="21">
         <v>8.31</v>
       </c>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23" t="s">
+      <c r="F84" s="21"/>
+      <c r="G84" s="22" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5978,15 +5936,14 @@
       <c r="B85" s="12">
         <v>5</v>
       </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="E85" s="22">
+      <c r="E85" s="21">
         <v>8.31</v>
       </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23" t="s">
+      <c r="F85" s="21"/>
+      <c r="G85" s="22" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5994,15 +5951,14 @@
       <c r="B86" s="12">
         <v>6</v>
       </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14" t="s">
+      <c r="D86" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="E86" s="22">
+      <c r="E86" s="21">
         <v>8.31</v>
       </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23" t="s">
+      <c r="F86" s="21"/>
+      <c r="G86" s="22" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6010,15 +5966,14 @@
       <c r="B87" s="12">
         <v>7</v>
       </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14" t="s">
+      <c r="D87" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="21">
         <v>8.31</v>
       </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="23" t="s">
+      <c r="F87" s="21"/>
+      <c r="G87" s="22" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6026,15 +5981,14 @@
       <c r="B88" s="12">
         <v>8</v>
       </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14" t="s">
+      <c r="D88" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E88" s="22">
+      <c r="E88" s="21">
         <v>8.31</v>
       </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="23" t="s">
+      <c r="F88" s="21"/>
+      <c r="G88" s="22" t="s">
         <v>220</v>
       </c>
     </row>
@@ -6042,15 +5996,14 @@
       <c r="B89" s="12">
         <v>9</v>
       </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14" t="s">
+      <c r="D89" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E89" s="22">
+      <c r="E89" s="21">
         <v>8.31</v>
       </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="23" t="s">
+      <c r="F89" s="21"/>
+      <c r="G89" s="22" t="s">
         <v>222</v>
       </c>
     </row>
@@ -6058,15 +6011,14 @@
       <c r="B90" s="12">
         <v>10</v>
       </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14" t="s">
+      <c r="D90" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="E90" s="22">
+      <c r="E90" s="21">
         <v>8.31</v>
       </c>
-      <c r="F90" s="22"/>
-      <c r="G90" s="23" t="s">
+      <c r="F90" s="21"/>
+      <c r="G90" s="22" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6074,15 +6026,14 @@
       <c r="B91" s="12">
         <v>11</v>
       </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14" t="s">
+      <c r="D91" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="E91" s="22">
+      <c r="E91" s="21">
         <v>8.31</v>
       </c>
-      <c r="F91" s="22"/>
-      <c r="G91" s="23" t="s">
+      <c r="F91" s="21"/>
+      <c r="G91" s="22" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6090,15 +6041,14 @@
       <c r="B92" s="12">
         <v>12</v>
       </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E92" s="22">
+      <c r="E92" s="21">
         <v>9.1</v>
       </c>
-      <c r="F92" s="22"/>
-      <c r="G92" s="23" t="s">
+      <c r="F92" s="21"/>
+      <c r="G92" s="22" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6106,15 +6056,14 @@
       <c r="B93" s="12">
         <v>13</v>
       </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14" t="s">
+      <c r="D93" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E93" s="22">
+      <c r="E93" s="21">
         <v>9.1</v>
       </c>
-      <c r="F93" s="22"/>
-      <c r="G93" s="23" t="s">
+      <c r="F93" s="21"/>
+      <c r="G93" s="22" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6122,17 +6071,17 @@
       <c r="B94" s="12">
         <v>14</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D94" s="14" t="s">
+      <c r="D94" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E94" s="21">
         <v>9.1</v>
       </c>
-      <c r="F94" s="22"/>
-      <c r="G94" s="23" t="s">
+      <c r="F94" s="21"/>
+      <c r="G94" s="22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6140,19 +6089,19 @@
       <c r="B95" s="12">
         <v>15</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="E95" s="22">
+      <c r="E95" s="21">
         <v>9.1</v>
       </c>
-      <c r="F95" s="22" t="s">
+      <c r="F95" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="G95" s="23" t="s">
+      <c r="G95" s="22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6160,33 +6109,32 @@
       <c r="B96" s="12">
         <v>16</v>
       </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14" t="s">
+      <c r="D96" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="E96" s="22">
+      <c r="E96" s="21">
         <v>9.3</v>
       </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="23" t="s">
+      <c r="F96" s="21"/>
+      <c r="G96" s="22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="97" ht="24" spans="2:7">
       <c r="B97" s="12"/>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="E97" s="22">
+      <c r="E97" s="21">
         <v>9.2</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="F97" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="G97" s="23" t="s">
+      <c r="G97" s="22" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6194,33 +6142,32 @@
       <c r="B98" s="12">
         <v>17</v>
       </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E98" s="22">
+      <c r="E98" s="21">
         <v>9.2</v>
       </c>
-      <c r="F98" s="22"/>
-      <c r="G98" s="23" t="s">
+      <c r="F98" s="21"/>
+      <c r="G98" s="22" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="99" ht="60" spans="2:7">
       <c r="B99" s="12"/>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E99" s="22">
+      <c r="E99" s="21">
         <v>9.2</v>
       </c>
-      <c r="F99" s="22" t="s">
+      <c r="F99" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="G99" s="23" t="s">
+      <c r="G99" s="22" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6228,19 +6175,19 @@
       <c r="B100" s="12">
         <v>18</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D100" s="14" t="s">
+ 